--- a/data-raw/functionsTracker_20230710.xlsx
+++ b/data-raw/functionsTracker_20230710.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$KL$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$KM$60</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="463">
   <si>
     <t>function</t>
   </si>
@@ -1411,6 +1411,12 @@
   <si>
     <t>*grid / *base / ggplot2</t>
   </si>
+  <si>
+    <t>vctrs</t>
+  </si>
+  <si>
+    <t>list_drop_empty</t>
+  </si>
 </sst>
 </file>
 
@@ -1762,13 +1768,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KN60"/>
+  <dimension ref="A1:KO60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="EH34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="GX4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HT2" sqref="HT2"/>
+      <selection pane="bottomRight" activeCell="HG4" sqref="HG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1982,91 +1988,92 @@
     <col min="212" max="212" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="213" max="213" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="214" max="214" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="6.36328125" customWidth="1"/>
-    <col min="220" max="220" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="6.6328125" customWidth="1"/>
-    <col min="226" max="226" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="6.6328125" customWidth="1"/>
-    <col min="230" max="230" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="233" max="234" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="10" customWidth="1"/>
-    <col min="246" max="246" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="18.54296875" customWidth="1"/>
-    <col min="260" max="260" width="16.453125" customWidth="1"/>
-    <col min="261" max="261" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="283" max="283" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="6.90625" customWidth="1"/>
-    <col min="286" max="286" width="6.6328125" customWidth="1"/>
-    <col min="287" max="287" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="291" max="291" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="295" max="295" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="296" max="296" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="297" max="297" width="6" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="6.36328125" customWidth="1"/>
+    <col min="221" max="221" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="6.6328125" customWidth="1"/>
+    <col min="227" max="227" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="6.6328125" customWidth="1"/>
+    <col min="231" max="231" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="234" max="235" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="10" customWidth="1"/>
+    <col min="247" max="247" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="18.54296875" customWidth="1"/>
+    <col min="261" max="261" width="16.453125" customWidth="1"/>
+    <col min="262" max="262" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="6.90625" customWidth="1"/>
+    <col min="287" max="287" width="6.6328125" customWidth="1"/>
+    <col min="288" max="288" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="296" max="296" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="297" max="297" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:298" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:299" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
@@ -2368,8 +2375,9 @@
       <c r="KJ1" s="7"/>
       <c r="KK1" s="7"/>
       <c r="KL1" s="7"/>
+      <c r="KM1" s="7"/>
     </row>
-    <row r="2" spans="1:298" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:299" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -2841,125 +2849,125 @@
       <c r="HF2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="HG2" s="4" t="s">
+      <c r="HG2" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="HH2" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="HH2" s="3" t="s">
+      <c r="HI2" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="HI2" s="4" t="s">
+      <c r="HJ2" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="HJ2" s="3" t="s">
+      <c r="HK2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="HK2" s="4" t="s">
+      <c r="HL2" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="HL2" s="3" t="s">
+      <c r="HM2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="HM2" s="4" t="s">
+      <c r="HN2" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="HN2" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="HO2" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="HP2" s="4" t="s">
+      <c r="HP2" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="HQ2" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="HQ2" s="4" t="s">
+      <c r="HR2" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="HR2" s="3" t="s">
+      <c r="HS2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="HS2" s="4" t="s">
+      <c r="HT2" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="HT2" s="4" t="s">
+      <c r="HU2" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="HU2" s="4" t="s">
+      <c r="HV2" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="HV2" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="HW2" s="3" t="s">
         <v>393</v>
       </c>
       <c r="HX2" s="3" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="HY2" s="3" t="s">
         <v>401</v>
       </c>
       <c r="HZ2" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="IA2" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="IA2" s="3" t="s">
+      <c r="IB2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="IB2" s="3" t="s">
+      <c r="IC2" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="IC2" s="4" t="s">
+      <c r="ID2" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="ID2" s="3" t="s">
+      <c r="IE2" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="IE2" s="4" t="s">
+      <c r="IF2" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="IF2" s="3" t="s">
+      <c r="IG2" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="IG2" s="4" t="s">
+      <c r="IH2" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="IH2" s="3" t="s">
+      <c r="II2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="II2" s="3" t="s">
+      <c r="IJ2" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="IJ2" s="3" t="s">
+      <c r="IK2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="IK2" s="3" t="s">
+      <c r="IL2" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="IL2" s="6" t="s">
+      <c r="IM2" s="6" t="s">
         <v>435</v>
-      </c>
-      <c r="IM2" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="IN2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="IO2" s="4" t="s">
+      <c r="IO2" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="IP2" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="IP2" s="3" t="s">
+      <c r="IQ2" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="IQ2" s="3" t="s">
+      <c r="IR2" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="IR2" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="IS2" s="3" t="s">
         <v>393</v>
       </c>
       <c r="IT2" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="IU2" s="3" t="s">
         <v>397</v>
@@ -2982,44 +2990,44 @@
       <c r="JA2" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="JB2" s="4" t="s">
+      <c r="JB2" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="JC2" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="JC2" s="3" t="s">
+      <c r="JD2" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="JD2" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="JE2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="JF2" s="4" t="s">
+      <c r="JF2" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="JG2" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="JG2" s="3" t="s">
+      <c r="JH2" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="JH2" s="3" t="s">
+      <c r="JI2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="JI2" s="6" t="s">
+      <c r="JJ2" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="JJ2" s="3" t="s">
+      <c r="JK2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="JK2" s="3" t="s">
+      <c r="JL2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="JL2" s="4" t="s">
+      <c r="JM2" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="JM2" s="3" t="s">
+      <c r="JN2" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="JN2" s="3" t="s">
-        <v>410</v>
       </c>
       <c r="JO2" s="3" t="s">
         <v>410</v>
@@ -3031,70 +3039,73 @@
         <v>410</v>
       </c>
       <c r="JR2" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="JS2" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="JS2" s="4" t="s">
+      <c r="JT2" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="JT2" s="3" t="s">
+      <c r="JU2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="JU2" s="4" t="s">
+      <c r="JV2" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="JV2" s="3" t="s">
+      <c r="JW2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="JW2" s="4" t="s">
+      <c r="JX2" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="JX2" s="3" t="s">
+      <c r="JY2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="JY2" s="4" t="s">
+      <c r="JZ2" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="JZ2" s="4" t="s">
+      <c r="KA2" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="KA2" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="KB2" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="KC2" s="4" t="s">
+      <c r="KC2" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="KD2" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="KD2" s="3" t="s">
+      <c r="KE2" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="KE2" s="4" t="s">
+      <c r="KF2" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="KF2" s="4" t="s">
+      <c r="KG2" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="KG2" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="KH2" s="3" t="s">
         <v>393</v>
       </c>
       <c r="KI2" s="3" t="s">
-        <v>69</v>
+        <v>393</v>
       </c>
       <c r="KJ2" s="3" t="s">
         <v>69</v>
       </c>
       <c r="KK2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="KL2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="KL2" s="6" t="s">
+      <c r="KM2" s="6" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="3" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>263</v>
       </c>
@@ -3738,259 +3749,262 @@
         <v>145</v>
       </c>
       <c r="HG3" t="s">
+        <v>462</v>
+      </c>
+      <c r="HH3" t="s">
         <v>129</v>
       </c>
-      <c r="HH3" t="s">
+      <c r="HI3" t="s">
         <v>276</v>
       </c>
-      <c r="HI3" t="s">
+      <c r="HJ3" t="s">
         <v>56</v>
       </c>
-      <c r="HJ3" t="s">
+      <c r="HK3" t="s">
         <v>383</v>
       </c>
-      <c r="HK3" t="s">
+      <c r="HL3" t="s">
         <v>75</v>
       </c>
-      <c r="HL3" t="s">
+      <c r="HM3" t="s">
         <v>152</v>
       </c>
-      <c r="HM3" t="s">
+      <c r="HN3" t="s">
         <v>8</v>
       </c>
-      <c r="HN3" s="5" t="s">
+      <c r="HO3" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="HO3" s="5" t="s">
+      <c r="HP3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="HP3" t="s">
+      <c r="HQ3" t="s">
         <v>52</v>
       </c>
-      <c r="HQ3" t="s">
+      <c r="HR3" t="s">
         <v>207</v>
       </c>
-      <c r="HR3" t="s">
+      <c r="HS3" t="s">
         <v>116</v>
       </c>
-      <c r="HS3" t="s">
+      <c r="HT3" t="s">
         <v>96</v>
       </c>
-      <c r="HT3" t="s">
+      <c r="HU3" t="s">
         <v>87</v>
       </c>
-      <c r="HU3" t="s">
+      <c r="HV3" t="s">
         <v>76</v>
       </c>
-      <c r="HV3" t="s">
+      <c r="HW3" t="s">
         <v>209</v>
       </c>
-      <c r="HW3" t="s">
+      <c r="HX3" t="s">
         <v>57</v>
       </c>
-      <c r="HX3" s="5" t="s">
+      <c r="HY3" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="HY3" s="5" t="s">
+      <c r="HZ3" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="HZ3" t="s">
+      <c r="IA3" t="s">
         <v>367</v>
       </c>
-      <c r="IA3" t="s">
+      <c r="IB3" t="s">
         <v>107</v>
       </c>
-      <c r="IB3" s="5" t="s">
+      <c r="IC3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="IC3" t="s">
+      <c r="ID3" t="s">
         <v>11</v>
       </c>
-      <c r="ID3" t="s">
+      <c r="IE3" t="s">
         <v>181</v>
       </c>
-      <c r="IE3" t="s">
+      <c r="IF3" t="s">
         <v>68</v>
       </c>
-      <c r="IF3" t="s">
+      <c r="IG3" t="s">
         <v>134</v>
       </c>
-      <c r="IG3" t="s">
+      <c r="IH3" t="s">
         <v>10</v>
       </c>
-      <c r="IH3" t="s">
+      <c r="II3" t="s">
         <v>283</v>
       </c>
-      <c r="II3" t="s">
+      <c r="IJ3" t="s">
         <v>303</v>
       </c>
-      <c r="IJ3" t="s">
+      <c r="IK3" t="s">
         <v>301</v>
       </c>
-      <c r="IK3" s="5" t="s">
+      <c r="IL3" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="IL3" t="s">
+      <c r="IM3" t="s">
         <v>180</v>
       </c>
-      <c r="IM3" t="s">
+      <c r="IN3" t="s">
         <v>326</v>
       </c>
-      <c r="IN3" t="s">
+      <c r="IO3" t="s">
         <v>195</v>
       </c>
-      <c r="IO3" t="s">
+      <c r="IP3" t="s">
         <v>94</v>
       </c>
-      <c r="IP3" t="s">
+      <c r="IQ3" t="s">
         <v>74</v>
       </c>
-      <c r="IQ3" s="5" t="s">
+      <c r="IR3" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="IR3" t="s">
+      <c r="IS3" t="s">
         <v>137</v>
       </c>
-      <c r="IS3" t="s">
+      <c r="IT3" t="s">
         <v>151</v>
       </c>
-      <c r="IT3" t="s">
+      <c r="IU3" t="s">
         <v>348</v>
       </c>
-      <c r="IU3" t="s">
+      <c r="IV3" t="s">
         <v>290</v>
       </c>
-      <c r="IV3" t="s">
+      <c r="IW3" t="s">
         <v>307</v>
       </c>
-      <c r="IW3" t="s">
+      <c r="IX3" t="s">
         <v>268</v>
       </c>
-      <c r="IX3" t="s">
+      <c r="IY3" t="s">
         <v>305</v>
       </c>
-      <c r="IY3" t="s">
+      <c r="IZ3" t="s">
         <v>350</v>
       </c>
-      <c r="IZ3" t="s">
+      <c r="JA3" t="s">
         <v>269</v>
       </c>
-      <c r="JA3" t="s">
+      <c r="JB3" t="s">
         <v>270</v>
       </c>
-      <c r="JB3" t="s">
+      <c r="JC3" t="s">
         <v>5</v>
       </c>
-      <c r="JC3" s="5" t="s">
+      <c r="JD3" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="JD3" t="s">
+      <c r="JE3" t="s">
         <v>353</v>
       </c>
-      <c r="JE3" t="s">
+      <c r="JF3" t="s">
         <v>292</v>
       </c>
-      <c r="JF3" t="s">
+      <c r="JG3" t="s">
         <v>17</v>
       </c>
-      <c r="JG3" t="s">
+      <c r="JH3" t="s">
         <v>121</v>
       </c>
-      <c r="JH3" t="s">
+      <c r="JI3" t="s">
         <v>222</v>
       </c>
-      <c r="JI3" t="s">
+      <c r="JJ3" t="s">
         <v>59</v>
       </c>
-      <c r="JJ3" t="s">
+      <c r="JK3" t="s">
         <v>95</v>
       </c>
-      <c r="JK3" t="s">
+      <c r="JL3" t="s">
         <v>334</v>
       </c>
-      <c r="JL3" t="s">
+      <c r="JM3" t="s">
         <v>325</v>
       </c>
-      <c r="JM3" t="s">
+      <c r="JN3" t="s">
         <v>144</v>
       </c>
-      <c r="JN3" t="s">
+      <c r="JO3" t="s">
         <v>388</v>
       </c>
-      <c r="JO3" t="s">
+      <c r="JP3" t="s">
         <v>53</v>
       </c>
-      <c r="JP3" t="s">
+      <c r="JQ3" t="s">
         <v>392</v>
       </c>
-      <c r="JQ3" t="s">
+      <c r="JR3" t="s">
         <v>296</v>
       </c>
-      <c r="JR3" t="s">
+      <c r="JS3" t="s">
         <v>135</v>
       </c>
-      <c r="JS3" t="s">
+      <c r="JT3" t="s">
         <v>287</v>
       </c>
-      <c r="JT3" t="s">
+      <c r="JU3" t="s">
         <v>100</v>
       </c>
-      <c r="JU3" t="s">
+      <c r="JV3" t="s">
         <v>349</v>
       </c>
-      <c r="JV3" t="s">
+      <c r="JW3" t="s">
         <v>346</v>
       </c>
-      <c r="JW3" t="s">
+      <c r="JX3" t="s">
         <v>63</v>
       </c>
-      <c r="JX3" t="s">
+      <c r="JY3" t="s">
         <v>205</v>
       </c>
-      <c r="JY3" t="s">
+      <c r="JZ3" t="s">
         <v>120</v>
       </c>
-      <c r="JZ3" t="s">
+      <c r="KA3" t="s">
         <v>12</v>
       </c>
-      <c r="KA3" t="s">
+      <c r="KB3" t="s">
         <v>273</v>
       </c>
-      <c r="KB3" t="s">
+      <c r="KC3" t="s">
         <v>272</v>
       </c>
-      <c r="KC3" t="s">
+      <c r="KD3" t="s">
         <v>208</v>
       </c>
-      <c r="KD3" s="5" t="s">
+      <c r="KE3" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="KE3" t="s">
+      <c r="KF3" t="s">
         <v>6</v>
       </c>
-      <c r="KF3" t="s">
+      <c r="KG3" t="s">
         <v>277</v>
       </c>
-      <c r="KG3" t="s">
+      <c r="KH3" t="s">
         <v>80</v>
       </c>
-      <c r="KH3" t="s">
+      <c r="KI3" t="s">
         <v>206</v>
       </c>
-      <c r="KI3" t="s">
+      <c r="KJ3" t="s">
         <v>92</v>
       </c>
-      <c r="KJ3" t="s">
+      <c r="KK3" t="s">
         <v>70</v>
       </c>
-      <c r="KK3" t="s">
+      <c r="KL3" t="s">
         <v>77</v>
       </c>
-      <c r="KL3" t="s">
+      <c r="KM3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>371</v>
       </c>
@@ -4652,16 +4666,16 @@
         <v>0</v>
       </c>
       <c r="HM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HP4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
         <v>0</v>
@@ -4697,13 +4711,13 @@
         <v>0</v>
       </c>
       <c r="IB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC4">
         <v>1</v>
       </c>
       <c r="ID4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE4">
         <v>0</v>
@@ -4712,10 +4726,10 @@
         <v>0</v>
       </c>
       <c r="IG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II4">
         <v>0</v>
@@ -4775,10 +4789,10 @@
         <v>0</v>
       </c>
       <c r="JB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD4">
         <v>0</v>
@@ -4787,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="JF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JG4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JH4">
         <v>0</v>
@@ -4847,10 +4861,10 @@
         <v>0</v>
       </c>
       <c r="JZ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KB4">
         <v>0</v>
@@ -4862,10 +4876,10 @@
         <v>0</v>
       </c>
       <c r="KE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KF4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KG4">
         <v>0</v>
@@ -4885,8 +4899,11 @@
       <c r="KL4">
         <v>0</v>
       </c>
+      <c r="KM4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>371</v>
       </c>
@@ -5593,13 +5610,13 @@
         <v>0</v>
       </c>
       <c r="IB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC5">
         <v>1</v>
       </c>
       <c r="ID5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE5">
         <v>0</v>
@@ -5608,10 +5625,10 @@
         <v>0</v>
       </c>
       <c r="IG5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II5">
         <v>0</v>
@@ -5671,10 +5688,10 @@
         <v>0</v>
       </c>
       <c r="JB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD5">
         <v>0</v>
@@ -5683,10 +5700,10 @@
         <v>0</v>
       </c>
       <c r="JF5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JG5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JH5">
         <v>0</v>
@@ -5758,10 +5775,10 @@
         <v>0</v>
       </c>
       <c r="KE5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KF5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KG5">
         <v>0</v>
@@ -5781,8 +5798,11 @@
       <c r="KL5">
         <v>0</v>
       </c>
+      <c r="KM5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>371</v>
       </c>
@@ -6444,10 +6464,10 @@
         <v>0</v>
       </c>
       <c r="HM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO6">
         <v>0</v>
@@ -6504,10 +6524,10 @@
         <v>0</v>
       </c>
       <c r="IG6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II6">
         <v>0</v>
@@ -6567,10 +6587,10 @@
         <v>0</v>
       </c>
       <c r="JB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD6">
         <v>0</v>
@@ -6677,8 +6697,11 @@
       <c r="KL6">
         <v>0</v>
       </c>
+      <c r="KM6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>371</v>
       </c>
@@ -7334,10 +7357,10 @@
         <v>0</v>
       </c>
       <c r="HK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HM7">
         <v>0</v>
@@ -7364,10 +7387,10 @@
         <v>0</v>
       </c>
       <c r="HU7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW7">
         <v>0</v>
@@ -7427,10 +7450,10 @@
         <v>0</v>
       </c>
       <c r="IP7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR7">
         <v>0</v>
@@ -7463,10 +7486,10 @@
         <v>0</v>
       </c>
       <c r="JB7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD7">
         <v>0</v>
@@ -7550,31 +7573,34 @@
         <v>0</v>
       </c>
       <c r="KE7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KF7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KG7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KH7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KI7">
         <v>0</v>
       </c>
       <c r="KJ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KK7">
         <v>1</v>
       </c>
       <c r="KL7">
+        <v>1</v>
+      </c>
+      <c r="KM7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>371</v>
       </c>
@@ -8323,10 +8349,10 @@
         <v>0</v>
       </c>
       <c r="IP8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR8">
         <v>0</v>
@@ -8380,10 +8406,10 @@
         <v>0</v>
       </c>
       <c r="JI8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK8">
         <v>0</v>
@@ -8469,8 +8495,11 @@
       <c r="KL8">
         <v>0</v>
       </c>
+      <c r="KM8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>371</v>
       </c>
@@ -9132,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="HM9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO9">
         <v>0</v>
@@ -9153,10 +9182,10 @@
         <v>0</v>
       </c>
       <c r="HT9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HU9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV9">
         <v>0</v>
@@ -9219,10 +9248,10 @@
         <v>0</v>
       </c>
       <c r="IP9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR9">
         <v>0</v>
@@ -9276,10 +9305,10 @@
         <v>0</v>
       </c>
       <c r="JI9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK9">
         <v>0</v>
@@ -9365,8 +9394,11 @@
       <c r="KL9">
         <v>0</v>
       </c>
+      <c r="KM9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>371</v>
       </c>
@@ -10028,10 +10060,10 @@
         <v>0</v>
       </c>
       <c r="HM10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO10">
         <v>0</v>
@@ -10261,8 +10293,11 @@
       <c r="KL10">
         <v>0</v>
       </c>
+      <c r="KM10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>371</v>
       </c>
@@ -10933,10 +10968,10 @@
         <v>0</v>
       </c>
       <c r="HP11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR11">
         <v>0</v>
@@ -10984,10 +11019,10 @@
         <v>0</v>
       </c>
       <c r="IG11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II11">
         <v>0</v>
@@ -11017,10 +11052,10 @@
         <v>0</v>
       </c>
       <c r="IR11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IS11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IT11">
         <v>0</v>
@@ -11047,10 +11082,10 @@
         <v>0</v>
       </c>
       <c r="JB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD11">
         <v>0</v>
@@ -11095,10 +11130,10 @@
         <v>0</v>
       </c>
       <c r="JR11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JS11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT11">
         <v>0</v>
@@ -11157,8 +11192,11 @@
       <c r="KL11">
         <v>0</v>
       </c>
+      <c r="KM11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>371</v>
       </c>
@@ -11820,10 +11858,10 @@
         <v>0</v>
       </c>
       <c r="HM12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO12">
         <v>0</v>
@@ -11850,10 +11888,10 @@
         <v>0</v>
       </c>
       <c r="HW12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY12">
         <v>0</v>
@@ -11868,10 +11906,10 @@
         <v>0</v>
       </c>
       <c r="IC12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ID12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE12">
         <v>0</v>
@@ -11880,10 +11918,10 @@
         <v>0</v>
       </c>
       <c r="IG12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II12">
         <v>0</v>
@@ -11943,10 +11981,10 @@
         <v>0</v>
       </c>
       <c r="JB12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD12">
         <v>0</v>
@@ -12027,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="KD12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KE12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KF12">
         <v>0</v>
@@ -12053,8 +12091,11 @@
       <c r="KL12">
         <v>0</v>
       </c>
+      <c r="KM12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>371</v>
       </c>
@@ -12698,10 +12739,10 @@
         <v>0</v>
       </c>
       <c r="HG13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HI13">
         <v>0</v>
@@ -12716,10 +12757,10 @@
         <v>0</v>
       </c>
       <c r="HM13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO13">
         <v>0</v>
@@ -12734,10 +12775,10 @@
         <v>0</v>
       </c>
       <c r="HS13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU13">
         <v>0</v>
@@ -12746,10 +12787,10 @@
         <v>0</v>
       </c>
       <c r="HW13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY13">
         <v>0</v>
@@ -12773,10 +12814,10 @@
         <v>0</v>
       </c>
       <c r="IF13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH13">
         <v>0</v>
@@ -12842,10 +12883,10 @@
         <v>0</v>
       </c>
       <c r="JC13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JD13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JE13">
         <v>0</v>
@@ -12949,8 +12990,11 @@
       <c r="KL13">
         <v>0</v>
       </c>
+      <c r="KM13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>371</v>
       </c>
@@ -13630,10 +13674,10 @@
         <v>0</v>
       </c>
       <c r="HS14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU14">
         <v>0</v>
@@ -13696,10 +13740,10 @@
         <v>0</v>
       </c>
       <c r="IO14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ14">
         <v>0</v>
@@ -13759,10 +13803,10 @@
         <v>0</v>
       </c>
       <c r="JJ14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL14">
         <v>0</v>
@@ -13789,10 +13833,10 @@
         <v>0</v>
       </c>
       <c r="JT14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV14">
         <v>0</v>
@@ -13834,10 +13878,10 @@
         <v>0</v>
       </c>
       <c r="KI14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KJ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK14">
         <v>0</v>
@@ -13845,8 +13889,11 @@
       <c r="KL14">
         <v>0</v>
       </c>
+      <c r="KM14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>371</v>
       </c>
@@ -14568,10 +14615,10 @@
         <v>0</v>
       </c>
       <c r="IG15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II15">
         <v>0</v>
@@ -14715,10 +14762,10 @@
         <v>0</v>
       </c>
       <c r="KD15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KE15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KF15">
         <v>0</v>
@@ -14741,8 +14788,11 @@
       <c r="KL15">
         <v>0</v>
       </c>
+      <c r="KM15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>371</v>
       </c>
@@ -15404,10 +15454,10 @@
         <v>0</v>
       </c>
       <c r="HM16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO16">
         <v>0</v>
@@ -15434,10 +15484,10 @@
         <v>0</v>
       </c>
       <c r="HW16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY16">
         <v>0</v>
@@ -15485,10 +15535,10 @@
         <v>0</v>
       </c>
       <c r="IN16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IO16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP16">
         <v>0</v>
@@ -15581,10 +15631,10 @@
         <v>0</v>
       </c>
       <c r="JT16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV16">
         <v>0</v>
@@ -15611,10 +15661,10 @@
         <v>0</v>
       </c>
       <c r="KD16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KE16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KF16">
         <v>0</v>
@@ -15637,8 +15687,11 @@
       <c r="KL16">
         <v>0</v>
       </c>
+      <c r="KM16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:300" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:301" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>369</v>
       </c>
@@ -16300,19 +16353,19 @@
         <v>0</v>
       </c>
       <c r="HM17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO17">
         <v>0</v>
       </c>
       <c r="HP17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR17">
         <v>0</v>
@@ -16345,10 +16398,10 @@
         <v>0</v>
       </c>
       <c r="IB17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ID17">
         <v>0</v>
@@ -16372,10 +16425,10 @@
         <v>0</v>
       </c>
       <c r="IK17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM17">
         <v>0</v>
@@ -16423,10 +16476,10 @@
         <v>0</v>
       </c>
       <c r="JB17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD17">
         <v>0</v>
@@ -16456,10 +16509,10 @@
         <v>0</v>
       </c>
       <c r="JM17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JN17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JO17">
         <v>0</v>
@@ -16510,10 +16563,10 @@
         <v>0</v>
       </c>
       <c r="KE17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KF17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KG17">
         <v>0</v>
@@ -16533,8 +16586,11 @@
       <c r="KL17">
         <v>0</v>
       </c>
+      <c r="KM17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:300" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:301" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>369</v>
       </c>
@@ -17214,10 +17270,10 @@
         <v>0</v>
       </c>
       <c r="HS18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU18">
         <v>0</v>
@@ -17238,10 +17294,10 @@
         <v>0</v>
       </c>
       <c r="IA18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IC18">
         <v>0</v>
@@ -17319,10 +17375,10 @@
         <v>0</v>
       </c>
       <c r="JB18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD18">
         <v>0</v>
@@ -17331,10 +17387,10 @@
         <v>0</v>
       </c>
       <c r="JF18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JG18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JH18">
         <v>0</v>
@@ -17429,8 +17485,11 @@
       <c r="KL18">
         <v>0</v>
       </c>
+      <c r="KM18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:300" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:301" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>369</v>
       </c>
@@ -18110,10 +18169,10 @@
         <v>0</v>
       </c>
       <c r="HS19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU19">
         <v>0</v>
@@ -18134,10 +18193,10 @@
         <v>0</v>
       </c>
       <c r="IA19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IC19">
         <v>0</v>
@@ -18215,10 +18274,10 @@
         <v>0</v>
       </c>
       <c r="JB19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD19">
         <v>0</v>
@@ -18325,8 +18384,11 @@
       <c r="KL19">
         <v>0</v>
       </c>
+      <c r="KM19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:300" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:301" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>369</v>
       </c>
@@ -18988,10 +19050,10 @@
         <v>0</v>
       </c>
       <c r="HM20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO20">
         <v>0</v>
@@ -19006,10 +19068,10 @@
         <v>0</v>
       </c>
       <c r="HS20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU20">
         <v>0</v>
@@ -19030,16 +19092,16 @@
         <v>0</v>
       </c>
       <c r="IA20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IC20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ID20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE20">
         <v>0</v>
@@ -19048,10 +19110,10 @@
         <v>0</v>
       </c>
       <c r="IG20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II20">
         <v>0</v>
@@ -19111,10 +19173,10 @@
         <v>0</v>
       </c>
       <c r="JB20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD20">
         <v>0</v>
@@ -19198,10 +19260,10 @@
         <v>0</v>
       </c>
       <c r="KE20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KF20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KG20">
         <v>0</v>
@@ -19221,8 +19283,11 @@
       <c r="KL20">
         <v>0</v>
       </c>
+      <c r="KM20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:300" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:301" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>369</v>
       </c>
@@ -19899,10 +19964,10 @@
         <v>0</v>
       </c>
       <c r="HR21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HS21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT21">
         <v>0</v>
@@ -19926,13 +19991,13 @@
         <v>0</v>
       </c>
       <c r="IA21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB21">
         <v>1</v>
       </c>
       <c r="IC21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ID21">
         <v>0</v>
@@ -20007,10 +20072,10 @@
         <v>0</v>
       </c>
       <c r="JB21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD21">
         <v>0</v>
@@ -20117,8 +20182,11 @@
       <c r="KL21">
         <v>0</v>
       </c>
+      <c r="KM21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:300" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:301" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>369</v>
       </c>
@@ -20762,7 +20830,7 @@
         <v>1</v>
       </c>
       <c r="HG22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH22">
         <v>0</v>
@@ -20798,10 +20866,10 @@
         <v>0</v>
       </c>
       <c r="HS22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU22">
         <v>0</v>
@@ -20810,10 +20878,10 @@
         <v>0</v>
       </c>
       <c r="HW22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY22">
         <v>0</v>
@@ -20822,7 +20890,7 @@
         <v>0</v>
       </c>
       <c r="IA22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB22">
         <v>1</v>
@@ -20831,7 +20899,7 @@
         <v>1</v>
       </c>
       <c r="ID22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE22">
         <v>0</v>
@@ -20840,10 +20908,10 @@
         <v>0</v>
       </c>
       <c r="IG22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II22">
         <v>0</v>
@@ -20903,10 +20971,10 @@
         <v>0</v>
       </c>
       <c r="JB22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD22">
         <v>0</v>
@@ -20918,16 +20986,16 @@
         <v>0</v>
       </c>
       <c r="JG22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JI22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK22">
         <v>0</v>
@@ -20972,10 +21040,10 @@
         <v>0</v>
       </c>
       <c r="JY22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JZ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KA22">
         <v>0</v>
@@ -21013,8 +21081,11 @@
       <c r="KL22">
         <v>0</v>
       </c>
+      <c r="KM22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:300" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:301" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>368</v>
       </c>
@@ -21676,22 +21747,22 @@
         <v>0</v>
       </c>
       <c r="HM23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO23">
         <v>0</v>
       </c>
       <c r="HP23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ23">
         <v>1</v>
       </c>
       <c r="HR23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HS23">
         <v>0</v>
@@ -21703,13 +21774,13 @@
         <v>0</v>
       </c>
       <c r="HV23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW23">
         <v>1</v>
       </c>
       <c r="HX23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY23">
         <v>0</v>
@@ -21799,10 +21870,10 @@
         <v>0</v>
       </c>
       <c r="JB23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD23">
         <v>0</v>
@@ -21880,10 +21951,10 @@
         <v>0</v>
       </c>
       <c r="KC23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KD23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KE23">
         <v>0</v>
@@ -21895,23 +21966,26 @@
         <v>0</v>
       </c>
       <c r="KH23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KI23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ23">
         <v>0</v>
       </c>
       <c r="KK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KL23">
-        <v>0</v>
-      </c>
-      <c r="KN23" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="KM23">
+        <v>0</v>
+      </c>
+      <c r="KO23" s="3"/>
     </row>
-    <row r="24" spans="1:300" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:301" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>368</v>
       </c>
@@ -22696,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="JB24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD24">
         <v>0</v>
@@ -22806,9 +22880,12 @@
       <c r="KL24">
         <v>0</v>
       </c>
-      <c r="KN24" s="3"/>
+      <c r="KM24">
+        <v>0</v>
+      </c>
+      <c r="KO24" s="3"/>
     </row>
-    <row r="25" spans="1:300" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:301" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>368</v>
       </c>
@@ -23703,8 +23780,11 @@
       <c r="KL25">
         <v>0</v>
       </c>
+      <c r="KM25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:300" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:301" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>368</v>
       </c>
@@ -24599,8 +24679,11 @@
       <c r="KL26">
         <v>0</v>
       </c>
+      <c r="KM26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:300" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:301" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>368</v>
       </c>
@@ -25349,10 +25432,10 @@
         <v>0</v>
       </c>
       <c r="IP27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR27">
         <v>0</v>
@@ -25484,10 +25567,10 @@
         <v>0</v>
       </c>
       <c r="KI27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KJ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK27">
         <v>0</v>
@@ -25495,8 +25578,11 @@
       <c r="KL27">
         <v>0</v>
       </c>
+      <c r="KM27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:300" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:301" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>368</v>
       </c>
@@ -26281,10 +26367,10 @@
         <v>0</v>
       </c>
       <c r="JB28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD28">
         <v>0</v>
@@ -26391,8 +26477,11 @@
       <c r="KL28">
         <v>0</v>
       </c>
+      <c r="KM28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:300" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:301" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>368</v>
       </c>
@@ -27195,10 +27284,10 @@
         <v>0</v>
       </c>
       <c r="JH29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JI29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ29">
         <v>0</v>
@@ -27287,8 +27376,11 @@
       <c r="KL29">
         <v>0</v>
       </c>
+      <c r="KM29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:300" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:301" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>368</v>
       </c>
@@ -28091,10 +28183,10 @@
         <v>0</v>
       </c>
       <c r="JH30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JI30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ30">
         <v>0</v>
@@ -28183,8 +28275,11 @@
       <c r="KL30">
         <v>0</v>
       </c>
+      <c r="KM30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:300" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:301" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>368</v>
       </c>
@@ -28969,10 +29064,10 @@
         <v>0</v>
       </c>
       <c r="JB31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD31">
         <v>0</v>
@@ -29079,8 +29174,11 @@
       <c r="KL31">
         <v>0</v>
       </c>
+      <c r="KM31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:300" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:301" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>368</v>
       </c>
@@ -29775,10 +29873,10 @@
         <v>0</v>
       </c>
       <c r="HX32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HY32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HZ32">
         <v>0</v>
@@ -29975,8 +30073,11 @@
       <c r="KL32">
         <v>0</v>
       </c>
+      <c r="KM32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>370</v>
       </c>
@@ -30635,10 +30736,10 @@
         <v>0</v>
       </c>
       <c r="HL33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HM33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN33">
         <v>0</v>
@@ -30668,10 +30769,10 @@
         <v>0</v>
       </c>
       <c r="HW33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY33">
         <v>0</v>
@@ -30734,10 +30835,10 @@
         <v>0</v>
       </c>
       <c r="IS33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IU33">
         <v>0</v>
@@ -30869,10 +30970,13 @@
         <v>0</v>
       </c>
       <c r="KL33">
+        <v>0</v>
+      </c>
+      <c r="KM33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>370</v>
       </c>
@@ -31564,10 +31668,10 @@
         <v>0</v>
       </c>
       <c r="HW34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY34">
         <v>0</v>
@@ -31723,10 +31827,10 @@
         <v>0</v>
       </c>
       <c r="JX34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JZ34">
         <v>0</v>
@@ -31767,8 +31871,11 @@
       <c r="KL34">
         <v>0</v>
       </c>
+      <c r="KM34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -32418,10 +32525,10 @@
         <v>0</v>
       </c>
       <c r="HI35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HJ35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HK35">
         <v>0</v>
@@ -32430,10 +32537,10 @@
         <v>0</v>
       </c>
       <c r="HM35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO35">
         <v>0</v>
@@ -32460,10 +32567,10 @@
         <v>0</v>
       </c>
       <c r="HW35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY35">
         <v>0</v>
@@ -32478,10 +32585,10 @@
         <v>0</v>
       </c>
       <c r="IC35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ID35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE35">
         <v>0</v>
@@ -32490,10 +32597,10 @@
         <v>0</v>
       </c>
       <c r="IG35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II35">
         <v>0</v>
@@ -32553,10 +32660,10 @@
         <v>0</v>
       </c>
       <c r="JB35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD35">
         <v>0</v>
@@ -32574,10 +32681,10 @@
         <v>0</v>
       </c>
       <c r="JI35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK35">
         <v>0</v>
@@ -32616,10 +32723,10 @@
         <v>0</v>
       </c>
       <c r="JW35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JX35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY35">
         <v>0</v>
@@ -32663,8 +32770,11 @@
       <c r="KL35">
         <v>0</v>
       </c>
+      <c r="KM35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>128</v>
       </c>
@@ -33326,16 +33436,16 @@
         <v>0</v>
       </c>
       <c r="HM36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HP36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HQ36">
         <v>0</v>
@@ -33377,10 +33487,10 @@
         <v>0</v>
       </c>
       <c r="ID36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IE36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF36">
         <v>0</v>
@@ -33449,10 +33559,10 @@
         <v>0</v>
       </c>
       <c r="JB36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD36">
         <v>0</v>
@@ -33488,10 +33598,10 @@
         <v>0</v>
       </c>
       <c r="JO36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JP36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JQ36">
         <v>0</v>
@@ -33503,10 +33613,10 @@
         <v>0</v>
       </c>
       <c r="JT36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV36">
         <v>0</v>
@@ -33559,8 +33669,11 @@
       <c r="KL36">
         <v>0</v>
       </c>
+      <c r="KM36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>128</v>
       </c>
@@ -34222,19 +34335,19 @@
         <v>0</v>
       </c>
       <c r="HM37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO37">
         <v>0</v>
       </c>
       <c r="HP37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR37">
         <v>0</v>
@@ -34273,10 +34386,10 @@
         <v>0</v>
       </c>
       <c r="ID37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IE37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF37">
         <v>0</v>
@@ -34384,10 +34497,10 @@
         <v>0</v>
       </c>
       <c r="JO37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JP37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JQ37">
         <v>0</v>
@@ -34455,8 +34568,11 @@
       <c r="KL37">
         <v>0</v>
       </c>
+      <c r="KM37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -35127,10 +35243,10 @@
         <v>0</v>
       </c>
       <c r="HP38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR38">
         <v>0</v>
@@ -35172,10 +35288,10 @@
         <v>0</v>
       </c>
       <c r="IE38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG38">
         <v>0</v>
@@ -35241,10 +35357,10 @@
         <v>0</v>
       </c>
       <c r="JB38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD38">
         <v>0</v>
@@ -35280,10 +35396,10 @@
         <v>0</v>
       </c>
       <c r="JO38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JP38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JQ38">
         <v>0</v>
@@ -35351,8 +35467,11 @@
       <c r="KL38">
         <v>0</v>
       </c>
+      <c r="KM38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>372</v>
       </c>
@@ -36143,10 +36262,10 @@
         <v>0</v>
       </c>
       <c r="JD39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JE39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JF39">
         <v>0</v>
@@ -36164,10 +36283,10 @@
         <v>0</v>
       </c>
       <c r="JK39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM39">
         <v>0</v>
@@ -36218,10 +36337,10 @@
         <v>0</v>
       </c>
       <c r="KC39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KD39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KE39">
         <v>0</v>
@@ -36247,8 +36366,11 @@
       <c r="KL39">
         <v>0</v>
       </c>
+      <c r="KM39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>372</v>
       </c>
@@ -37033,10 +37155,10 @@
         <v>0</v>
       </c>
       <c r="JB40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD40">
         <v>0</v>
@@ -37143,8 +37265,11 @@
       <c r="KL40">
         <v>0</v>
       </c>
+      <c r="KM40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>372</v>
       </c>
@@ -37806,10 +37931,10 @@
         <v>0</v>
       </c>
       <c r="HM41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO41">
         <v>0</v>
@@ -37824,10 +37949,10 @@
         <v>0</v>
       </c>
       <c r="HS41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU41">
         <v>0</v>
@@ -37854,10 +37979,10 @@
         <v>0</v>
       </c>
       <c r="IC41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ID41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE41">
         <v>0</v>
@@ -37881,13 +38006,13 @@
         <v>0</v>
       </c>
       <c r="IL41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM41">
         <v>1</v>
       </c>
       <c r="IN41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IO41">
         <v>0</v>
@@ -37929,10 +38054,10 @@
         <v>0</v>
       </c>
       <c r="JB41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD41">
         <v>0</v>
@@ -37959,10 +38084,10 @@
         <v>0</v>
       </c>
       <c r="JL41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN41">
         <v>0</v>
@@ -38010,10 +38135,10 @@
         <v>0</v>
       </c>
       <c r="KC41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KD41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KE41">
         <v>0</v>
@@ -38028,10 +38153,10 @@
         <v>0</v>
       </c>
       <c r="KI41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KJ41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK41">
         <v>0</v>
@@ -38039,8 +38164,11 @@
       <c r="KL41">
         <v>0</v>
       </c>
+      <c r="KM41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>372</v>
       </c>
@@ -38720,10 +38848,10 @@
         <v>0</v>
       </c>
       <c r="HS42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU42">
         <v>0</v>
@@ -38855,10 +38983,10 @@
         <v>0</v>
       </c>
       <c r="JL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN42">
         <v>0</v>
@@ -38935,8 +39063,11 @@
       <c r="KL42">
         <v>0</v>
       </c>
+      <c r="KM42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>372</v>
       </c>
@@ -39721,10 +39852,10 @@
         <v>0</v>
       </c>
       <c r="JB43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD43">
         <v>0</v>
@@ -39751,10 +39882,10 @@
         <v>0</v>
       </c>
       <c r="JL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN43">
         <v>0</v>
@@ -39831,8 +39962,11 @@
       <c r="KL43">
         <v>0</v>
       </c>
+      <c r="KM43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>372</v>
       </c>
@@ -40494,10 +40628,10 @@
         <v>0</v>
       </c>
       <c r="HM44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO44">
         <v>0</v>
@@ -40569,10 +40703,10 @@
         <v>0</v>
       </c>
       <c r="IL44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IN44">
         <v>0</v>
@@ -40644,10 +40778,10 @@
         <v>0</v>
       </c>
       <c r="JK44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM44">
         <v>0</v>
@@ -40727,8 +40861,11 @@
       <c r="KL44">
         <v>0</v>
       </c>
+      <c r="KM44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>372</v>
       </c>
@@ -41381,19 +41518,19 @@
         <v>0</v>
       </c>
       <c r="HJ45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HK45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL45">
         <v>0</v>
       </c>
       <c r="HM45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO45">
         <v>0</v>
@@ -41420,16 +41557,16 @@
         <v>0</v>
       </c>
       <c r="HW45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HZ45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IA45">
         <v>0</v>
@@ -41471,10 +41608,10 @@
         <v>0</v>
       </c>
       <c r="IN45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IO45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP45">
         <v>0</v>
@@ -41513,10 +41650,10 @@
         <v>0</v>
       </c>
       <c r="JB45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD45">
         <v>0</v>
@@ -41597,10 +41734,10 @@
         <v>0</v>
       </c>
       <c r="KD45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KE45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KF45">
         <v>0</v>
@@ -41623,8 +41760,11 @@
       <c r="KL45">
         <v>0</v>
       </c>
+      <c r="KM45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>372</v>
       </c>
@@ -42286,10 +42426,10 @@
         <v>0</v>
       </c>
       <c r="HM46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO46">
         <v>0</v>
@@ -42322,10 +42462,10 @@
         <v>0</v>
       </c>
       <c r="HY46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HZ46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IA46">
         <v>0</v>
@@ -42409,10 +42549,10 @@
         <v>0</v>
       </c>
       <c r="JB46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD46">
         <v>0</v>
@@ -42445,10 +42585,10 @@
         <v>0</v>
       </c>
       <c r="JN46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JP46">
         <v>0</v>
@@ -42519,8 +42659,11 @@
       <c r="KL46">
         <v>0</v>
       </c>
+      <c r="KM46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>372</v>
       </c>
@@ -43182,10 +43325,10 @@
         <v>0</v>
       </c>
       <c r="HM47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO47">
         <v>0</v>
@@ -43212,16 +43355,16 @@
         <v>0</v>
       </c>
       <c r="HW47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HZ47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IA47">
         <v>0</v>
@@ -43242,10 +43385,10 @@
         <v>0</v>
       </c>
       <c r="IG47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II47">
         <v>0</v>
@@ -43263,10 +43406,10 @@
         <v>0</v>
       </c>
       <c r="IN47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IO47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP47">
         <v>0</v>
@@ -43305,10 +43448,10 @@
         <v>0</v>
       </c>
       <c r="JB47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD47">
         <v>0</v>
@@ -43341,10 +43484,10 @@
         <v>0</v>
       </c>
       <c r="JN47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JP47">
         <v>0</v>
@@ -43415,8 +43558,11 @@
       <c r="KL47">
         <v>0</v>
       </c>
+      <c r="KM47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>372</v>
       </c>
@@ -44078,13 +44224,13 @@
         <v>0</v>
       </c>
       <c r="HM48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN48">
         <v>1</v>
       </c>
       <c r="HO48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HP48">
         <v>0</v>
@@ -44108,16 +44254,16 @@
         <v>0</v>
       </c>
       <c r="HW48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HZ48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IA48">
         <v>0</v>
@@ -44138,10 +44284,10 @@
         <v>0</v>
       </c>
       <c r="IG48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II48">
         <v>0</v>
@@ -44159,10 +44305,10 @@
         <v>0</v>
       </c>
       <c r="IN48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IO48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP48">
         <v>0</v>
@@ -44201,10 +44347,10 @@
         <v>0</v>
       </c>
       <c r="JB48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD48">
         <v>0</v>
@@ -44237,16 +44383,16 @@
         <v>0</v>
       </c>
       <c r="JN48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JP48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JQ48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JR48">
         <v>0</v>
@@ -44285,10 +44431,10 @@
         <v>0</v>
       </c>
       <c r="KD48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KE48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KF48">
         <v>0</v>
@@ -44311,8 +44457,11 @@
       <c r="KL48">
         <v>0</v>
       </c>
+      <c r="KM48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>372</v>
       </c>
@@ -44965,19 +45114,19 @@
         <v>0</v>
       </c>
       <c r="HJ49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HK49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL49">
         <v>0</v>
       </c>
       <c r="HM49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO49">
         <v>0</v>
@@ -45004,16 +45153,16 @@
         <v>0</v>
       </c>
       <c r="HW49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HZ49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IA49">
         <v>0</v>
@@ -45055,10 +45204,10 @@
         <v>0</v>
       </c>
       <c r="IN49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IO49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP49">
         <v>0</v>
@@ -45097,10 +45246,10 @@
         <v>0</v>
       </c>
       <c r="JB49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD49">
         <v>0</v>
@@ -45181,10 +45330,10 @@
         <v>0</v>
       </c>
       <c r="KD49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KE49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KF49">
         <v>0</v>
@@ -45207,8 +45356,11 @@
       <c r="KL49">
         <v>0</v>
       </c>
+      <c r="KM49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>372</v>
       </c>
@@ -45870,10 +46022,10 @@
         <v>0</v>
       </c>
       <c r="HM50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO50">
         <v>0</v>
@@ -45888,10 +46040,10 @@
         <v>0</v>
       </c>
       <c r="HS50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU50">
         <v>0</v>
@@ -45906,22 +46058,22 @@
         <v>0</v>
       </c>
       <c r="HY50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HZ50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IA50">
         <v>0</v>
       </c>
       <c r="IB50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC50">
         <v>1</v>
       </c>
       <c r="ID50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE50">
         <v>0</v>
@@ -45930,10 +46082,10 @@
         <v>0</v>
       </c>
       <c r="IG50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II50">
         <v>0</v>
@@ -45960,10 +46112,10 @@
         <v>0</v>
       </c>
       <c r="IQ50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IS50">
         <v>0</v>
@@ -45993,10 +46145,10 @@
         <v>0</v>
       </c>
       <c r="JB50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD50">
         <v>0</v>
@@ -46029,10 +46181,10 @@
         <v>0</v>
       </c>
       <c r="JN50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JP50">
         <v>0</v>
@@ -46047,10 +46199,10 @@
         <v>0</v>
       </c>
       <c r="JT50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV50">
         <v>0</v>
@@ -46077,13 +46229,13 @@
         <v>0</v>
       </c>
       <c r="KD50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KE50">
         <v>1</v>
       </c>
       <c r="KF50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KG50">
         <v>0</v>
@@ -46103,8 +46255,11 @@
       <c r="KL50">
         <v>0</v>
       </c>
+      <c r="KM50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>372</v>
       </c>
@@ -46766,10 +46921,10 @@
         <v>0</v>
       </c>
       <c r="HM51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO51">
         <v>0</v>
@@ -46865,34 +47020,34 @@
         <v>0</v>
       </c>
       <c r="IT51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IU51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IV51">
         <v>0</v>
       </c>
       <c r="IW51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IX51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IY51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IZ51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JA51">
         <v>0</v>
       </c>
       <c r="JB51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD51">
         <v>0</v>
@@ -46946,13 +47101,13 @@
         <v>0</v>
       </c>
       <c r="JU51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JV51">
         <v>1</v>
       </c>
       <c r="JW51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX51">
         <v>0</v>
@@ -46964,28 +47119,28 @@
         <v>0</v>
       </c>
       <c r="KA51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KB51">
         <v>1</v>
       </c>
       <c r="KC51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KD51">
         <v>0</v>
       </c>
       <c r="KE51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KF51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KG51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KH51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KI51">
         <v>0</v>
@@ -46999,8 +47154,11 @@
       <c r="KL51">
         <v>0</v>
       </c>
+      <c r="KM51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>372</v>
       </c>
@@ -47895,8 +48053,11 @@
       <c r="KL52">
         <v>0</v>
       </c>
+      <c r="KM52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>372</v>
       </c>
@@ -48588,19 +48749,19 @@
         <v>0</v>
       </c>
       <c r="HW53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY53">
         <v>0</v>
       </c>
       <c r="HZ53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB53">
         <v>0</v>
@@ -48791,8 +48952,11 @@
       <c r="KL53">
         <v>0</v>
       </c>
+      <c r="KM53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>372</v>
       </c>
@@ -49439,10 +49603,10 @@
         <v>0</v>
       </c>
       <c r="HH54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ54">
         <v>0</v>
@@ -49454,10 +49618,10 @@
         <v>0</v>
       </c>
       <c r="HM54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO54">
         <v>0</v>
@@ -49484,10 +49648,10 @@
         <v>0</v>
       </c>
       <c r="HW54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY54">
         <v>0</v>
@@ -49562,22 +49726,22 @@
         <v>0</v>
       </c>
       <c r="IW54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IX54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IY54">
         <v>0</v>
       </c>
       <c r="IZ54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JA54">
         <v>1</v>
       </c>
       <c r="JB54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JC54">
         <v>0</v>
@@ -49652,13 +49816,13 @@
         <v>0</v>
       </c>
       <c r="KA54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KB54">
         <v>1</v>
       </c>
       <c r="KC54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KD54">
         <v>0</v>
@@ -49667,10 +49831,10 @@
         <v>0</v>
       </c>
       <c r="KF54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KG54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KH54">
         <v>0</v>
@@ -49687,8 +49851,11 @@
       <c r="KL54">
         <v>0</v>
       </c>
+      <c r="KM54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>372</v>
       </c>
@@ -50350,10 +50517,10 @@
         <v>0</v>
       </c>
       <c r="HM55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO55">
         <v>0</v>
@@ -50368,10 +50535,10 @@
         <v>0</v>
       </c>
       <c r="HS55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU55">
         <v>0</v>
@@ -50380,10 +50547,10 @@
         <v>0</v>
       </c>
       <c r="HW55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY55">
         <v>0</v>
@@ -50398,10 +50565,10 @@
         <v>0</v>
       </c>
       <c r="IC55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ID55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE55">
         <v>0</v>
@@ -50413,19 +50580,19 @@
         <v>0</v>
       </c>
       <c r="IH55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="II55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ55">
         <v>0</v>
       </c>
       <c r="IK55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM55">
         <v>0</v>
@@ -50452,10 +50619,10 @@
         <v>0</v>
       </c>
       <c r="IU55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IV55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW55">
         <v>0</v>
@@ -50473,19 +50640,19 @@
         <v>0</v>
       </c>
       <c r="JB55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD55">
         <v>0</v>
       </c>
       <c r="JE55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG55">
         <v>0</v>
@@ -50518,16 +50685,16 @@
         <v>0</v>
       </c>
       <c r="JQ55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JT55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU55">
         <v>0</v>
@@ -50548,16 +50715,16 @@
         <v>0</v>
       </c>
       <c r="KA55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KB55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KC55">
         <v>0</v>
       </c>
       <c r="KD55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KE55">
         <v>1</v>
@@ -50566,7 +50733,7 @@
         <v>1</v>
       </c>
       <c r="KG55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KH55">
         <v>0</v>
@@ -50583,8 +50750,11 @@
       <c r="KL55">
         <v>0</v>
       </c>
+      <c r="KM55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>372</v>
       </c>
@@ -51231,10 +51401,10 @@
         <v>0</v>
       </c>
       <c r="HH56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ56">
         <v>0</v>
@@ -51246,10 +51416,10 @@
         <v>0</v>
       </c>
       <c r="HM56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO56">
         <v>0</v>
@@ -51264,10 +51434,10 @@
         <v>0</v>
       </c>
       <c r="HS56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU56">
         <v>0</v>
@@ -51276,10 +51446,10 @@
         <v>0</v>
       </c>
       <c r="HW56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY56">
         <v>0</v>
@@ -51291,10 +51461,10 @@
         <v>0</v>
       </c>
       <c r="IB56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ID56">
         <v>0</v>
@@ -51312,13 +51482,13 @@
         <v>0</v>
       </c>
       <c r="II56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IJ56">
         <v>1</v>
       </c>
       <c r="IK56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL56">
         <v>0</v>
@@ -51348,22 +51518,22 @@
         <v>0</v>
       </c>
       <c r="IU56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IV56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW56">
         <v>0</v>
       </c>
       <c r="IX56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IY56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IZ56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JA56">
         <v>1</v>
@@ -51372,7 +51542,7 @@
         <v>1</v>
       </c>
       <c r="JC56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD56">
         <v>0</v>
@@ -51432,10 +51602,10 @@
         <v>0</v>
       </c>
       <c r="JW56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JX56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY56">
         <v>0</v>
@@ -51444,25 +51614,25 @@
         <v>0</v>
       </c>
       <c r="KA56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KB56">
         <v>1</v>
       </c>
       <c r="KC56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KD56">
         <v>0</v>
       </c>
       <c r="KE56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KF56">
         <v>1</v>
       </c>
       <c r="KG56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KH56">
         <v>0</v>
@@ -51479,8 +51649,11 @@
       <c r="KL56">
         <v>0</v>
       </c>
+      <c r="KM56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>372</v>
       </c>
@@ -52127,10 +52300,10 @@
         <v>0</v>
       </c>
       <c r="HH57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ57">
         <v>0</v>
@@ -52172,10 +52345,10 @@
         <v>0</v>
       </c>
       <c r="HW57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY57">
         <v>0</v>
@@ -52244,13 +52417,13 @@
         <v>0</v>
       </c>
       <c r="IU57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IV57">
         <v>1</v>
       </c>
       <c r="IW57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IX57">
         <v>0</v>
@@ -52262,10 +52435,10 @@
         <v>0</v>
       </c>
       <c r="JA57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JB57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JC57">
         <v>0</v>
@@ -52355,10 +52528,10 @@
         <v>0</v>
       </c>
       <c r="KF57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KG57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KH57">
         <v>0</v>
@@ -52375,8 +52548,11 @@
       <c r="KL57">
         <v>0</v>
       </c>
+      <c r="KM57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>373</v>
       </c>
@@ -53038,10 +53214,10 @@
         <v>0</v>
       </c>
       <c r="HM58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO58">
         <v>0</v>
@@ -53083,10 +53259,10 @@
         <v>0</v>
       </c>
       <c r="IB58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ID58">
         <v>0</v>
@@ -53098,10 +53274,10 @@
         <v>0</v>
       </c>
       <c r="IG58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II58">
         <v>0</v>
@@ -53161,10 +53337,10 @@
         <v>0</v>
       </c>
       <c r="JB58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD58">
         <v>0</v>
@@ -53271,8 +53447,11 @@
       <c r="KL58">
         <v>0</v>
       </c>
+      <c r="KM58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>373</v>
       </c>
@@ -53934,10 +54113,10 @@
         <v>0</v>
       </c>
       <c r="HM59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO59">
         <v>0</v>
@@ -54057,10 +54236,10 @@
         <v>0</v>
       </c>
       <c r="JB59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD59">
         <v>0</v>
@@ -54167,8 +54346,11 @@
       <c r="KL59">
         <v>0</v>
       </c>
+      <c r="KM59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:298" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:299" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>373</v>
       </c>
@@ -54830,10 +55012,10 @@
         <v>0</v>
       </c>
       <c r="HM60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO60">
         <v>0</v>
@@ -54875,10 +55057,10 @@
         <v>0</v>
       </c>
       <c r="IB60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ID60">
         <v>0</v>
@@ -54890,10 +55072,10 @@
         <v>0</v>
       </c>
       <c r="IG60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II60">
         <v>0</v>
@@ -54953,10 +55135,10 @@
         <v>0</v>
       </c>
       <c r="JB60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD60">
         <v>0</v>
@@ -54965,10 +55147,10 @@
         <v>0</v>
       </c>
       <c r="JF60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JG60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JH60">
         <v>0</v>
@@ -55040,10 +55222,10 @@
         <v>0</v>
       </c>
       <c r="KE60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KF60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KG60">
         <v>0</v>
@@ -55061,13 +55243,16 @@
         <v>0</v>
       </c>
       <c r="KL60">
+        <v>0</v>
+      </c>
+      <c r="KM60">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:KL60"/>
+  <autoFilter ref="A3:KM60"/>
   <mergeCells count="3">
-    <mergeCell ref="DI1:KL1"/>
+    <mergeCell ref="DI1:KM1"/>
     <mergeCell ref="CG1:DH1"/>
     <mergeCell ref="D1:CF1"/>
   </mergeCells>

--- a/data-raw/functionsTracker_20230710.xlsx
+++ b/data-raw/functionsTracker_20230710.xlsx
@@ -1807,10 +1807,10 @@
   <dimension ref="A1:KQ60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="HV4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="DC4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="IG3" sqref="IG3"/>
+      <selection pane="bottomRight" activeCell="DI3" sqref="DI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data-raw/functionsTracker_20230710.xlsx
+++ b/data-raw/functionsTracker_20230710.xlsx
@@ -1810,7 +1810,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="DC4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DI3" sqref="DI3"/>
+      <selection pane="bottomRight" activeCell="DJ4" sqref="DJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data-raw/functionsTracker_20230710.xlsx
+++ b/data-raw/functionsTracker_20230710.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$KO$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$KP$60</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="475">
   <si>
     <t>function</t>
   </si>
@@ -1804,13 +1804,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KQ60"/>
+  <dimension ref="A1:KR60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="DC4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="CI4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DJ4" sqref="DJ4"/>
+      <selection pane="bottomRight" activeCell="CM47" sqref="CM47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1900,218 +1900,219 @@
     <col min="86" max="86" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="87" max="88" width="17.6328125" customWidth="1"/>
     <col min="89" max="89" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="26" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="24.54296875" customWidth="1"/>
-    <col min="106" max="106" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="6" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="10.26953125" customWidth="1"/>
-    <col min="131" max="131" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="8.7265625" customWidth="1"/>
-    <col min="133" max="133" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="10.26953125" customWidth="1"/>
-    <col min="147" max="147" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="6.1796875" customWidth="1"/>
-    <col min="151" max="151" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="12" bestFit="1" customWidth="1"/>
-    <col min="158" max="159" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="10" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="12.7265625" customWidth="1"/>
-    <col min="163" max="163" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="6" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="6.6328125" customWidth="1"/>
-    <col min="168" max="168" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="10" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="27" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="7.81640625" customWidth="1"/>
-    <col min="203" max="203" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="6" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="7.81640625" customWidth="1"/>
-    <col min="208" max="208" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="7.81640625" customWidth="1"/>
-    <col min="214" max="214" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="6.36328125" customWidth="1"/>
-    <col min="223" max="223" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="6.6328125" customWidth="1"/>
-    <col min="229" max="229" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="6.6328125" customWidth="1"/>
-    <col min="233" max="233" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="236" max="237" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="10" customWidth="1"/>
-    <col min="249" max="249" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="18.54296875" customWidth="1"/>
-    <col min="263" max="263" width="16.453125" customWidth="1"/>
-    <col min="264" max="264" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="283" max="283" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="6.90625" customWidth="1"/>
-    <col min="289" max="289" width="6.6328125" customWidth="1"/>
-    <col min="290" max="290" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="291" max="291" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="295" max="295" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="296" max="296" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="297" max="297" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="6" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="26" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="24.54296875" customWidth="1"/>
+    <col min="107" max="107" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="6" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="10.26953125" customWidth="1"/>
+    <col min="132" max="132" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="8.7265625" customWidth="1"/>
+    <col min="134" max="134" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="10.26953125" customWidth="1"/>
+    <col min="148" max="148" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="6.1796875" customWidth="1"/>
+    <col min="152" max="152" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="12" bestFit="1" customWidth="1"/>
+    <col min="159" max="160" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="10" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="12.7265625" customWidth="1"/>
+    <col min="164" max="164" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="6" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="6.6328125" customWidth="1"/>
+    <col min="169" max="169" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="10" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="27" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="7.81640625" customWidth="1"/>
+    <col min="204" max="204" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="6" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="7.81640625" customWidth="1"/>
+    <col min="209" max="209" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="7.81640625" customWidth="1"/>
+    <col min="215" max="215" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="6.36328125" customWidth="1"/>
+    <col min="224" max="224" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="6.6328125" customWidth="1"/>
+    <col min="230" max="230" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="6.6328125" customWidth="1"/>
+    <col min="234" max="234" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="237" max="238" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="10" customWidth="1"/>
+    <col min="250" max="250" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="18.54296875" customWidth="1"/>
+    <col min="264" max="264" width="16.453125" customWidth="1"/>
+    <col min="265" max="265" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="6.90625" customWidth="1"/>
+    <col min="290" max="290" width="6.6328125" customWidth="1"/>
+    <col min="291" max="291" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="296" max="296" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="297" max="297" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:301" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:302" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F1" s="7" t="s">
         <v>20</v>
       </c>
@@ -2225,10 +2226,10 @@
       <c r="DH1" s="7"/>
       <c r="DI1" s="7"/>
       <c r="DJ1" s="7"/>
-      <c r="DK1" s="7" t="s">
+      <c r="DK1" s="7"/>
+      <c r="DL1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="DL1" s="7"/>
       <c r="DM1" s="7"/>
       <c r="DN1" s="7"/>
       <c r="DO1" s="7"/>
@@ -2414,8 +2415,9 @@
       <c r="KM1" s="7"/>
       <c r="KN1" s="7"/>
       <c r="KO1" s="7"/>
+      <c r="KP1" s="7"/>
     </row>
-    <row r="2" spans="1:301" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:302" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -2582,61 +2584,61 @@
         <v>423</v>
       </c>
       <c r="DK2" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="DL2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="DL2" s="3" t="s">
+      <c r="DM2" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="DM2" s="3" t="s">
+      <c r="DN2" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="DN2" s="3" t="s">
+      <c r="DO2" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="DO2" s="4" t="s">
+      <c r="DP2" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="DP2" s="3" t="s">
+      <c r="DQ2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="DQ2" s="4" t="s">
+      <c r="DR2" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="DR2" s="3" t="s">
+      <c r="DS2" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="DS2" s="4" t="s">
+      <c r="DT2" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="DT2" s="3" t="s">
+      <c r="DU2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="DU2" s="3" t="s">
+      <c r="DV2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="DV2" s="4" t="s">
+      <c r="DW2" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="DW2" s="3" t="s">
+      <c r="DX2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="DX2" s="4" t="s">
+      <c r="DY2" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="DY2" s="4" t="s">
+      <c r="DZ2" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="DZ2" s="3" t="s">
+      <c r="EA2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="EA2" s="4" t="s">
+      <c r="EB2" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="EB2" s="4" t="s">
+      <c r="EC2" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="EC2" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="ED2" s="3" t="s">
         <v>396</v>
@@ -2645,67 +2647,67 @@
         <v>396</v>
       </c>
       <c r="EF2" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="EG2" s="3" t="s">
         <v>393</v>
       </c>
       <c r="EH2" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="EI2" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="EI2" s="3" t="s">
+      <c r="EJ2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="EJ2" s="3" t="s">
+      <c r="EK2" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="EK2" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="EL2" s="3" t="s">
         <v>397</v>
       </c>
       <c r="EM2" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="EN2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="EN2" s="4" t="s">
+      <c r="EO2" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="EO2" s="3" t="s">
+      <c r="EP2" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="EP2" s="4" t="s">
+      <c r="EQ2" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="EQ2" s="3" t="s">
+      <c r="ER2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="ER2" s="3" t="s">
+      <c r="ES2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="ES2" s="3" t="s">
+      <c r="ET2" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="ET2" s="4" t="s">
+      <c r="EU2" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="EU2" s="4" t="s">
+      <c r="EV2" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="EV2" s="3" t="s">
+      <c r="EW2" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="EW2" s="3" t="s">
+      <c r="EX2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="EX2" s="4" t="s">
+      <c r="EY2" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="EY2" s="3" t="s">
+      <c r="EZ2" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="EZ2" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="FA2" s="3" t="s">
         <v>397</v>
@@ -2716,41 +2718,41 @@
       <c r="FC2" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="FD2" s="4" t="s">
+      <c r="FD2" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="FE2" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="FE2" s="3" t="s">
+      <c r="FF2" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="FF2" s="3" t="s">
+      <c r="FG2" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="FG2" s="3" t="s">
+      <c r="FH2" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="FH2" s="3" t="s">
+      <c r="FI2" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="FI2" s="4" t="s">
+      <c r="FJ2" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="FJ2" s="3" t="s">
+      <c r="FK2" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="FK2" s="4" t="s">
+      <c r="FL2" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="FL2" s="3" t="s">
+      <c r="FM2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="FM2" s="3" t="s">
+      <c r="FN2" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="FN2" s="3" t="s">
+      <c r="FO2" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="FO2" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="FP2" s="3" t="s">
         <v>397</v>
@@ -2774,34 +2776,34 @@
         <v>397</v>
       </c>
       <c r="FW2" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="FX2" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="FX2" s="3" t="s">
+      <c r="FY2" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="FY2" s="3" t="s">
+      <c r="FZ2" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="FZ2" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="GA2" s="3" t="s">
         <v>69</v>
       </c>
       <c r="GB2" s="3" t="s">
-        <v>398</v>
+        <v>69</v>
       </c>
       <c r="GC2" s="3" t="s">
         <v>398</v>
       </c>
       <c r="GD2" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="GE2" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="GE2" s="3" t="s">
+      <c r="GF2" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="GF2" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="GG2" s="3" t="s">
         <v>69</v>
@@ -2813,202 +2815,202 @@
         <v>69</v>
       </c>
       <c r="GJ2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="GK2" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="GK2" s="3" t="s">
+      <c r="GL2" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="GL2" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="GM2" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="GN2" s="4" t="s">
+      <c r="GN2" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="GO2" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="GO2" s="3" t="s">
+      <c r="GP2" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="GP2" s="3" t="s">
+      <c r="GQ2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="GQ2" s="3" t="s">
+      <c r="GR2" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="GR2" s="6" t="s">
+      <c r="GS2" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="GS2" s="4" t="s">
+      <c r="GT2" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="GT2" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="GU2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="GV2" s="4" t="s">
+      <c r="GV2" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="GW2" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="GW2" s="4" t="s">
+      <c r="GX2" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="GX2" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="GY2" s="3" t="s">
         <v>393</v>
       </c>
       <c r="GZ2" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="HA2" s="3" t="s">
         <v>397</v>
       </c>
       <c r="HB2" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="HC2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="HC2" s="4" t="s">
+      <c r="HD2" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="HD2" s="3" t="s">
+      <c r="HE2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="HE2" s="3" t="s">
+      <c r="HF2" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="HF2" s="4" t="s">
+      <c r="HG2" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="HG2" s="4" t="s">
+      <c r="HH2" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="HH2" s="3" t="s">
+      <c r="HI2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="HI2" s="3" t="s">
+      <c r="HJ2" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="HJ2" s="4" t="s">
+      <c r="HK2" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="HK2" s="3" t="s">
+      <c r="HL2" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="HL2" s="4" t="s">
+      <c r="HM2" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="HM2" s="3" t="s">
+      <c r="HN2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="HN2" s="4" t="s">
+      <c r="HO2" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="HO2" s="3" t="s">
+      <c r="HP2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="HP2" s="4" t="s">
+      <c r="HQ2" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="HQ2" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="HR2" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="HS2" s="4" t="s">
+      <c r="HS2" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="HT2" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="HT2" s="4" t="s">
+      <c r="HU2" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="HU2" s="3" t="s">
+      <c r="HV2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="HV2" s="4" t="s">
+      <c r="HW2" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="HW2" s="4" t="s">
+      <c r="HX2" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="HX2" s="4" t="s">
+      <c r="HY2" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="HY2" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="HZ2" s="3" t="s">
         <v>393</v>
       </c>
       <c r="IA2" s="3" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="IB2" s="3" t="s">
         <v>401</v>
       </c>
       <c r="IC2" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="ID2" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="ID2" s="3" t="s">
+      <c r="IE2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="IE2" s="3" t="s">
+      <c r="IF2" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="IF2" s="4" t="s">
+      <c r="IG2" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="IG2" s="3" t="s">
+      <c r="IH2" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="IH2" s="4" t="s">
+      <c r="II2" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="II2" s="3" t="s">
+      <c r="IJ2" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="IJ2" s="4" t="s">
+      <c r="IK2" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="IK2" s="3" t="s">
+      <c r="IL2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="IL2" s="3" t="s">
+      <c r="IM2" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="IM2" s="3" t="s">
+      <c r="IN2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="IN2" s="3" t="s">
+      <c r="IO2" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="IO2" s="6" t="s">
+      <c r="IP2" s="6" t="s">
         <v>435</v>
-      </c>
-      <c r="IP2" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="IQ2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="IR2" s="4" t="s">
+      <c r="IR2" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="IS2" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="IS2" s="3" t="s">
+      <c r="IT2" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="IT2" s="3" t="s">
+      <c r="IU2" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="IU2" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="IV2" s="3" t="s">
         <v>393</v>
       </c>
       <c r="IW2" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="IX2" s="3" t="s">
         <v>397</v>
@@ -3031,44 +3033,44 @@
       <c r="JD2" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="JE2" s="4" t="s">
+      <c r="JE2" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="JF2" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="JF2" s="3" t="s">
+      <c r="JG2" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="JG2" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="JH2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="JI2" s="4" t="s">
+      <c r="JI2" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="JJ2" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="JJ2" s="3" t="s">
+      <c r="JK2" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="JK2" s="3" t="s">
+      <c r="JL2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="JL2" s="6" t="s">
+      <c r="JM2" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="JM2" s="3" t="s">
+      <c r="JN2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="JN2" s="3" t="s">
+      <c r="JO2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="JO2" s="4" t="s">
+      <c r="JP2" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="JP2" s="3" t="s">
+      <c r="JQ2" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="JQ2" s="3" t="s">
-        <v>410</v>
       </c>
       <c r="JR2" s="3" t="s">
         <v>410</v>
@@ -3080,70 +3082,73 @@
         <v>410</v>
       </c>
       <c r="JU2" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="JV2" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="JV2" s="4" t="s">
+      <c r="JW2" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="JW2" s="3" t="s">
+      <c r="JX2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="JX2" s="4" t="s">
+      <c r="JY2" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="JY2" s="3" t="s">
+      <c r="JZ2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="JZ2" s="4" t="s">
+      <c r="KA2" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="KA2" s="3" t="s">
+      <c r="KB2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="KB2" s="4" t="s">
+      <c r="KC2" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="KC2" s="4" t="s">
+      <c r="KD2" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="KD2" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="KE2" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="KF2" s="4" t="s">
+      <c r="KF2" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="KG2" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="KG2" s="3" t="s">
+      <c r="KH2" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="KH2" s="4" t="s">
+      <c r="KI2" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="KI2" s="4" t="s">
+      <c r="KJ2" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="KJ2" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="KK2" s="3" t="s">
         <v>393</v>
       </c>
       <c r="KL2" s="3" t="s">
-        <v>69</v>
+        <v>393</v>
       </c>
       <c r="KM2" s="3" t="s">
         <v>69</v>
       </c>
       <c r="KN2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="KO2" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="KO2" s="6" t="s">
+      <c r="KP2" s="6" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="3" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>263</v>
       </c>
@@ -3418,637 +3423,640 @@
         <v>86</v>
       </c>
       <c r="CN3" t="s">
+        <v>233</v>
+      </c>
+      <c r="CO3" t="s">
         <v>16</v>
       </c>
-      <c r="CO3" t="s">
+      <c r="CP3" t="s">
         <v>15</v>
       </c>
-      <c r="CP3" t="s">
+      <c r="CQ3" t="s">
         <v>42</v>
       </c>
-      <c r="CQ3" t="s">
+      <c r="CR3" t="s">
         <v>150</v>
       </c>
-      <c r="CR3" t="s">
+      <c r="CS3" t="s">
         <v>18</v>
       </c>
-      <c r="CS3" t="s">
+      <c r="CT3" t="s">
         <v>88</v>
       </c>
-      <c r="CT3" t="s">
+      <c r="CU3" t="s">
         <v>216</v>
       </c>
-      <c r="CU3" t="s">
+      <c r="CV3" t="s">
         <v>217</v>
       </c>
-      <c r="CV3" t="s">
+      <c r="CW3" t="s">
         <v>54</v>
       </c>
-      <c r="CW3" t="s">
+      <c r="CX3" t="s">
         <v>351</v>
       </c>
-      <c r="CX3" t="s">
+      <c r="CY3" t="s">
         <v>215</v>
       </c>
-      <c r="CY3" t="s">
+      <c r="CZ3" t="s">
         <v>322</v>
       </c>
-      <c r="CZ3" t="s">
+      <c r="DA3" t="s">
         <v>319</v>
       </c>
-      <c r="DA3" t="s">
+      <c r="DB3" t="s">
         <v>320</v>
       </c>
-      <c r="DB3" t="s">
+      <c r="DC3" t="s">
         <v>322</v>
       </c>
-      <c r="DC3" t="s">
+      <c r="DD3" t="s">
         <v>328</v>
       </c>
-      <c r="DD3" t="s">
+      <c r="DE3" t="s">
         <v>127</v>
       </c>
-      <c r="DE3" t="s">
+      <c r="DF3" t="s">
         <v>170</v>
       </c>
-      <c r="DF3" t="s">
+      <c r="DG3" t="s">
         <v>89</v>
       </c>
-      <c r="DG3" t="s">
+      <c r="DH3" t="s">
         <v>19</v>
       </c>
-      <c r="DH3" t="s">
+      <c r="DI3" t="s">
         <v>139</v>
       </c>
-      <c r="DI3" t="s">
+      <c r="DJ3" t="s">
         <v>241</v>
       </c>
-      <c r="DJ3" t="s">
+      <c r="DK3" t="s">
         <v>4</v>
       </c>
-      <c r="DK3" t="s">
+      <c r="DL3" t="s">
         <v>44</v>
       </c>
-      <c r="DL3" t="s">
+      <c r="DM3" t="s">
         <v>227</v>
       </c>
-      <c r="DM3" t="s">
+      <c r="DN3" t="s">
         <v>191</v>
       </c>
-      <c r="DN3" t="s">
+      <c r="DO3" t="s">
         <v>286</v>
       </c>
-      <c r="DO3" t="s">
+      <c r="DP3" t="s">
         <v>47</v>
       </c>
-      <c r="DP3" t="s">
+      <c r="DQ3" t="s">
         <v>138</v>
       </c>
-      <c r="DQ3" t="s">
+      <c r="DR3" t="s">
         <v>182</v>
       </c>
-      <c r="DR3" t="s">
+      <c r="DS3" t="s">
         <v>360</v>
       </c>
-      <c r="DS3" t="s">
+      <c r="DT3" t="s">
         <v>62</v>
       </c>
-      <c r="DT3" t="s">
+      <c r="DU3" t="s">
         <v>90</v>
       </c>
-      <c r="DU3" t="s">
+      <c r="DV3" t="s">
         <v>49</v>
       </c>
-      <c r="DV3" t="s">
+      <c r="DW3" t="s">
         <v>13</v>
       </c>
-      <c r="DW3" t="s">
+      <c r="DX3" t="s">
         <v>72</v>
       </c>
-      <c r="DX3" t="s">
+      <c r="DY3" t="s">
         <v>294</v>
       </c>
-      <c r="DY3" t="s">
+      <c r="DZ3" t="s">
         <v>118</v>
       </c>
-      <c r="DZ3" t="s">
+      <c r="EA3" t="s">
         <v>102</v>
       </c>
-      <c r="EA3" t="s">
+      <c r="EB3" t="s">
         <v>58</v>
       </c>
-      <c r="EB3" t="s">
+      <c r="EC3" t="s">
         <v>117</v>
       </c>
-      <c r="EC3" s="5" t="s">
+      <c r="ED3" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="ED3" s="5" t="s">
+      <c r="EE3" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="EE3" s="5" t="s">
+      <c r="EF3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="EF3" t="s">
+      <c r="EG3" t="s">
         <v>130</v>
       </c>
-      <c r="EG3" t="s">
+      <c r="EH3" t="s">
         <v>143</v>
       </c>
-      <c r="EH3" s="5" t="s">
+      <c r="EI3" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="EI3" t="s">
+      <c r="EJ3" t="s">
         <v>324</v>
       </c>
-      <c r="EJ3" t="s">
+      <c r="EK3" t="s">
         <v>293</v>
       </c>
-      <c r="EK3" t="s">
+      <c r="EL3" t="s">
         <v>297</v>
       </c>
-      <c r="EL3" t="s">
+      <c r="EM3" t="s">
         <v>361</v>
       </c>
-      <c r="EM3" t="s">
+      <c r="EN3" t="s">
         <v>335</v>
       </c>
-      <c r="EN3" t="s">
+      <c r="EO3" t="s">
         <v>190</v>
       </c>
-      <c r="EO3" t="s">
+      <c r="EP3" t="s">
         <v>329</v>
       </c>
-      <c r="EP3" t="s">
+      <c r="EQ3" t="s">
         <v>71</v>
       </c>
-      <c r="EQ3" t="s">
+      <c r="ER3" t="s">
         <v>97</v>
       </c>
-      <c r="ER3" t="s">
+      <c r="ES3" t="s">
         <v>73</v>
       </c>
-      <c r="ES3" s="5" t="s">
+      <c r="ET3" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="ET3" t="s">
+      <c r="EU3" t="s">
         <v>61</v>
       </c>
-      <c r="EU3" t="s">
+      <c r="EV3" t="s">
         <v>132</v>
       </c>
-      <c r="EV3" s="5" t="s">
+      <c r="EW3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="EW3" t="s">
+      <c r="EX3" t="s">
         <v>65</v>
       </c>
-      <c r="EX3" t="s">
+      <c r="EY3" t="s">
         <v>64</v>
       </c>
-      <c r="EY3" t="s">
+      <c r="EZ3" t="s">
         <v>85</v>
       </c>
-      <c r="EZ3" t="s">
+      <c r="FA3" t="s">
         <v>274</v>
       </c>
-      <c r="FA3" t="s">
+      <c r="FB3" t="s">
         <v>279</v>
       </c>
-      <c r="FB3" t="s">
+      <c r="FC3" t="s">
         <v>278</v>
       </c>
-      <c r="FC3" t="s">
+      <c r="FD3" t="s">
         <v>275</v>
       </c>
-      <c r="FD3" t="s">
+      <c r="FE3" t="s">
         <v>176</v>
       </c>
-      <c r="FE3" t="s">
+      <c r="FF3" t="s">
         <v>291</v>
       </c>
-      <c r="FF3" t="s">
+      <c r="FG3" t="s">
         <v>359</v>
       </c>
-      <c r="FG3" t="s">
+      <c r="FH3" t="s">
         <v>266</v>
       </c>
-      <c r="FH3" t="s">
+      <c r="FI3" t="s">
         <v>289</v>
       </c>
-      <c r="FI3" t="s">
+      <c r="FJ3" t="s">
         <v>46</v>
       </c>
-      <c r="FJ3" t="s">
+      <c r="FK3" t="s">
         <v>169</v>
       </c>
-      <c r="FK3" t="s">
+      <c r="FL3" t="s">
         <v>7</v>
       </c>
-      <c r="FL3" t="s">
+      <c r="FM3" t="s">
         <v>204</v>
       </c>
-      <c r="FM3" s="5" t="s">
+      <c r="FN3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="FN3" s="5" t="s">
+      <c r="FO3" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="FO3" t="s">
+      <c r="FP3" t="s">
         <v>265</v>
       </c>
-      <c r="FP3" t="s">
+      <c r="FQ3" t="s">
         <v>282</v>
       </c>
-      <c r="FQ3" t="s">
+      <c r="FR3" t="s">
         <v>304</v>
       </c>
-      <c r="FR3" t="s">
+      <c r="FS3" t="s">
         <v>284</v>
       </c>
-      <c r="FS3" t="s">
+      <c r="FT3" t="s">
         <v>358</v>
       </c>
-      <c r="FT3" t="s">
+      <c r="FU3" t="s">
         <v>285</v>
       </c>
-      <c r="FU3" t="s">
+      <c r="FV3" t="s">
         <v>347</v>
       </c>
-      <c r="FV3" t="s">
+      <c r="FW3" t="s">
         <v>288</v>
       </c>
-      <c r="FW3" t="s">
+      <c r="FX3" t="s">
         <v>295</v>
       </c>
-      <c r="FX3" t="s">
+      <c r="FY3" t="s">
         <v>308</v>
       </c>
-      <c r="FY3" t="s">
+      <c r="FZ3" t="s">
         <v>306</v>
       </c>
-      <c r="FZ3" t="s">
+      <c r="GA3" t="s">
         <v>226</v>
       </c>
-      <c r="GA3" t="s">
+      <c r="GB3" t="s">
         <v>78</v>
       </c>
-      <c r="GB3" t="s">
+      <c r="GC3" t="s">
         <v>337</v>
       </c>
-      <c r="GC3" t="s">
+      <c r="GD3" t="s">
         <v>338</v>
       </c>
-      <c r="GD3" t="s">
+      <c r="GE3" t="s">
         <v>264</v>
       </c>
-      <c r="GE3" t="s">
+      <c r="GF3" t="s">
         <v>366</v>
       </c>
-      <c r="GF3" t="s">
+      <c r="GG3" t="s">
         <v>101</v>
       </c>
-      <c r="GG3" t="s">
+      <c r="GH3" t="s">
         <v>212</v>
       </c>
-      <c r="GH3" t="s">
+      <c r="GI3" t="s">
         <v>221</v>
       </c>
-      <c r="GI3" t="s">
+      <c r="GJ3" t="s">
         <v>98</v>
       </c>
-      <c r="GJ3" s="5" t="s">
+      <c r="GK3" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="GK3" t="s">
+      <c r="GL3" t="s">
         <v>93</v>
       </c>
-      <c r="GL3" t="s">
+      <c r="GM3" t="s">
         <v>309</v>
       </c>
-      <c r="GM3" t="s">
+      <c r="GN3" t="s">
         <v>310</v>
       </c>
-      <c r="GN3" t="s">
+      <c r="GO3" t="s">
         <v>136</v>
       </c>
-      <c r="GO3" s="5" t="s">
+      <c r="GP3" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="GP3" t="s">
+      <c r="GQ3" t="s">
         <v>69</v>
       </c>
-      <c r="GQ3" s="5" t="s">
+      <c r="GR3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="GR3" t="s">
+      <c r="GS3" t="s">
         <v>81</v>
       </c>
-      <c r="GS3" t="s">
+      <c r="GT3" t="s">
         <v>197</v>
       </c>
-      <c r="GT3" t="s">
+      <c r="GU3" t="s">
         <v>48</v>
       </c>
-      <c r="GU3" t="s">
+      <c r="GV3" t="s">
         <v>99</v>
       </c>
-      <c r="GV3" t="s">
+      <c r="GW3" t="s">
         <v>91</v>
       </c>
-      <c r="GW3" t="s">
+      <c r="GX3" t="s">
         <v>302</v>
       </c>
-      <c r="GX3" t="s">
+      <c r="GY3" t="s">
         <v>183</v>
       </c>
-      <c r="GY3" t="s">
+      <c r="GZ3" t="s">
         <v>106</v>
       </c>
-      <c r="GZ3" t="s">
+      <c r="HA3" t="s">
         <v>267</v>
       </c>
-      <c r="HA3" t="s">
+      <c r="HB3" t="s">
         <v>271</v>
       </c>
-      <c r="HB3" t="s">
+      <c r="HC3" t="s">
         <v>67</v>
       </c>
-      <c r="HC3" t="s">
+      <c r="HD3" t="s">
         <v>343</v>
       </c>
-      <c r="HD3" t="s">
+      <c r="HE3" t="s">
         <v>323</v>
       </c>
-      <c r="HE3" s="5" t="s">
+      <c r="HF3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="HF3" t="s">
+      <c r="HG3" t="s">
         <v>79</v>
       </c>
-      <c r="HG3" t="s">
+      <c r="HH3" t="s">
         <v>280</v>
       </c>
-      <c r="HH3" t="s">
+      <c r="HI3" t="s">
         <v>145</v>
       </c>
-      <c r="HI3" t="s">
+      <c r="HJ3" t="s">
         <v>462</v>
       </c>
-      <c r="HJ3" t="s">
+      <c r="HK3" t="s">
         <v>129</v>
       </c>
-      <c r="HK3" t="s">
+      <c r="HL3" t="s">
         <v>276</v>
       </c>
-      <c r="HL3" t="s">
+      <c r="HM3" t="s">
         <v>56</v>
       </c>
-      <c r="HM3" t="s">
+      <c r="HN3" t="s">
         <v>383</v>
       </c>
-      <c r="HN3" t="s">
+      <c r="HO3" t="s">
         <v>75</v>
       </c>
-      <c r="HO3" t="s">
+      <c r="HP3" t="s">
         <v>152</v>
       </c>
-      <c r="HP3" t="s">
+      <c r="HQ3" t="s">
         <v>8</v>
       </c>
-      <c r="HQ3" s="5" t="s">
+      <c r="HR3" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="HR3" s="5" t="s">
+      <c r="HS3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="HS3" t="s">
+      <c r="HT3" t="s">
         <v>52</v>
       </c>
-      <c r="HT3" t="s">
+      <c r="HU3" t="s">
         <v>207</v>
       </c>
-      <c r="HU3" t="s">
+      <c r="HV3" t="s">
         <v>116</v>
       </c>
-      <c r="HV3" t="s">
+      <c r="HW3" t="s">
         <v>96</v>
       </c>
-      <c r="HW3" t="s">
+      <c r="HX3" t="s">
         <v>87</v>
       </c>
-      <c r="HX3" t="s">
+      <c r="HY3" t="s">
         <v>76</v>
       </c>
-      <c r="HY3" t="s">
+      <c r="HZ3" t="s">
         <v>209</v>
       </c>
-      <c r="HZ3" t="s">
+      <c r="IA3" t="s">
         <v>57</v>
       </c>
-      <c r="IA3" s="5" t="s">
+      <c r="IB3" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="IB3" s="5" t="s">
+      <c r="IC3" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="IC3" t="s">
+      <c r="ID3" t="s">
         <v>367</v>
       </c>
-      <c r="ID3" t="s">
+      <c r="IE3" t="s">
         <v>107</v>
       </c>
-      <c r="IE3" s="5" t="s">
+      <c r="IF3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="IF3" t="s">
+      <c r="IG3" t="s">
         <v>11</v>
       </c>
-      <c r="IG3" t="s">
+      <c r="IH3" t="s">
         <v>181</v>
       </c>
-      <c r="IH3" t="s">
+      <c r="II3" t="s">
         <v>68</v>
       </c>
-      <c r="II3" t="s">
+      <c r="IJ3" t="s">
         <v>134</v>
       </c>
-      <c r="IJ3" t="s">
+      <c r="IK3" t="s">
         <v>10</v>
       </c>
-      <c r="IK3" t="s">
+      <c r="IL3" t="s">
         <v>283</v>
       </c>
-      <c r="IL3" t="s">
+      <c r="IM3" t="s">
         <v>303</v>
       </c>
-      <c r="IM3" t="s">
+      <c r="IN3" t="s">
         <v>301</v>
       </c>
-      <c r="IN3" s="5" t="s">
+      <c r="IO3" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="IO3" t="s">
+      <c r="IP3" t="s">
         <v>180</v>
       </c>
-      <c r="IP3" t="s">
+      <c r="IQ3" t="s">
         <v>326</v>
       </c>
-      <c r="IQ3" t="s">
+      <c r="IR3" t="s">
         <v>195</v>
       </c>
-      <c r="IR3" t="s">
+      <c r="IS3" t="s">
         <v>94</v>
       </c>
-      <c r="IS3" t="s">
+      <c r="IT3" t="s">
         <v>74</v>
       </c>
-      <c r="IT3" s="5" t="s">
+      <c r="IU3" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="IU3" t="s">
+      <c r="IV3" t="s">
         <v>137</v>
       </c>
-      <c r="IV3" t="s">
+      <c r="IW3" t="s">
         <v>151</v>
       </c>
-      <c r="IW3" t="s">
+      <c r="IX3" t="s">
         <v>348</v>
       </c>
-      <c r="IX3" t="s">
+      <c r="IY3" t="s">
         <v>290</v>
       </c>
-      <c r="IY3" t="s">
+      <c r="IZ3" t="s">
         <v>307</v>
       </c>
-      <c r="IZ3" t="s">
+      <c r="JA3" t="s">
         <v>268</v>
       </c>
-      <c r="JA3" t="s">
+      <c r="JB3" t="s">
         <v>305</v>
       </c>
-      <c r="JB3" t="s">
+      <c r="JC3" t="s">
         <v>350</v>
       </c>
-      <c r="JC3" t="s">
+      <c r="JD3" t="s">
         <v>269</v>
       </c>
-      <c r="JD3" t="s">
+      <c r="JE3" t="s">
         <v>270</v>
       </c>
-      <c r="JE3" t="s">
+      <c r="JF3" t="s">
         <v>5</v>
       </c>
-      <c r="JF3" s="5" t="s">
+      <c r="JG3" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="JG3" t="s">
+      <c r="JH3" t="s">
         <v>353</v>
       </c>
-      <c r="JH3" t="s">
+      <c r="JI3" t="s">
         <v>292</v>
       </c>
-      <c r="JI3" t="s">
+      <c r="JJ3" t="s">
         <v>17</v>
       </c>
-      <c r="JJ3" t="s">
+      <c r="JK3" t="s">
         <v>121</v>
       </c>
-      <c r="JK3" t="s">
+      <c r="JL3" t="s">
         <v>222</v>
       </c>
-      <c r="JL3" t="s">
+      <c r="JM3" t="s">
         <v>59</v>
       </c>
-      <c r="JM3" t="s">
+      <c r="JN3" t="s">
         <v>95</v>
       </c>
-      <c r="JN3" t="s">
+      <c r="JO3" t="s">
         <v>334</v>
       </c>
-      <c r="JO3" t="s">
+      <c r="JP3" t="s">
         <v>325</v>
       </c>
-      <c r="JP3" t="s">
+      <c r="JQ3" t="s">
         <v>144</v>
       </c>
-      <c r="JQ3" t="s">
+      <c r="JR3" t="s">
         <v>388</v>
       </c>
-      <c r="JR3" t="s">
+      <c r="JS3" t="s">
         <v>53</v>
       </c>
-      <c r="JS3" t="s">
+      <c r="JT3" t="s">
         <v>392</v>
       </c>
-      <c r="JT3" t="s">
+      <c r="JU3" t="s">
         <v>296</v>
       </c>
-      <c r="JU3" t="s">
+      <c r="JV3" t="s">
         <v>135</v>
       </c>
-      <c r="JV3" t="s">
+      <c r="JW3" t="s">
         <v>287</v>
       </c>
-      <c r="JW3" t="s">
+      <c r="JX3" t="s">
         <v>100</v>
       </c>
-      <c r="JX3" t="s">
+      <c r="JY3" t="s">
         <v>349</v>
       </c>
-      <c r="JY3" t="s">
+      <c r="JZ3" t="s">
         <v>346</v>
       </c>
-      <c r="JZ3" t="s">
+      <c r="KA3" t="s">
         <v>63</v>
       </c>
-      <c r="KA3" t="s">
+      <c r="KB3" t="s">
         <v>205</v>
       </c>
-      <c r="KB3" t="s">
+      <c r="KC3" t="s">
         <v>120</v>
       </c>
-      <c r="KC3" t="s">
+      <c r="KD3" t="s">
         <v>12</v>
       </c>
-      <c r="KD3" t="s">
+      <c r="KE3" t="s">
         <v>273</v>
       </c>
-      <c r="KE3" t="s">
+      <c r="KF3" t="s">
         <v>272</v>
       </c>
-      <c r="KF3" t="s">
+      <c r="KG3" t="s">
         <v>208</v>
       </c>
-      <c r="KG3" s="5" t="s">
+      <c r="KH3" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="KH3" t="s">
+      <c r="KI3" t="s">
         <v>6</v>
       </c>
-      <c r="KI3" t="s">
+      <c r="KJ3" t="s">
         <v>277</v>
       </c>
-      <c r="KJ3" t="s">
+      <c r="KK3" t="s">
         <v>80</v>
       </c>
-      <c r="KK3" t="s">
+      <c r="KL3" t="s">
         <v>206</v>
       </c>
-      <c r="KL3" t="s">
+      <c r="KM3" t="s">
         <v>92</v>
       </c>
-      <c r="KM3" t="s">
+      <c r="KN3" t="s">
         <v>70</v>
       </c>
-      <c r="KN3" t="s">
+      <c r="KO3" t="s">
         <v>77</v>
       </c>
-      <c r="KO3" t="s">
+      <c r="KP3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>371</v>
       </c>
@@ -4323,22 +4331,22 @@
         <v>0</v>
       </c>
       <c r="CN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO4">
         <v>1</v>
       </c>
       <c r="CP4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ4">
         <v>0</v>
       </c>
       <c r="CR4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT4">
         <v>0</v>
@@ -4380,19 +4388,19 @@
         <v>0</v>
       </c>
       <c r="DG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
         <v>1</v>
       </c>
       <c r="DK4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL4">
         <v>0</v>
@@ -4404,10 +4412,10 @@
         <v>0</v>
       </c>
       <c r="DO4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ4">
         <v>0</v>
@@ -4422,13 +4430,13 @@
         <v>0</v>
       </c>
       <c r="DU4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV4">
         <v>1</v>
       </c>
       <c r="DW4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX4">
         <v>0</v>
@@ -4548,10 +4556,10 @@
         <v>0</v>
       </c>
       <c r="FK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM4">
         <v>0</v>
@@ -4653,10 +4661,10 @@
         <v>0</v>
       </c>
       <c r="GT4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GU4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GV4">
         <v>0</v>
@@ -4695,10 +4703,10 @@
         <v>0</v>
       </c>
       <c r="HH4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
         <v>0</v>
@@ -4719,16 +4727,16 @@
         <v>0</v>
       </c>
       <c r="HP4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HS4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT4">
         <v>0</v>
@@ -4764,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="IE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF4">
         <v>1</v>
       </c>
       <c r="IG4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH4">
         <v>0</v>
@@ -4779,10 +4787,10 @@
         <v>0</v>
       </c>
       <c r="IJ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL4">
         <v>0</v>
@@ -4842,10 +4850,10 @@
         <v>0</v>
       </c>
       <c r="JE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG4">
         <v>0</v>
@@ -4854,10 +4862,10 @@
         <v>0</v>
       </c>
       <c r="JI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK4">
         <v>0</v>
@@ -4914,10 +4922,10 @@
         <v>0</v>
       </c>
       <c r="KC4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KE4">
         <v>0</v>
@@ -4929,10 +4937,10 @@
         <v>0</v>
       </c>
       <c r="KH4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KI4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ4">
         <v>0</v>
@@ -4952,8 +4960,11 @@
       <c r="KO4">
         <v>0</v>
       </c>
+      <c r="KP4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>371</v>
       </c>
@@ -5228,22 +5239,22 @@
         <v>0</v>
       </c>
       <c r="CN5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO5">
         <v>1</v>
       </c>
       <c r="CP5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ5">
         <v>0</v>
       </c>
       <c r="CR5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT5">
         <v>0</v>
@@ -5285,10 +5296,10 @@
         <v>0</v>
       </c>
       <c r="DG5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI5">
         <v>0</v>
@@ -5309,10 +5320,10 @@
         <v>0</v>
       </c>
       <c r="DO5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ5">
         <v>0</v>
@@ -5453,10 +5464,10 @@
         <v>0</v>
       </c>
       <c r="FK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM5">
         <v>0</v>
@@ -5600,10 +5611,10 @@
         <v>0</v>
       </c>
       <c r="HH5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
         <v>0</v>
@@ -5669,13 +5680,13 @@
         <v>0</v>
       </c>
       <c r="IE5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF5">
         <v>1</v>
       </c>
       <c r="IG5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH5">
         <v>0</v>
@@ -5684,10 +5695,10 @@
         <v>0</v>
       </c>
       <c r="IJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL5">
         <v>0</v>
@@ -5747,10 +5758,10 @@
         <v>0</v>
       </c>
       <c r="JE5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG5">
         <v>0</v>
@@ -5759,10 +5770,10 @@
         <v>0</v>
       </c>
       <c r="JI5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK5">
         <v>0</v>
@@ -5834,10 +5845,10 @@
         <v>0</v>
       </c>
       <c r="KH5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KI5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ5">
         <v>0</v>
@@ -5857,8 +5868,11 @@
       <c r="KO5">
         <v>0</v>
       </c>
+      <c r="KP5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>371</v>
       </c>
@@ -6133,16 +6147,16 @@
         <v>0</v>
       </c>
       <c r="CN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO6">
         <v>0</v>
       </c>
       <c r="CP6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR6">
         <v>0</v>
@@ -6202,10 +6216,10 @@
         <v>0</v>
       </c>
       <c r="DK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM6">
         <v>0</v>
@@ -6262,10 +6276,10 @@
         <v>0</v>
       </c>
       <c r="EE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG6">
         <v>0</v>
@@ -6352,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="FI6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK6">
         <v>0</v>
@@ -6364,10 +6378,10 @@
         <v>0</v>
       </c>
       <c r="FM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO6">
         <v>0</v>
@@ -6505,10 +6519,10 @@
         <v>0</v>
       </c>
       <c r="HH6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
         <v>0</v>
@@ -6529,10 +6543,10 @@
         <v>0</v>
       </c>
       <c r="HP6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR6">
         <v>0</v>
@@ -6589,10 +6603,10 @@
         <v>0</v>
       </c>
       <c r="IJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL6">
         <v>0</v>
@@ -6652,10 +6666,10 @@
         <v>0</v>
       </c>
       <c r="JE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG6">
         <v>0</v>
@@ -6762,8 +6776,11 @@
       <c r="KO6">
         <v>0</v>
       </c>
+      <c r="KP6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>371</v>
       </c>
@@ -7140,13 +7157,13 @@
         <v>0</v>
       </c>
       <c r="DV7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW7">
         <v>1</v>
       </c>
       <c r="DX7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY7">
         <v>0</v>
@@ -7155,10 +7172,10 @@
         <v>0</v>
       </c>
       <c r="EA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC7">
         <v>0</v>
@@ -7200,16 +7217,16 @@
         <v>0</v>
       </c>
       <c r="EP7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ES7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET7">
         <v>0</v>
@@ -7263,16 +7280,16 @@
         <v>0</v>
       </c>
       <c r="FK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO7">
         <v>0</v>
@@ -7311,10 +7328,10 @@
         <v>0</v>
       </c>
       <c r="GA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GC7">
         <v>0</v>
@@ -7356,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="GP7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GQ7">
         <v>1</v>
@@ -7365,7 +7382,7 @@
         <v>1</v>
       </c>
       <c r="GS7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GT7">
         <v>0</v>
@@ -7392,10 +7409,10 @@
         <v>0</v>
       </c>
       <c r="HB7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD7">
         <v>0</v>
@@ -7404,10 +7421,10 @@
         <v>0</v>
       </c>
       <c r="HF7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HG7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH7">
         <v>0</v>
@@ -7428,10 +7445,10 @@
         <v>0</v>
       </c>
       <c r="HN7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HO7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HP7">
         <v>0</v>
@@ -7458,10 +7475,10 @@
         <v>0</v>
       </c>
       <c r="HX7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HY7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HZ7">
         <v>0</v>
@@ -7521,10 +7538,10 @@
         <v>0</v>
       </c>
       <c r="IS7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IU7">
         <v>0</v>
@@ -7557,10 +7574,10 @@
         <v>0</v>
       </c>
       <c r="JE7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG7">
         <v>0</v>
@@ -7644,31 +7661,34 @@
         <v>0</v>
       </c>
       <c r="KH7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KI7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KK7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KL7">
         <v>0</v>
       </c>
       <c r="KM7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN7">
         <v>1</v>
       </c>
       <c r="KO7">
+        <v>1</v>
+      </c>
+      <c r="KP7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>371</v>
       </c>
@@ -8045,10 +8065,10 @@
         <v>0</v>
       </c>
       <c r="DV8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX8">
         <v>0</v>
@@ -8132,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="EY8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA8">
         <v>0</v>
@@ -8264,10 +8284,10 @@
         <v>0</v>
       </c>
       <c r="GQ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GR8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GS8">
         <v>0</v>
@@ -8426,10 +8446,10 @@
         <v>0</v>
       </c>
       <c r="IS8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IU8">
         <v>0</v>
@@ -8483,10 +8503,10 @@
         <v>0</v>
       </c>
       <c r="JL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN8">
         <v>0</v>
@@ -8572,8 +8592,11 @@
       <c r="KO8">
         <v>0</v>
       </c>
+      <c r="KP8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>371</v>
       </c>
@@ -8851,10 +8874,10 @@
         <v>0</v>
       </c>
       <c r="CO9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ9">
         <v>0</v>
@@ -8863,10 +8886,10 @@
         <v>0</v>
       </c>
       <c r="CS9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU9">
         <v>0</v>
@@ -8902,10 +8925,10 @@
         <v>0</v>
       </c>
       <c r="DF9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH9">
         <v>0</v>
@@ -8950,10 +8973,10 @@
         <v>0</v>
       </c>
       <c r="DV9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX9">
         <v>0</v>
@@ -9169,10 +9192,10 @@
         <v>0</v>
       </c>
       <c r="GQ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GR9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GS9">
         <v>0</v>
@@ -9244,10 +9267,10 @@
         <v>0</v>
       </c>
       <c r="HP9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR9">
         <v>0</v>
@@ -9265,10 +9288,10 @@
         <v>0</v>
       </c>
       <c r="HW9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY9">
         <v>0</v>
@@ -9331,10 +9354,10 @@
         <v>0</v>
       </c>
       <c r="IS9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IU9">
         <v>0</v>
@@ -9388,10 +9411,10 @@
         <v>0</v>
       </c>
       <c r="JL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN9">
         <v>0</v>
@@ -9477,8 +9500,11 @@
       <c r="KO9">
         <v>0</v>
       </c>
+      <c r="KP9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>371</v>
       </c>
@@ -9819,10 +9845,10 @@
         <v>0</v>
       </c>
       <c r="DJ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL10">
         <v>0</v>
@@ -10065,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="GN10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GP10">
         <v>0</v>
@@ -10149,10 +10175,10 @@
         <v>0</v>
       </c>
       <c r="HP10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR10">
         <v>0</v>
@@ -10382,8 +10408,11 @@
       <c r="KO10">
         <v>0</v>
       </c>
+      <c r="KP10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>371</v>
       </c>
@@ -10706,10 +10735,10 @@
         <v>0</v>
       </c>
       <c r="DD11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF11">
         <v>0</v>
@@ -10718,10 +10747,10 @@
         <v>0</v>
       </c>
       <c r="DH11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ11">
         <v>0</v>
@@ -10742,10 +10771,10 @@
         <v>0</v>
       </c>
       <c r="DP11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR11">
         <v>0</v>
@@ -10889,10 +10918,10 @@
         <v>0</v>
       </c>
       <c r="FM11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO11">
         <v>0</v>
@@ -10970,10 +10999,10 @@
         <v>0</v>
       </c>
       <c r="GN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GO11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GP11">
         <v>0</v>
@@ -11030,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="HH11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ11">
         <v>0</v>
@@ -11063,10 +11092,10 @@
         <v>0</v>
       </c>
       <c r="HS11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU11">
         <v>0</v>
@@ -11114,10 +11143,10 @@
         <v>0</v>
       </c>
       <c r="IJ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL11">
         <v>0</v>
@@ -11147,10 +11176,10 @@
         <v>0</v>
       </c>
       <c r="IU11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IV11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW11">
         <v>0</v>
@@ -11177,10 +11206,10 @@
         <v>0</v>
       </c>
       <c r="JE11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG11">
         <v>0</v>
@@ -11225,10 +11254,10 @@
         <v>0</v>
       </c>
       <c r="JU11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JV11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JW11">
         <v>0</v>
@@ -11287,8 +11316,11 @@
       <c r="KO11">
         <v>0</v>
       </c>
+      <c r="KP11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>371</v>
       </c>
@@ -11656,10 +11688,10 @@
         <v>0</v>
       </c>
       <c r="DS12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU12">
         <v>0</v>
@@ -11734,13 +11766,13 @@
         <v>0</v>
       </c>
       <c r="ES12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET12">
         <v>1</v>
       </c>
       <c r="EU12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV12">
         <v>0</v>
@@ -11782,13 +11814,13 @@
         <v>0</v>
       </c>
       <c r="FI12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FJ12">
         <v>1</v>
       </c>
       <c r="FK12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL12">
         <v>0</v>
@@ -11797,10 +11829,10 @@
         <v>0</v>
       </c>
       <c r="FN12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP12">
         <v>0</v>
@@ -11863,10 +11895,10 @@
         <v>0</v>
       </c>
       <c r="GJ12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL12">
         <v>0</v>
@@ -11959,10 +11991,10 @@
         <v>0</v>
       </c>
       <c r="HP12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR12">
         <v>0</v>
@@ -11989,10 +12021,10 @@
         <v>0</v>
       </c>
       <c r="HZ12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB12">
         <v>0</v>
@@ -12007,10 +12039,10 @@
         <v>0</v>
       </c>
       <c r="IF12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH12">
         <v>0</v>
@@ -12019,10 +12051,10 @@
         <v>0</v>
       </c>
       <c r="IJ12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL12">
         <v>0</v>
@@ -12082,10 +12114,10 @@
         <v>0</v>
       </c>
       <c r="JE12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG12">
         <v>0</v>
@@ -12166,10 +12198,10 @@
         <v>0</v>
       </c>
       <c r="KG12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KH12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KI12">
         <v>0</v>
@@ -12192,8 +12224,11 @@
       <c r="KO12">
         <v>0</v>
       </c>
+      <c r="KP12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>371</v>
       </c>
@@ -12570,10 +12605,10 @@
         <v>0</v>
       </c>
       <c r="DV13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX13">
         <v>0</v>
@@ -12591,19 +12626,19 @@
         <v>0</v>
       </c>
       <c r="EC13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE13">
         <v>0</v>
       </c>
       <c r="EF13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH13">
         <v>0</v>
@@ -12645,16 +12680,16 @@
         <v>0</v>
       </c>
       <c r="EU13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY13">
         <v>0</v>
@@ -12822,10 +12857,10 @@
         <v>0</v>
       </c>
       <c r="HB13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HC13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD13">
         <v>0</v>
@@ -12846,10 +12881,10 @@
         <v>0</v>
       </c>
       <c r="HJ13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HK13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL13">
         <v>0</v>
@@ -12864,10 +12899,10 @@
         <v>0</v>
       </c>
       <c r="HP13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR13">
         <v>0</v>
@@ -12882,10 +12917,10 @@
         <v>0</v>
       </c>
       <c r="HV13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX13">
         <v>0</v>
@@ -12894,10 +12929,10 @@
         <v>0</v>
       </c>
       <c r="HZ13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB13">
         <v>0</v>
@@ -12921,10 +12956,10 @@
         <v>0</v>
       </c>
       <c r="II13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IJ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK13">
         <v>0</v>
@@ -12990,10 +13025,10 @@
         <v>0</v>
       </c>
       <c r="JF13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JG13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JH13">
         <v>0</v>
@@ -13097,8 +13132,11 @@
       <c r="KO13">
         <v>0</v>
       </c>
+      <c r="KP13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>371</v>
       </c>
@@ -13469,13 +13507,13 @@
         <v>0</v>
       </c>
       <c r="DT14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU14">
         <v>1</v>
       </c>
       <c r="DV14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW14">
         <v>0</v>
@@ -13487,10 +13525,10 @@
         <v>0</v>
       </c>
       <c r="DZ14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB14">
         <v>0</v>
@@ -13535,13 +13573,13 @@
         <v>0</v>
       </c>
       <c r="EP14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ14">
         <v>1</v>
       </c>
       <c r="ER14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES14">
         <v>0</v>
@@ -13661,25 +13699,25 @@
         <v>0</v>
       </c>
       <c r="GF14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GG14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH14">
         <v>0</v>
       </c>
       <c r="GI14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GJ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GK14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GL14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GM14">
         <v>0</v>
@@ -13706,13 +13744,13 @@
         <v>0</v>
       </c>
       <c r="GU14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GV14">
         <v>1</v>
       </c>
       <c r="GW14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GX14">
         <v>0</v>
@@ -13787,10 +13825,10 @@
         <v>0</v>
       </c>
       <c r="HV14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX14">
         <v>0</v>
@@ -13853,10 +13891,10 @@
         <v>0</v>
       </c>
       <c r="IR14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IS14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IT14">
         <v>0</v>
@@ -13916,10 +13954,10 @@
         <v>0</v>
       </c>
       <c r="JM14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JN14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JO14">
         <v>0</v>
@@ -13946,10 +13984,10 @@
         <v>0</v>
       </c>
       <c r="JW14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JX14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY14">
         <v>0</v>
@@ -13991,10 +14029,10 @@
         <v>0</v>
       </c>
       <c r="KL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN14">
         <v>0</v>
@@ -14002,8 +14040,11 @@
       <c r="KO14">
         <v>0</v>
       </c>
+      <c r="KP14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>371</v>
       </c>
@@ -14353,10 +14394,10 @@
         <v>0</v>
       </c>
       <c r="DM15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO15">
         <v>0</v>
@@ -14434,10 +14475,10 @@
         <v>0</v>
       </c>
       <c r="EN15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP15">
         <v>0</v>
@@ -14503,10 +14544,10 @@
         <v>0</v>
       </c>
       <c r="FK15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM15">
         <v>0</v>
@@ -14578,10 +14619,10 @@
         <v>0</v>
       </c>
       <c r="GJ15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL15">
         <v>0</v>
@@ -14650,10 +14691,10 @@
         <v>0</v>
       </c>
       <c r="HH15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ15">
         <v>0</v>
@@ -14734,10 +14775,10 @@
         <v>0</v>
       </c>
       <c r="IJ15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL15">
         <v>0</v>
@@ -14881,10 +14922,10 @@
         <v>0</v>
       </c>
       <c r="KG15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KH15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KI15">
         <v>0</v>
@@ -14907,8 +14948,11 @@
       <c r="KO15">
         <v>0</v>
       </c>
+      <c r="KP15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>371</v>
       </c>
@@ -15339,10 +15383,10 @@
         <v>0</v>
       </c>
       <c r="EN16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP16">
         <v>0</v>
@@ -15408,10 +15452,10 @@
         <v>0</v>
       </c>
       <c r="FK16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM16">
         <v>0</v>
@@ -15483,10 +15527,10 @@
         <v>0</v>
       </c>
       <c r="GJ16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL16">
         <v>0</v>
@@ -15519,10 +15563,10 @@
         <v>0</v>
       </c>
       <c r="GV16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GW16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GX16">
         <v>0</v>
@@ -15555,10 +15599,10 @@
         <v>0</v>
       </c>
       <c r="HH16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ16">
         <v>0</v>
@@ -15579,10 +15623,10 @@
         <v>0</v>
       </c>
       <c r="HP16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR16">
         <v>0</v>
@@ -15609,10 +15653,10 @@
         <v>0</v>
       </c>
       <c r="HZ16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB16">
         <v>0</v>
@@ -15660,10 +15704,10 @@
         <v>0</v>
       </c>
       <c r="IQ16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IS16">
         <v>0</v>
@@ -15756,10 +15800,10 @@
         <v>0</v>
       </c>
       <c r="JW16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JX16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY16">
         <v>0</v>
@@ -15786,10 +15830,10 @@
         <v>0</v>
       </c>
       <c r="KG16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KH16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KI16">
         <v>0</v>
@@ -15812,8 +15856,11 @@
       <c r="KO16">
         <v>0</v>
       </c>
+      <c r="KP16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:303" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>369</v>
       </c>
@@ -16178,10 +16225,10 @@
         <v>0</v>
       </c>
       <c r="DS17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU17">
         <v>0</v>
@@ -16202,13 +16249,13 @@
         <v>0</v>
       </c>
       <c r="EA17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB17">
         <v>1</v>
       </c>
       <c r="EC17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED17">
         <v>0</v>
@@ -16220,10 +16267,10 @@
         <v>0</v>
       </c>
       <c r="EG17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EH17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI17">
         <v>0</v>
@@ -16310,16 +16357,16 @@
         <v>0</v>
       </c>
       <c r="FK17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO17">
         <v>0</v>
@@ -16457,10 +16504,10 @@
         <v>0</v>
       </c>
       <c r="HH17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ17">
         <v>0</v>
@@ -16481,19 +16528,19 @@
         <v>0</v>
       </c>
       <c r="HP17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR17">
         <v>0</v>
       </c>
       <c r="HS17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU17">
         <v>0</v>
@@ -16526,10 +16573,10 @@
         <v>0</v>
       </c>
       <c r="IE17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG17">
         <v>0</v>
@@ -16553,10 +16600,10 @@
         <v>0</v>
       </c>
       <c r="IN17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IO17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP17">
         <v>0</v>
@@ -16604,10 +16651,10 @@
         <v>0</v>
       </c>
       <c r="JE17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG17">
         <v>0</v>
@@ -16637,10 +16684,10 @@
         <v>0</v>
       </c>
       <c r="JP17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JQ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JR17">
         <v>0</v>
@@ -16691,10 +16738,10 @@
         <v>0</v>
       </c>
       <c r="KH17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KI17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ17">
         <v>0</v>
@@ -16714,8 +16761,11 @@
       <c r="KO17">
         <v>0</v>
       </c>
+      <c r="KP17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:303" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>369</v>
       </c>
@@ -17329,10 +17379,10 @@
         <v>0</v>
       </c>
       <c r="GY18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GZ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HA18">
         <v>0</v>
@@ -17398,10 +17448,10 @@
         <v>0</v>
       </c>
       <c r="HV18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX18">
         <v>0</v>
@@ -17422,10 +17472,10 @@
         <v>0</v>
       </c>
       <c r="ID18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IE18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF18">
         <v>0</v>
@@ -17503,10 +17553,10 @@
         <v>0</v>
       </c>
       <c r="JE18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG18">
         <v>0</v>
@@ -17515,10 +17565,10 @@
         <v>0</v>
       </c>
       <c r="JI18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK18">
         <v>0</v>
@@ -17613,8 +17663,11 @@
       <c r="KO18">
         <v>0</v>
       </c>
+      <c r="KP18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:303" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>369</v>
       </c>
@@ -18069,10 +18122,10 @@
         <v>0</v>
       </c>
       <c r="EX19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ19">
         <v>0</v>
@@ -18228,10 +18281,10 @@
         <v>0</v>
       </c>
       <c r="GY19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GZ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HA19">
         <v>0</v>
@@ -18297,10 +18350,10 @@
         <v>0</v>
       </c>
       <c r="HV19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX19">
         <v>0</v>
@@ -18321,10 +18374,10 @@
         <v>0</v>
       </c>
       <c r="ID19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IE19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF19">
         <v>0</v>
@@ -18402,10 +18455,10 @@
         <v>0</v>
       </c>
       <c r="JE19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG19">
         <v>0</v>
@@ -18512,8 +18565,11 @@
       <c r="KO19">
         <v>0</v>
       </c>
+      <c r="KP19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:303" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>369</v>
       </c>
@@ -19013,16 +19069,16 @@
         <v>0</v>
       </c>
       <c r="FK20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO20">
         <v>0</v>
@@ -19124,10 +19180,10 @@
         <v>0</v>
       </c>
       <c r="GV20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GW20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GX20">
         <v>0</v>
@@ -19184,10 +19240,10 @@
         <v>0</v>
       </c>
       <c r="HP20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR20">
         <v>0</v>
@@ -19202,10 +19258,10 @@
         <v>0</v>
       </c>
       <c r="HV20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX20">
         <v>0</v>
@@ -19226,16 +19282,16 @@
         <v>0</v>
       </c>
       <c r="ID20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IE20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH20">
         <v>0</v>
@@ -19244,10 +19300,10 @@
         <v>0</v>
       </c>
       <c r="IJ20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL20">
         <v>0</v>
@@ -19307,10 +19363,10 @@
         <v>0</v>
       </c>
       <c r="JE20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG20">
         <v>0</v>
@@ -19394,10 +19450,10 @@
         <v>0</v>
       </c>
       <c r="KH20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KI20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ20">
         <v>0</v>
@@ -19417,8 +19473,11 @@
       <c r="KO20">
         <v>0</v>
       </c>
+      <c r="KP20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:303" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>369</v>
       </c>
@@ -19804,19 +19863,19 @@
         <v>0</v>
       </c>
       <c r="DY21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA21">
         <v>0</v>
       </c>
       <c r="EB21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED21">
         <v>0</v>
@@ -19879,10 +19938,10 @@
         <v>0</v>
       </c>
       <c r="EX21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ21">
         <v>0</v>
@@ -20059,16 +20118,16 @@
         <v>0</v>
       </c>
       <c r="HF21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HG21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ21">
         <v>0</v>
@@ -20104,10 +20163,10 @@
         <v>0</v>
       </c>
       <c r="HU21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW21">
         <v>0</v>
@@ -20131,13 +20190,13 @@
         <v>0</v>
       </c>
       <c r="ID21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IE21">
         <v>1</v>
       </c>
       <c r="IF21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG21">
         <v>0</v>
@@ -20212,10 +20271,10 @@
         <v>0</v>
       </c>
       <c r="JE21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG21">
         <v>0</v>
@@ -20322,8 +20381,11 @@
       <c r="KO21">
         <v>0</v>
       </c>
+      <c r="KP21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:303" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>369</v>
       </c>
@@ -20700,10 +20762,10 @@
         <v>0</v>
       </c>
       <c r="DV22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX22">
         <v>0</v>
@@ -20781,13 +20843,13 @@
         <v>0</v>
       </c>
       <c r="EW22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX22">
         <v>1</v>
       </c>
       <c r="EY22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ22">
         <v>0</v>
@@ -20823,10 +20885,10 @@
         <v>0</v>
       </c>
       <c r="FK22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM22">
         <v>0</v>
@@ -20970,13 +21032,13 @@
         <v>0</v>
       </c>
       <c r="HH22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI22">
         <v>1</v>
       </c>
       <c r="HJ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HK22">
         <v>0</v>
@@ -21012,10 +21074,10 @@
         <v>0</v>
       </c>
       <c r="HV22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX22">
         <v>0</v>
@@ -21024,10 +21086,10 @@
         <v>0</v>
       </c>
       <c r="HZ22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB22">
         <v>0</v>
@@ -21036,7 +21098,7 @@
         <v>0</v>
       </c>
       <c r="ID22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IE22">
         <v>1</v>
@@ -21045,7 +21107,7 @@
         <v>1</v>
       </c>
       <c r="IG22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH22">
         <v>0</v>
@@ -21054,10 +21116,10 @@
         <v>0</v>
       </c>
       <c r="IJ22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL22">
         <v>0</v>
@@ -21117,10 +21179,10 @@
         <v>0</v>
       </c>
       <c r="JE22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG22">
         <v>0</v>
@@ -21132,16 +21194,16 @@
         <v>0</v>
       </c>
       <c r="JJ22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN22">
         <v>0</v>
@@ -21186,10 +21248,10 @@
         <v>0</v>
       </c>
       <c r="KB22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KC22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KD22">
         <v>0</v>
@@ -21227,8 +21289,11 @@
       <c r="KO22">
         <v>0</v>
       </c>
+      <c r="KP22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:303" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>368</v>
       </c>
@@ -21554,10 +21619,10 @@
         <v>0</v>
       </c>
       <c r="DE23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG23">
         <v>0</v>
@@ -21590,16 +21655,16 @@
         <v>0</v>
       </c>
       <c r="DQ23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU23">
         <v>0</v>
@@ -21620,10 +21685,10 @@
         <v>0</v>
       </c>
       <c r="EA23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC23">
         <v>0</v>
@@ -21635,10 +21700,10 @@
         <v>0</v>
       </c>
       <c r="EF23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH23">
         <v>0</v>
@@ -21728,10 +21793,10 @@
         <v>0</v>
       </c>
       <c r="FK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM23">
         <v>0</v>
@@ -21866,10 +21931,10 @@
         <v>0</v>
       </c>
       <c r="HE23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HG23">
         <v>0</v>
@@ -21899,22 +21964,22 @@
         <v>0</v>
       </c>
       <c r="HP23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR23">
         <v>0</v>
       </c>
       <c r="HS23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT23">
         <v>1</v>
       </c>
       <c r="HU23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV23">
         <v>0</v>
@@ -21926,13 +21991,13 @@
         <v>0</v>
       </c>
       <c r="HY23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HZ23">
         <v>1</v>
       </c>
       <c r="IA23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB23">
         <v>0</v>
@@ -22022,10 +22087,10 @@
         <v>0</v>
       </c>
       <c r="JE23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG23">
         <v>0</v>
@@ -22103,10 +22168,10 @@
         <v>0</v>
       </c>
       <c r="KF23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KG23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KH23">
         <v>0</v>
@@ -22118,23 +22183,26 @@
         <v>0</v>
       </c>
       <c r="KK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KL23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KM23">
         <v>0</v>
       </c>
       <c r="KN23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KO23">
-        <v>0</v>
-      </c>
-      <c r="KQ23" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="KP23">
+        <v>0</v>
+      </c>
+      <c r="KR23" s="3"/>
     </row>
-    <row r="24" spans="1:303" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>368</v>
       </c>
@@ -22520,10 +22588,10 @@
         <v>0</v>
       </c>
       <c r="DY24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA24">
         <v>0</v>
@@ -22700,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="GG24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GH24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GI24">
         <v>0</v>
@@ -22928,10 +22996,10 @@
         <v>0</v>
       </c>
       <c r="JE24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG24">
         <v>0</v>
@@ -23038,9 +23106,12 @@
       <c r="KO24">
         <v>0</v>
       </c>
-      <c r="KQ24" s="3"/>
+      <c r="KP24">
+        <v>0</v>
+      </c>
+      <c r="KR24" s="3"/>
     </row>
-    <row r="25" spans="1:303" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>368</v>
       </c>
@@ -23315,13 +23386,13 @@
         <v>0</v>
       </c>
       <c r="CN25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO25">
         <v>1</v>
       </c>
       <c r="CP25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ25">
         <v>0</v>
@@ -23944,8 +24015,11 @@
       <c r="KO25">
         <v>0</v>
       </c>
+      <c r="KP25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:303" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>368</v>
       </c>
@@ -24238,22 +24312,22 @@
         <v>0</v>
       </c>
       <c r="CT26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU26">
         <v>1</v>
       </c>
       <c r="CV26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW26">
         <v>0</v>
       </c>
       <c r="CX26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ26">
         <v>0</v>
@@ -24849,8 +24923,11 @@
       <c r="KO26">
         <v>0</v>
       </c>
+      <c r="KP26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:303" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>368</v>
       </c>
@@ -25197,10 +25274,10 @@
         <v>0</v>
       </c>
       <c r="DL27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN27">
         <v>0</v>
@@ -25227,25 +25304,25 @@
         <v>0</v>
       </c>
       <c r="DV27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX27">
         <v>0</v>
       </c>
       <c r="DY27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC27">
         <v>0</v>
@@ -25395,10 +25472,10 @@
         <v>0</v>
       </c>
       <c r="FZ27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB27">
         <v>0</v>
@@ -25608,10 +25685,10 @@
         <v>0</v>
       </c>
       <c r="IS27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IU27">
         <v>0</v>
@@ -25743,10 +25820,10 @@
         <v>0</v>
       </c>
       <c r="KL27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN27">
         <v>0</v>
@@ -25754,8 +25831,11 @@
       <c r="KO27">
         <v>0</v>
       </c>
+      <c r="KP27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:303" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>368</v>
       </c>
@@ -26147,10 +26227,10 @@
         <v>0</v>
       </c>
       <c r="EA28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC28">
         <v>0</v>
@@ -26303,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="GA28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GB28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GC28">
         <v>0</v>
@@ -26549,10 +26629,10 @@
         <v>0</v>
       </c>
       <c r="JE28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG28">
         <v>0</v>
@@ -26659,8 +26739,11 @@
       <c r="KO28">
         <v>0</v>
       </c>
+      <c r="KP28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:303" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>368</v>
       </c>
@@ -27472,10 +27555,10 @@
         <v>0</v>
       </c>
       <c r="JK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM29">
         <v>0</v>
@@ -27564,8 +27647,11 @@
       <c r="KO29">
         <v>0</v>
       </c>
+      <c r="KP29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:303" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>368</v>
       </c>
@@ -28377,10 +28463,10 @@
         <v>0</v>
       </c>
       <c r="JK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM30">
         <v>0</v>
@@ -28469,8 +28555,11 @@
       <c r="KO30">
         <v>0</v>
       </c>
+      <c r="KP30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:303" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>368</v>
       </c>
@@ -29039,10 +29128,10 @@
         <v>0</v>
       </c>
       <c r="GH31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GI31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GJ31">
         <v>0</v>
@@ -29264,10 +29353,10 @@
         <v>0</v>
       </c>
       <c r="JE31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG31">
         <v>0</v>
@@ -29374,8 +29463,11 @@
       <c r="KO31">
         <v>0</v>
       </c>
+      <c r="KP31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:303" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>368</v>
       </c>
@@ -29731,10 +29823,10 @@
         <v>0</v>
       </c>
       <c r="DO32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ32">
         <v>0</v>
@@ -30079,10 +30171,10 @@
         <v>0</v>
       </c>
       <c r="IA32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IC32">
         <v>0</v>
@@ -30279,8 +30371,11 @@
       <c r="KO32">
         <v>0</v>
       </c>
+      <c r="KP32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>370</v>
       </c>
@@ -30564,10 +30659,10 @@
         <v>0</v>
       </c>
       <c r="CQ33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS33">
         <v>0</v>
@@ -30948,10 +31043,10 @@
         <v>0</v>
       </c>
       <c r="HO33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HP33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HQ33">
         <v>0</v>
@@ -30981,10 +31076,10 @@
         <v>0</v>
       </c>
       <c r="HZ33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB33">
         <v>0</v>
@@ -31047,10 +31142,10 @@
         <v>0</v>
       </c>
       <c r="IV33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IW33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IX33">
         <v>0</v>
@@ -31182,10 +31277,13 @@
         <v>0</v>
       </c>
       <c r="KO33">
+        <v>0</v>
+      </c>
+      <c r="KP33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>370</v>
       </c>
@@ -31688,10 +31786,10 @@
         <v>0</v>
       </c>
       <c r="FL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN34">
         <v>0</v>
@@ -31886,10 +31984,10 @@
         <v>0</v>
       </c>
       <c r="HZ34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB34">
         <v>0</v>
@@ -32045,10 +32143,10 @@
         <v>0</v>
       </c>
       <c r="KA34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KB34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KC34">
         <v>0</v>
@@ -32089,8 +32187,11 @@
       <c r="KO34">
         <v>0</v>
       </c>
+      <c r="KP34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -32389,10 +32490,10 @@
         <v>0</v>
       </c>
       <c r="CV35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX35">
         <v>0</v>
@@ -32446,10 +32547,10 @@
         <v>0</v>
       </c>
       <c r="DO35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ35">
         <v>0</v>
@@ -32458,19 +32559,19 @@
         <v>0</v>
       </c>
       <c r="DS35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU35">
         <v>0</v>
       </c>
       <c r="DV35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX35">
         <v>0</v>
@@ -32482,10 +32583,10 @@
         <v>0</v>
       </c>
       <c r="EA35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC35">
         <v>0</v>
@@ -32539,13 +32640,13 @@
         <v>0</v>
       </c>
       <c r="ET35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW35">
         <v>1</v>
@@ -32554,7 +32655,7 @@
         <v>1</v>
       </c>
       <c r="EY35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ35">
         <v>0</v>
@@ -32590,16 +32691,16 @@
         <v>0</v>
       </c>
       <c r="FK35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO35">
         <v>0</v>
@@ -32728,19 +32829,19 @@
         <v>0</v>
       </c>
       <c r="HE35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HG35">
         <v>0</v>
       </c>
       <c r="HH35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ35">
         <v>0</v>
@@ -32749,10 +32850,10 @@
         <v>0</v>
       </c>
       <c r="HL35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HM35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN35">
         <v>0</v>
@@ -32761,10 +32862,10 @@
         <v>0</v>
       </c>
       <c r="HP35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR35">
         <v>0</v>
@@ -32791,10 +32892,10 @@
         <v>0</v>
       </c>
       <c r="HZ35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB35">
         <v>0</v>
@@ -32809,10 +32910,10 @@
         <v>0</v>
       </c>
       <c r="IF35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH35">
         <v>0</v>
@@ -32821,10 +32922,10 @@
         <v>0</v>
       </c>
       <c r="IJ35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL35">
         <v>0</v>
@@ -32884,10 +32985,10 @@
         <v>0</v>
       </c>
       <c r="JE35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG35">
         <v>0</v>
@@ -32905,10 +33006,10 @@
         <v>0</v>
       </c>
       <c r="JL35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN35">
         <v>0</v>
@@ -32947,10 +33048,10 @@
         <v>0</v>
       </c>
       <c r="JZ35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KA35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KB35">
         <v>0</v>
@@ -32994,8 +33095,11 @@
       <c r="KO35">
         <v>0</v>
       </c>
+      <c r="KP35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>128</v>
       </c>
@@ -33357,10 +33461,10 @@
         <v>0</v>
       </c>
       <c r="DQ36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS36">
         <v>0</v>
@@ -33384,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="DZ36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB36">
         <v>0</v>
@@ -33474,10 +33578,10 @@
         <v>0</v>
       </c>
       <c r="FD36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FE36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FF36">
         <v>0</v>
@@ -33585,10 +33689,10 @@
         <v>0</v>
       </c>
       <c r="GO36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GP36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GQ36">
         <v>0</v>
@@ -33606,16 +33710,16 @@
         <v>0</v>
       </c>
       <c r="GV36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GW36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GX36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GY36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GZ36">
         <v>0</v>
@@ -33666,16 +33770,16 @@
         <v>0</v>
       </c>
       <c r="HP36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HS36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT36">
         <v>0</v>
@@ -33717,10 +33821,10 @@
         <v>0</v>
       </c>
       <c r="IG36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II36">
         <v>0</v>
@@ -33789,10 +33893,10 @@
         <v>0</v>
       </c>
       <c r="JE36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG36">
         <v>0</v>
@@ -33828,10 +33932,10 @@
         <v>0</v>
       </c>
       <c r="JR36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JS36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT36">
         <v>0</v>
@@ -33843,10 +33947,10 @@
         <v>0</v>
       </c>
       <c r="JW36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JX36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY36">
         <v>0</v>
@@ -33899,8 +34003,11 @@
       <c r="KO36">
         <v>0</v>
       </c>
+      <c r="KP36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>128</v>
       </c>
@@ -34289,10 +34396,10 @@
         <v>0</v>
       </c>
       <c r="DZ37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB37">
         <v>0</v>
@@ -34571,19 +34678,19 @@
         <v>0</v>
       </c>
       <c r="HP37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR37">
         <v>0</v>
       </c>
       <c r="HS37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU37">
         <v>0</v>
@@ -34622,10 +34729,10 @@
         <v>0</v>
       </c>
       <c r="IG37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II37">
         <v>0</v>
@@ -34733,10 +34840,10 @@
         <v>0</v>
       </c>
       <c r="JR37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JS37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT37">
         <v>0</v>
@@ -34804,8 +34911,11 @@
       <c r="KO37">
         <v>0</v>
       </c>
+      <c r="KP37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -35158,10 +35268,10 @@
         <v>0</v>
       </c>
       <c r="DO38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ38">
         <v>0</v>
@@ -35308,10 +35418,10 @@
         <v>0</v>
       </c>
       <c r="FM38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO38">
         <v>0</v>
@@ -35431,10 +35541,10 @@
         <v>0</v>
       </c>
       <c r="HB38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HC38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD38">
         <v>0</v>
@@ -35482,10 +35592,10 @@
         <v>0</v>
       </c>
       <c r="HS38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU38">
         <v>0</v>
@@ -35527,10 +35637,10 @@
         <v>0</v>
       </c>
       <c r="IH38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="II38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ38">
         <v>0</v>
@@ -35596,10 +35706,10 @@
         <v>0</v>
       </c>
       <c r="JE38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG38">
         <v>0</v>
@@ -35635,10 +35745,10 @@
         <v>0</v>
       </c>
       <c r="JR38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JS38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT38">
         <v>0</v>
@@ -35706,8 +35816,11 @@
       <c r="KO38">
         <v>0</v>
       </c>
+      <c r="KP38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>372</v>
       </c>
@@ -36105,10 +36218,10 @@
         <v>0</v>
       </c>
       <c r="EC39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE39">
         <v>0</v>
@@ -36135,10 +36248,10 @@
         <v>0</v>
       </c>
       <c r="EM39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO39">
         <v>0</v>
@@ -36336,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="HB39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HC39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD39">
         <v>0</v>
@@ -36507,10 +36620,10 @@
         <v>0</v>
       </c>
       <c r="JG39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JI39">
         <v>0</v>
@@ -36528,10 +36641,10 @@
         <v>0</v>
       </c>
       <c r="JN39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JP39">
         <v>0</v>
@@ -36582,10 +36695,10 @@
         <v>0</v>
       </c>
       <c r="KF39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KG39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KH39">
         <v>0</v>
@@ -36611,8 +36724,11 @@
       <c r="KO39">
         <v>0</v>
       </c>
+      <c r="KP39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>372</v>
       </c>
@@ -37004,10 +37120,10 @@
         <v>0</v>
       </c>
       <c r="EA40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC40">
         <v>0</v>
@@ -37163,13 +37279,13 @@
         <v>0</v>
       </c>
       <c r="GB40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GC40">
         <v>1</v>
       </c>
       <c r="GD40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GE40">
         <v>0</v>
@@ -37259,10 +37375,10 @@
         <v>0</v>
       </c>
       <c r="HH40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ40">
         <v>0</v>
@@ -37406,10 +37522,10 @@
         <v>0</v>
       </c>
       <c r="JE40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG40">
         <v>0</v>
@@ -37516,8 +37632,11 @@
       <c r="KO40">
         <v>0</v>
       </c>
+      <c r="KP40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>372</v>
       </c>
@@ -37795,10 +37914,10 @@
         <v>0</v>
       </c>
       <c r="CO41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ41">
         <v>0</v>
@@ -37909,16 +38028,16 @@
         <v>0</v>
       </c>
       <c r="EA41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE41">
         <v>0</v>
@@ -37933,10 +38052,10 @@
         <v>0</v>
       </c>
       <c r="EI41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK41">
         <v>0</v>
@@ -38017,10 +38136,10 @@
         <v>0</v>
       </c>
       <c r="FK41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM41">
         <v>0</v>
@@ -38146,22 +38265,22 @@
         <v>0</v>
       </c>
       <c r="HB41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HC41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HE41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HF41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HG41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH41">
         <v>0</v>
@@ -38188,10 +38307,10 @@
         <v>0</v>
       </c>
       <c r="HP41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR41">
         <v>0</v>
@@ -38206,10 +38325,10 @@
         <v>0</v>
       </c>
       <c r="HV41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX41">
         <v>0</v>
@@ -38236,10 +38355,10 @@
         <v>0</v>
       </c>
       <c r="IF41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH41">
         <v>0</v>
@@ -38263,13 +38382,13 @@
         <v>0</v>
       </c>
       <c r="IO41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP41">
         <v>1</v>
       </c>
       <c r="IQ41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR41">
         <v>0</v>
@@ -38311,10 +38430,10 @@
         <v>0</v>
       </c>
       <c r="JE41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG41">
         <v>0</v>
@@ -38341,10 +38460,10 @@
         <v>0</v>
       </c>
       <c r="JO41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JP41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JQ41">
         <v>0</v>
@@ -38392,10 +38511,10 @@
         <v>0</v>
       </c>
       <c r="KF41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KG41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KH41">
         <v>0</v>
@@ -38410,10 +38529,10 @@
         <v>0</v>
       </c>
       <c r="KL41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN41">
         <v>0</v>
@@ -38421,8 +38540,11 @@
       <c r="KO41">
         <v>0</v>
       </c>
+      <c r="KP41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>372</v>
       </c>
@@ -38766,10 +38888,10 @@
         <v>0</v>
       </c>
       <c r="DK42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM42">
         <v>0</v>
@@ -38790,10 +38912,10 @@
         <v>0</v>
       </c>
       <c r="DS42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU42">
         <v>0</v>
@@ -38820,10 +38942,10 @@
         <v>0</v>
       </c>
       <c r="EC42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE42">
         <v>0</v>
@@ -39063,10 +39185,10 @@
         <v>0</v>
       </c>
       <c r="HF42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HG42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH42">
         <v>0</v>
@@ -39111,10 +39233,10 @@
         <v>0</v>
       </c>
       <c r="HV42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX42">
         <v>0</v>
@@ -39246,10 +39368,10 @@
         <v>0</v>
       </c>
       <c r="JO42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JP42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JQ42">
         <v>0</v>
@@ -39326,8 +39448,11 @@
       <c r="KO42">
         <v>0</v>
       </c>
+      <c r="KP42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>372</v>
       </c>
@@ -39647,10 +39772,10 @@
         <v>0</v>
       </c>
       <c r="DC43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE43">
         <v>0</v>
@@ -39695,10 +39820,10 @@
         <v>0</v>
       </c>
       <c r="DS43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU43">
         <v>0</v>
@@ -39725,10 +39850,10 @@
         <v>0</v>
       </c>
       <c r="EC43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE43">
         <v>0</v>
@@ -39761,10 +39886,10 @@
         <v>0</v>
       </c>
       <c r="EO43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ43">
         <v>0</v>
@@ -39956,10 +40081,10 @@
         <v>0</v>
       </c>
       <c r="HB43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HC43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD43">
         <v>0</v>
@@ -40121,10 +40246,10 @@
         <v>0</v>
       </c>
       <c r="JE43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG43">
         <v>0</v>
@@ -40151,10 +40276,10 @@
         <v>0</v>
       </c>
       <c r="JO43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JP43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JQ43">
         <v>0</v>
@@ -40231,8 +40356,11 @@
       <c r="KO43">
         <v>0</v>
       </c>
+      <c r="KP43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>372</v>
       </c>
@@ -40660,10 +40788,10 @@
         <v>0</v>
       </c>
       <c r="EM44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO44">
         <v>0</v>
@@ -40903,10 +41031,10 @@
         <v>0</v>
       </c>
       <c r="HP44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR44">
         <v>0</v>
@@ -40978,10 +41106,10 @@
         <v>0</v>
       </c>
       <c r="IO44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ44">
         <v>0</v>
@@ -41053,10 +41181,10 @@
         <v>0</v>
       </c>
       <c r="JN44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JP44">
         <v>0</v>
@@ -41136,8 +41264,11 @@
       <c r="KO44">
         <v>0</v>
       </c>
+      <c r="KP44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>372</v>
       </c>
@@ -41523,10 +41654,10 @@
         <v>0</v>
       </c>
       <c r="DZ45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB45">
         <v>0</v>
@@ -41709,10 +41840,10 @@
         <v>0</v>
       </c>
       <c r="GJ45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL45">
         <v>0</v>
@@ -41796,19 +41927,19 @@
         <v>0</v>
       </c>
       <c r="HM45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO45">
         <v>0</v>
       </c>
       <c r="HP45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR45">
         <v>0</v>
@@ -41835,16 +41966,16 @@
         <v>0</v>
       </c>
       <c r="HZ45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ID45">
         <v>0</v>
@@ -41886,10 +42017,10 @@
         <v>0</v>
       </c>
       <c r="IQ45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IS45">
         <v>0</v>
@@ -41928,10 +42059,10 @@
         <v>0</v>
       </c>
       <c r="JE45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG45">
         <v>0</v>
@@ -42012,10 +42143,10 @@
         <v>0</v>
       </c>
       <c r="KG45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KH45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KI45">
         <v>0</v>
@@ -42038,8 +42169,11 @@
       <c r="KO45">
         <v>0</v>
       </c>
+      <c r="KP45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>372</v>
       </c>
@@ -42404,10 +42538,10 @@
         <v>0</v>
       </c>
       <c r="DS46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU46">
         <v>0</v>
@@ -42440,10 +42574,10 @@
         <v>0</v>
       </c>
       <c r="EE46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG46">
         <v>0</v>
@@ -42530,16 +42664,16 @@
         <v>0</v>
       </c>
       <c r="FI46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FJ46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM46">
         <v>0</v>
@@ -42707,10 +42841,10 @@
         <v>0</v>
       </c>
       <c r="HP46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR46">
         <v>0</v>
@@ -42743,10 +42877,10 @@
         <v>0</v>
       </c>
       <c r="IB46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ID46">
         <v>0</v>
@@ -42830,10 +42964,10 @@
         <v>0</v>
       </c>
       <c r="JE46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG46">
         <v>0</v>
@@ -42866,10 +43000,10 @@
         <v>0</v>
       </c>
       <c r="JQ46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS46">
         <v>0</v>
@@ -42940,8 +43074,11 @@
       <c r="KO46">
         <v>0</v>
       </c>
+      <c r="KP46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>372</v>
       </c>
@@ -43306,10 +43443,10 @@
         <v>0</v>
       </c>
       <c r="DS47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU47">
         <v>0</v>
@@ -43342,10 +43479,10 @@
         <v>0</v>
       </c>
       <c r="EE47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG47">
         <v>0</v>
@@ -43438,16 +43575,16 @@
         <v>0</v>
       </c>
       <c r="FK47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO47">
         <v>0</v>
@@ -43513,10 +43650,10 @@
         <v>0</v>
       </c>
       <c r="GJ47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL47">
         <v>0</v>
@@ -43609,10 +43746,10 @@
         <v>0</v>
       </c>
       <c r="HP47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR47">
         <v>0</v>
@@ -43639,16 +43776,16 @@
         <v>0</v>
       </c>
       <c r="HZ47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ID47">
         <v>0</v>
@@ -43669,10 +43806,10 @@
         <v>0</v>
       </c>
       <c r="IJ47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL47">
         <v>0</v>
@@ -43690,10 +43827,10 @@
         <v>0</v>
       </c>
       <c r="IQ47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IS47">
         <v>0</v>
@@ -43732,10 +43869,10 @@
         <v>0</v>
       </c>
       <c r="JE47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG47">
         <v>0</v>
@@ -43768,10 +43905,10 @@
         <v>0</v>
       </c>
       <c r="JQ47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS47">
         <v>0</v>
@@ -43842,8 +43979,11 @@
       <c r="KO47">
         <v>0</v>
       </c>
+      <c r="KP47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>372</v>
       </c>
@@ -44208,16 +44348,16 @@
         <v>0</v>
       </c>
       <c r="DS48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW48">
         <v>0</v>
@@ -44229,10 +44369,10 @@
         <v>0</v>
       </c>
       <c r="DZ48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB48">
         <v>0</v>
@@ -44295,10 +44435,10 @@
         <v>0</v>
       </c>
       <c r="EV48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX48">
         <v>0</v>
@@ -44340,10 +44480,10 @@
         <v>0</v>
       </c>
       <c r="FK48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM48">
         <v>0</v>
@@ -44415,10 +44555,10 @@
         <v>0</v>
       </c>
       <c r="GJ48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL48">
         <v>0</v>
@@ -44511,13 +44651,13 @@
         <v>0</v>
       </c>
       <c r="HP48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ48">
         <v>1</v>
       </c>
       <c r="HR48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HS48">
         <v>0</v>
@@ -44541,16 +44681,16 @@
         <v>0</v>
       </c>
       <c r="HZ48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ID48">
         <v>0</v>
@@ -44571,10 +44711,10 @@
         <v>0</v>
       </c>
       <c r="IJ48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL48">
         <v>0</v>
@@ -44592,10 +44732,10 @@
         <v>0</v>
       </c>
       <c r="IQ48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IS48">
         <v>0</v>
@@ -44634,10 +44774,10 @@
         <v>0</v>
       </c>
       <c r="JE48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG48">
         <v>0</v>
@@ -44670,16 +44810,16 @@
         <v>0</v>
       </c>
       <c r="JQ48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JT48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU48">
         <v>0</v>
@@ -44718,10 +44858,10 @@
         <v>0</v>
       </c>
       <c r="KG48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KH48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KI48">
         <v>0</v>
@@ -44744,8 +44884,11 @@
       <c r="KO48">
         <v>0</v>
       </c>
+      <c r="KP48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>372</v>
       </c>
@@ -45131,10 +45274,10 @@
         <v>0</v>
       </c>
       <c r="DZ49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB49">
         <v>0</v>
@@ -45317,10 +45460,10 @@
         <v>0</v>
       </c>
       <c r="GJ49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL49">
         <v>0</v>
@@ -45404,19 +45547,19 @@
         <v>0</v>
       </c>
       <c r="HM49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO49">
         <v>0</v>
       </c>
       <c r="HP49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR49">
         <v>0</v>
@@ -45443,16 +45586,16 @@
         <v>0</v>
       </c>
       <c r="HZ49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ID49">
         <v>0</v>
@@ -45494,10 +45637,10 @@
         <v>0</v>
       </c>
       <c r="IQ49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IS49">
         <v>0</v>
@@ -45536,10 +45679,10 @@
         <v>0</v>
       </c>
       <c r="JE49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG49">
         <v>0</v>
@@ -45620,10 +45763,10 @@
         <v>0</v>
       </c>
       <c r="KG49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KH49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KI49">
         <v>0</v>
@@ -45646,8 +45789,11 @@
       <c r="KO49">
         <v>0</v>
       </c>
+      <c r="KP49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>372</v>
       </c>
@@ -45994,16 +46140,16 @@
         <v>0</v>
       </c>
       <c r="DM50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ50">
         <v>0</v>
@@ -46012,10 +46158,10 @@
         <v>0</v>
       </c>
       <c r="DS50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU50">
         <v>0</v>
@@ -46045,10 +46191,10 @@
         <v>0</v>
       </c>
       <c r="ED50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF50">
         <v>0</v>
@@ -46075,10 +46221,10 @@
         <v>0</v>
       </c>
       <c r="EN50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP50">
         <v>0</v>
@@ -46093,10 +46239,10 @@
         <v>0</v>
       </c>
       <c r="ET50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV50">
         <v>0</v>
@@ -46144,10 +46290,10 @@
         <v>0</v>
       </c>
       <c r="FK50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM50">
         <v>0</v>
@@ -46219,10 +46365,10 @@
         <v>0</v>
       </c>
       <c r="GJ50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL50">
         <v>0</v>
@@ -46255,10 +46401,10 @@
         <v>0</v>
       </c>
       <c r="GV50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GW50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GX50">
         <v>0</v>
@@ -46315,10 +46461,10 @@
         <v>0</v>
       </c>
       <c r="HP50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR50">
         <v>0</v>
@@ -46333,10 +46479,10 @@
         <v>0</v>
       </c>
       <c r="HV50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX50">
         <v>0</v>
@@ -46351,22 +46497,22 @@
         <v>0</v>
       </c>
       <c r="IB50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ID50">
         <v>0</v>
       </c>
       <c r="IE50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF50">
         <v>1</v>
       </c>
       <c r="IG50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH50">
         <v>0</v>
@@ -46375,10 +46521,10 @@
         <v>0</v>
       </c>
       <c r="IJ50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL50">
         <v>0</v>
@@ -46405,10 +46551,10 @@
         <v>0</v>
       </c>
       <c r="IT50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IU50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IV50">
         <v>0</v>
@@ -46438,10 +46584,10 @@
         <v>0</v>
       </c>
       <c r="JE50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG50">
         <v>0</v>
@@ -46474,10 +46620,10 @@
         <v>0</v>
       </c>
       <c r="JQ50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS50">
         <v>0</v>
@@ -46492,10 +46638,10 @@
         <v>0</v>
       </c>
       <c r="JW50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JX50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY50">
         <v>0</v>
@@ -46522,13 +46668,13 @@
         <v>0</v>
       </c>
       <c r="KG50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KH50">
         <v>1</v>
       </c>
       <c r="KI50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ50">
         <v>0</v>
@@ -46548,8 +46694,11 @@
       <c r="KO50">
         <v>0</v>
       </c>
+      <c r="KP50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>372</v>
       </c>
@@ -46851,10 +47000,10 @@
         <v>0</v>
       </c>
       <c r="CW51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY51">
         <v>0</v>
@@ -46902,10 +47051,10 @@
         <v>0</v>
       </c>
       <c r="DN51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP51">
         <v>0</v>
@@ -46914,19 +47063,19 @@
         <v>0</v>
       </c>
       <c r="DR51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS51">
         <v>1</v>
       </c>
       <c r="DT51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW51">
         <v>0</v>
@@ -46944,10 +47093,10 @@
         <v>0</v>
       </c>
       <c r="EB51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED51">
         <v>0</v>
@@ -46974,10 +47123,10 @@
         <v>0</v>
       </c>
       <c r="EL51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN51">
         <v>0</v>
@@ -46998,10 +47147,10 @@
         <v>0</v>
       </c>
       <c r="ET51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV51">
         <v>0</v>
@@ -47016,10 +47165,10 @@
         <v>0</v>
       </c>
       <c r="EZ51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FB51">
         <v>0</v>
@@ -47034,10 +47183,10 @@
         <v>0</v>
       </c>
       <c r="FF51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FH51">
         <v>0</v>
@@ -47046,13 +47195,13 @@
         <v>0</v>
       </c>
       <c r="FJ51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK51">
         <v>1</v>
       </c>
       <c r="FL51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM51">
         <v>0</v>
@@ -47073,7 +47222,7 @@
         <v>0</v>
       </c>
       <c r="FS51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT51">
         <v>1</v>
@@ -47082,7 +47231,7 @@
         <v>1</v>
       </c>
       <c r="FV51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW51">
         <v>0</v>
@@ -47106,10 +47255,10 @@
         <v>0</v>
       </c>
       <c r="GD51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF51">
         <v>0</v>
@@ -47124,19 +47273,19 @@
         <v>0</v>
       </c>
       <c r="GJ51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM51">
         <v>1</v>
       </c>
       <c r="GN51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GO51">
         <v>0</v>
@@ -47163,10 +47312,10 @@
         <v>0</v>
       </c>
       <c r="GW51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GY51">
         <v>0</v>
@@ -47175,10 +47324,10 @@
         <v>0</v>
       </c>
       <c r="HA51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HB51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HC51">
         <v>0</v>
@@ -47196,10 +47345,10 @@
         <v>0</v>
       </c>
       <c r="HH51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ51">
         <v>0</v>
@@ -47220,10 +47369,10 @@
         <v>0</v>
       </c>
       <c r="HP51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR51">
         <v>0</v>
@@ -47319,34 +47468,34 @@
         <v>0</v>
       </c>
       <c r="IW51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IX51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IY51">
         <v>0</v>
       </c>
       <c r="IZ51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JA51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD51">
         <v>0</v>
       </c>
       <c r="JE51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG51">
         <v>0</v>
@@ -47400,13 +47549,13 @@
         <v>0</v>
       </c>
       <c r="JX51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY51">
         <v>1</v>
       </c>
       <c r="JZ51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KA51">
         <v>0</v>
@@ -47418,28 +47567,28 @@
         <v>0</v>
       </c>
       <c r="KD51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KE51">
         <v>1</v>
       </c>
       <c r="KF51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KG51">
         <v>0</v>
       </c>
       <c r="KH51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KI51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KK51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KL51">
         <v>0</v>
@@ -47453,8 +47602,11 @@
       <c r="KO51">
         <v>0</v>
       </c>
+      <c r="KP51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>372</v>
       </c>
@@ -47762,7 +47914,7 @@
         <v>0</v>
       </c>
       <c r="CY52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ52">
         <v>1</v>
@@ -47774,7 +47926,7 @@
         <v>1</v>
       </c>
       <c r="DC52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD52">
         <v>0</v>
@@ -48358,8 +48510,11 @@
       <c r="KO52">
         <v>0</v>
       </c>
+      <c r="KP52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>372</v>
       </c>
@@ -48919,10 +49074,10 @@
         <v>0</v>
       </c>
       <c r="GE53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GF53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GG53">
         <v>0</v>
@@ -48991,10 +49146,10 @@
         <v>0</v>
       </c>
       <c r="HC53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HD53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HE53">
         <v>0</v>
@@ -49006,10 +49161,10 @@
         <v>0</v>
       </c>
       <c r="HH53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ53">
         <v>0</v>
@@ -49060,19 +49215,19 @@
         <v>0</v>
       </c>
       <c r="HZ53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB53">
         <v>0</v>
       </c>
       <c r="IC53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ID53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE53">
         <v>0</v>
@@ -49263,8 +49418,11 @@
       <c r="KO53">
         <v>0</v>
       </c>
+      <c r="KP53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>372</v>
       </c>
@@ -49614,10 +49772,10 @@
         <v>0</v>
       </c>
       <c r="DN54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP54">
         <v>0</v>
@@ -49728,7 +49886,7 @@
         <v>0</v>
       </c>
       <c r="EZ54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA54">
         <v>1</v>
@@ -49740,7 +49898,7 @@
         <v>1</v>
       </c>
       <c r="FD54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE54">
         <v>0</v>
@@ -49749,10 +49907,10 @@
         <v>0</v>
       </c>
       <c r="FG54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FH54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI54">
         <v>0</v>
@@ -49773,10 +49931,10 @@
         <v>0</v>
       </c>
       <c r="FO54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FP54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ54">
         <v>0</v>
@@ -49818,10 +49976,10 @@
         <v>0</v>
       </c>
       <c r="GD54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF54">
         <v>0</v>
@@ -49884,13 +50042,13 @@
         <v>0</v>
       </c>
       <c r="GZ54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HA54">
         <v>1</v>
       </c>
       <c r="HB54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HC54">
         <v>0</v>
@@ -49917,10 +50075,10 @@
         <v>0</v>
       </c>
       <c r="HK54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HL54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HM54">
         <v>0</v>
@@ -49932,10 +50090,10 @@
         <v>0</v>
       </c>
       <c r="HP54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR54">
         <v>0</v>
@@ -49962,10 +50120,10 @@
         <v>0</v>
       </c>
       <c r="HZ54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB54">
         <v>0</v>
@@ -50040,22 +50198,22 @@
         <v>0</v>
       </c>
       <c r="IZ54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JA54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB54">
         <v>0</v>
       </c>
       <c r="JC54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JD54">
         <v>1</v>
       </c>
       <c r="JE54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JF54">
         <v>0</v>
@@ -50130,13 +50288,13 @@
         <v>0</v>
       </c>
       <c r="KD54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KE54">
         <v>1</v>
       </c>
       <c r="KF54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KG54">
         <v>0</v>
@@ -50145,10 +50303,10 @@
         <v>0</v>
       </c>
       <c r="KI54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KJ54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK54">
         <v>0</v>
@@ -50165,8 +50323,11 @@
       <c r="KO54">
         <v>0</v>
       </c>
+      <c r="KP54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>372</v>
       </c>
@@ -50516,10 +50677,10 @@
         <v>0</v>
       </c>
       <c r="DN55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP55">
         <v>0</v>
@@ -50531,10 +50692,10 @@
         <v>0</v>
       </c>
       <c r="DS55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU55">
         <v>0</v>
@@ -50546,16 +50707,16 @@
         <v>0</v>
       </c>
       <c r="DX55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB55">
         <v>0</v>
@@ -50567,13 +50728,13 @@
         <v>0</v>
       </c>
       <c r="EE55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF55">
         <v>1</v>
       </c>
       <c r="EG55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH55">
         <v>0</v>
@@ -50582,28 +50743,28 @@
         <v>0</v>
       </c>
       <c r="EJ55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK55">
         <v>1</v>
       </c>
       <c r="EL55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM55">
         <v>0</v>
       </c>
       <c r="EN55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER55">
         <v>0</v>
@@ -50612,10 +50773,10 @@
         <v>0</v>
       </c>
       <c r="ET55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV55">
         <v>0</v>
@@ -50630,7 +50791,7 @@
         <v>0</v>
       </c>
       <c r="EZ55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA55">
         <v>1</v>
@@ -50642,19 +50803,19 @@
         <v>1</v>
       </c>
       <c r="FD55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG55">
         <v>0</v>
       </c>
       <c r="FH55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI55">
         <v>1</v>
@@ -50666,43 +50827,43 @@
         <v>1</v>
       </c>
       <c r="FL55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO55">
         <v>0</v>
       </c>
       <c r="FP55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FS55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FU55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW55">
         <v>1</v>
       </c>
       <c r="FX55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FY55">
         <v>0</v>
@@ -50720,10 +50881,10 @@
         <v>0</v>
       </c>
       <c r="GD55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF55">
         <v>0</v>
@@ -50738,10 +50899,10 @@
         <v>0</v>
       </c>
       <c r="GJ55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL55">
         <v>0</v>
@@ -50774,10 +50935,10 @@
         <v>0</v>
       </c>
       <c r="GV55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GW55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GX55">
         <v>0</v>
@@ -50786,13 +50947,13 @@
         <v>0</v>
       </c>
       <c r="GZ55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HA55">
         <v>1</v>
       </c>
       <c r="HB55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HC55">
         <v>0</v>
@@ -50807,10 +50968,10 @@
         <v>0</v>
       </c>
       <c r="HG55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HI55">
         <v>0</v>
@@ -50834,10 +50995,10 @@
         <v>0</v>
       </c>
       <c r="HP55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR55">
         <v>0</v>
@@ -50852,10 +51013,10 @@
         <v>0</v>
       </c>
       <c r="HV55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX55">
         <v>0</v>
@@ -50864,10 +51025,10 @@
         <v>0</v>
       </c>
       <c r="HZ55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB55">
         <v>0</v>
@@ -50882,10 +51043,10 @@
         <v>0</v>
       </c>
       <c r="IF55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH55">
         <v>0</v>
@@ -50897,19 +51058,19 @@
         <v>0</v>
       </c>
       <c r="IK55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM55">
         <v>0</v>
       </c>
       <c r="IN55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IO55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP55">
         <v>0</v>
@@ -50936,10 +51097,10 @@
         <v>0</v>
       </c>
       <c r="IX55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IY55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IZ55">
         <v>0</v>
@@ -50957,19 +51118,19 @@
         <v>0</v>
       </c>
       <c r="JE55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG55">
         <v>0</v>
       </c>
       <c r="JH55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JI55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ55">
         <v>0</v>
@@ -51002,16 +51163,16 @@
         <v>0</v>
       </c>
       <c r="JT55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JW55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX55">
         <v>0</v>
@@ -51032,16 +51193,16 @@
         <v>0</v>
       </c>
       <c r="KD55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KE55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KF55">
         <v>0</v>
       </c>
       <c r="KG55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KH55">
         <v>1</v>
@@ -51050,7 +51211,7 @@
         <v>1</v>
       </c>
       <c r="KJ55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK55">
         <v>0</v>
@@ -51067,8 +51228,11 @@
       <c r="KO55">
         <v>0</v>
       </c>
+      <c r="KP55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>372</v>
       </c>
@@ -51418,10 +51582,10 @@
         <v>0</v>
       </c>
       <c r="DN56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP56">
         <v>0</v>
@@ -51433,10 +51597,10 @@
         <v>0</v>
       </c>
       <c r="DS56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU56">
         <v>0</v>
@@ -51469,10 +51633,10 @@
         <v>0</v>
       </c>
       <c r="EE56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG56">
         <v>0</v>
@@ -51532,7 +51696,7 @@
         <v>0</v>
       </c>
       <c r="EZ56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA56">
         <v>1</v>
@@ -51544,7 +51708,7 @@
         <v>1</v>
       </c>
       <c r="FD56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE56">
         <v>0</v>
@@ -51553,22 +51717,22 @@
         <v>0</v>
       </c>
       <c r="FG56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FH56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI56">
         <v>0</v>
       </c>
       <c r="FJ56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK56">
         <v>1</v>
       </c>
       <c r="FL56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM56">
         <v>0</v>
@@ -51583,19 +51747,19 @@
         <v>0</v>
       </c>
       <c r="FQ56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS56">
         <v>0</v>
       </c>
       <c r="FT56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FU56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV56">
         <v>0</v>
@@ -51622,10 +51786,10 @@
         <v>0</v>
       </c>
       <c r="GD56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF56">
         <v>0</v>
@@ -51679,22 +51843,22 @@
         <v>0</v>
       </c>
       <c r="GW56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GY56">
         <v>0</v>
       </c>
       <c r="GZ56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HA56">
         <v>1</v>
       </c>
       <c r="HB56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HC56">
         <v>0</v>
@@ -51706,13 +51870,13 @@
         <v>0</v>
       </c>
       <c r="HF56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HG56">
         <v>1</v>
       </c>
       <c r="HH56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HI56">
         <v>0</v>
@@ -51721,10 +51885,10 @@
         <v>0</v>
       </c>
       <c r="HK56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HL56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HM56">
         <v>0</v>
@@ -51736,10 +51900,10 @@
         <v>0</v>
       </c>
       <c r="HP56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR56">
         <v>0</v>
@@ -51754,10 +51918,10 @@
         <v>0</v>
       </c>
       <c r="HV56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX56">
         <v>0</v>
@@ -51766,10 +51930,10 @@
         <v>0</v>
       </c>
       <c r="HZ56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB56">
         <v>0</v>
@@ -51781,10 +51945,10 @@
         <v>0</v>
       </c>
       <c r="IE56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG56">
         <v>0</v>
@@ -51802,13 +51966,13 @@
         <v>0</v>
       </c>
       <c r="IL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM56">
         <v>1</v>
       </c>
       <c r="IN56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IO56">
         <v>0</v>
@@ -51838,22 +52002,22 @@
         <v>0</v>
       </c>
       <c r="IX56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IY56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IZ56">
         <v>0</v>
       </c>
       <c r="JA56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JB56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JC56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JD56">
         <v>1</v>
@@ -51862,7 +52026,7 @@
         <v>1</v>
       </c>
       <c r="JF56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG56">
         <v>0</v>
@@ -51922,10 +52086,10 @@
         <v>0</v>
       </c>
       <c r="JZ56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KA56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KB56">
         <v>0</v>
@@ -51934,25 +52098,25 @@
         <v>0</v>
       </c>
       <c r="KD56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KE56">
         <v>1</v>
       </c>
       <c r="KF56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KG56">
         <v>0</v>
       </c>
       <c r="KH56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KI56">
         <v>1</v>
       </c>
       <c r="KJ56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK56">
         <v>0</v>
@@ -51969,8 +52133,11 @@
       <c r="KO56">
         <v>0</v>
       </c>
+      <c r="KP56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>372</v>
       </c>
@@ -52320,10 +52487,10 @@
         <v>0</v>
       </c>
       <c r="DN57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP57">
         <v>0</v>
@@ -52434,7 +52601,7 @@
         <v>0</v>
       </c>
       <c r="EZ57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA57">
         <v>1</v>
@@ -52446,7 +52613,7 @@
         <v>1</v>
       </c>
       <c r="FD57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE57">
         <v>0</v>
@@ -52455,10 +52622,10 @@
         <v>0</v>
       </c>
       <c r="FG57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FH57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI57">
         <v>0</v>
@@ -52467,10 +52634,10 @@
         <v>0</v>
       </c>
       <c r="FK57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM57">
         <v>0</v>
@@ -52506,13 +52673,13 @@
         <v>0</v>
       </c>
       <c r="FX57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY57">
         <v>1</v>
       </c>
       <c r="FZ57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GA57">
         <v>0</v>
@@ -52524,10 +52691,10 @@
         <v>0</v>
       </c>
       <c r="GD57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF57">
         <v>0</v>
@@ -52548,13 +52715,13 @@
         <v>0</v>
       </c>
       <c r="GL57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM57">
         <v>1</v>
       </c>
       <c r="GN57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GO57">
         <v>0</v>
@@ -52581,22 +52748,22 @@
         <v>0</v>
       </c>
       <c r="GW57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GY57">
         <v>0</v>
       </c>
       <c r="GZ57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HA57">
         <v>1</v>
       </c>
       <c r="HB57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HC57">
         <v>0</v>
@@ -52611,10 +52778,10 @@
         <v>0</v>
       </c>
       <c r="HG57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HI57">
         <v>0</v>
@@ -52623,10 +52790,10 @@
         <v>0</v>
       </c>
       <c r="HK57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HL57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HM57">
         <v>0</v>
@@ -52668,10 +52835,10 @@
         <v>0</v>
       </c>
       <c r="HZ57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB57">
         <v>0</v>
@@ -52740,13 +52907,13 @@
         <v>0</v>
       </c>
       <c r="IX57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IY57">
         <v>1</v>
       </c>
       <c r="IZ57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JA57">
         <v>0</v>
@@ -52758,10 +52925,10 @@
         <v>0</v>
       </c>
       <c r="JD57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JE57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JF57">
         <v>0</v>
@@ -52851,10 +53018,10 @@
         <v>0</v>
       </c>
       <c r="KI57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KJ57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK57">
         <v>0</v>
@@ -52871,8 +53038,11 @@
       <c r="KO57">
         <v>0</v>
       </c>
+      <c r="KP57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>373</v>
       </c>
@@ -53369,10 +53539,10 @@
         <v>0</v>
       </c>
       <c r="FK58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM58">
         <v>0</v>
@@ -53480,10 +53650,10 @@
         <v>0</v>
       </c>
       <c r="GV58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GW58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GX58">
         <v>0</v>
@@ -53507,10 +53677,10 @@
         <v>0</v>
       </c>
       <c r="HE58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HG58">
         <v>0</v>
@@ -53540,10 +53710,10 @@
         <v>0</v>
       </c>
       <c r="HP58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR58">
         <v>0</v>
@@ -53585,10 +53755,10 @@
         <v>0</v>
       </c>
       <c r="IE58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG58">
         <v>0</v>
@@ -53600,10 +53770,10 @@
         <v>0</v>
       </c>
       <c r="IJ58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL58">
         <v>0</v>
@@ -53663,10 +53833,10 @@
         <v>0</v>
       </c>
       <c r="JE58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG58">
         <v>0</v>
@@ -53773,8 +53943,11 @@
       <c r="KO58">
         <v>0</v>
       </c>
+      <c r="KP58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>373</v>
       </c>
@@ -54142,10 +54315,10 @@
         <v>0</v>
       </c>
       <c r="DS59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU59">
         <v>0</v>
@@ -54187,10 +54360,10 @@
         <v>0</v>
       </c>
       <c r="EH59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ59">
         <v>0</v>
@@ -54412,10 +54585,10 @@
         <v>0</v>
       </c>
       <c r="HE59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HG59">
         <v>0</v>
@@ -54445,10 +54618,10 @@
         <v>0</v>
       </c>
       <c r="HP59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR59">
         <v>0</v>
@@ -54568,10 +54741,10 @@
         <v>0</v>
       </c>
       <c r="JE59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG59">
         <v>0</v>
@@ -54678,8 +54851,11 @@
       <c r="KO59">
         <v>0</v>
       </c>
+      <c r="KP59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:301" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:302" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>373</v>
       </c>
@@ -55017,10 +55193,10 @@
         <v>0</v>
       </c>
       <c r="DI60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK60">
         <v>0</v>
@@ -55035,10 +55211,10 @@
         <v>0</v>
       </c>
       <c r="DO60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ60">
         <v>0</v>
@@ -55179,10 +55355,10 @@
         <v>0</v>
       </c>
       <c r="FK60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM60">
         <v>0</v>
@@ -55281,10 +55457,10 @@
         <v>0</v>
       </c>
       <c r="GS60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GT60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GU60">
         <v>0</v>
@@ -55350,10 +55526,10 @@
         <v>0</v>
       </c>
       <c r="HP60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR60">
         <v>0</v>
@@ -55395,10 +55571,10 @@
         <v>0</v>
       </c>
       <c r="IE60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG60">
         <v>0</v>
@@ -55410,10 +55586,10 @@
         <v>0</v>
       </c>
       <c r="IJ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL60">
         <v>0</v>
@@ -55473,10 +55649,10 @@
         <v>0</v>
       </c>
       <c r="JE60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG60">
         <v>0</v>
@@ -55485,10 +55661,10 @@
         <v>0</v>
       </c>
       <c r="JI60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK60">
         <v>0</v>
@@ -55560,10 +55736,10 @@
         <v>0</v>
       </c>
       <c r="KH60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KI60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ60">
         <v>0</v>
@@ -55581,14 +55757,17 @@
         <v>0</v>
       </c>
       <c r="KO60">
+        <v>0</v>
+      </c>
+      <c r="KP60">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:KO60"/>
+  <autoFilter ref="A3:KP60"/>
   <mergeCells count="3">
-    <mergeCell ref="DK1:KO1"/>
-    <mergeCell ref="CI1:DJ1"/>
+    <mergeCell ref="DL1:KP1"/>
+    <mergeCell ref="CI1:DK1"/>
     <mergeCell ref="F1:CH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data-raw/functionsTracker_20230710.xlsx
+++ b/data-raw/functionsTracker_20230710.xlsx
@@ -1807,10 +1807,10 @@
   <dimension ref="A1:KR60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="CI4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="CI10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CM47" sqref="CM47"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9512,7 +9512,7 @@
         <v>463</v>
       </c>
       <c r="C10" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D10" t="s">
         <v>233</v>
@@ -14960,7 +14960,7 @@
         <v>463</v>
       </c>
       <c r="C16" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D16" t="s">
         <v>139</v>

--- a/data-raw/functionsTracker_20230710.xlsx
+++ b/data-raw/functionsTracker_20230710.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$KT$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$KU$61</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="480">
   <si>
     <t>function</t>
   </si>
@@ -1465,6 +1465,9 @@
   <si>
     <t>gen_hazard</t>
   </si>
+  <si>
+    <t>isTRUE</t>
+  </si>
 </sst>
 </file>
 
@@ -1816,13 +1819,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KV61"/>
+  <dimension ref="A1:KW61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="GY4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="HE16" sqref="HE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2034,101 +2037,102 @@
     <col min="210" max="210" width="4.90625" bestFit="1" customWidth="1"/>
     <col min="211" max="211" width="6" bestFit="1" customWidth="1"/>
     <col min="212" max="212" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="7.81640625" customWidth="1"/>
-    <col min="219" max="219" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="6.36328125" customWidth="1"/>
-    <col min="228" max="228" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="6.6328125" customWidth="1"/>
-    <col min="234" max="234" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="6.6328125" customWidth="1"/>
-    <col min="238" max="238" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="241" max="242" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="10" customWidth="1"/>
-    <col min="254" max="254" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="18.54296875" customWidth="1"/>
-    <col min="268" max="268" width="16.453125" customWidth="1"/>
-    <col min="269" max="269" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="283" max="283" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="291" max="291" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="6.90625" customWidth="1"/>
-    <col min="294" max="294" width="6.6328125" customWidth="1"/>
-    <col min="295" max="295" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="296" max="296" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="297" max="297" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="301" max="301" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="302" max="302" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="303" max="303" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="304" max="304" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="305" max="305" width="6" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="9.81640625" customWidth="1"/>
+    <col min="214" max="214" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="7.81640625" customWidth="1"/>
+    <col min="220" max="220" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="6.36328125" customWidth="1"/>
+    <col min="229" max="229" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="6.6328125" customWidth="1"/>
+    <col min="235" max="235" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="6.6328125" customWidth="1"/>
+    <col min="239" max="239" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="242" max="243" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="10" customWidth="1"/>
+    <col min="255" max="255" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="18.54296875" customWidth="1"/>
+    <col min="269" max="269" width="16.453125" customWidth="1"/>
+    <col min="270" max="270" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="6.90625" customWidth="1"/>
+    <col min="295" max="295" width="6.6328125" customWidth="1"/>
+    <col min="296" max="296" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="297" max="297" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="302" max="302" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="303" max="303" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="304" max="304" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="305" max="305" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:306" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:307" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="G1" s="7" t="s">
         <v>18</v>
       </c>
@@ -2435,8 +2439,9 @@
       <c r="KR1" s="7"/>
       <c r="KS1" s="7"/>
       <c r="KT1" s="7"/>
+      <c r="KU1" s="7"/>
     </row>
-    <row r="2" spans="1:306" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:307" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -2888,154 +2893,154 @@
         <v>388</v>
       </c>
       <c r="HE2" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="HF2" s="3" t="s">
         <v>392</v>
       </c>
       <c r="HG2" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="HH2" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="HH2" s="4" t="s">
+      <c r="HI2" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="HI2" s="3" t="s">
+      <c r="HJ2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="HJ2" s="3" t="s">
+      <c r="HK2" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="HK2" s="4" t="s">
+      <c r="HL2" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="HL2" s="4" t="s">
+      <c r="HM2" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="HM2" s="3" t="s">
+      <c r="HN2" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="HN2" s="3" t="s">
+      <c r="HO2" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="HO2" s="4" t="s">
+      <c r="HP2" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="HP2" s="3" t="s">
+      <c r="HQ2" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="HQ2" s="4" t="s">
+      <c r="HR2" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="HR2" s="3" t="s">
+      <c r="HS2" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="HS2" s="4" t="s">
+      <c r="HT2" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="HT2" s="3" t="s">
+      <c r="HU2" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="HU2" s="4" t="s">
+      <c r="HV2" s="4" t="s">
         <v>433</v>
-      </c>
-      <c r="HV2" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="HW2" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="HX2" s="4" t="s">
+      <c r="HX2" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="HY2" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="HY2" s="4" t="s">
+      <c r="HZ2" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="HZ2" s="3" t="s">
+      <c r="IA2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="IA2" s="4" t="s">
+      <c r="IB2" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="IB2" s="4" t="s">
+      <c r="IC2" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="IC2" s="4" t="s">
+      <c r="ID2" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="ID2" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="IE2" s="3" t="s">
         <v>388</v>
       </c>
       <c r="IF2" s="3" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="IG2" s="3" t="s">
         <v>396</v>
       </c>
       <c r="IH2" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="II2" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="II2" s="3" t="s">
+      <c r="IJ2" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="IJ2" s="3" t="s">
+      <c r="IK2" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="IK2" s="4" t="s">
+      <c r="IL2" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="IL2" s="3" t="s">
+      <c r="IM2" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="IM2" s="4" t="s">
+      <c r="IN2" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="IN2" s="3" t="s">
+      <c r="IO2" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="IO2" s="4" t="s">
+      <c r="IP2" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="IP2" s="3" t="s">
+      <c r="IQ2" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="IQ2" s="3" t="s">
+      <c r="IR2" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="IR2" s="3" t="s">
+      <c r="IS2" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="IS2" s="3" t="s">
+      <c r="IT2" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="IT2" s="6" t="s">
+      <c r="IU2" s="6" t="s">
         <v>430</v>
-      </c>
-      <c r="IU2" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="IV2" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="IW2" s="4" t="s">
+      <c r="IW2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="IX2" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="IX2" s="3" t="s">
+      <c r="IY2" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="IY2" s="3" t="s">
+      <c r="IZ2" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="IZ2" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="JA2" s="3" t="s">
         <v>388</v>
       </c>
       <c r="JB2" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="JC2" s="3" t="s">
         <v>392</v>
@@ -3058,44 +3063,44 @@
       <c r="JI2" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="JJ2" s="4" t="s">
+      <c r="JJ2" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="JK2" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="JK2" s="3" t="s">
+      <c r="JL2" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="JL2" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="JM2" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="JN2" s="4" t="s">
+      <c r="JN2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="JO2" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="JO2" s="3" t="s">
+      <c r="JP2" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="JP2" s="3" t="s">
+      <c r="JQ2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="JQ2" s="6" t="s">
+      <c r="JR2" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="JR2" s="3" t="s">
+      <c r="JS2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="JS2" s="3" t="s">
+      <c r="JT2" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="JT2" s="4" t="s">
+      <c r="JU2" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="JU2" s="3" t="s">
+      <c r="JV2" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="JV2" s="3" t="s">
-        <v>405</v>
       </c>
       <c r="JW2" s="3" t="s">
         <v>405</v>
@@ -3107,70 +3112,73 @@
         <v>405</v>
       </c>
       <c r="JZ2" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="KA2" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="KA2" s="4" t="s">
+      <c r="KB2" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="KB2" s="3" t="s">
+      <c r="KC2" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="KC2" s="4" t="s">
+      <c r="KD2" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="KD2" s="3" t="s">
+      <c r="KE2" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="KE2" s="4" t="s">
+      <c r="KF2" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="KF2" s="3" t="s">
+      <c r="KG2" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="KG2" s="4" t="s">
+      <c r="KH2" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="KH2" s="4" t="s">
+      <c r="KI2" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="KI2" s="3" t="s">
-        <v>392</v>
       </c>
       <c r="KJ2" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="KK2" s="4" t="s">
+      <c r="KK2" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="KL2" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="KL2" s="3" t="s">
+      <c r="KM2" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="KM2" s="4" t="s">
+      <c r="KN2" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="KN2" s="4" t="s">
+      <c r="KO2" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="KO2" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="KP2" s="3" t="s">
         <v>388</v>
       </c>
       <c r="KQ2" s="3" t="s">
-        <v>67</v>
+        <v>388</v>
       </c>
       <c r="KR2" s="3" t="s">
         <v>67</v>
       </c>
       <c r="KS2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="KT2" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="KT2" s="6" t="s">
+      <c r="KU2" s="6" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>258</v>
       </c>
@@ -3808,289 +3816,292 @@
         <v>178</v>
       </c>
       <c r="HE3" t="s">
+        <v>479</v>
+      </c>
+      <c r="HF3" t="s">
         <v>262</v>
       </c>
-      <c r="HF3" t="s">
+      <c r="HG3" t="s">
         <v>266</v>
       </c>
-      <c r="HG3" t="s">
+      <c r="HH3" t="s">
         <v>65</v>
       </c>
-      <c r="HH3" t="s">
+      <c r="HI3" t="s">
         <v>338</v>
       </c>
-      <c r="HI3" t="s">
+      <c r="HJ3" t="s">
         <v>318</v>
       </c>
-      <c r="HJ3" s="5" t="s">
+      <c r="HK3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="HK3" t="s">
+      <c r="HL3" t="s">
         <v>77</v>
       </c>
-      <c r="HL3" t="s">
+      <c r="HM3" t="s">
         <v>275</v>
       </c>
-      <c r="HM3" t="s">
+      <c r="HN3" t="s">
         <v>141</v>
       </c>
-      <c r="HN3" t="s">
+      <c r="HO3" t="s">
         <v>457</v>
       </c>
-      <c r="HO3" t="s">
+      <c r="HP3" t="s">
         <v>125</v>
       </c>
-      <c r="HP3" t="s">
+      <c r="HQ3" t="s">
         <v>271</v>
       </c>
-      <c r="HQ3" t="s">
+      <c r="HR3" t="s">
         <v>54</v>
       </c>
-      <c r="HR3" t="s">
+      <c r="HS3" t="s">
         <v>378</v>
       </c>
-      <c r="HS3" t="s">
+      <c r="HT3" t="s">
         <v>73</v>
       </c>
-      <c r="HT3" t="s">
+      <c r="HU3" t="s">
         <v>148</v>
       </c>
-      <c r="HU3" t="s">
+      <c r="HV3" t="s">
         <v>7</v>
       </c>
-      <c r="HV3" s="5" t="s">
+      <c r="HW3" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="HW3" s="5" t="s">
+      <c r="HX3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="HX3" t="s">
+      <c r="HY3" t="s">
         <v>50</v>
       </c>
-      <c r="HY3" t="s">
+      <c r="HZ3" t="s">
         <v>202</v>
       </c>
-      <c r="HZ3" t="s">
+      <c r="IA3" t="s">
         <v>112</v>
       </c>
-      <c r="IA3" t="s">
+      <c r="IB3" t="s">
         <v>94</v>
       </c>
-      <c r="IB3" t="s">
+      <c r="IC3" t="s">
         <v>85</v>
       </c>
-      <c r="IC3" t="s">
+      <c r="ID3" t="s">
         <v>74</v>
       </c>
-      <c r="ID3" t="s">
+      <c r="IE3" t="s">
         <v>204</v>
       </c>
-      <c r="IE3" t="s">
+      <c r="IF3" t="s">
         <v>55</v>
       </c>
-      <c r="IF3" s="5" t="s">
+      <c r="IG3" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="IG3" s="5" t="s">
+      <c r="IH3" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="IH3" t="s">
+      <c r="II3" t="s">
         <v>362</v>
       </c>
-      <c r="II3" t="s">
+      <c r="IJ3" t="s">
         <v>104</v>
       </c>
-      <c r="IJ3" s="5" t="s">
+      <c r="IK3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="IK3" t="s">
+      <c r="IL3" t="s">
         <v>10</v>
       </c>
-      <c r="IL3" t="s">
+      <c r="IM3" t="s">
         <v>176</v>
       </c>
-      <c r="IM3" t="s">
+      <c r="IN3" t="s">
         <v>66</v>
       </c>
-      <c r="IN3" t="s">
+      <c r="IO3" t="s">
         <v>130</v>
       </c>
-      <c r="IO3" t="s">
+      <c r="IP3" t="s">
         <v>9</v>
       </c>
-      <c r="IP3" t="s">
+      <c r="IQ3" t="s">
         <v>278</v>
       </c>
-      <c r="IQ3" t="s">
+      <c r="IR3" t="s">
         <v>298</v>
       </c>
-      <c r="IR3" t="s">
+      <c r="IS3" t="s">
         <v>296</v>
       </c>
-      <c r="IS3" s="5" t="s">
+      <c r="IT3" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="IT3" t="s">
+      <c r="IU3" t="s">
         <v>175</v>
       </c>
-      <c r="IU3" t="s">
+      <c r="IV3" t="s">
         <v>321</v>
       </c>
-      <c r="IV3" t="s">
+      <c r="IW3" t="s">
         <v>190</v>
       </c>
-      <c r="IW3" t="s">
+      <c r="IX3" t="s">
         <v>92</v>
       </c>
-      <c r="IX3" t="s">
+      <c r="IY3" t="s">
         <v>72</v>
       </c>
-      <c r="IY3" s="5" t="s">
+      <c r="IZ3" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="IZ3" t="s">
+      <c r="JA3" t="s">
         <v>133</v>
       </c>
-      <c r="JA3" t="s">
+      <c r="JB3" t="s">
         <v>147</v>
       </c>
-      <c r="JB3" t="s">
+      <c r="JC3" t="s">
         <v>343</v>
       </c>
-      <c r="JC3" t="s">
+      <c r="JD3" t="s">
         <v>285</v>
       </c>
-      <c r="JD3" t="s">
+      <c r="JE3" t="s">
         <v>302</v>
       </c>
-      <c r="JE3" t="s">
+      <c r="JF3" t="s">
         <v>263</v>
       </c>
-      <c r="JF3" t="s">
+      <c r="JG3" t="s">
         <v>300</v>
       </c>
-      <c r="JG3" t="s">
+      <c r="JH3" t="s">
         <v>345</v>
       </c>
-      <c r="JH3" t="s">
+      <c r="JI3" t="s">
         <v>264</v>
       </c>
-      <c r="JI3" t="s">
+      <c r="JJ3" t="s">
         <v>265</v>
       </c>
-      <c r="JJ3" t="s">
+      <c r="JK3" t="s">
         <v>4</v>
       </c>
-      <c r="JK3" s="5" t="s">
+      <c r="JL3" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="JL3" t="s">
+      <c r="JM3" t="s">
         <v>348</v>
       </c>
-      <c r="JM3" t="s">
+      <c r="JN3" t="s">
         <v>287</v>
       </c>
-      <c r="JN3" t="s">
+      <c r="JO3" t="s">
         <v>16</v>
       </c>
-      <c r="JO3" t="s">
+      <c r="JP3" t="s">
         <v>117</v>
       </c>
-      <c r="JP3" t="s">
+      <c r="JQ3" t="s">
         <v>217</v>
       </c>
-      <c r="JQ3" t="s">
+      <c r="JR3" t="s">
         <v>57</v>
       </c>
-      <c r="JR3" t="s">
+      <c r="JS3" t="s">
         <v>93</v>
       </c>
-      <c r="JS3" t="s">
+      <c r="JT3" t="s">
         <v>329</v>
       </c>
-      <c r="JT3" t="s">
+      <c r="JU3" t="s">
         <v>320</v>
       </c>
-      <c r="JU3" t="s">
+      <c r="JV3" t="s">
         <v>140</v>
       </c>
-      <c r="JV3" t="s">
+      <c r="JW3" t="s">
         <v>383</v>
       </c>
-      <c r="JW3" t="s">
+      <c r="JX3" t="s">
         <v>51</v>
       </c>
-      <c r="JX3" t="s">
+      <c r="JY3" t="s">
         <v>387</v>
       </c>
-      <c r="JY3" t="s">
+      <c r="JZ3" t="s">
         <v>291</v>
       </c>
-      <c r="JZ3" t="s">
+      <c r="KA3" t="s">
         <v>131</v>
       </c>
-      <c r="KA3" t="s">
+      <c r="KB3" t="s">
         <v>282</v>
       </c>
-      <c r="KB3" t="s">
+      <c r="KC3" t="s">
         <v>98</v>
       </c>
-      <c r="KC3" t="s">
+      <c r="KD3" t="s">
         <v>344</v>
       </c>
-      <c r="KD3" t="s">
+      <c r="KE3" t="s">
         <v>341</v>
       </c>
-      <c r="KE3" t="s">
+      <c r="KF3" t="s">
         <v>61</v>
       </c>
-      <c r="KF3" t="s">
+      <c r="KG3" t="s">
         <v>200</v>
       </c>
-      <c r="KG3" t="s">
+      <c r="KH3" t="s">
         <v>116</v>
       </c>
-      <c r="KH3" t="s">
+      <c r="KI3" t="s">
         <v>11</v>
       </c>
-      <c r="KI3" t="s">
+      <c r="KJ3" t="s">
         <v>268</v>
       </c>
-      <c r="KJ3" t="s">
+      <c r="KK3" t="s">
         <v>267</v>
       </c>
-      <c r="KK3" t="s">
+      <c r="KL3" t="s">
         <v>203</v>
       </c>
-      <c r="KL3" s="5" t="s">
+      <c r="KM3" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="KM3" t="s">
+      <c r="KN3" t="s">
         <v>5</v>
       </c>
-      <c r="KN3" t="s">
+      <c r="KO3" t="s">
         <v>272</v>
       </c>
-      <c r="KO3" t="s">
+      <c r="KP3" t="s">
         <v>78</v>
       </c>
-      <c r="KP3" t="s">
+      <c r="KQ3" t="s">
         <v>201</v>
       </c>
-      <c r="KQ3" t="s">
+      <c r="KR3" t="s">
         <v>90</v>
       </c>
-      <c r="KR3" t="s">
+      <c r="KS3" t="s">
         <v>68</v>
       </c>
-      <c r="KS3" t="s">
+      <c r="KT3" t="s">
         <v>75</v>
       </c>
-      <c r="KT3" t="s">
+      <c r="KU3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -4776,16 +4787,16 @@
         <v>0</v>
       </c>
       <c r="HU4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY4">
         <v>0</v>
@@ -4827,10 +4838,10 @@
         <v>0</v>
       </c>
       <c r="IL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IN4">
         <v>0</v>
@@ -4899,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="JJ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL4">
         <v>0</v>
@@ -4938,10 +4949,10 @@
         <v>0</v>
       </c>
       <c r="JW4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JX4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY4">
         <v>0</v>
@@ -4953,10 +4964,10 @@
         <v>0</v>
       </c>
       <c r="KB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KD4">
         <v>0</v>
@@ -5009,8 +5020,11 @@
       <c r="KT4">
         <v>0</v>
       </c>
+      <c r="KU4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -5696,19 +5710,19 @@
         <v>0</v>
       </c>
       <c r="HU5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW5">
         <v>0</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HY5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
         <v>0</v>
@@ -5747,10 +5761,10 @@
         <v>0</v>
       </c>
       <c r="IL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IN5">
         <v>0</v>
@@ -5858,10 +5872,10 @@
         <v>0</v>
       </c>
       <c r="JW5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JX5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY5">
         <v>0</v>
@@ -5929,8 +5943,11 @@
       <c r="KT5">
         <v>0</v>
       </c>
+      <c r="KU5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>364</v>
       </c>
@@ -6592,13 +6609,13 @@
         <v>0</v>
       </c>
       <c r="HM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN6">
         <v>1</v>
       </c>
       <c r="HO6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HP6">
         <v>0</v>
@@ -6634,10 +6651,10 @@
         <v>0</v>
       </c>
       <c r="IA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IC6">
         <v>0</v>
@@ -6646,10 +6663,10 @@
         <v>0</v>
       </c>
       <c r="IE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG6">
         <v>0</v>
@@ -6658,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="II6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IJ6">
         <v>1</v>
@@ -6667,7 +6684,7 @@
         <v>1</v>
       </c>
       <c r="IL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM6">
         <v>0</v>
@@ -6676,10 +6693,10 @@
         <v>0</v>
       </c>
       <c r="IO6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
         <v>0</v>
@@ -6739,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="JJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL6">
         <v>0</v>
@@ -6754,16 +6771,16 @@
         <v>0</v>
       </c>
       <c r="JO6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JP6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS6">
         <v>0</v>
@@ -6808,10 +6825,10 @@
         <v>0</v>
       </c>
       <c r="KG6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KH6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KI6">
         <v>0</v>
@@ -6849,8 +6866,11 @@
       <c r="KT6">
         <v>0</v>
       </c>
+      <c r="KU6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>364</v>
       </c>
@@ -7506,16 +7526,16 @@
         <v>0</v>
       </c>
       <c r="HK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HM7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO7">
         <v>0</v>
@@ -7551,10 +7571,10 @@
         <v>0</v>
       </c>
       <c r="HZ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB7">
         <v>0</v>
@@ -7578,13 +7598,13 @@
         <v>0</v>
       </c>
       <c r="II7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IJ7">
         <v>1</v>
       </c>
       <c r="IK7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL7">
         <v>0</v>
@@ -7659,10 +7679,10 @@
         <v>0</v>
       </c>
       <c r="JJ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL7">
         <v>0</v>
@@ -7769,8 +7789,11 @@
       <c r="KT7">
         <v>0</v>
       </c>
+      <c r="KU7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>364</v>
       </c>
@@ -8456,10 +8479,10 @@
         <v>0</v>
       </c>
       <c r="HU8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW8">
         <v>0</v>
@@ -8474,10 +8497,10 @@
         <v>0</v>
       </c>
       <c r="IA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IC8">
         <v>0</v>
@@ -8498,16 +8521,16 @@
         <v>0</v>
       </c>
       <c r="II8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IJ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM8">
         <v>0</v>
@@ -8516,10 +8539,10 @@
         <v>0</v>
       </c>
       <c r="IO8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ8">
         <v>0</v>
@@ -8579,10 +8602,10 @@
         <v>0</v>
       </c>
       <c r="JJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL8">
         <v>0</v>
@@ -8666,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="KM8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KO8">
         <v>0</v>
@@ -8689,8 +8712,11 @@
       <c r="KT8">
         <v>0</v>
       </c>
+      <c r="KU8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>363</v>
       </c>
@@ -9343,10 +9369,10 @@
         <v>0</v>
       </c>
       <c r="HJ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HK9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL9">
         <v>0</v>
@@ -9376,22 +9402,22 @@
         <v>0</v>
       </c>
       <c r="HU9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW9">
         <v>0</v>
       </c>
       <c r="HX9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HY9">
         <v>1</v>
       </c>
       <c r="HZ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IA9">
         <v>0</v>
@@ -9403,13 +9429,13 @@
         <v>0</v>
       </c>
       <c r="ID9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IE9">
         <v>1</v>
       </c>
       <c r="IF9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG9">
         <v>0</v>
@@ -9499,10 +9525,10 @@
         <v>0</v>
       </c>
       <c r="JJ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL9">
         <v>0</v>
@@ -9580,10 +9606,10 @@
         <v>0</v>
       </c>
       <c r="KK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KL9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KM9">
         <v>0</v>
@@ -9595,22 +9621,25 @@
         <v>0</v>
       </c>
       <c r="KP9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KQ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KR9">
         <v>0</v>
       </c>
       <c r="KS9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KT9">
+        <v>1</v>
+      </c>
+      <c r="KU9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>363</v>
       </c>
@@ -10419,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="JJ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL10">
         <v>0</v>
@@ -10529,8 +10558,11 @@
       <c r="KT10">
         <v>0</v>
       </c>
+      <c r="KU10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>363</v>
       </c>
@@ -11449,8 +11481,11 @@
       <c r="KT11">
         <v>0</v>
       </c>
+      <c r="KU11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>363</v>
       </c>
@@ -12369,8 +12404,11 @@
       <c r="KT12">
         <v>0</v>
       </c>
+      <c r="KU12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>363</v>
       </c>
@@ -13143,10 +13181,10 @@
         <v>0</v>
       </c>
       <c r="IX13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IY13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IZ13">
         <v>0</v>
@@ -13278,10 +13316,10 @@
         <v>0</v>
       </c>
       <c r="KQ13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KR13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS13">
         <v>0</v>
@@ -13289,8 +13327,11 @@
       <c r="KT13">
         <v>0</v>
       </c>
+      <c r="KU13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>363</v>
       </c>
@@ -14099,10 +14140,10 @@
         <v>0</v>
       </c>
       <c r="JJ14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL14">
         <v>0</v>
@@ -14209,8 +14250,11 @@
       <c r="KT14">
         <v>0</v>
       </c>
+      <c r="KU14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>364</v>
       </c>
@@ -14914,10 +14958,10 @@
         <v>0</v>
       </c>
       <c r="IA15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IC15">
         <v>0</v>
@@ -14938,10 +14982,10 @@
         <v>0</v>
       </c>
       <c r="II15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IJ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK15">
         <v>0</v>
@@ -15019,10 +15063,10 @@
         <v>0</v>
       </c>
       <c r="JJ15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL15">
         <v>0</v>
@@ -15129,8 +15173,11 @@
       <c r="KT15">
         <v>0</v>
       </c>
+      <c r="KU15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>364</v>
       </c>
@@ -15768,7 +15815,7 @@
         <v>0</v>
       </c>
       <c r="HE16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HF16">
         <v>0</v>
@@ -15834,10 +15881,10 @@
         <v>0</v>
       </c>
       <c r="IA16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IC16">
         <v>0</v>
@@ -15858,10 +15905,10 @@
         <v>0</v>
       </c>
       <c r="II16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IJ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK16">
         <v>0</v>
@@ -15939,10 +15986,10 @@
         <v>0</v>
       </c>
       <c r="JJ16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL16">
         <v>0</v>
@@ -15951,10 +15998,10 @@
         <v>0</v>
       </c>
       <c r="JN16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JP16">
         <v>0</v>
@@ -16049,8 +16096,11 @@
       <c r="KT16">
         <v>0</v>
       </c>
+      <c r="KU16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:308" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:309" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>368</v>
       </c>
@@ -16703,10 +16753,10 @@
         <v>0</v>
       </c>
       <c r="HJ17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HK17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL17">
         <v>0</v>
@@ -16736,10 +16786,10 @@
         <v>0</v>
       </c>
       <c r="HU17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW17">
         <v>0</v>
@@ -16859,10 +16909,10 @@
         <v>0</v>
       </c>
       <c r="JJ17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL17">
         <v>0</v>
@@ -16969,8 +17019,11 @@
       <c r="KT17">
         <v>0</v>
       </c>
+      <c r="KU17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:308" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:309" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>368</v>
       </c>
@@ -17656,10 +17709,10 @@
         <v>0</v>
       </c>
       <c r="HU18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW18">
         <v>0</v>
@@ -17701,10 +17754,10 @@
         <v>0</v>
       </c>
       <c r="IJ18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL18">
         <v>0</v>
@@ -17716,10 +17769,10 @@
         <v>0</v>
       </c>
       <c r="IO18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ18">
         <v>0</v>
@@ -17779,10 +17832,10 @@
         <v>0</v>
       </c>
       <c r="JJ18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL18">
         <v>0</v>
@@ -17791,10 +17844,10 @@
         <v>0</v>
       </c>
       <c r="JN18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JP18">
         <v>0</v>
@@ -17866,10 +17919,10 @@
         <v>0</v>
       </c>
       <c r="KM18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KO18">
         <v>0</v>
@@ -17889,8 +17942,11 @@
       <c r="KT18">
         <v>0</v>
       </c>
+      <c r="KU18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:308" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:309" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>366</v>
       </c>
@@ -18534,10 +18590,10 @@
         <v>0</v>
       </c>
       <c r="HG19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HI19">
         <v>0</v>
@@ -18546,10 +18602,10 @@
         <v>0</v>
       </c>
       <c r="HK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HL19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HM19">
         <v>0</v>
@@ -18570,10 +18626,10 @@
         <v>0</v>
       </c>
       <c r="HS19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU19">
         <v>0</v>
@@ -18600,10 +18656,10 @@
         <v>0</v>
       </c>
       <c r="IC19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ID19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE19">
         <v>0</v>
@@ -18663,10 +18719,10 @@
         <v>0</v>
       </c>
       <c r="IX19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IY19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IZ19">
         <v>0</v>
@@ -18699,10 +18755,10 @@
         <v>0</v>
       </c>
       <c r="JJ19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL19">
         <v>0</v>
@@ -18786,31 +18842,34 @@
         <v>0</v>
       </c>
       <c r="KM19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KO19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KP19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KQ19">
         <v>0</v>
       </c>
       <c r="KR19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KS19">
         <v>1</v>
       </c>
       <c r="KT19">
+        <v>1</v>
+      </c>
+      <c r="KU19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:308" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:309" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>366</v>
       </c>
@@ -19583,10 +19642,10 @@
         <v>0</v>
       </c>
       <c r="IX20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IY20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IZ20">
         <v>0</v>
@@ -19640,10 +19699,10 @@
         <v>0</v>
       </c>
       <c r="JQ20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS20">
         <v>0</v>
@@ -19729,8 +19788,11 @@
       <c r="KT20">
         <v>0</v>
       </c>
+      <c r="KU20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:308" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:309" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>366</v>
       </c>
@@ -20416,10 +20478,10 @@
         <v>0</v>
       </c>
       <c r="HU21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW21">
         <v>0</v>
@@ -20437,10 +20499,10 @@
         <v>0</v>
       </c>
       <c r="IB21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ID21">
         <v>0</v>
@@ -20503,10 +20565,10 @@
         <v>0</v>
       </c>
       <c r="IX21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IY21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IZ21">
         <v>0</v>
@@ -20560,10 +20622,10 @@
         <v>0</v>
       </c>
       <c r="JQ21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS21">
         <v>0</v>
@@ -20649,8 +20711,11 @@
       <c r="KT21">
         <v>0</v>
       </c>
+      <c r="KU21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:308" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:309" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>366</v>
       </c>
@@ -21354,10 +21419,10 @@
         <v>0</v>
       </c>
       <c r="IA22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IC22">
         <v>0</v>
@@ -21420,10 +21485,10 @@
         <v>0</v>
       </c>
       <c r="IW22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IX22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IY22">
         <v>0</v>
@@ -21483,10 +21548,10 @@
         <v>0</v>
       </c>
       <c r="JR22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JS22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT22">
         <v>0</v>
@@ -21513,10 +21578,10 @@
         <v>0</v>
       </c>
       <c r="KB22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KC22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KD22">
         <v>0</v>
@@ -21558,10 +21623,10 @@
         <v>0</v>
       </c>
       <c r="KQ22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KR22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS22">
         <v>0</v>
@@ -21569,8 +21634,11 @@
       <c r="KT22">
         <v>0</v>
       </c>
+      <c r="KU22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:308" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:309" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>366</v>
       </c>
@@ -22256,10 +22324,10 @@
         <v>0</v>
       </c>
       <c r="HU23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW23">
         <v>0</v>
@@ -22286,10 +22354,10 @@
         <v>0</v>
       </c>
       <c r="IE23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG23">
         <v>0</v>
@@ -22304,10 +22372,10 @@
         <v>0</v>
       </c>
       <c r="IK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM23">
         <v>0</v>
@@ -22316,10 +22384,10 @@
         <v>0</v>
       </c>
       <c r="IO23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ23">
         <v>0</v>
@@ -22379,10 +22447,10 @@
         <v>0</v>
       </c>
       <c r="JJ23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL23">
         <v>0</v>
@@ -22463,10 +22531,10 @@
         <v>0</v>
       </c>
       <c r="KL23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN23">
         <v>0</v>
@@ -22489,9 +22557,12 @@
       <c r="KT23">
         <v>0</v>
       </c>
-      <c r="KV23" s="3"/>
+      <c r="KU23">
+        <v>0</v>
+      </c>
+      <c r="KW23" s="3"/>
     </row>
-    <row r="24" spans="1:308" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:309" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>366</v>
       </c>
@@ -23153,10 +23224,10 @@
         <v>0</v>
       </c>
       <c r="HM24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO24">
         <v>0</v>
@@ -23237,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="IO24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ24">
         <v>0</v>
@@ -23384,10 +23455,10 @@
         <v>0</v>
       </c>
       <c r="KL24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN24">
         <v>0</v>
@@ -23410,9 +23481,12 @@
       <c r="KT24">
         <v>0</v>
       </c>
-      <c r="KV24" s="3"/>
+      <c r="KU24">
+        <v>0</v>
+      </c>
+      <c r="KW24" s="3"/>
     </row>
-    <row r="25" spans="1:308" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:309" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>366</v>
       </c>
@@ -24331,8 +24405,11 @@
       <c r="KT25">
         <v>0</v>
       </c>
+      <c r="KU25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:308" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:309" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>366</v>
       </c>
@@ -24976,10 +25053,10 @@
         <v>0</v>
       </c>
       <c r="HG26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HI26">
         <v>0</v>
@@ -25027,10 +25104,10 @@
         <v>0</v>
       </c>
       <c r="HX26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HY26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HZ26">
         <v>0</v>
@@ -25072,10 +25149,10 @@
         <v>0</v>
       </c>
       <c r="IM26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IN26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IO26">
         <v>0</v>
@@ -25141,10 +25218,10 @@
         <v>0</v>
       </c>
       <c r="JJ26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL26">
         <v>0</v>
@@ -25180,10 +25257,10 @@
         <v>0</v>
       </c>
       <c r="JW26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JX26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY26">
         <v>0</v>
@@ -25251,8 +25328,11 @@
       <c r="KT26">
         <v>0</v>
       </c>
+      <c r="KU26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:308" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:309" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>365</v>
       </c>
@@ -25935,10 +26015,10 @@
         <v>0</v>
       </c>
       <c r="HT27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HU27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV27">
         <v>0</v>
@@ -25968,10 +26048,10 @@
         <v>0</v>
       </c>
       <c r="IE27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG27">
         <v>0</v>
@@ -26034,10 +26114,10 @@
         <v>0</v>
       </c>
       <c r="JA27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JB27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JC27">
         <v>0</v>
@@ -26169,10 +26249,13 @@
         <v>0</v>
       </c>
       <c r="KT27">
+        <v>0</v>
+      </c>
+      <c r="KU27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:308" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:309" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>364</v>
       </c>
@@ -26834,10 +26917,10 @@
         <v>0</v>
       </c>
       <c r="HM28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO28">
         <v>0</v>
@@ -26858,19 +26941,19 @@
         <v>0</v>
       </c>
       <c r="HU28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW28">
         <v>0</v>
       </c>
       <c r="HX28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HY28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HZ28">
         <v>0</v>
@@ -26903,10 +26986,10 @@
         <v>0</v>
       </c>
       <c r="IJ28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL28">
         <v>0</v>
@@ -26930,10 +27013,10 @@
         <v>0</v>
       </c>
       <c r="IS28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IU28">
         <v>0</v>
@@ -26981,10 +27064,10 @@
         <v>0</v>
       </c>
       <c r="JJ28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL28">
         <v>0</v>
@@ -27014,10 +27097,10 @@
         <v>0</v>
       </c>
       <c r="JU28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JV28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JW28">
         <v>0</v>
@@ -27068,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="KM28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KO28">
         <v>0</v>
@@ -27091,8 +27174,11 @@
       <c r="KT28">
         <v>0</v>
       </c>
+      <c r="KU28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:308" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:309" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>366</v>
       </c>
@@ -27754,10 +27840,10 @@
         <v>0</v>
       </c>
       <c r="HM29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO29">
         <v>0</v>
@@ -27778,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="HU29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY29">
         <v>0</v>
@@ -27823,13 +27909,13 @@
         <v>0</v>
       </c>
       <c r="IJ29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK29">
         <v>1</v>
       </c>
       <c r="IL29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM29">
         <v>0</v>
@@ -27838,10 +27924,10 @@
         <v>0</v>
       </c>
       <c r="IO29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ29">
         <v>0</v>
@@ -27901,10 +27987,10 @@
         <v>0</v>
       </c>
       <c r="JJ29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL29">
         <v>0</v>
@@ -27913,10 +27999,10 @@
         <v>0</v>
       </c>
       <c r="JN29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JP29">
         <v>0</v>
@@ -27973,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="KH29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KI29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ29">
         <v>0</v>
@@ -27988,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="KM29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KO29">
         <v>0</v>
@@ -28011,8 +28097,11 @@
       <c r="KT29">
         <v>0</v>
       </c>
+      <c r="KU29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:308" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:309" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>368</v>
       </c>
@@ -28665,10 +28754,10 @@
         <v>0</v>
       </c>
       <c r="HJ30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HK30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL30">
         <v>0</v>
@@ -28698,10 +28787,10 @@
         <v>0</v>
       </c>
       <c r="HU30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW30">
         <v>0</v>
@@ -28743,10 +28832,10 @@
         <v>0</v>
       </c>
       <c r="IJ30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL30">
         <v>0</v>
@@ -28758,10 +28847,10 @@
         <v>0</v>
       </c>
       <c r="IO30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ30">
         <v>0</v>
@@ -28821,10 +28910,10 @@
         <v>0</v>
       </c>
       <c r="JJ30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL30">
         <v>0</v>
@@ -28931,8 +29020,11 @@
       <c r="KT30">
         <v>0</v>
       </c>
+      <c r="KU30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:308" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:309" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>366</v>
       </c>
@@ -29594,10 +29686,10 @@
         <v>0</v>
       </c>
       <c r="HM31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO31">
         <v>0</v>
@@ -29663,13 +29755,13 @@
         <v>0</v>
       </c>
       <c r="IJ31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK31">
         <v>1</v>
       </c>
       <c r="IL31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM31">
         <v>0</v>
@@ -29678,10 +29770,10 @@
         <v>0</v>
       </c>
       <c r="IO31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ31">
         <v>0</v>
@@ -29741,10 +29833,10 @@
         <v>0</v>
       </c>
       <c r="JJ31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL31">
         <v>0</v>
@@ -29753,10 +29845,10 @@
         <v>0</v>
       </c>
       <c r="JN31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JP31">
         <v>0</v>
@@ -29828,10 +29920,10 @@
         <v>0</v>
       </c>
       <c r="KM31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KO31">
         <v>0</v>
@@ -29851,8 +29943,11 @@
       <c r="KT31">
         <v>0</v>
       </c>
+      <c r="KU31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:308" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:309" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>366</v>
       </c>
@@ -30514,10 +30609,10 @@
         <v>0</v>
       </c>
       <c r="HM32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO32">
         <v>0</v>
@@ -30538,10 +30633,10 @@
         <v>0</v>
       </c>
       <c r="HU32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW32">
         <v>0</v>
@@ -30598,10 +30693,10 @@
         <v>0</v>
       </c>
       <c r="IO32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ32">
         <v>0</v>
@@ -30661,10 +30756,10 @@
         <v>0</v>
       </c>
       <c r="JJ32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL32">
         <v>0</v>
@@ -30771,8 +30866,11 @@
       <c r="KT32">
         <v>0</v>
       </c>
+      <c r="KU32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>366</v>
       </c>
@@ -31458,10 +31556,10 @@
         <v>0</v>
       </c>
       <c r="HU33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW33">
         <v>0</v>
@@ -31691,8 +31789,11 @@
       <c r="KT33">
         <v>0</v>
       </c>
+      <c r="KU33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>366</v>
       </c>
@@ -32354,10 +32455,10 @@
         <v>0</v>
       </c>
       <c r="HM34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO34">
         <v>0</v>
@@ -32378,10 +32479,10 @@
         <v>0</v>
       </c>
       <c r="HU34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW34">
         <v>0</v>
@@ -32408,10 +32509,10 @@
         <v>0</v>
       </c>
       <c r="IE34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG34">
         <v>0</v>
@@ -32459,10 +32560,10 @@
         <v>0</v>
       </c>
       <c r="IV34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IW34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IX34">
         <v>0</v>
@@ -32555,10 +32656,10 @@
         <v>0</v>
       </c>
       <c r="KB34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KC34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KD34">
         <v>0</v>
@@ -32585,10 +32686,10 @@
         <v>0</v>
       </c>
       <c r="KL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN34">
         <v>0</v>
@@ -32611,8 +32712,11 @@
       <c r="KT34">
         <v>0</v>
       </c>
+      <c r="KU34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>366</v>
       </c>
@@ -33274,10 +33378,10 @@
         <v>0</v>
       </c>
       <c r="HM35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO35">
         <v>0</v>
@@ -33307,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="HX35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HY35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HZ35">
         <v>0</v>
@@ -33358,10 +33462,10 @@
         <v>0</v>
       </c>
       <c r="IO35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ35">
         <v>0</v>
@@ -33391,10 +33495,10 @@
         <v>0</v>
       </c>
       <c r="IZ35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JA35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB35">
         <v>0</v>
@@ -33421,10 +33525,10 @@
         <v>0</v>
       </c>
       <c r="JJ35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL35">
         <v>0</v>
@@ -33469,10 +33573,10 @@
         <v>0</v>
       </c>
       <c r="JZ35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KA35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KB35">
         <v>0</v>
@@ -33531,8 +33635,11 @@
       <c r="KT35">
         <v>0</v>
       </c>
+      <c r="KU35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>367</v>
       </c>
@@ -34170,10 +34277,10 @@
         <v>0</v>
       </c>
       <c r="HF36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HG36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH36">
         <v>0</v>
@@ -34191,10 +34298,10 @@
         <v>0</v>
       </c>
       <c r="HM36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO36">
         <v>0</v>
@@ -34215,10 +34322,10 @@
         <v>0</v>
       </c>
       <c r="HU36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW36">
         <v>0</v>
@@ -34314,34 +34421,34 @@
         <v>0</v>
       </c>
       <c r="JB36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD36">
         <v>0</v>
       </c>
       <c r="JE36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JI36">
         <v>0</v>
       </c>
       <c r="JJ36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL36">
         <v>0</v>
@@ -34395,13 +34502,13 @@
         <v>0</v>
       </c>
       <c r="KC36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KD36">
         <v>1</v>
       </c>
       <c r="KE36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KF36">
         <v>0</v>
@@ -34413,28 +34520,28 @@
         <v>0</v>
       </c>
       <c r="KI36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KJ36">
         <v>1</v>
       </c>
       <c r="KK36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KL36">
         <v>0</v>
       </c>
       <c r="KM36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KO36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KP36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KQ36">
         <v>0</v>
@@ -34448,8 +34555,11 @@
       <c r="KT36">
         <v>0</v>
       </c>
+      <c r="KU36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>367</v>
       </c>
@@ -35365,8 +35475,11 @@
       <c r="KT37">
         <v>0</v>
       </c>
+      <c r="KU37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>367</v>
       </c>
@@ -36010,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="HH38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ38">
         <v>0</v>
@@ -36025,10 +36138,10 @@
         <v>0</v>
       </c>
       <c r="HM38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO38">
         <v>0</v>
@@ -36079,19 +36192,19 @@
         <v>0</v>
       </c>
       <c r="IE38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG38">
         <v>0</v>
       </c>
       <c r="IH38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="II38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ38">
         <v>0</v>
@@ -36282,8 +36395,11 @@
       <c r="KT38">
         <v>0</v>
       </c>
+      <c r="KU38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>367</v>
       </c>
@@ -36918,13 +37034,13 @@
         <v>0</v>
       </c>
       <c r="HE39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF39">
         <v>1</v>
       </c>
       <c r="HG39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH39">
         <v>0</v>
@@ -36951,10 +37067,10 @@
         <v>0</v>
       </c>
       <c r="HP39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR39">
         <v>0</v>
@@ -36966,10 +37082,10 @@
         <v>0</v>
       </c>
       <c r="HU39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW39">
         <v>0</v>
@@ -36996,10 +37112,10 @@
         <v>0</v>
       </c>
       <c r="IE39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG39">
         <v>0</v>
@@ -37074,22 +37190,22 @@
         <v>0</v>
       </c>
       <c r="JE39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG39">
         <v>0</v>
       </c>
       <c r="JH39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JI39">
         <v>1</v>
       </c>
       <c r="JJ39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK39">
         <v>0</v>
@@ -37164,13 +37280,13 @@
         <v>0</v>
       </c>
       <c r="KI39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KJ39">
         <v>1</v>
       </c>
       <c r="KK39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KL39">
         <v>0</v>
@@ -37179,10 +37295,10 @@
         <v>0</v>
       </c>
       <c r="KN39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KO39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KP39">
         <v>0</v>
@@ -37199,8 +37315,11 @@
       <c r="KT39">
         <v>0</v>
       </c>
+      <c r="KU39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>367</v>
       </c>
@@ -37835,13 +37954,13 @@
         <v>0</v>
       </c>
       <c r="HE40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF40">
         <v>1</v>
       </c>
       <c r="HG40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH40">
         <v>0</v>
@@ -37856,10 +37975,10 @@
         <v>0</v>
       </c>
       <c r="HL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HM40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN40">
         <v>0</v>
@@ -37883,10 +38002,10 @@
         <v>0</v>
       </c>
       <c r="HU40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW40">
         <v>0</v>
@@ -37901,10 +38020,10 @@
         <v>0</v>
       </c>
       <c r="IA40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IC40">
         <v>0</v>
@@ -37913,10 +38032,10 @@
         <v>0</v>
       </c>
       <c r="IE40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG40">
         <v>0</v>
@@ -37931,10 +38050,10 @@
         <v>0</v>
       </c>
       <c r="IK40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM40">
         <v>0</v>
@@ -37946,19 +38065,19 @@
         <v>0</v>
       </c>
       <c r="IP40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR40">
         <v>0</v>
       </c>
       <c r="IS40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IU40">
         <v>0</v>
@@ -37985,10 +38104,10 @@
         <v>0</v>
       </c>
       <c r="JC40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JD40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JE40">
         <v>0</v>
@@ -38006,19 +38125,19 @@
         <v>0</v>
       </c>
       <c r="JJ40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL40">
         <v>0</v>
       </c>
       <c r="JM40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JN40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JO40">
         <v>0</v>
@@ -38051,16 +38170,16 @@
         <v>0</v>
       </c>
       <c r="JY40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JZ40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KA40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KB40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KC40">
         <v>0</v>
@@ -38081,16 +38200,16 @@
         <v>0</v>
       </c>
       <c r="KI40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KJ40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK40">
         <v>0</v>
       </c>
       <c r="KL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM40">
         <v>1</v>
@@ -38099,7 +38218,7 @@
         <v>1</v>
       </c>
       <c r="KO40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KP40">
         <v>0</v>
@@ -38116,8 +38235,11 @@
       <c r="KT40">
         <v>0</v>
       </c>
+      <c r="KU40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>367</v>
       </c>
@@ -38752,13 +38874,13 @@
         <v>0</v>
       </c>
       <c r="HE41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF41">
         <v>1</v>
       </c>
       <c r="HG41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH41">
         <v>0</v>
@@ -38770,13 +38892,13 @@
         <v>0</v>
       </c>
       <c r="HK41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HL41">
         <v>1</v>
       </c>
       <c r="HM41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN41">
         <v>0</v>
@@ -38785,10 +38907,10 @@
         <v>0</v>
       </c>
       <c r="HP41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR41">
         <v>0</v>
@@ -38800,10 +38922,10 @@
         <v>0</v>
       </c>
       <c r="HU41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW41">
         <v>0</v>
@@ -38818,10 +38940,10 @@
         <v>0</v>
       </c>
       <c r="IA41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IC41">
         <v>0</v>
@@ -38830,10 +38952,10 @@
         <v>0</v>
       </c>
       <c r="IE41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG41">
         <v>0</v>
@@ -38845,10 +38967,10 @@
         <v>0</v>
       </c>
       <c r="IJ41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL41">
         <v>0</v>
@@ -38866,13 +38988,13 @@
         <v>0</v>
       </c>
       <c r="IQ41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR41">
         <v>1</v>
       </c>
       <c r="IS41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IT41">
         <v>0</v>
@@ -38902,22 +39024,22 @@
         <v>0</v>
       </c>
       <c r="JC41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JD41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JE41">
         <v>0</v>
       </c>
       <c r="JF41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JG41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JH41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JI41">
         <v>1</v>
@@ -38926,7 +39048,7 @@
         <v>1</v>
       </c>
       <c r="JK41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL41">
         <v>0</v>
@@ -38986,10 +39108,10 @@
         <v>0</v>
       </c>
       <c r="KE41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KF41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KG41">
         <v>0</v>
@@ -38998,25 +39120,25 @@
         <v>0</v>
       </c>
       <c r="KI41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KJ41">
         <v>1</v>
       </c>
       <c r="KK41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KL41">
         <v>0</v>
       </c>
       <c r="KM41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN41">
         <v>1</v>
       </c>
       <c r="KO41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KP41">
         <v>0</v>
@@ -39033,8 +39155,11 @@
       <c r="KT41">
         <v>0</v>
       </c>
+      <c r="KU41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>367</v>
       </c>
@@ -39669,13 +39794,13 @@
         <v>0</v>
       </c>
       <c r="HE42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF42">
         <v>1</v>
       </c>
       <c r="HG42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH42">
         <v>0</v>
@@ -39690,10 +39815,10 @@
         <v>0</v>
       </c>
       <c r="HL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HM42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN42">
         <v>0</v>
@@ -39702,10 +39827,10 @@
         <v>0</v>
       </c>
       <c r="HP42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR42">
         <v>0</v>
@@ -39747,10 +39872,10 @@
         <v>0</v>
       </c>
       <c r="IE42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG42">
         <v>0</v>
@@ -39819,13 +39944,13 @@
         <v>0</v>
       </c>
       <c r="JC42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JD42">
         <v>1</v>
       </c>
       <c r="JE42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JF42">
         <v>0</v>
@@ -39837,10 +39962,10 @@
         <v>0</v>
       </c>
       <c r="JI42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK42">
         <v>0</v>
@@ -39930,10 +40055,10 @@
         <v>0</v>
       </c>
       <c r="KN42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KO42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KP42">
         <v>0</v>
@@ -39950,8 +40075,11 @@
       <c r="KT42">
         <v>0</v>
       </c>
+      <c r="KU42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>367</v>
       </c>
@@ -40625,19 +40753,19 @@
         <v>0</v>
       </c>
       <c r="HR43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HS43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT43">
         <v>0</v>
       </c>
       <c r="HU43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW43">
         <v>0</v>
@@ -40664,16 +40792,16 @@
         <v>0</v>
       </c>
       <c r="IE43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II43">
         <v>0</v>
@@ -40715,10 +40843,10 @@
         <v>0</v>
       </c>
       <c r="IV43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IW43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IX43">
         <v>0</v>
@@ -40757,10 +40885,10 @@
         <v>0</v>
       </c>
       <c r="JJ43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL43">
         <v>0</v>
@@ -40841,10 +40969,10 @@
         <v>0</v>
       </c>
       <c r="KL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN43">
         <v>0</v>
@@ -40867,8 +40995,11 @@
       <c r="KT43">
         <v>0</v>
       </c>
+      <c r="KU43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>367</v>
       </c>
@@ -41551,10 +41682,10 @@
         <v>0</v>
       </c>
       <c r="HU44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW44">
         <v>0</v>
@@ -41587,10 +41718,10 @@
         <v>0</v>
       </c>
       <c r="IG44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II44">
         <v>0</v>
@@ -41674,10 +41805,10 @@
         <v>0</v>
       </c>
       <c r="JJ44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL44">
         <v>0</v>
@@ -41710,10 +41841,10 @@
         <v>0</v>
       </c>
       <c r="JV44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JW44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX44">
         <v>0</v>
@@ -41784,8 +41915,11 @@
       <c r="KT44">
         <v>0</v>
       </c>
+      <c r="KU44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>367</v>
       </c>
@@ -42468,10 +42602,10 @@
         <v>0</v>
       </c>
       <c r="HU45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW45">
         <v>0</v>
@@ -42498,16 +42632,16 @@
         <v>0</v>
       </c>
       <c r="IE45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II45">
         <v>0</v>
@@ -42528,10 +42662,10 @@
         <v>0</v>
       </c>
       <c r="IO45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ45">
         <v>0</v>
@@ -42549,10 +42683,10 @@
         <v>0</v>
       </c>
       <c r="IV45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IW45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IX45">
         <v>0</v>
@@ -42591,10 +42725,10 @@
         <v>0</v>
       </c>
       <c r="JJ45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL45">
         <v>0</v>
@@ -42627,10 +42761,10 @@
         <v>0</v>
       </c>
       <c r="JV45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JW45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX45">
         <v>0</v>
@@ -42701,8 +42835,11 @@
       <c r="KT45">
         <v>0</v>
       </c>
+      <c r="KU45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>367</v>
       </c>
@@ -43385,13 +43522,13 @@
         <v>0</v>
       </c>
       <c r="HU46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV46">
         <v>1</v>
       </c>
       <c r="HW46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX46">
         <v>0</v>
@@ -43415,16 +43552,16 @@
         <v>0</v>
       </c>
       <c r="IE46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II46">
         <v>0</v>
@@ -43445,10 +43582,10 @@
         <v>0</v>
       </c>
       <c r="IO46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ46">
         <v>0</v>
@@ -43466,10 +43603,10 @@
         <v>0</v>
       </c>
       <c r="IV46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IW46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IX46">
         <v>0</v>
@@ -43508,10 +43645,10 @@
         <v>0</v>
       </c>
       <c r="JJ46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL46">
         <v>0</v>
@@ -43544,16 +43681,16 @@
         <v>0</v>
       </c>
       <c r="JV46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JW46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JZ46">
         <v>0</v>
@@ -43592,10 +43729,10 @@
         <v>0</v>
       </c>
       <c r="KL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN46">
         <v>0</v>
@@ -43618,8 +43755,11 @@
       <c r="KT46">
         <v>0</v>
       </c>
+      <c r="KU46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>367</v>
       </c>
@@ -44293,19 +44433,19 @@
         <v>0</v>
       </c>
       <c r="HR47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HS47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT47">
         <v>0</v>
       </c>
       <c r="HU47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW47">
         <v>0</v>
@@ -44332,16 +44472,16 @@
         <v>0</v>
       </c>
       <c r="IE47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II47">
         <v>0</v>
@@ -44383,10 +44523,10 @@
         <v>0</v>
       </c>
       <c r="IV47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IW47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IX47">
         <v>0</v>
@@ -44425,10 +44565,10 @@
         <v>0</v>
       </c>
       <c r="JJ47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL47">
         <v>0</v>
@@ -44509,10 +44649,10 @@
         <v>0</v>
       </c>
       <c r="KL47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN47">
         <v>0</v>
@@ -44535,8 +44675,11 @@
       <c r="KT47">
         <v>0</v>
       </c>
+      <c r="KU47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>367</v>
       </c>
@@ -45219,10 +45362,10 @@
         <v>0</v>
       </c>
       <c r="HU48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW48">
         <v>0</v>
@@ -45237,10 +45380,10 @@
         <v>0</v>
       </c>
       <c r="IA48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IC48">
         <v>0</v>
@@ -45255,22 +45398,22 @@
         <v>0</v>
       </c>
       <c r="IG48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II48">
         <v>0</v>
       </c>
       <c r="IJ48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK48">
         <v>1</v>
       </c>
       <c r="IL48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM48">
         <v>0</v>
@@ -45279,10 +45422,10 @@
         <v>0</v>
       </c>
       <c r="IO48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ48">
         <v>0</v>
@@ -45309,10 +45452,10 @@
         <v>0</v>
       </c>
       <c r="IY48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IZ48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JA48">
         <v>0</v>
@@ -45342,10 +45485,10 @@
         <v>0</v>
       </c>
       <c r="JJ48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL48">
         <v>0</v>
@@ -45378,10 +45521,10 @@
         <v>0</v>
       </c>
       <c r="JV48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JW48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX48">
         <v>0</v>
@@ -45396,10 +45539,10 @@
         <v>0</v>
       </c>
       <c r="KB48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KC48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KD48">
         <v>0</v>
@@ -45426,13 +45569,13 @@
         <v>0</v>
       </c>
       <c r="KL48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM48">
         <v>1</v>
       </c>
       <c r="KN48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KO48">
         <v>0</v>
@@ -45452,8 +45595,11 @@
       <c r="KT48">
         <v>0</v>
       </c>
+      <c r="KU48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>366</v>
       </c>
@@ -46097,10 +46243,10 @@
         <v>0</v>
       </c>
       <c r="HG49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HI49">
         <v>0</v>
@@ -46121,10 +46267,10 @@
         <v>0</v>
       </c>
       <c r="HO49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HP49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HQ49">
         <v>0</v>
@@ -46139,10 +46285,10 @@
         <v>0</v>
       </c>
       <c r="HU49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW49">
         <v>0</v>
@@ -46157,10 +46303,10 @@
         <v>0</v>
       </c>
       <c r="IA49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IC49">
         <v>0</v>
@@ -46169,10 +46315,10 @@
         <v>0</v>
       </c>
       <c r="IE49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG49">
         <v>0</v>
@@ -46196,10 +46342,10 @@
         <v>0</v>
       </c>
       <c r="IN49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IO49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP49">
         <v>0</v>
@@ -46265,10 +46411,10 @@
         <v>0</v>
       </c>
       <c r="JK49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM49">
         <v>0</v>
@@ -46372,8 +46518,11 @@
       <c r="KT49">
         <v>0</v>
       </c>
+      <c r="KU49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>363</v>
       </c>
@@ -47200,10 +47349,10 @@
         <v>0</v>
       </c>
       <c r="JP50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JQ50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JR50">
         <v>0</v>
@@ -47292,8 +47441,11 @@
       <c r="KT50">
         <v>0</v>
       </c>
+      <c r="KU50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>363</v>
       </c>
@@ -48120,10 +48272,10 @@
         <v>0</v>
       </c>
       <c r="JP51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JQ51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JR51">
         <v>0</v>
@@ -48212,8 +48364,11 @@
       <c r="KT51">
         <v>0</v>
       </c>
+      <c r="KU51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>363</v>
       </c>
@@ -49022,10 +49177,10 @@
         <v>0</v>
       </c>
       <c r="JJ52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL52">
         <v>0</v>
@@ -49132,8 +49287,11 @@
       <c r="KT52">
         <v>0</v>
       </c>
+      <c r="KU52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>363</v>
       </c>
@@ -49852,10 +50010,10 @@
         <v>0</v>
       </c>
       <c r="IF53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH53">
         <v>0</v>
@@ -50052,8 +50210,11 @@
       <c r="KT53">
         <v>0</v>
       </c>
+      <c r="KU53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>365</v>
       </c>
@@ -50769,10 +50930,10 @@
         <v>0</v>
       </c>
       <c r="IE54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG54">
         <v>0</v>
@@ -50928,10 +51089,10 @@
         <v>0</v>
       </c>
       <c r="KF54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KG54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KH54">
         <v>0</v>
@@ -50972,8 +51133,11 @@
       <c r="KT54">
         <v>0</v>
       </c>
+      <c r="KU54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>124</v>
       </c>
@@ -51626,19 +51790,19 @@
         <v>0</v>
       </c>
       <c r="HJ55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HK55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL55">
         <v>0</v>
       </c>
       <c r="HM55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO55">
         <v>0</v>
@@ -51647,10 +51811,10 @@
         <v>0</v>
       </c>
       <c r="HQ55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HR55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HS55">
         <v>0</v>
@@ -51659,10 +51823,10 @@
         <v>0</v>
       </c>
       <c r="HU55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW55">
         <v>0</v>
@@ -51689,10 +51853,10 @@
         <v>0</v>
       </c>
       <c r="IE55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG55">
         <v>0</v>
@@ -51707,10 +51871,10 @@
         <v>0</v>
       </c>
       <c r="IK55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM55">
         <v>0</v>
@@ -51719,10 +51883,10 @@
         <v>0</v>
       </c>
       <c r="IO55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ55">
         <v>0</v>
@@ -51782,10 +51946,10 @@
         <v>0</v>
       </c>
       <c r="JJ55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL55">
         <v>0</v>
@@ -51803,10 +51967,10 @@
         <v>0</v>
       </c>
       <c r="JQ55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS55">
         <v>0</v>
@@ -51845,10 +52009,10 @@
         <v>0</v>
       </c>
       <c r="KE55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KF55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KG55">
         <v>0</v>
@@ -51892,8 +52056,11 @@
       <c r="KT55">
         <v>0</v>
       </c>
+      <c r="KU55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>367</v>
       </c>
@@ -52537,10 +52704,10 @@
         <v>0</v>
       </c>
       <c r="HG56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HI56">
         <v>0</v>
@@ -52708,10 +52875,10 @@
         <v>0</v>
       </c>
       <c r="JL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN56">
         <v>0</v>
@@ -52729,10 +52896,10 @@
         <v>0</v>
       </c>
       <c r="JS56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JT56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU56">
         <v>0</v>
@@ -52783,10 +52950,10 @@
         <v>0</v>
       </c>
       <c r="KK56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KL56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KM56">
         <v>0</v>
@@ -52812,8 +52979,11 @@
       <c r="KT56">
         <v>0</v>
       </c>
+      <c r="KU56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>367</v>
       </c>
@@ -53475,10 +53645,10 @@
         <v>0</v>
       </c>
       <c r="HM57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO57">
         <v>0</v>
@@ -53622,10 +53792,10 @@
         <v>0</v>
       </c>
       <c r="JJ57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL57">
         <v>0</v>
@@ -53732,8 +53902,11 @@
       <c r="KT57">
         <v>0</v>
       </c>
+      <c r="KU57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>367</v>
       </c>
@@ -54377,22 +54550,22 @@
         <v>0</v>
       </c>
       <c r="HG58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HI58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HJ58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HK58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HL58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HM58">
         <v>0</v>
@@ -54419,10 +54592,10 @@
         <v>0</v>
       </c>
       <c r="HU58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW58">
         <v>0</v>
@@ -54437,10 +54610,10 @@
         <v>0</v>
       </c>
       <c r="IA58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IC58">
         <v>0</v>
@@ -54467,10 +54640,10 @@
         <v>0</v>
       </c>
       <c r="IK58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM58">
         <v>0</v>
@@ -54494,13 +54667,13 @@
         <v>0</v>
       </c>
       <c r="IT58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IU58">
         <v>1</v>
       </c>
       <c r="IV58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW58">
         <v>0</v>
@@ -54542,10 +54715,10 @@
         <v>0</v>
       </c>
       <c r="JJ58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL58">
         <v>0</v>
@@ -54572,10 +54745,10 @@
         <v>0</v>
       </c>
       <c r="JT58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV58">
         <v>0</v>
@@ -54623,10 +54796,10 @@
         <v>0</v>
       </c>
       <c r="KK58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KL58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KM58">
         <v>0</v>
@@ -54641,10 +54814,10 @@
         <v>0</v>
       </c>
       <c r="KQ58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KR58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS58">
         <v>0</v>
@@ -54652,8 +54825,11 @@
       <c r="KT58">
         <v>0</v>
       </c>
+      <c r="KU58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>367</v>
       </c>
@@ -55309,10 +55485,10 @@
         <v>0</v>
       </c>
       <c r="HK59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HL59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HM59">
         <v>0</v>
@@ -55357,10 +55533,10 @@
         <v>0</v>
       </c>
       <c r="IA59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IC59">
         <v>0</v>
@@ -55492,10 +55668,10 @@
         <v>0</v>
       </c>
       <c r="JT59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV59">
         <v>0</v>
@@ -55572,8 +55748,11 @@
       <c r="KT59">
         <v>0</v>
       </c>
+      <c r="KU59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>367</v>
       </c>
@@ -56217,10 +56396,10 @@
         <v>0</v>
       </c>
       <c r="HG60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HI60">
         <v>0</v>
@@ -56382,10 +56561,10 @@
         <v>0</v>
       </c>
       <c r="JJ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL60">
         <v>0</v>
@@ -56412,10 +56591,10 @@
         <v>0</v>
       </c>
       <c r="JT60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV60">
         <v>0</v>
@@ -56492,8 +56671,11 @@
       <c r="KT60">
         <v>0</v>
       </c>
+      <c r="KU60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:306" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:307" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>367</v>
       </c>
@@ -57179,10 +57361,10 @@
         <v>0</v>
       </c>
       <c r="HU61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW61">
         <v>0</v>
@@ -57254,10 +57436,10 @@
         <v>0</v>
       </c>
       <c r="IT61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IU61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IV61">
         <v>0</v>
@@ -57329,10 +57511,10 @@
         <v>0</v>
       </c>
       <c r="JS61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JT61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU61">
         <v>0</v>
@@ -57410,18 +57592,21 @@
         <v>0</v>
       </c>
       <c r="KT61">
+        <v>0</v>
+      </c>
+      <c r="KU61">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:KT61">
+  <autoFilter ref="A3:KU61">
     <sortState ref="A4:KU61">
       <sortCondition ref="C4:C61"/>
       <sortCondition ref="D4:D61"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">
-    <mergeCell ref="DQ1:KT1"/>
+    <mergeCell ref="DQ1:KU1"/>
     <mergeCell ref="CM1:DP1"/>
     <mergeCell ref="G1:CL1"/>
   </mergeCells>

--- a/data-raw/functionsTracker_20230710.xlsx
+++ b/data-raw/functionsTracker_20230710.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$KU$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$KT$61</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="479">
   <si>
     <t>function</t>
   </si>
@@ -1465,9 +1465,6 @@
   <si>
     <t>gen_hazard</t>
   </si>
-  <si>
-    <t>isTRUE</t>
-  </si>
 </sst>
 </file>
 
@@ -1819,13 +1816,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KW61"/>
+  <dimension ref="A1:KV61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="GY4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HE16" sqref="HE16"/>
+      <selection pane="bottomRight" activeCell="HD5" sqref="HD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2037,102 +2034,101 @@
     <col min="210" max="210" width="4.90625" bestFit="1" customWidth="1"/>
     <col min="211" max="211" width="6" bestFit="1" customWidth="1"/>
     <col min="212" max="212" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="9.81640625" customWidth="1"/>
-    <col min="214" max="214" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="7.81640625" customWidth="1"/>
-    <col min="220" max="220" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="6.36328125" customWidth="1"/>
-    <col min="229" max="229" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="6.6328125" customWidth="1"/>
-    <col min="235" max="235" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="6.6328125" customWidth="1"/>
-    <col min="239" max="239" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="242" max="243" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="10" customWidth="1"/>
-    <col min="255" max="255" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="18.54296875" customWidth="1"/>
-    <col min="269" max="269" width="16.453125" customWidth="1"/>
-    <col min="270" max="270" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="283" max="283" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="291" max="291" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="6.90625" customWidth="1"/>
-    <col min="295" max="295" width="6.6328125" customWidth="1"/>
-    <col min="296" max="296" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="297" max="297" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="301" max="301" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="302" max="302" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="303" max="303" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="304" max="304" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="305" max="305" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="306" max="306" width="6" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="7.81640625" customWidth="1"/>
+    <col min="219" max="219" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="6.36328125" customWidth="1"/>
+    <col min="228" max="228" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="6.6328125" customWidth="1"/>
+    <col min="234" max="234" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="6.6328125" customWidth="1"/>
+    <col min="238" max="238" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="241" max="242" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="10" customWidth="1"/>
+    <col min="254" max="254" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="18.54296875" customWidth="1"/>
+    <col min="268" max="268" width="16.453125" customWidth="1"/>
+    <col min="269" max="269" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="6.90625" customWidth="1"/>
+    <col min="294" max="294" width="6.6328125" customWidth="1"/>
+    <col min="295" max="295" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="296" max="296" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="297" max="297" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="302" max="302" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="303" max="303" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="304" max="304" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="305" max="305" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:307" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:306" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="G1" s="7" t="s">
         <v>18</v>
       </c>
@@ -2439,9 +2435,8 @@
       <c r="KR1" s="7"/>
       <c r="KS1" s="7"/>
       <c r="KT1" s="7"/>
-      <c r="KU1" s="7"/>
     </row>
-    <row r="2" spans="1:307" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:306" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -2893,154 +2888,154 @@
         <v>388</v>
       </c>
       <c r="HE2" s="3" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="HF2" s="3" t="s">
         <v>392</v>
       </c>
       <c r="HG2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="HH2" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="HI2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="HJ2" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="HK2" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="HL2" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="HM2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="HN2" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="HO2" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="HP2" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="HH2" s="3" t="s">
+      <c r="HQ2" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="HR2" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="HI2" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="HJ2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="HK2" s="3" t="s">
+      <c r="HS2" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="HT2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="HU2" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="HV2" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="HL2" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="HM2" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="HN2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="HO2" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="HP2" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="HQ2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="HR2" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="HS2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="HT2" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="HU2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="HV2" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="HW2" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="HX2" s="3" t="s">
-        <v>391</v>
+      <c r="HX2" s="4" t="s">
+        <v>437</v>
       </c>
       <c r="HY2" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="HZ2" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="IA2" s="3" t="s">
+      <c r="HZ2" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="IA2" s="4" t="s">
+        <v>421</v>
+      </c>
       <c r="IB2" s="4" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="IC2" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="ID2" s="4" t="s">
         <v>434</v>
+      </c>
+      <c r="ID2" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="IE2" s="3" t="s">
         <v>388</v>
       </c>
       <c r="IF2" s="3" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="IG2" s="3" t="s">
         <v>396</v>
       </c>
       <c r="IH2" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="II2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="IJ2" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="IK2" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="IL2" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="IM2" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="IN2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="IO2" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="IP2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="IQ2" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="IR2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="IS2" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="II2" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="IJ2" s="3" t="s">
+      <c r="IT2" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="IU2" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="IK2" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="IL2" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="IM2" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="IN2" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="IO2" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="IP2" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="IQ2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="IR2" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="IS2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="IT2" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="IU2" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="IV2" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="IW2" s="3" t="s">
+      <c r="IW2" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="IX2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="IY2" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="IZ2" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="IX2" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="IY2" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="IZ2" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="JA2" s="3" t="s">
         <v>388</v>
       </c>
       <c r="JB2" s="3" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="JC2" s="3" t="s">
         <v>392</v>
@@ -3063,44 +3058,44 @@
       <c r="JI2" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="JJ2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="JK2" s="4" t="s">
+      <c r="JJ2" s="4" t="s">
         <v>414</v>
       </c>
+      <c r="JK2" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="JL2" s="3" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="JM2" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="JN2" s="3" t="s">
+      <c r="JN2" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="JO2" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="JP2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="JQ2" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="JR2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="JS2" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="JO2" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="JP2" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="JQ2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="JR2" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="JS2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="JT2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="JU2" s="4" t="s">
+      <c r="JT2" s="4" t="s">
         <v>426</v>
       </c>
+      <c r="JU2" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="JV2" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="JW2" s="3" t="s">
         <v>405</v>
@@ -3112,73 +3107,70 @@
         <v>405</v>
       </c>
       <c r="JZ2" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="KA2" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="KB2" s="4" t="s">
+      <c r="KA2" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="KC2" s="3" t="s">
+      <c r="KB2" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="KD2" s="4" t="s">
+      <c r="KC2" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="KE2" s="3" t="s">
+      <c r="KD2" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="KF2" s="4" t="s">
+      <c r="KE2" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="KG2" s="3" t="s">
+      <c r="KF2" s="3" t="s">
         <v>388</v>
       </c>
+      <c r="KG2" s="4" t="s">
+        <v>421</v>
+      </c>
       <c r="KH2" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="KI2" s="4" t="s">
         <v>422</v>
+      </c>
+      <c r="KI2" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="KJ2" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="KK2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="KL2" s="4" t="s">
+      <c r="KK2" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="KM2" s="3" t="s">
+      <c r="KL2" s="3" t="s">
         <v>391</v>
       </c>
+      <c r="KM2" s="4" t="s">
+        <v>420</v>
+      </c>
       <c r="KN2" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="KO2" s="4" t="s">
         <v>455</v>
+      </c>
+      <c r="KO2" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="KP2" s="3" t="s">
         <v>388</v>
       </c>
       <c r="KQ2" s="3" t="s">
-        <v>388</v>
+        <v>67</v>
       </c>
       <c r="KR2" s="3" t="s">
         <v>67</v>
       </c>
       <c r="KS2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="KT2" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="KU2" s="6" t="s">
+      <c r="KT2" s="6" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>258</v>
       </c>
@@ -3816,292 +3808,289 @@
         <v>178</v>
       </c>
       <c r="HE3" t="s">
-        <v>479</v>
+        <v>262</v>
       </c>
       <c r="HF3" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="HG3" t="s">
-        <v>266</v>
+        <v>65</v>
       </c>
       <c r="HH3" t="s">
-        <v>65</v>
+        <v>338</v>
       </c>
       <c r="HI3" t="s">
-        <v>338</v>
-      </c>
-      <c r="HJ3" t="s">
         <v>318</v>
       </c>
-      <c r="HK3" s="5" t="s">
+      <c r="HJ3" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="HK3" t="s">
+        <v>77</v>
+      </c>
       <c r="HL3" t="s">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="HM3" t="s">
-        <v>275</v>
+        <v>141</v>
       </c>
       <c r="HN3" t="s">
-        <v>141</v>
+        <v>457</v>
       </c>
       <c r="HO3" t="s">
-        <v>457</v>
+        <v>125</v>
       </c>
       <c r="HP3" t="s">
-        <v>125</v>
+        <v>271</v>
       </c>
       <c r="HQ3" t="s">
-        <v>271</v>
+        <v>54</v>
       </c>
       <c r="HR3" t="s">
-        <v>54</v>
+        <v>378</v>
       </c>
       <c r="HS3" t="s">
-        <v>378</v>
+        <v>73</v>
       </c>
       <c r="HT3" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="HU3" t="s">
-        <v>148</v>
-      </c>
-      <c r="HV3" t="s">
         <v>7</v>
       </c>
+      <c r="HV3" s="5" t="s">
+        <v>386</v>
+      </c>
       <c r="HW3" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="HX3" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="HX3" t="s">
+        <v>50</v>
+      </c>
       <c r="HY3" t="s">
-        <v>50</v>
+        <v>202</v>
       </c>
       <c r="HZ3" t="s">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="IA3" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="IB3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="IC3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="ID3" t="s">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="IE3" t="s">
-        <v>204</v>
-      </c>
-      <c r="IF3" t="s">
         <v>55</v>
       </c>
+      <c r="IF3" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="IG3" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="IH3" s="5" t="s">
         <v>379</v>
       </c>
+      <c r="IH3" t="s">
+        <v>362</v>
+      </c>
       <c r="II3" t="s">
-        <v>362</v>
-      </c>
-      <c r="IJ3" t="s">
         <v>104</v>
       </c>
-      <c r="IK3" s="5" t="s">
+      <c r="IJ3" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="IK3" t="s">
+        <v>10</v>
+      </c>
       <c r="IL3" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="IM3" t="s">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="IN3" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="IO3" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="IP3" t="s">
-        <v>9</v>
+        <v>278</v>
       </c>
       <c r="IQ3" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="IR3" t="s">
-        <v>298</v>
-      </c>
-      <c r="IS3" t="s">
         <v>296</v>
       </c>
-      <c r="IT3" s="5" t="s">
+      <c r="IS3" s="5" t="s">
         <v>142</v>
       </c>
+      <c r="IT3" t="s">
+        <v>175</v>
+      </c>
       <c r="IU3" t="s">
-        <v>175</v>
+        <v>321</v>
       </c>
       <c r="IV3" t="s">
-        <v>321</v>
+        <v>190</v>
       </c>
       <c r="IW3" t="s">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="IX3" t="s">
-        <v>92</v>
-      </c>
-      <c r="IY3" t="s">
         <v>72</v>
       </c>
-      <c r="IZ3" s="5" t="s">
+      <c r="IY3" s="5" t="s">
         <v>384</v>
       </c>
+      <c r="IZ3" t="s">
+        <v>133</v>
+      </c>
       <c r="JA3" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="JB3" t="s">
-        <v>147</v>
+        <v>343</v>
       </c>
       <c r="JC3" t="s">
-        <v>343</v>
+        <v>285</v>
       </c>
       <c r="JD3" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="JE3" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="JF3" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="JG3" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="JH3" t="s">
-        <v>345</v>
+        <v>264</v>
       </c>
       <c r="JI3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="JJ3" t="s">
-        <v>265</v>
-      </c>
-      <c r="JK3" t="s">
         <v>4</v>
       </c>
-      <c r="JL3" s="5" t="s">
+      <c r="JK3" s="5" t="s">
         <v>127</v>
       </c>
+      <c r="JL3" t="s">
+        <v>348</v>
+      </c>
       <c r="JM3" t="s">
-        <v>348</v>
+        <v>287</v>
       </c>
       <c r="JN3" t="s">
-        <v>287</v>
+        <v>16</v>
       </c>
       <c r="JO3" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="JP3" t="s">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="JQ3" t="s">
-        <v>217</v>
+        <v>57</v>
       </c>
       <c r="JR3" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="JS3" t="s">
-        <v>93</v>
+        <v>329</v>
       </c>
       <c r="JT3" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="JU3" t="s">
-        <v>320</v>
+        <v>140</v>
       </c>
       <c r="JV3" t="s">
-        <v>140</v>
+        <v>383</v>
       </c>
       <c r="JW3" t="s">
-        <v>383</v>
+        <v>51</v>
       </c>
       <c r="JX3" t="s">
-        <v>51</v>
+        <v>387</v>
       </c>
       <c r="JY3" t="s">
-        <v>387</v>
+        <v>291</v>
       </c>
       <c r="JZ3" t="s">
-        <v>291</v>
+        <v>131</v>
       </c>
       <c r="KA3" t="s">
-        <v>131</v>
+        <v>282</v>
       </c>
       <c r="KB3" t="s">
-        <v>282</v>
+        <v>98</v>
       </c>
       <c r="KC3" t="s">
-        <v>98</v>
+        <v>344</v>
       </c>
       <c r="KD3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="KE3" t="s">
-        <v>341</v>
+        <v>61</v>
       </c>
       <c r="KF3" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="KG3" t="s">
-        <v>200</v>
+        <v>116</v>
       </c>
       <c r="KH3" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="KI3" t="s">
-        <v>11</v>
+        <v>268</v>
       </c>
       <c r="KJ3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="KK3" t="s">
-        <v>267</v>
-      </c>
-      <c r="KL3" t="s">
         <v>203</v>
       </c>
-      <c r="KM3" s="5" t="s">
+      <c r="KL3" s="5" t="s">
         <v>162</v>
       </c>
+      <c r="KM3" t="s">
+        <v>5</v>
+      </c>
       <c r="KN3" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
       <c r="KO3" t="s">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="KP3" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="KQ3" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="KR3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="KS3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="KT3" t="s">
-        <v>75</v>
-      </c>
-      <c r="KU3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -4787,16 +4776,16 @@
         <v>0</v>
       </c>
       <c r="HU4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HY4">
         <v>0</v>
@@ -4838,10 +4827,10 @@
         <v>0</v>
       </c>
       <c r="IL4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IN4">
         <v>0</v>
@@ -4910,10 +4899,10 @@
         <v>0</v>
       </c>
       <c r="JJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL4">
         <v>0</v>
@@ -4949,10 +4938,10 @@
         <v>0</v>
       </c>
       <c r="JW4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY4">
         <v>0</v>
@@ -4964,10 +4953,10 @@
         <v>0</v>
       </c>
       <c r="KB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KC4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KD4">
         <v>0</v>
@@ -5020,11 +5009,8 @@
       <c r="KT4">
         <v>0</v>
       </c>
-      <c r="KU4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -5710,19 +5696,19 @@
         <v>0</v>
       </c>
       <c r="HU5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW5">
         <v>0</v>
       </c>
       <c r="HX5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HZ5">
         <v>0</v>
@@ -5761,10 +5747,10 @@
         <v>0</v>
       </c>
       <c r="IL5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IN5">
         <v>0</v>
@@ -5872,10 +5858,10 @@
         <v>0</v>
       </c>
       <c r="JW5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY5">
         <v>0</v>
@@ -5943,11 +5929,8 @@
       <c r="KT5">
         <v>0</v>
       </c>
-      <c r="KU5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>364</v>
       </c>
@@ -6609,13 +6592,13 @@
         <v>0</v>
       </c>
       <c r="HM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN6">
         <v>1</v>
       </c>
       <c r="HO6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HP6">
         <v>0</v>
@@ -6651,10 +6634,10 @@
         <v>0</v>
       </c>
       <c r="IA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC6">
         <v>0</v>
@@ -6663,10 +6646,10 @@
         <v>0</v>
       </c>
       <c r="IE6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG6">
         <v>0</v>
@@ -6675,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="II6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
         <v>1</v>
@@ -6684,7 +6667,7 @@
         <v>1</v>
       </c>
       <c r="IL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM6">
         <v>0</v>
@@ -6693,10 +6676,10 @@
         <v>0</v>
       </c>
       <c r="IO6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ6">
         <v>0</v>
@@ -6756,10 +6739,10 @@
         <v>0</v>
       </c>
       <c r="JJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL6">
         <v>0</v>
@@ -6771,16 +6754,16 @@
         <v>0</v>
       </c>
       <c r="JO6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JP6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JQ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JR6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JS6">
         <v>0</v>
@@ -6825,10 +6808,10 @@
         <v>0</v>
       </c>
       <c r="KG6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KH6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KI6">
         <v>0</v>
@@ -6866,11 +6849,8 @@
       <c r="KT6">
         <v>0</v>
       </c>
-      <c r="KU6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>364</v>
       </c>
@@ -7526,16 +7506,16 @@
         <v>0</v>
       </c>
       <c r="HK7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HM7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HO7">
         <v>0</v>
@@ -7571,10 +7551,10 @@
         <v>0</v>
       </c>
       <c r="HZ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB7">
         <v>0</v>
@@ -7598,13 +7578,13 @@
         <v>0</v>
       </c>
       <c r="II7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ7">
         <v>1</v>
       </c>
       <c r="IK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL7">
         <v>0</v>
@@ -7679,10 +7659,10 @@
         <v>0</v>
       </c>
       <c r="JJ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL7">
         <v>0</v>
@@ -7789,11 +7769,8 @@
       <c r="KT7">
         <v>0</v>
       </c>
-      <c r="KU7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>364</v>
       </c>
@@ -8479,10 +8456,10 @@
         <v>0</v>
       </c>
       <c r="HU8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW8">
         <v>0</v>
@@ -8497,10 +8474,10 @@
         <v>0</v>
       </c>
       <c r="IA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC8">
         <v>0</v>
@@ -8521,16 +8498,16 @@
         <v>0</v>
       </c>
       <c r="II8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM8">
         <v>0</v>
@@ -8539,10 +8516,10 @@
         <v>0</v>
       </c>
       <c r="IO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ8">
         <v>0</v>
@@ -8602,10 +8579,10 @@
         <v>0</v>
       </c>
       <c r="JJ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL8">
         <v>0</v>
@@ -8689,10 +8666,10 @@
         <v>0</v>
       </c>
       <c r="KM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KO8">
         <v>0</v>
@@ -8712,11 +8689,8 @@
       <c r="KT8">
         <v>0</v>
       </c>
-      <c r="KU8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>363</v>
       </c>
@@ -9369,10 +9343,10 @@
         <v>0</v>
       </c>
       <c r="HJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HL9">
         <v>0</v>
@@ -9402,22 +9376,22 @@
         <v>0</v>
       </c>
       <c r="HU9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW9">
         <v>0</v>
       </c>
       <c r="HX9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY9">
         <v>1</v>
       </c>
       <c r="HZ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA9">
         <v>0</v>
@@ -9429,13 +9403,13 @@
         <v>0</v>
       </c>
       <c r="ID9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE9">
         <v>1</v>
       </c>
       <c r="IF9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG9">
         <v>0</v>
@@ -9525,10 +9499,10 @@
         <v>0</v>
       </c>
       <c r="JJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL9">
         <v>0</v>
@@ -9606,10 +9580,10 @@
         <v>0</v>
       </c>
       <c r="KK9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM9">
         <v>0</v>
@@ -9621,25 +9595,22 @@
         <v>0</v>
       </c>
       <c r="KP9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KQ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KR9">
         <v>0</v>
       </c>
       <c r="KS9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT9">
-        <v>1</v>
-      </c>
-      <c r="KU9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>363</v>
       </c>
@@ -10448,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="JJ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL10">
         <v>0</v>
@@ -10558,11 +10529,8 @@
       <c r="KT10">
         <v>0</v>
       </c>
-      <c r="KU10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>363</v>
       </c>
@@ -11481,11 +11449,8 @@
       <c r="KT11">
         <v>0</v>
       </c>
-      <c r="KU11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>363</v>
       </c>
@@ -12404,11 +12369,8 @@
       <c r="KT12">
         <v>0</v>
       </c>
-      <c r="KU12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>363</v>
       </c>
@@ -13181,10 +13143,10 @@
         <v>0</v>
       </c>
       <c r="IX13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IY13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IZ13">
         <v>0</v>
@@ -13316,10 +13278,10 @@
         <v>0</v>
       </c>
       <c r="KQ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KR13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KS13">
         <v>0</v>
@@ -13327,11 +13289,8 @@
       <c r="KT13">
         <v>0</v>
       </c>
-      <c r="KU13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>363</v>
       </c>
@@ -14140,10 +14099,10 @@
         <v>0</v>
       </c>
       <c r="JJ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL14">
         <v>0</v>
@@ -14250,11 +14209,8 @@
       <c r="KT14">
         <v>0</v>
       </c>
-      <c r="KU14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>364</v>
       </c>
@@ -14958,10 +14914,10 @@
         <v>0</v>
       </c>
       <c r="IA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC15">
         <v>0</v>
@@ -14982,10 +14938,10 @@
         <v>0</v>
       </c>
       <c r="II15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK15">
         <v>0</v>
@@ -15063,10 +15019,10 @@
         <v>0</v>
       </c>
       <c r="JJ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL15">
         <v>0</v>
@@ -15173,11 +15129,8 @@
       <c r="KT15">
         <v>0</v>
       </c>
-      <c r="KU15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>364</v>
       </c>
@@ -15815,7 +15768,7 @@
         <v>0</v>
       </c>
       <c r="HE16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF16">
         <v>0</v>
@@ -15881,10 +15834,10 @@
         <v>0</v>
       </c>
       <c r="IA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC16">
         <v>0</v>
@@ -15905,10 +15858,10 @@
         <v>0</v>
       </c>
       <c r="II16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK16">
         <v>0</v>
@@ -15986,10 +15939,10 @@
         <v>0</v>
       </c>
       <c r="JJ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL16">
         <v>0</v>
@@ -15998,10 +15951,10 @@
         <v>0</v>
       </c>
       <c r="JN16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JO16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JP16">
         <v>0</v>
@@ -16096,11 +16049,8 @@
       <c r="KT16">
         <v>0</v>
       </c>
-      <c r="KU16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:309" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>368</v>
       </c>
@@ -16753,10 +16703,10 @@
         <v>0</v>
       </c>
       <c r="HJ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HK17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HL17">
         <v>0</v>
@@ -16786,10 +16736,10 @@
         <v>0</v>
       </c>
       <c r="HU17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW17">
         <v>0</v>
@@ -16909,10 +16859,10 @@
         <v>0</v>
       </c>
       <c r="JJ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL17">
         <v>0</v>
@@ -17019,11 +16969,8 @@
       <c r="KT17">
         <v>0</v>
       </c>
-      <c r="KU17">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:309" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>368</v>
       </c>
@@ -17709,10 +17656,10 @@
         <v>0</v>
       </c>
       <c r="HU18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW18">
         <v>0</v>
@@ -17754,10 +17701,10 @@
         <v>0</v>
       </c>
       <c r="IJ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL18">
         <v>0</v>
@@ -17769,10 +17716,10 @@
         <v>0</v>
       </c>
       <c r="IO18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ18">
         <v>0</v>
@@ -17832,10 +17779,10 @@
         <v>0</v>
       </c>
       <c r="JJ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL18">
         <v>0</v>
@@ -17844,10 +17791,10 @@
         <v>0</v>
       </c>
       <c r="JN18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JO18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JP18">
         <v>0</v>
@@ -17919,10 +17866,10 @@
         <v>0</v>
       </c>
       <c r="KM18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KO18">
         <v>0</v>
@@ -17942,11 +17889,8 @@
       <c r="KT18">
         <v>0</v>
       </c>
-      <c r="KU18">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:309" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>366</v>
       </c>
@@ -18590,10 +18534,10 @@
         <v>0</v>
       </c>
       <c r="HG19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI19">
         <v>0</v>
@@ -18602,10 +18546,10 @@
         <v>0</v>
       </c>
       <c r="HK19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HM19">
         <v>0</v>
@@ -18626,10 +18570,10 @@
         <v>0</v>
       </c>
       <c r="HS19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HU19">
         <v>0</v>
@@ -18656,10 +18600,10 @@
         <v>0</v>
       </c>
       <c r="IC19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ID19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IE19">
         <v>0</v>
@@ -18719,10 +18663,10 @@
         <v>0</v>
       </c>
       <c r="IX19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IY19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IZ19">
         <v>0</v>
@@ -18755,10 +18699,10 @@
         <v>0</v>
       </c>
       <c r="JJ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL19">
         <v>0</v>
@@ -18842,34 +18786,31 @@
         <v>0</v>
       </c>
       <c r="KM19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KO19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KP19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KQ19">
         <v>0</v>
       </c>
       <c r="KR19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS19">
         <v>1</v>
       </c>
       <c r="KT19">
-        <v>1</v>
-      </c>
-      <c r="KU19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:309" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>366</v>
       </c>
@@ -19642,10 +19583,10 @@
         <v>0</v>
       </c>
       <c r="IX20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IY20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IZ20">
         <v>0</v>
@@ -19699,10 +19640,10 @@
         <v>0</v>
       </c>
       <c r="JQ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JR20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JS20">
         <v>0</v>
@@ -19788,11 +19729,8 @@
       <c r="KT20">
         <v>0</v>
       </c>
-      <c r="KU20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:309" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>366</v>
       </c>
@@ -20478,10 +20416,10 @@
         <v>0</v>
       </c>
       <c r="HU21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW21">
         <v>0</v>
@@ -20499,10 +20437,10 @@
         <v>0</v>
       </c>
       <c r="IB21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IC21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ID21">
         <v>0</v>
@@ -20565,10 +20503,10 @@
         <v>0</v>
       </c>
       <c r="IX21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IY21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IZ21">
         <v>0</v>
@@ -20622,10 +20560,10 @@
         <v>0</v>
       </c>
       <c r="JQ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JR21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JS21">
         <v>0</v>
@@ -20711,11 +20649,8 @@
       <c r="KT21">
         <v>0</v>
       </c>
-      <c r="KU21">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:309" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>366</v>
       </c>
@@ -21419,10 +21354,10 @@
         <v>0</v>
       </c>
       <c r="IA22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC22">
         <v>0</v>
@@ -21485,10 +21420,10 @@
         <v>0</v>
       </c>
       <c r="IW22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IX22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IY22">
         <v>0</v>
@@ -21548,10 +21483,10 @@
         <v>0</v>
       </c>
       <c r="JR22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JT22">
         <v>0</v>
@@ -21578,10 +21513,10 @@
         <v>0</v>
       </c>
       <c r="KB22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KC22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KD22">
         <v>0</v>
@@ -21623,10 +21558,10 @@
         <v>0</v>
       </c>
       <c r="KQ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KR22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KS22">
         <v>0</v>
@@ -21634,11 +21569,8 @@
       <c r="KT22">
         <v>0</v>
       </c>
-      <c r="KU22">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:309" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>366</v>
       </c>
@@ -22324,10 +22256,10 @@
         <v>0</v>
       </c>
       <c r="HU23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW23">
         <v>0</v>
@@ -22354,10 +22286,10 @@
         <v>0</v>
       </c>
       <c r="IE23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG23">
         <v>0</v>
@@ -22372,10 +22304,10 @@
         <v>0</v>
       </c>
       <c r="IK23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM23">
         <v>0</v>
@@ -22384,10 +22316,10 @@
         <v>0</v>
       </c>
       <c r="IO23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ23">
         <v>0</v>
@@ -22447,10 +22379,10 @@
         <v>0</v>
       </c>
       <c r="JJ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL23">
         <v>0</v>
@@ -22531,10 +22463,10 @@
         <v>0</v>
       </c>
       <c r="KL23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KM23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN23">
         <v>0</v>
@@ -22557,12 +22489,9 @@
       <c r="KT23">
         <v>0</v>
       </c>
-      <c r="KU23">
-        <v>0</v>
-      </c>
-      <c r="KW23" s="3"/>
+      <c r="KV23" s="3"/>
     </row>
-    <row r="24" spans="1:309" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>366</v>
       </c>
@@ -23224,10 +23153,10 @@
         <v>0</v>
       </c>
       <c r="HM24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HO24">
         <v>0</v>
@@ -23308,10 +23237,10 @@
         <v>0</v>
       </c>
       <c r="IO24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ24">
         <v>0</v>
@@ -23455,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="KL24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KM24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN24">
         <v>0</v>
@@ -23481,12 +23410,9 @@
       <c r="KT24">
         <v>0</v>
       </c>
-      <c r="KU24">
-        <v>0</v>
-      </c>
-      <c r="KW24" s="3"/>
+      <c r="KV24" s="3"/>
     </row>
-    <row r="25" spans="1:309" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>366</v>
       </c>
@@ -24405,11 +24331,8 @@
       <c r="KT25">
         <v>0</v>
       </c>
-      <c r="KU25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:309" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>366</v>
       </c>
@@ -25053,10 +24976,10 @@
         <v>0</v>
       </c>
       <c r="HG26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI26">
         <v>0</v>
@@ -25104,10 +25027,10 @@
         <v>0</v>
       </c>
       <c r="HX26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HZ26">
         <v>0</v>
@@ -25149,10 +25072,10 @@
         <v>0</v>
       </c>
       <c r="IM26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IN26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IO26">
         <v>0</v>
@@ -25218,10 +25141,10 @@
         <v>0</v>
       </c>
       <c r="JJ26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL26">
         <v>0</v>
@@ -25257,10 +25180,10 @@
         <v>0</v>
       </c>
       <c r="JW26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY26">
         <v>0</v>
@@ -25328,11 +25251,8 @@
       <c r="KT26">
         <v>0</v>
       </c>
-      <c r="KU26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:309" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>365</v>
       </c>
@@ -26015,10 +25935,10 @@
         <v>0</v>
       </c>
       <c r="HT27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV27">
         <v>0</v>
@@ -26048,10 +25968,10 @@
         <v>0</v>
       </c>
       <c r="IE27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG27">
         <v>0</v>
@@ -26114,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="JA27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC27">
         <v>0</v>
@@ -26249,13 +26169,10 @@
         <v>0</v>
       </c>
       <c r="KT27">
-        <v>0</v>
-      </c>
-      <c r="KU27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:309" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>364</v>
       </c>
@@ -26917,10 +26834,10 @@
         <v>0</v>
       </c>
       <c r="HM28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HO28">
         <v>0</v>
@@ -26941,19 +26858,19 @@
         <v>0</v>
       </c>
       <c r="HU28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW28">
         <v>0</v>
       </c>
       <c r="HX28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HZ28">
         <v>0</v>
@@ -26986,10 +26903,10 @@
         <v>0</v>
       </c>
       <c r="IJ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL28">
         <v>0</v>
@@ -27013,10 +26930,10 @@
         <v>0</v>
       </c>
       <c r="IS28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IT28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IU28">
         <v>0</v>
@@ -27064,10 +26981,10 @@
         <v>0</v>
       </c>
       <c r="JJ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL28">
         <v>0</v>
@@ -27097,10 +27014,10 @@
         <v>0</v>
       </c>
       <c r="JU28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JW28">
         <v>0</v>
@@ -27151,10 +27068,10 @@
         <v>0</v>
       </c>
       <c r="KM28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KO28">
         <v>0</v>
@@ -27174,11 +27091,8 @@
       <c r="KT28">
         <v>0</v>
       </c>
-      <c r="KU28">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:309" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>366</v>
       </c>
@@ -27840,10 +27754,10 @@
         <v>0</v>
       </c>
       <c r="HM29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HO29">
         <v>0</v>
@@ -27864,16 +27778,16 @@
         <v>0</v>
       </c>
       <c r="HU29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HY29">
         <v>0</v>
@@ -27909,13 +27823,13 @@
         <v>0</v>
       </c>
       <c r="IJ29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK29">
         <v>1</v>
       </c>
       <c r="IL29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM29">
         <v>0</v>
@@ -27924,10 +27838,10 @@
         <v>0</v>
       </c>
       <c r="IO29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ29">
         <v>0</v>
@@ -27987,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="JJ29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL29">
         <v>0</v>
@@ -27999,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="JN29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JO29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JP29">
         <v>0</v>
@@ -28059,10 +27973,10 @@
         <v>0</v>
       </c>
       <c r="KH29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KI29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KJ29">
         <v>0</v>
@@ -28074,10 +27988,10 @@
         <v>0</v>
       </c>
       <c r="KM29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KO29">
         <v>0</v>
@@ -28097,11 +28011,8 @@
       <c r="KT29">
         <v>0</v>
       </c>
-      <c r="KU29">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:309" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>368</v>
       </c>
@@ -28754,10 +28665,10 @@
         <v>0</v>
       </c>
       <c r="HJ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HL30">
         <v>0</v>
@@ -28787,10 +28698,10 @@
         <v>0</v>
       </c>
       <c r="HU30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW30">
         <v>0</v>
@@ -28832,10 +28743,10 @@
         <v>0</v>
       </c>
       <c r="IJ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL30">
         <v>0</v>
@@ -28847,10 +28758,10 @@
         <v>0</v>
       </c>
       <c r="IO30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ30">
         <v>0</v>
@@ -28910,10 +28821,10 @@
         <v>0</v>
       </c>
       <c r="JJ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL30">
         <v>0</v>
@@ -29020,11 +28931,8 @@
       <c r="KT30">
         <v>0</v>
       </c>
-      <c r="KU30">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:309" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>366</v>
       </c>
@@ -29686,10 +29594,10 @@
         <v>0</v>
       </c>
       <c r="HM31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HO31">
         <v>0</v>
@@ -29755,13 +29663,13 @@
         <v>0</v>
       </c>
       <c r="IJ31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK31">
         <v>1</v>
       </c>
       <c r="IL31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM31">
         <v>0</v>
@@ -29770,10 +29678,10 @@
         <v>0</v>
       </c>
       <c r="IO31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ31">
         <v>0</v>
@@ -29833,10 +29741,10 @@
         <v>0</v>
       </c>
       <c r="JJ31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL31">
         <v>0</v>
@@ -29845,10 +29753,10 @@
         <v>0</v>
       </c>
       <c r="JN31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JO31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JP31">
         <v>0</v>
@@ -29920,10 +29828,10 @@
         <v>0</v>
       </c>
       <c r="KM31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KO31">
         <v>0</v>
@@ -29943,11 +29851,8 @@
       <c r="KT31">
         <v>0</v>
       </c>
-      <c r="KU31">
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="1:309" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>366</v>
       </c>
@@ -30609,10 +30514,10 @@
         <v>0</v>
       </c>
       <c r="HM32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HO32">
         <v>0</v>
@@ -30633,10 +30538,10 @@
         <v>0</v>
       </c>
       <c r="HU32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW32">
         <v>0</v>
@@ -30693,10 +30598,10 @@
         <v>0</v>
       </c>
       <c r="IO32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ32">
         <v>0</v>
@@ -30756,10 +30661,10 @@
         <v>0</v>
       </c>
       <c r="JJ32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL32">
         <v>0</v>
@@ -30866,11 +30771,8 @@
       <c r="KT32">
         <v>0</v>
       </c>
-      <c r="KU32">
-        <v>0</v>
-      </c>
     </row>
-    <row r="33" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>366</v>
       </c>
@@ -31556,10 +31458,10 @@
         <v>0</v>
       </c>
       <c r="HU33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW33">
         <v>0</v>
@@ -31789,11 +31691,8 @@
       <c r="KT33">
         <v>0</v>
       </c>
-      <c r="KU33">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>366</v>
       </c>
@@ -32455,10 +32354,10 @@
         <v>0</v>
       </c>
       <c r="HM34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HO34">
         <v>0</v>
@@ -32479,10 +32378,10 @@
         <v>0</v>
       </c>
       <c r="HU34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW34">
         <v>0</v>
@@ -32509,10 +32408,10 @@
         <v>0</v>
       </c>
       <c r="IE34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG34">
         <v>0</v>
@@ -32560,10 +32459,10 @@
         <v>0</v>
       </c>
       <c r="IV34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IX34">
         <v>0</v>
@@ -32656,10 +32555,10 @@
         <v>0</v>
       </c>
       <c r="KB34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KC34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KD34">
         <v>0</v>
@@ -32686,10 +32585,10 @@
         <v>0</v>
       </c>
       <c r="KL34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KM34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN34">
         <v>0</v>
@@ -32712,11 +32611,8 @@
       <c r="KT34">
         <v>0</v>
       </c>
-      <c r="KU34">
-        <v>0</v>
-      </c>
     </row>
-    <row r="35" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>366</v>
       </c>
@@ -33378,10 +33274,10 @@
         <v>0</v>
       </c>
       <c r="HM35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HO35">
         <v>0</v>
@@ -33411,10 +33307,10 @@
         <v>0</v>
       </c>
       <c r="HX35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HZ35">
         <v>0</v>
@@ -33462,10 +33358,10 @@
         <v>0</v>
       </c>
       <c r="IO35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ35">
         <v>0</v>
@@ -33495,10 +33391,10 @@
         <v>0</v>
       </c>
       <c r="IZ35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JA35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JB35">
         <v>0</v>
@@ -33525,10 +33421,10 @@
         <v>0</v>
       </c>
       <c r="JJ35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL35">
         <v>0</v>
@@ -33573,10 +33469,10 @@
         <v>0</v>
       </c>
       <c r="JZ35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KA35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KB35">
         <v>0</v>
@@ -33635,11 +33531,8 @@
       <c r="KT35">
         <v>0</v>
       </c>
-      <c r="KU35">
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>367</v>
       </c>
@@ -34277,10 +34170,10 @@
         <v>0</v>
       </c>
       <c r="HF36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HG36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH36">
         <v>0</v>
@@ -34298,10 +34191,10 @@
         <v>0</v>
       </c>
       <c r="HM36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HO36">
         <v>0</v>
@@ -34322,10 +34215,10 @@
         <v>0</v>
       </c>
       <c r="HU36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW36">
         <v>0</v>
@@ -34421,34 +34314,34 @@
         <v>0</v>
       </c>
       <c r="JB36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JC36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JD36">
         <v>0</v>
       </c>
       <c r="JE36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JF36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JG36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JH36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JI36">
         <v>0</v>
       </c>
       <c r="JJ36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL36">
         <v>0</v>
@@ -34502,13 +34395,13 @@
         <v>0</v>
       </c>
       <c r="KC36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KD36">
         <v>1</v>
       </c>
       <c r="KE36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KF36">
         <v>0</v>
@@ -34520,28 +34413,28 @@
         <v>0</v>
       </c>
       <c r="KI36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ36">
         <v>1</v>
       </c>
       <c r="KK36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KL36">
         <v>0</v>
       </c>
       <c r="KM36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KO36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KP36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KQ36">
         <v>0</v>
@@ -34555,11 +34448,8 @@
       <c r="KT36">
         <v>0</v>
       </c>
-      <c r="KU36">
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>367</v>
       </c>
@@ -35475,11 +35365,8 @@
       <c r="KT37">
         <v>0</v>
       </c>
-      <c r="KU37">
-        <v>0</v>
-      </c>
     </row>
-    <row r="38" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>367</v>
       </c>
@@ -36123,10 +36010,10 @@
         <v>0</v>
       </c>
       <c r="HH38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HI38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HJ38">
         <v>0</v>
@@ -36138,10 +36025,10 @@
         <v>0</v>
       </c>
       <c r="HM38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HO38">
         <v>0</v>
@@ -36192,19 +36079,19 @@
         <v>0</v>
       </c>
       <c r="IE38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG38">
         <v>0</v>
       </c>
       <c r="IH38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IJ38">
         <v>0</v>
@@ -36395,11 +36282,8 @@
       <c r="KT38">
         <v>0</v>
       </c>
-      <c r="KU38">
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>367</v>
       </c>
@@ -37034,13 +36918,13 @@
         <v>0</v>
       </c>
       <c r="HE39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HF39">
         <v>1</v>
       </c>
       <c r="HG39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH39">
         <v>0</v>
@@ -37067,10 +36951,10 @@
         <v>0</v>
       </c>
       <c r="HP39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HQ39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HR39">
         <v>0</v>
@@ -37082,10 +36966,10 @@
         <v>0</v>
       </c>
       <c r="HU39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW39">
         <v>0</v>
@@ -37112,10 +36996,10 @@
         <v>0</v>
       </c>
       <c r="IE39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG39">
         <v>0</v>
@@ -37190,22 +37074,22 @@
         <v>0</v>
       </c>
       <c r="JE39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JF39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JG39">
         <v>0</v>
       </c>
       <c r="JH39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JI39">
         <v>1</v>
       </c>
       <c r="JJ39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK39">
         <v>0</v>
@@ -37280,13 +37164,13 @@
         <v>0</v>
       </c>
       <c r="KI39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ39">
         <v>1</v>
       </c>
       <c r="KK39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KL39">
         <v>0</v>
@@ -37295,10 +37179,10 @@
         <v>0</v>
       </c>
       <c r="KN39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KO39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KP39">
         <v>0</v>
@@ -37315,11 +37199,8 @@
       <c r="KT39">
         <v>0</v>
       </c>
-      <c r="KU39">
-        <v>0</v>
-      </c>
     </row>
-    <row r="40" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>367</v>
       </c>
@@ -37954,13 +37835,13 @@
         <v>0</v>
       </c>
       <c r="HE40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HF40">
         <v>1</v>
       </c>
       <c r="HG40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH40">
         <v>0</v>
@@ -37975,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="HL40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HM40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN40">
         <v>0</v>
@@ -38002,10 +37883,10 @@
         <v>0</v>
       </c>
       <c r="HU40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW40">
         <v>0</v>
@@ -38020,10 +37901,10 @@
         <v>0</v>
       </c>
       <c r="IA40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC40">
         <v>0</v>
@@ -38032,10 +37913,10 @@
         <v>0</v>
       </c>
       <c r="IE40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG40">
         <v>0</v>
@@ -38050,10 +37931,10 @@
         <v>0</v>
       </c>
       <c r="IK40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM40">
         <v>0</v>
@@ -38065,19 +37946,19 @@
         <v>0</v>
       </c>
       <c r="IP40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR40">
         <v>0</v>
       </c>
       <c r="IS40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IT40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IU40">
         <v>0</v>
@@ -38104,10 +37985,10 @@
         <v>0</v>
       </c>
       <c r="JC40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JE40">
         <v>0</v>
@@ -38125,19 +38006,19 @@
         <v>0</v>
       </c>
       <c r="JJ40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL40">
         <v>0</v>
       </c>
       <c r="JM40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO40">
         <v>0</v>
@@ -38170,16 +38051,16 @@
         <v>0</v>
       </c>
       <c r="JY40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JZ40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KA40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KB40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KC40">
         <v>0</v>
@@ -38200,16 +38081,16 @@
         <v>0</v>
       </c>
       <c r="KI40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KK40">
         <v>0</v>
       </c>
       <c r="KL40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KM40">
         <v>1</v>
@@ -38218,7 +38099,7 @@
         <v>1</v>
       </c>
       <c r="KO40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KP40">
         <v>0</v>
@@ -38235,11 +38116,8 @@
       <c r="KT40">
         <v>0</v>
       </c>
-      <c r="KU40">
-        <v>0</v>
-      </c>
     </row>
-    <row r="41" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>367</v>
       </c>
@@ -38874,13 +38752,13 @@
         <v>0</v>
       </c>
       <c r="HE41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HF41">
         <v>1</v>
       </c>
       <c r="HG41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH41">
         <v>0</v>
@@ -38892,13 +38770,13 @@
         <v>0</v>
       </c>
       <c r="HK41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL41">
         <v>1</v>
       </c>
       <c r="HM41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN41">
         <v>0</v>
@@ -38907,10 +38785,10 @@
         <v>0</v>
       </c>
       <c r="HP41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HQ41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HR41">
         <v>0</v>
@@ -38922,10 +38800,10 @@
         <v>0</v>
       </c>
       <c r="HU41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW41">
         <v>0</v>
@@ -38940,10 +38818,10 @@
         <v>0</v>
       </c>
       <c r="IA41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC41">
         <v>0</v>
@@ -38952,10 +38830,10 @@
         <v>0</v>
       </c>
       <c r="IE41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG41">
         <v>0</v>
@@ -38967,10 +38845,10 @@
         <v>0</v>
       </c>
       <c r="IJ41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL41">
         <v>0</v>
@@ -38988,13 +38866,13 @@
         <v>0</v>
       </c>
       <c r="IQ41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR41">
         <v>1</v>
       </c>
       <c r="IS41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT41">
         <v>0</v>
@@ -39024,22 +38902,22 @@
         <v>0</v>
       </c>
       <c r="JC41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JE41">
         <v>0</v>
       </c>
       <c r="JF41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JI41">
         <v>1</v>
@@ -39048,7 +38926,7 @@
         <v>1</v>
       </c>
       <c r="JK41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL41">
         <v>0</v>
@@ -39108,10 +38986,10 @@
         <v>0</v>
       </c>
       <c r="KE41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KF41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KG41">
         <v>0</v>
@@ -39120,25 +38998,25 @@
         <v>0</v>
       </c>
       <c r="KI41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ41">
         <v>1</v>
       </c>
       <c r="KK41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KL41">
         <v>0</v>
       </c>
       <c r="KM41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN41">
         <v>1</v>
       </c>
       <c r="KO41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KP41">
         <v>0</v>
@@ -39155,11 +39033,8 @@
       <c r="KT41">
         <v>0</v>
       </c>
-      <c r="KU41">
-        <v>0</v>
-      </c>
     </row>
-    <row r="42" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>367</v>
       </c>
@@ -39794,13 +39669,13 @@
         <v>0</v>
       </c>
       <c r="HE42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HF42">
         <v>1</v>
       </c>
       <c r="HG42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH42">
         <v>0</v>
@@ -39815,10 +39690,10 @@
         <v>0</v>
       </c>
       <c r="HL42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HM42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN42">
         <v>0</v>
@@ -39827,10 +39702,10 @@
         <v>0</v>
       </c>
       <c r="HP42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HQ42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HR42">
         <v>0</v>
@@ -39872,10 +39747,10 @@
         <v>0</v>
       </c>
       <c r="IE42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG42">
         <v>0</v>
@@ -39944,13 +39819,13 @@
         <v>0</v>
       </c>
       <c r="JC42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD42">
         <v>1</v>
       </c>
       <c r="JE42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF42">
         <v>0</v>
@@ -39962,10 +39837,10 @@
         <v>0</v>
       </c>
       <c r="JI42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK42">
         <v>0</v>
@@ -40055,10 +39930,10 @@
         <v>0</v>
       </c>
       <c r="KN42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KO42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KP42">
         <v>0</v>
@@ -40075,11 +39950,8 @@
       <c r="KT42">
         <v>0</v>
       </c>
-      <c r="KU42">
-        <v>0</v>
-      </c>
     </row>
-    <row r="43" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>367</v>
       </c>
@@ -40753,19 +40625,19 @@
         <v>0</v>
       </c>
       <c r="HR43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HS43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT43">
         <v>0</v>
       </c>
       <c r="HU43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW43">
         <v>0</v>
@@ -40792,16 +40664,16 @@
         <v>0</v>
       </c>
       <c r="IE43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="II43">
         <v>0</v>
@@ -40843,10 +40715,10 @@
         <v>0</v>
       </c>
       <c r="IV43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IX43">
         <v>0</v>
@@ -40885,10 +40757,10 @@
         <v>0</v>
       </c>
       <c r="JJ43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL43">
         <v>0</v>
@@ -40969,10 +40841,10 @@
         <v>0</v>
       </c>
       <c r="KL43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KM43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN43">
         <v>0</v>
@@ -40995,11 +40867,8 @@
       <c r="KT43">
         <v>0</v>
       </c>
-      <c r="KU43">
-        <v>0</v>
-      </c>
     </row>
-    <row r="44" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>367</v>
       </c>
@@ -41682,10 +41551,10 @@
         <v>0</v>
       </c>
       <c r="HU44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW44">
         <v>0</v>
@@ -41718,10 +41587,10 @@
         <v>0</v>
       </c>
       <c r="IG44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="II44">
         <v>0</v>
@@ -41805,10 +41674,10 @@
         <v>0</v>
       </c>
       <c r="JJ44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL44">
         <v>0</v>
@@ -41841,10 +41710,10 @@
         <v>0</v>
       </c>
       <c r="JV44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JW44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JX44">
         <v>0</v>
@@ -41915,11 +41784,8 @@
       <c r="KT44">
         <v>0</v>
       </c>
-      <c r="KU44">
-        <v>0</v>
-      </c>
     </row>
-    <row r="45" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>367</v>
       </c>
@@ -42602,10 +42468,10 @@
         <v>0</v>
       </c>
       <c r="HU45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW45">
         <v>0</v>
@@ -42632,16 +42498,16 @@
         <v>0</v>
       </c>
       <c r="IE45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="II45">
         <v>0</v>
@@ -42662,10 +42528,10 @@
         <v>0</v>
       </c>
       <c r="IO45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ45">
         <v>0</v>
@@ -42683,10 +42549,10 @@
         <v>0</v>
       </c>
       <c r="IV45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IX45">
         <v>0</v>
@@ -42725,10 +42591,10 @@
         <v>0</v>
       </c>
       <c r="JJ45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL45">
         <v>0</v>
@@ -42761,10 +42627,10 @@
         <v>0</v>
       </c>
       <c r="JV45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JW45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JX45">
         <v>0</v>
@@ -42835,11 +42701,8 @@
       <c r="KT45">
         <v>0</v>
       </c>
-      <c r="KU45">
-        <v>0</v>
-      </c>
     </row>
-    <row r="46" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>367</v>
       </c>
@@ -43522,13 +43385,13 @@
         <v>0</v>
       </c>
       <c r="HU46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV46">
         <v>1</v>
       </c>
       <c r="HW46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX46">
         <v>0</v>
@@ -43552,16 +43415,16 @@
         <v>0</v>
       </c>
       <c r="IE46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="II46">
         <v>0</v>
@@ -43582,10 +43445,10 @@
         <v>0</v>
       </c>
       <c r="IO46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ46">
         <v>0</v>
@@ -43603,10 +43466,10 @@
         <v>0</v>
       </c>
       <c r="IV46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IX46">
         <v>0</v>
@@ -43645,10 +43508,10 @@
         <v>0</v>
       </c>
       <c r="JJ46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL46">
         <v>0</v>
@@ -43681,16 +43544,16 @@
         <v>0</v>
       </c>
       <c r="JV46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JW46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JX46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JZ46">
         <v>0</v>
@@ -43729,10 +43592,10 @@
         <v>0</v>
       </c>
       <c r="KL46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KM46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN46">
         <v>0</v>
@@ -43755,11 +43618,8 @@
       <c r="KT46">
         <v>0</v>
       </c>
-      <c r="KU46">
-        <v>0</v>
-      </c>
     </row>
-    <row r="47" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>367</v>
       </c>
@@ -44433,19 +44293,19 @@
         <v>0</v>
       </c>
       <c r="HR47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HS47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HT47">
         <v>0</v>
       </c>
       <c r="HU47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW47">
         <v>0</v>
@@ -44472,16 +44332,16 @@
         <v>0</v>
       </c>
       <c r="IE47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="II47">
         <v>0</v>
@@ -44523,10 +44383,10 @@
         <v>0</v>
       </c>
       <c r="IV47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IX47">
         <v>0</v>
@@ -44565,10 +44425,10 @@
         <v>0</v>
       </c>
       <c r="JJ47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL47">
         <v>0</v>
@@ -44649,10 +44509,10 @@
         <v>0</v>
       </c>
       <c r="KL47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KM47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN47">
         <v>0</v>
@@ -44675,11 +44535,8 @@
       <c r="KT47">
         <v>0</v>
       </c>
-      <c r="KU47">
-        <v>0</v>
-      </c>
     </row>
-    <row r="48" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>367</v>
       </c>
@@ -45362,10 +45219,10 @@
         <v>0</v>
       </c>
       <c r="HU48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW48">
         <v>0</v>
@@ -45380,10 +45237,10 @@
         <v>0</v>
       </c>
       <c r="IA48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC48">
         <v>0</v>
@@ -45398,22 +45255,22 @@
         <v>0</v>
       </c>
       <c r="IG48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="II48">
         <v>0</v>
       </c>
       <c r="IJ48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK48">
         <v>1</v>
       </c>
       <c r="IL48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM48">
         <v>0</v>
@@ -45422,10 +45279,10 @@
         <v>0</v>
       </c>
       <c r="IO48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ48">
         <v>0</v>
@@ -45452,10 +45309,10 @@
         <v>0</v>
       </c>
       <c r="IY48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IZ48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JA48">
         <v>0</v>
@@ -45485,10 +45342,10 @@
         <v>0</v>
       </c>
       <c r="JJ48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL48">
         <v>0</v>
@@ -45521,10 +45378,10 @@
         <v>0</v>
       </c>
       <c r="JV48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JW48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JX48">
         <v>0</v>
@@ -45539,10 +45396,10 @@
         <v>0</v>
       </c>
       <c r="KB48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KC48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KD48">
         <v>0</v>
@@ -45569,13 +45426,13 @@
         <v>0</v>
       </c>
       <c r="KL48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KM48">
         <v>1</v>
       </c>
       <c r="KN48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KO48">
         <v>0</v>
@@ -45595,11 +45452,8 @@
       <c r="KT48">
         <v>0</v>
       </c>
-      <c r="KU48">
-        <v>0</v>
-      </c>
     </row>
-    <row r="49" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>366</v>
       </c>
@@ -46243,10 +46097,10 @@
         <v>0</v>
       </c>
       <c r="HG49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI49">
         <v>0</v>
@@ -46267,10 +46121,10 @@
         <v>0</v>
       </c>
       <c r="HO49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HP49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ49">
         <v>0</v>
@@ -46285,10 +46139,10 @@
         <v>0</v>
       </c>
       <c r="HU49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW49">
         <v>0</v>
@@ -46303,10 +46157,10 @@
         <v>0</v>
       </c>
       <c r="IA49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC49">
         <v>0</v>
@@ -46315,10 +46169,10 @@
         <v>0</v>
       </c>
       <c r="IE49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG49">
         <v>0</v>
@@ -46342,10 +46196,10 @@
         <v>0</v>
       </c>
       <c r="IN49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IO49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP49">
         <v>0</v>
@@ -46411,10 +46265,10 @@
         <v>0</v>
       </c>
       <c r="JK49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JL49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM49">
         <v>0</v>
@@ -46518,11 +46372,8 @@
       <c r="KT49">
         <v>0</v>
       </c>
-      <c r="KU49">
-        <v>0</v>
-      </c>
     </row>
-    <row r="50" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>363</v>
       </c>
@@ -47349,10 +47200,10 @@
         <v>0</v>
       </c>
       <c r="JP50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JQ50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR50">
         <v>0</v>
@@ -47441,11 +47292,8 @@
       <c r="KT50">
         <v>0</v>
       </c>
-      <c r="KU50">
-        <v>0</v>
-      </c>
     </row>
-    <row r="51" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>363</v>
       </c>
@@ -48272,10 +48120,10 @@
         <v>0</v>
       </c>
       <c r="JP51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JQ51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR51">
         <v>0</v>
@@ -48364,11 +48212,8 @@
       <c r="KT51">
         <v>0</v>
       </c>
-      <c r="KU51">
-        <v>0</v>
-      </c>
     </row>
-    <row r="52" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>363</v>
       </c>
@@ -49177,10 +49022,10 @@
         <v>0</v>
       </c>
       <c r="JJ52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL52">
         <v>0</v>
@@ -49287,11 +49132,8 @@
       <c r="KT52">
         <v>0</v>
       </c>
-      <c r="KU52">
-        <v>0</v>
-      </c>
     </row>
-    <row r="53" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>363</v>
       </c>
@@ -50010,10 +49852,10 @@
         <v>0</v>
       </c>
       <c r="IF53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IH53">
         <v>0</v>
@@ -50210,11 +50052,8 @@
       <c r="KT53">
         <v>0</v>
       </c>
-      <c r="KU53">
-        <v>0</v>
-      </c>
     </row>
-    <row r="54" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>365</v>
       </c>
@@ -50930,10 +50769,10 @@
         <v>0</v>
       </c>
       <c r="IE54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG54">
         <v>0</v>
@@ -51089,10 +50928,10 @@
         <v>0</v>
       </c>
       <c r="KF54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KG54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KH54">
         <v>0</v>
@@ -51133,11 +50972,8 @@
       <c r="KT54">
         <v>0</v>
       </c>
-      <c r="KU54">
-        <v>0</v>
-      </c>
     </row>
-    <row r="55" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>124</v>
       </c>
@@ -51790,19 +51626,19 @@
         <v>0</v>
       </c>
       <c r="HJ55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HK55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HL55">
         <v>0</v>
       </c>
       <c r="HM55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HO55">
         <v>0</v>
@@ -51811,10 +51647,10 @@
         <v>0</v>
       </c>
       <c r="HQ55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HS55">
         <v>0</v>
@@ -51823,10 +51659,10 @@
         <v>0</v>
       </c>
       <c r="HU55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW55">
         <v>0</v>
@@ -51853,10 +51689,10 @@
         <v>0</v>
       </c>
       <c r="IE55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IG55">
         <v>0</v>
@@ -51871,10 +51707,10 @@
         <v>0</v>
       </c>
       <c r="IK55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM55">
         <v>0</v>
@@ -51883,10 +51719,10 @@
         <v>0</v>
       </c>
       <c r="IO55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ55">
         <v>0</v>
@@ -51946,10 +51782,10 @@
         <v>0</v>
       </c>
       <c r="JJ55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL55">
         <v>0</v>
@@ -51967,10 +51803,10 @@
         <v>0</v>
       </c>
       <c r="JQ55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JR55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JS55">
         <v>0</v>
@@ -52009,10 +51845,10 @@
         <v>0</v>
       </c>
       <c r="KE55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KF55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KG55">
         <v>0</v>
@@ -52056,11 +51892,8 @@
       <c r="KT55">
         <v>0</v>
       </c>
-      <c r="KU55">
-        <v>0</v>
-      </c>
     </row>
-    <row r="56" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>367</v>
       </c>
@@ -52704,10 +52537,10 @@
         <v>0</v>
       </c>
       <c r="HG56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI56">
         <v>0</v>
@@ -52875,10 +52708,10 @@
         <v>0</v>
       </c>
       <c r="JL56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JN56">
         <v>0</v>
@@ -52896,10 +52729,10 @@
         <v>0</v>
       </c>
       <c r="JS56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU56">
         <v>0</v>
@@ -52950,10 +52783,10 @@
         <v>0</v>
       </c>
       <c r="KK56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM56">
         <v>0</v>
@@ -52979,11 +52812,8 @@
       <c r="KT56">
         <v>0</v>
       </c>
-      <c r="KU56">
-        <v>0</v>
-      </c>
     </row>
-    <row r="57" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>367</v>
       </c>
@@ -53645,10 +53475,10 @@
         <v>0</v>
       </c>
       <c r="HM57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HO57">
         <v>0</v>
@@ -53792,10 +53622,10 @@
         <v>0</v>
       </c>
       <c r="JJ57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL57">
         <v>0</v>
@@ -53902,11 +53732,8 @@
       <c r="KT57">
         <v>0</v>
       </c>
-      <c r="KU57">
-        <v>0</v>
-      </c>
     </row>
-    <row r="58" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>367</v>
       </c>
@@ -54550,22 +54377,22 @@
         <v>0</v>
       </c>
       <c r="HG58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HK58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HM58">
         <v>0</v>
@@ -54592,10 +54419,10 @@
         <v>0</v>
       </c>
       <c r="HU58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW58">
         <v>0</v>
@@ -54610,10 +54437,10 @@
         <v>0</v>
       </c>
       <c r="IA58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC58">
         <v>0</v>
@@ -54640,10 +54467,10 @@
         <v>0</v>
       </c>
       <c r="IK58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM58">
         <v>0</v>
@@ -54667,13 +54494,13 @@
         <v>0</v>
       </c>
       <c r="IT58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IU58">
         <v>1</v>
       </c>
       <c r="IV58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IW58">
         <v>0</v>
@@ -54715,10 +54542,10 @@
         <v>0</v>
       </c>
       <c r="JJ58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL58">
         <v>0</v>
@@ -54745,10 +54572,10 @@
         <v>0</v>
       </c>
       <c r="JT58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JV58">
         <v>0</v>
@@ -54796,10 +54623,10 @@
         <v>0</v>
       </c>
       <c r="KK58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM58">
         <v>0</v>
@@ -54814,10 +54641,10 @@
         <v>0</v>
       </c>
       <c r="KQ58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KR58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KS58">
         <v>0</v>
@@ -54825,11 +54652,8 @@
       <c r="KT58">
         <v>0</v>
       </c>
-      <c r="KU58">
-        <v>0</v>
-      </c>
     </row>
-    <row r="59" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>367</v>
       </c>
@@ -55485,10 +55309,10 @@
         <v>0</v>
       </c>
       <c r="HK59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HM59">
         <v>0</v>
@@ -55533,10 +55357,10 @@
         <v>0</v>
       </c>
       <c r="IA59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC59">
         <v>0</v>
@@ -55668,10 +55492,10 @@
         <v>0</v>
       </c>
       <c r="JT59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JV59">
         <v>0</v>
@@ -55748,11 +55572,8 @@
       <c r="KT59">
         <v>0</v>
       </c>
-      <c r="KU59">
-        <v>0</v>
-      </c>
     </row>
-    <row r="60" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>367</v>
       </c>
@@ -56396,10 +56217,10 @@
         <v>0</v>
       </c>
       <c r="HG60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI60">
         <v>0</v>
@@ -56561,10 +56382,10 @@
         <v>0</v>
       </c>
       <c r="JJ60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL60">
         <v>0</v>
@@ -56591,10 +56412,10 @@
         <v>0</v>
       </c>
       <c r="JT60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JV60">
         <v>0</v>
@@ -56671,11 +56492,8 @@
       <c r="KT60">
         <v>0</v>
       </c>
-      <c r="KU60">
-        <v>0</v>
-      </c>
     </row>
-    <row r="61" spans="1:307" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>367</v>
       </c>
@@ -57361,10 +57179,10 @@
         <v>0</v>
       </c>
       <c r="HU61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW61">
         <v>0</v>
@@ -57436,10 +57254,10 @@
         <v>0</v>
       </c>
       <c r="IT61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IU61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IV61">
         <v>0</v>
@@ -57511,10 +57329,10 @@
         <v>0</v>
       </c>
       <c r="JS61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU61">
         <v>0</v>
@@ -57592,21 +57410,18 @@
         <v>0</v>
       </c>
       <c r="KT61">
-        <v>0</v>
-      </c>
-      <c r="KU61">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:KU61">
+  <autoFilter ref="A3:KT61">
     <sortState ref="A4:KU61">
       <sortCondition ref="C4:C61"/>
       <sortCondition ref="D4:D61"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">
-    <mergeCell ref="DQ1:KU1"/>
+    <mergeCell ref="DQ1:KT1"/>
     <mergeCell ref="CM1:DP1"/>
     <mergeCell ref="G1:CL1"/>
   </mergeCells>

--- a/data-raw/functionsTracker_20230710.xlsx
+++ b/data-raw/functionsTracker_20230710.xlsx
@@ -1819,10 +1819,10 @@
   <dimension ref="A1:KV61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="GY4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="GY19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="HD5" sqref="HD5"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26177,7 +26177,7 @@
         <v>364</v>
       </c>
       <c r="B28" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="C28" t="s">
         <v>468</v>
@@ -28017,7 +28017,7 @@
         <v>368</v>
       </c>
       <c r="B30" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="C30" t="s">
         <v>468</v>

--- a/data-raw/functionsTracker_20230710.xlsx
+++ b/data-raw/functionsTracker_20230710.xlsx
@@ -1819,10 +1819,10 @@
   <dimension ref="A1:KV61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="GY19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28272,13 +28272,13 @@
         <v>0</v>
       </c>
       <c r="CI30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ30">
         <v>0</v>
       </c>
       <c r="CK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL30">
         <v>0</v>
@@ -30804,7 +30804,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -30858,7 +30858,7 @@
         <v>0</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33">
         <v>0</v>

--- a/data-raw/functionsTracker_20230710.xlsx
+++ b/data-raw/functionsTracker_20230710.xlsx
@@ -99,18 +99,6 @@
   </si>
   <si>
     <t>proxyWeight</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>scenario</t>
   </si>
   <si>
     <t>apply_scenario</t>
@@ -1465,6 +1453,18 @@
   <si>
     <t>gen_hazard</t>
   </si>
+  <si>
+    <t>AH_name</t>
+  </si>
+  <si>
+    <t>AH_scenario</t>
+  </si>
+  <si>
+    <t>AH_location</t>
+  </si>
+  <si>
+    <t>AH_version</t>
+  </si>
 </sst>
 </file>
 
@@ -1819,10 +1819,10 @@
   <dimension ref="A1:KV61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="BX4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K33" sqref="K33"/>
+      <selection pane="bottomRight" activeCell="CC4" sqref="CC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2216,7 +2216,7 @@
       <c r="CK1" s="7"/>
       <c r="CL1" s="7"/>
       <c r="CM1" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="CN1" s="7"/>
       <c r="CO1" s="7"/>
@@ -2522,666 +2522,666 @@
       <c r="CK2" s="3"/>
       <c r="CL2" s="3"/>
       <c r="CM2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="CN2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="CO2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="CP2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="CQ2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="CR2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="CS2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="CT2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="CU2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="CV2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="CW2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="CX2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="CY2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="CZ2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="DA2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="DB2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="DC2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="DD2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="DE2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="DF2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="DG2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="DH2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="DI2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="DJ2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="DK2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="DL2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="DM2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="DN2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="DO2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="DP2" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="DQ2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="DR2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="DS2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="DT2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="DU2" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="DV2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="DW2" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="DX2" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="DY2" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="DZ2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="EA2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="EB2" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="EC2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="ED2" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="EE2" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="EF2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="EG2" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="EH2" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="EI2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="EJ2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="EK2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="EL2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="EM2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="EN2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="EO2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="EP2" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="EQ2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="ER2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="ES2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="ET2" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="EU2" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="EV2" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="EW2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="EX2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="EY2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="EZ2" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="FA2" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="FB2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="FC2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="FD2" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="FE2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="FF2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="FG2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="FH2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="FI2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="FJ2" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="FK2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="FL2" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="FM2" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="FN2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="FO2" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="FP2" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="FQ2" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="FR2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="FS2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="FT2" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="FU2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="FV2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="FW2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="FX2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="FY2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="FZ2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="GA2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="GB2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="GC2" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="GD2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="GE2" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="GF2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="GG2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="GH2" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="GI2" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="GJ2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="GK2" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="GL2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="GM2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="GN2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="GO2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="GP2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="GQ2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="GR2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="GS2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="GT2" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="GU2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="GV2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="GW2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="GX2" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="GY2" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="GZ2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="HA2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="HB2" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="HC2" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="HD2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="HE2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="HF2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="HG2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="HH2" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="HI2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="HJ2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="HK2" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="HL2" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="HM2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="HN2" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="HO2" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="HP2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="HQ2" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="HR2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="HS2" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="HT2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="HU2" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="HV2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="HW2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="HX2" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="HY2" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="HZ2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="IA2" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="IB2" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="IC2" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="ID2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="IE2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="IF2" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="IG2" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="IH2" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="II2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="IJ2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="IK2" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="IL2" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="IM2" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="IN2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="IO2" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="IP2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="IQ2" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="IR2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="IS2" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="IT2" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="IU2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="IV2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="IW2" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="IX2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="IY2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="IZ2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="JA2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="JB2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="JC2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="JD2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="JE2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="JF2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="JG2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="JH2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="JI2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="JJ2" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="JK2" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="JL2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="JM2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="JN2" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="JO2" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="JP2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="JQ2" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="JR2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="JS2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="JT2" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="JU2" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="JV2" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="JW2" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="JX2" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="JY2" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="JZ2" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="KA2" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="KB2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="KC2" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="KD2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="KE2" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="KF2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="KG2" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="KH2" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="CN2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="CO2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="CP2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="CQ2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="CR2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="CS2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="CT2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="CU2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="CV2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="CW2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="CX2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="CY2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="CZ2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="DA2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="DB2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="DC2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="DD2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="DE2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="DF2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="DG2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="DH2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="DI2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="DJ2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="DK2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="DL2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="DM2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="DN2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="DO2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="DP2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="DQ2" s="3" t="s">
+      <c r="KI2" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="DR2" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="DS2" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="DT2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="DU2" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="DV2" s="3" t="s">
+      <c r="KJ2" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="DW2" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="DX2" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="DY2" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="DZ2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="EA2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="EB2" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="EC2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="ED2" s="4" t="s">
+      <c r="KK2" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="KL2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="KM2" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="EE2" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="EF2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="EG2" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="EH2" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="EI2" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="EJ2" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="EK2" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="EL2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="EM2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="EN2" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="EO2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="EP2" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="EQ2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="ER2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="ES2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="ET2" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="EU2" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="EV2" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="EW2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="EX2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="EY2" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="EZ2" s="4" t="s">
+      <c r="KN2" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="FA2" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="FB2" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="FC2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="FD2" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="FE2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="FF2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="FG2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="FH2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="FI2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="FJ2" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="FK2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="FL2" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="FM2" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="FN2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="FO2" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="FP2" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="FQ2" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="FR2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="FS2" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="FT2" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="FU2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="FV2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="FW2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="FX2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="FY2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="FZ2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="GA2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="GB2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="GC2" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="GD2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="GE2" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="GF2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="GG2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="GH2" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="GI2" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="GJ2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="GK2" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="GL2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="GM2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="GN2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="GO2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="GP2" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="GQ2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="GR2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="GS2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="GT2" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="GU2" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="GV2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="GW2" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="GX2" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="GY2" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="GZ2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="HA2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="HB2" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="HC2" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="HD2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="HE2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="HF2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="HG2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="HH2" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="HI2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="HJ2" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="HK2" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="HL2" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="HM2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="HN2" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="HO2" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="HP2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="HQ2" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="HR2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="HS2" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="HT2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="HU2" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="HV2" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="HW2" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="HX2" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="HY2" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="HZ2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="IA2" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="IB2" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="IC2" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="ID2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="IE2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="IF2" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="IG2" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="IH2" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="II2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="IJ2" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="IK2" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="IL2" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="IM2" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="IN2" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="IO2" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="IP2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="IQ2" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="IR2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="IS2" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="IT2" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="IU2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="IV2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="IW2" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="IX2" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="IY2" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="IZ2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="JA2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="JB2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="JC2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="JD2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="JE2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="JF2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="JG2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="JH2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="JI2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="JJ2" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="JK2" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="JL2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="JM2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="JN2" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="JO2" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="JP2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="JQ2" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="JR2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="JS2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="JT2" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="JU2" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="JV2" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="JW2" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="JX2" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="JY2" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="JZ2" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="KA2" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="KB2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="KC2" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="KD2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="KE2" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="KF2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="KG2" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="KH2" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="KI2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="KJ2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="KK2" s="4" t="s">
+      <c r="KO2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="KP2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="KQ2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="KR2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="KS2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="KT2" s="6" t="s">
         <v>415</v>
-      </c>
-      <c r="KL2" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="KM2" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="KN2" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="KO2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="KP2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="KQ2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="KR2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="KS2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="KT2" s="6" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -3190,274 +3190,274 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="V3" t="s">
         <v>20</v>
       </c>
       <c r="W3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="X3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Y3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Z3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AA3" t="s">
         <v>22</v>
       </c>
       <c r="AB3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AC3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AD3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AE3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AF3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AG3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AH3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AI3" t="s">
         <v>19</v>
       </c>
       <c r="AJ3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AK3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AL3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AN3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AO3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AP3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AQ3" t="s">
+        <v>318</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>327</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>477</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>289</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>323</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA3" t="s">
         <v>322</v>
       </c>
-      <c r="AR3" t="s">
-        <v>331</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>275</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>293</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>327</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>313</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>257</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>326</v>
-      </c>
       <c r="BB3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="BC3" t="s">
-        <v>24</v>
+        <v>475</v>
       </c>
       <c r="BD3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="BE3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="BF3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="BG3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="BH3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="BI3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="BJ3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="BK3" t="s">
         <v>23</v>
       </c>
       <c r="BL3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="BM3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="BN3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="BO3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="BP3" t="s">
-        <v>27</v>
+        <v>476</v>
       </c>
       <c r="BQ3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="BR3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="BS3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="BT3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="BU3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="BV3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="BW3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="BX3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="BY3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="BZ3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="CA3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="CB3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="CC3" t="s">
-        <v>25</v>
+        <v>478</v>
       </c>
       <c r="CD3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="CE3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="CF3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="CG3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="CH3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="CI3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="CJ3" t="s">
         <v>21</v>
       </c>
       <c r="CK3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="CL3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="CM3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="CN3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="CO3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="CP3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="CQ3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="CR3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="CS3" t="s">
         <v>15</v>
@@ -3466,439 +3466,439 @@
         <v>14</v>
       </c>
       <c r="CU3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="CV3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="CW3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="CX3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="CY3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="CZ3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="DA3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="DB3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="DC3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="DD3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="DE3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="DF3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="DG3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="DH3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="DI3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="DJ3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="DK3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="DL3" t="s">
         <v>17</v>
       </c>
       <c r="DM3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="DN3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="DO3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="DP3" t="s">
         <v>3</v>
       </c>
       <c r="DQ3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="DR3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="DS3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="DT3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="DU3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="DV3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="DW3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="DX3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="DY3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="DZ3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="EA3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="EB3" t="s">
         <v>12</v>
       </c>
       <c r="EC3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="ED3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="EE3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="EF3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="EG3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="EH3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="EI3" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="EJ3" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="EK3" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="EL3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="EM3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="EN3" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="EO3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="EP3" t="s">
+        <v>284</v>
+      </c>
+      <c r="EQ3" t="s">
         <v>288</v>
       </c>
-      <c r="EQ3" t="s">
-        <v>292</v>
-      </c>
       <c r="ER3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="ES3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="ET3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="EU3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="EV3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="EW3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="EX3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="EY3" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="EZ3" t="s">
+        <v>55</v>
+      </c>
+      <c r="FA3" t="s">
+        <v>124</v>
+      </c>
+      <c r="FB3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="FC3" t="s">
         <v>59</v>
       </c>
-      <c r="FA3" t="s">
-        <v>128</v>
-      </c>
-      <c r="FB3" s="5" t="s">
+      <c r="FD3" t="s">
         <v>58</v>
       </c>
-      <c r="FC3" t="s">
-        <v>63</v>
-      </c>
-      <c r="FD3" t="s">
-        <v>62</v>
-      </c>
       <c r="FE3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="FF3" t="s">
+        <v>265</v>
+      </c>
+      <c r="FG3" t="s">
+        <v>270</v>
+      </c>
+      <c r="FH3" t="s">
         <v>269</v>
       </c>
-      <c r="FG3" t="s">
-        <v>274</v>
-      </c>
-      <c r="FH3" t="s">
-        <v>273</v>
-      </c>
       <c r="FI3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="FJ3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="FK3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="FL3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="FM3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="FN3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="FO3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="FP3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="FQ3" t="s">
         <v>6</v>
       </c>
       <c r="FR3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="FS3" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="FT3" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="FU3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="FV3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="FW3" t="s">
+        <v>295</v>
+      </c>
+      <c r="FX3" t="s">
+        <v>275</v>
+      </c>
+      <c r="FY3" t="s">
+        <v>349</v>
+      </c>
+      <c r="FZ3" t="s">
+        <v>276</v>
+      </c>
+      <c r="GA3" t="s">
+        <v>338</v>
+      </c>
+      <c r="GB3" t="s">
+        <v>279</v>
+      </c>
+      <c r="GC3" t="s">
+        <v>286</v>
+      </c>
+      <c r="GD3" t="s">
         <v>299</v>
       </c>
-      <c r="FX3" t="s">
-        <v>279</v>
-      </c>
-      <c r="FY3" t="s">
-        <v>353</v>
-      </c>
-      <c r="FZ3" t="s">
-        <v>280</v>
-      </c>
-      <c r="GA3" t="s">
-        <v>342</v>
-      </c>
-      <c r="GB3" t="s">
-        <v>283</v>
-      </c>
-      <c r="GC3" t="s">
-        <v>290</v>
-      </c>
-      <c r="GD3" t="s">
-        <v>303</v>
-      </c>
       <c r="GE3" t="s">
+        <v>297</v>
+      </c>
+      <c r="GF3" t="s">
+        <v>217</v>
+      </c>
+      <c r="GG3" t="s">
+        <v>72</v>
+      </c>
+      <c r="GH3" t="s">
+        <v>328</v>
+      </c>
+      <c r="GI3" t="s">
+        <v>329</v>
+      </c>
+      <c r="GJ3" t="s">
+        <v>255</v>
+      </c>
+      <c r="GK3" t="s">
+        <v>357</v>
+      </c>
+      <c r="GL3" t="s">
+        <v>95</v>
+      </c>
+      <c r="GM3" t="s">
+        <v>203</v>
+      </c>
+      <c r="GN3" t="s">
+        <v>212</v>
+      </c>
+      <c r="GO3" t="s">
+        <v>92</v>
+      </c>
+      <c r="GP3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="GQ3" t="s">
+        <v>87</v>
+      </c>
+      <c r="GR3" t="s">
+        <v>300</v>
+      </c>
+      <c r="GS3" t="s">
         <v>301</v>
       </c>
-      <c r="GF3" t="s">
-        <v>221</v>
-      </c>
-      <c r="GG3" t="s">
+      <c r="GT3" t="s">
+        <v>128</v>
+      </c>
+      <c r="GU3" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="GV3" t="s">
+        <v>63</v>
+      </c>
+      <c r="GW3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="GH3" t="s">
-        <v>332</v>
-      </c>
-      <c r="GI3" t="s">
-        <v>333</v>
-      </c>
-      <c r="GJ3" t="s">
-        <v>259</v>
-      </c>
-      <c r="GK3" t="s">
-        <v>361</v>
-      </c>
-      <c r="GL3" t="s">
-        <v>99</v>
-      </c>
-      <c r="GM3" t="s">
-        <v>207</v>
-      </c>
-      <c r="GN3" t="s">
-        <v>216</v>
-      </c>
-      <c r="GO3" t="s">
-        <v>96</v>
-      </c>
-      <c r="GP3" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="GQ3" t="s">
-        <v>91</v>
-      </c>
-      <c r="GR3" t="s">
-        <v>304</v>
-      </c>
-      <c r="GS3" t="s">
-        <v>305</v>
-      </c>
-      <c r="GT3" t="s">
-        <v>132</v>
-      </c>
-      <c r="GU3" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="GV3" t="s">
-        <v>67</v>
-      </c>
-      <c r="GW3" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="GX3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="GY3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="GZ3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="HA3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="HB3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="HC3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="HD3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="HE3" t="s">
+        <v>258</v>
+      </c>
+      <c r="HF3" t="s">
         <v>262</v>
       </c>
-      <c r="HF3" t="s">
-        <v>266</v>
-      </c>
       <c r="HG3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="HH3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="HI3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="HJ3" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="HK3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="HL3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="HM3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="HN3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="HO3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="HP3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="HQ3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="HR3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="HS3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="HT3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="HU3" t="s">
         <v>7</v>
       </c>
       <c r="HV3" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="HW3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="HX3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="HY3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="HZ3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="IA3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="IB3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="IC3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="ID3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="IE3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="IF3" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="IG3" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="IH3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="II3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="IJ3" s="5" t="s">
         <v>8</v>
@@ -3907,207 +3907,207 @@
         <v>10</v>
       </c>
       <c r="IL3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="IM3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="IN3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="IO3" t="s">
         <v>9</v>
       </c>
       <c r="IP3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="IQ3" t="s">
+        <v>294</v>
+      </c>
+      <c r="IR3" t="s">
+        <v>292</v>
+      </c>
+      <c r="IS3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="IT3" t="s">
+        <v>171</v>
+      </c>
+      <c r="IU3" t="s">
+        <v>317</v>
+      </c>
+      <c r="IV3" t="s">
+        <v>186</v>
+      </c>
+      <c r="IW3" t="s">
+        <v>88</v>
+      </c>
+      <c r="IX3" t="s">
+        <v>68</v>
+      </c>
+      <c r="IY3" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="IZ3" t="s">
+        <v>129</v>
+      </c>
+      <c r="JA3" t="s">
+        <v>143</v>
+      </c>
+      <c r="JB3" t="s">
+        <v>339</v>
+      </c>
+      <c r="JC3" t="s">
+        <v>281</v>
+      </c>
+      <c r="JD3" t="s">
         <v>298</v>
       </c>
-      <c r="IR3" t="s">
+      <c r="JE3" t="s">
+        <v>259</v>
+      </c>
+      <c r="JF3" t="s">
         <v>296</v>
       </c>
-      <c r="IS3" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="IT3" t="s">
-        <v>175</v>
-      </c>
-      <c r="IU3" t="s">
-        <v>321</v>
-      </c>
-      <c r="IV3" t="s">
-        <v>190</v>
-      </c>
-      <c r="IW3" t="s">
-        <v>92</v>
-      </c>
-      <c r="IX3" t="s">
-        <v>72</v>
-      </c>
-      <c r="IY3" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="IZ3" t="s">
-        <v>133</v>
-      </c>
-      <c r="JA3" t="s">
-        <v>147</v>
-      </c>
-      <c r="JB3" t="s">
-        <v>343</v>
-      </c>
-      <c r="JC3" t="s">
-        <v>285</v>
-      </c>
-      <c r="JD3" t="s">
-        <v>302</v>
-      </c>
-      <c r="JE3" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF3" t="s">
-        <v>300</v>
-      </c>
       <c r="JG3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="JH3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="JI3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="JJ3" t="s">
         <v>4</v>
       </c>
       <c r="JK3" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="JL3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="JM3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="JN3" t="s">
         <v>16</v>
       </c>
       <c r="JO3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="JP3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="JQ3" t="s">
+        <v>53</v>
+      </c>
+      <c r="JR3" t="s">
+        <v>89</v>
+      </c>
+      <c r="JS3" t="s">
+        <v>325</v>
+      </c>
+      <c r="JT3" t="s">
+        <v>316</v>
+      </c>
+      <c r="JU3" t="s">
+        <v>136</v>
+      </c>
+      <c r="JV3" t="s">
+        <v>379</v>
+      </c>
+      <c r="JW3" t="s">
+        <v>47</v>
+      </c>
+      <c r="JX3" t="s">
+        <v>383</v>
+      </c>
+      <c r="JY3" t="s">
+        <v>287</v>
+      </c>
+      <c r="JZ3" t="s">
+        <v>127</v>
+      </c>
+      <c r="KA3" t="s">
+        <v>278</v>
+      </c>
+      <c r="KB3" t="s">
+        <v>94</v>
+      </c>
+      <c r="KC3" t="s">
+        <v>340</v>
+      </c>
+      <c r="KD3" t="s">
+        <v>337</v>
+      </c>
+      <c r="KE3" t="s">
         <v>57</v>
       </c>
-      <c r="JR3" t="s">
-        <v>93</v>
-      </c>
-      <c r="JS3" t="s">
-        <v>329</v>
-      </c>
-      <c r="JT3" t="s">
-        <v>320</v>
-      </c>
-      <c r="JU3" t="s">
-        <v>140</v>
-      </c>
-      <c r="JV3" t="s">
-        <v>383</v>
-      </c>
-      <c r="JW3" t="s">
-        <v>51</v>
-      </c>
-      <c r="JX3" t="s">
-        <v>387</v>
-      </c>
-      <c r="JY3" t="s">
-        <v>291</v>
-      </c>
-      <c r="JZ3" t="s">
-        <v>131</v>
-      </c>
-      <c r="KA3" t="s">
-        <v>282</v>
-      </c>
-      <c r="KB3" t="s">
-        <v>98</v>
-      </c>
-      <c r="KC3" t="s">
-        <v>344</v>
-      </c>
-      <c r="KD3" t="s">
-        <v>341</v>
-      </c>
-      <c r="KE3" t="s">
-        <v>61</v>
-      </c>
       <c r="KF3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="KG3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="KH3" t="s">
         <v>11</v>
       </c>
       <c r="KI3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="KJ3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="KK3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="KL3" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="KM3" t="s">
         <v>5</v>
       </c>
       <c r="KN3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="KO3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="KP3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="KQ3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="KR3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="KS3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="KT3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -5012,22 +5012,22 @@
     </row>
     <row r="5" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -5932,22 +5932,22 @@
     </row>
     <row r="6" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C6" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -6852,22 +6852,22 @@
     </row>
     <row r="7" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -7772,22 +7772,22 @@
     </row>
     <row r="8" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C8" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8692,22 +8692,22 @@
     </row>
     <row r="9" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B9" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C9" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D9">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -9612,22 +9612,22 @@
     </row>
     <row r="10" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B10" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C10" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D10">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -10532,13 +10532,13 @@
     </row>
     <row r="11" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C11" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -10547,7 +10547,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -11452,13 +11452,13 @@
     </row>
     <row r="12" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B12" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C12" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D12">
         <v>9</v>
@@ -11467,7 +11467,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -12372,22 +12372,22 @@
     </row>
     <row r="13" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B13" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C13" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F13" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -13292,22 +13292,22 @@
     </row>
     <row r="14" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B14" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D14">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -14212,22 +14212,22 @@
     </row>
     <row r="15" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B15" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C15" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -15132,22 +15132,22 @@
     </row>
     <row r="16" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B16" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C16" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -16052,22 +16052,22 @@
     </row>
     <row r="17" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B17" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C17" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -16972,13 +16972,13 @@
     </row>
     <row r="18" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B18" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C18" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -16987,7 +16987,7 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -17892,22 +17892,22 @@
     </row>
     <row r="19" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B19" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C19" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F19" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -18812,22 +18812,22 @@
     </row>
     <row r="20" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B20" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C20" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F20" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -19732,22 +19732,22 @@
     </row>
     <row r="21" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B21" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C21" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F21" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -20652,22 +20652,22 @@
     </row>
     <row r="22" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B22" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -21572,22 +21572,22 @@
     </row>
     <row r="23" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B23" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C23" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -22493,22 +22493,22 @@
     </row>
     <row r="24" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B24" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C24" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D24">
         <v>6</v>
       </c>
       <c r="E24" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" t="s">
         <v>183</v>
-      </c>
-      <c r="F24" t="s">
-        <v>187</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -23414,22 +23414,22 @@
     </row>
     <row r="25" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B25" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C25" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D25">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F25" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -24334,22 +24334,22 @@
     </row>
     <row r="26" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B26" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C26" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D26">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -25254,22 +25254,22 @@
     </row>
     <row r="27" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B27" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C27" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -26174,22 +26174,22 @@
     </row>
     <row r="28" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B28" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C28" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F28" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -27094,22 +27094,22 @@
     </row>
     <row r="29" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B29" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C29" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -28014,22 +28014,22 @@
     </row>
     <row r="30" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B30" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C30" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -28934,22 +28934,22 @@
     </row>
     <row r="31" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B31" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C31" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D31">
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -29854,22 +29854,22 @@
     </row>
     <row r="32" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B32" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C32" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D32">
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -30774,22 +30774,22 @@
     </row>
     <row r="33" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B33" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C33" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D33">
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F33" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -31694,22 +31694,22 @@
     </row>
     <row r="34" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B34" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C34" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D34">
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -32614,22 +32614,22 @@
     </row>
     <row r="35" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B35" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C35" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D35">
         <v>8</v>
       </c>
       <c r="E35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" t="s">
         <v>118</v>
-      </c>
-      <c r="F35" t="s">
-        <v>122</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -33534,19 +33534,19 @@
     </row>
     <row r="36" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B36" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C36" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E36" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F36" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -34451,19 +34451,19 @@
     </row>
     <row r="37" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B37" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C37" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E37" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F37" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -35368,19 +35368,19 @@
     </row>
     <row r="38" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B38" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C38" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E38" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F38" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -36285,19 +36285,19 @@
     </row>
     <row r="39" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B39" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C39" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E39" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F39" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -37202,19 +37202,19 @@
     </row>
     <row r="40" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B40" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C40" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E40" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F40" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -38119,19 +38119,19 @@
     </row>
     <row r="41" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B41" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C41" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E41" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F41" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -39036,19 +39036,19 @@
     </row>
     <row r="42" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B42" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C42" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E42" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F42" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -39953,19 +39953,19 @@
     </row>
     <row r="43" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B43" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C43" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E43" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F43" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -40870,19 +40870,19 @@
     </row>
     <row r="44" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B44" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C44" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E44" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F44" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -41787,19 +41787,19 @@
     </row>
     <row r="45" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B45" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C45" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E45" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F45" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -42704,19 +42704,19 @@
     </row>
     <row r="46" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B46" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C46" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E46" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F46" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -43621,19 +43621,19 @@
     </row>
     <row r="47" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B47" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C47" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E47" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F47" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -44538,19 +44538,19 @@
     </row>
     <row r="48" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B48" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C48" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E48" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F48" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -45455,22 +45455,22 @@
     </row>
     <row r="49" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B49" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C49" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D49" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E49" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F49" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -46375,22 +46375,22 @@
     </row>
     <row r="50" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B50" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C50" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D50" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E50" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F50" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -47295,22 +47295,22 @@
     </row>
     <row r="51" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B51" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C51" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D51" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E51" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F51" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -48215,22 +48215,22 @@
     </row>
     <row r="52" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B52" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C52" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D52" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E52" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F52" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -49135,22 +49135,22 @@
     </row>
     <row r="53" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B53" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C53" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D53" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E53" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F53" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -50055,22 +50055,22 @@
     </row>
     <row r="54" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B54" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C54" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D54" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E54" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F54" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -50975,22 +50975,22 @@
     </row>
     <row r="55" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B55" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C55" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D55" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E55" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F55" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -51895,22 +51895,22 @@
     </row>
     <row r="56" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B56" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C56" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D56" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E56" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F56" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -52815,22 +52815,22 @@
     </row>
     <row r="57" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B57" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C57" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D57" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E57" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F57" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -53735,22 +53735,22 @@
     </row>
     <row r="58" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B58" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C58" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D58" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E58" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F58" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -54655,22 +54655,22 @@
     </row>
     <row r="59" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B59" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C59" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D59" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E59" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F59" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -55575,22 +55575,22 @@
     </row>
     <row r="60" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B60" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C60" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D60" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E60" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F60" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -56495,22 +56495,22 @@
     </row>
     <row r="61" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B61" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C61" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D61" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E61" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F61" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G61">
         <v>0</v>

--- a/data-raw/functionsTracker_20230710.xlsx
+++ b/data-raw/functionsTracker_20230710.xlsx
@@ -699,9 +699,6 @@
   </si>
   <si>
     <t>calc_SBC</t>
-  </si>
-  <si>
-    <t>calc_sensitivity</t>
   </si>
   <si>
     <t>check_diff</t>
@@ -1451,9 +1448,6 @@
     <t>apply_location</t>
   </si>
   <si>
-    <t>gen_hazard</t>
-  </si>
-  <si>
     <t>AH_name</t>
   </si>
   <si>
@@ -1464,6 +1458,12 @@
   </si>
   <si>
     <t>AH_version</t>
+  </si>
+  <si>
+    <t>weight_sensitivity</t>
+  </si>
+  <si>
+    <t>weight_hazard</t>
   </si>
 </sst>
 </file>
@@ -1819,10 +1819,10 @@
   <dimension ref="A1:KV61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="BX4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CC4" sqref="CC4"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2522,295 +2522,295 @@
       <c r="CK2" s="3"/>
       <c r="CL2" s="3"/>
       <c r="CM2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CN2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CO2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CP2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CQ2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CR2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CS2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CT2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CU2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CV2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CW2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CX2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CY2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CZ2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DA2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DB2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DC2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DD2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DE2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DF2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DG2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DH2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DI2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DJ2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DK2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DL2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DM2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DN2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DO2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DP2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DQ2" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="DR2" s="3" t="s">
         <v>199</v>
       </c>
       <c r="DS2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="DT2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="DU2" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="DV2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="DW2" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="DX2" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="DT2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="DU2" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="DV2" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="DW2" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="DX2" s="3" t="s">
-        <v>386</v>
-      </c>
       <c r="DY2" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="DZ2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="EA2" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="EB2" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="EC2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="ED2" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="EE2" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="EF2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="EG2" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="EH2" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="EI2" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="EJ2" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="EK2" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="EL2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="EM2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="EN2" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="EO2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="EP2" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="EQ2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="ER2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="ES2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="ET2" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="EU2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="EV2" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="EF2" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="EG2" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="EH2" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="EI2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="EJ2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="EK2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="EL2" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="EM2" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="EN2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="EO2" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="EP2" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="EQ2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="ER2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="ES2" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="ET2" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="EU2" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="EV2" s="4" t="s">
-        <v>408</v>
-      </c>
       <c r="EW2" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="EX2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="EY2" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="EZ2" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="FA2" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="FB2" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="FC2" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="FD2" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="FE2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="FF2" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="FG2" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="FH2" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="FI2" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="FJ2" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="FK2" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="FL2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="FM2" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="FN2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="FO2" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="FP2" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="FQ2" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="FR2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="FS2" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="FM2" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="FN2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="FO2" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="FP2" s="3" t="s">
+      <c r="FT2" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="FQ2" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="FR2" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="FS2" s="3" t="s">
+      <c r="FU2" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="FT2" s="3" t="s">
+      <c r="FV2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="FW2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="FX2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="FY2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="FZ2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="GA2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="GB2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="GC2" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="FU2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="FV2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="FW2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="FX2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="FY2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="FZ2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="GA2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="GB2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="GC2" s="3" t="s">
+      <c r="GD2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="GE2" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="GD2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="GE2" s="3" t="s">
-        <v>394</v>
       </c>
       <c r="GF2" s="3" t="s">
         <v>63</v>
@@ -2819,16 +2819,16 @@
         <v>63</v>
       </c>
       <c r="GH2" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="GI2" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="GJ2" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="GK2" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="GL2" s="3" t="s">
         <v>63</v>
@@ -2843,319 +2843,319 @@
         <v>63</v>
       </c>
       <c r="GP2" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="GQ2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="GR2" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="GQ2" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="GR2" s="3" t="s">
-        <v>388</v>
-      </c>
       <c r="GS2" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="GT2" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="GU2" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="GV2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="GW2" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="GX2" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="GY2" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="GZ2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="HA2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="HB2" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="HC2" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="HD2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="HE2" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="GX2" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="GY2" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="GZ2" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="HA2" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="HB2" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="HC2" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="HD2" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="HE2" s="3" t="s">
-        <v>388</v>
-      </c>
       <c r="HF2" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="HG2" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="HH2" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="HI2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="HJ2" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="HK2" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="HL2" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="HM2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="HN2" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="HO2" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="HP2" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="HK2" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="HL2" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="HM2" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="HN2" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="HO2" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="HP2" s="3" t="s">
-        <v>388</v>
-      </c>
       <c r="HQ2" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="HR2" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="HS2" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="HT2" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="HU2" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="HV2" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="HW2" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="HX2" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="HY2" s="4" t="s">
         <v>433</v>
-      </c>
-      <c r="HY2" s="4" t="s">
-        <v>434</v>
       </c>
       <c r="HZ2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="IA2" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="IB2" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="IC2" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="ID2" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="IE2" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="IF2" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="IG2" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="IH2" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="II2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="IJ2" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="IK2" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="IL2" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="II2" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="IJ2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="IK2" s="4" t="s">
+      <c r="IM2" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="IL2" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="IM2" s="4" t="s">
-        <v>428</v>
       </c>
       <c r="IN2" s="3" t="s">
         <v>199</v>
       </c>
       <c r="IO2" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="IP2" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="IQ2" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="IR2" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="IS2" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="IT2" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="IU2" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="IV2" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="IW2" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="IX2" s="3" t="s">
         <v>199</v>
       </c>
       <c r="IY2" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="IZ2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="JA2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="JB2" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="IZ2" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="JA2" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="JB2" s="3" t="s">
-        <v>388</v>
-      </c>
       <c r="JC2" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="JD2" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="JE2" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="JF2" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="JG2" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="JH2" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="JI2" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="JJ2" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="JK2" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="JL2" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="JM2" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="JN2" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="JO2" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="JP2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="JQ2" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="JR2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="JS2" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="JT2" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="JU2" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="JV2" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="JV2" s="3" t="s">
+      <c r="JW2" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="JX2" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="JY2" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="JZ2" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="JW2" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="JX2" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="JY2" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="JZ2" s="3" t="s">
-        <v>402</v>
-      </c>
       <c r="KA2" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="KB2" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="KC2" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="KD2" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="KE2" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="KF2" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="KG2" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="KH2" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="KH2" s="4" t="s">
-        <v>418</v>
-      </c>
       <c r="KI2" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="KJ2" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="KK2" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="KL2" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="KM2" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="KN2" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="KO2" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="KP2" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="KQ2" s="3" t="s">
         <v>63</v>
@@ -3164,24 +3164,24 @@
         <v>63</v>
       </c>
       <c r="KS2" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="KT2" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -3211,28 +3211,28 @@
         <v>147</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="S3" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>153</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V3" t="s">
         <v>20</v>
@@ -3253,22 +3253,22 @@
         <v>22</v>
       </c>
       <c r="AB3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AD3" t="s">
         <v>98</v>
       </c>
       <c r="AE3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF3" t="s">
         <v>192</v>
       </c>
       <c r="AG3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AH3" t="s">
         <v>169</v>
@@ -3277,7 +3277,7 @@
         <v>19</v>
       </c>
       <c r="AJ3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AK3" t="s">
         <v>154</v>
@@ -3295,28 +3295,28 @@
         <v>103</v>
       </c>
       <c r="AP3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AQ3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AR3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AS3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AT3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AU3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AV3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AW3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AX3" t="s">
         <v>162</v>
@@ -3325,28 +3325,28 @@
         <v>35</v>
       </c>
       <c r="AZ3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BA3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="BB3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BC3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="BD3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BE3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="BF3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BG3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BH3" t="s">
         <v>149</v>
@@ -3361,7 +3361,7 @@
         <v>23</v>
       </c>
       <c r="BL3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="BM3" t="s">
         <v>171</v>
@@ -3370,10 +3370,10 @@
         <v>185</v>
       </c>
       <c r="BO3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BP3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="BQ3" t="s">
         <v>116</v>
@@ -3391,7 +3391,7 @@
         <v>139</v>
       </c>
       <c r="BV3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="BW3" t="s">
         <v>49</v>
@@ -3406,22 +3406,22 @@
         <v>163</v>
       </c>
       <c r="CA3" t="s">
+        <v>334</v>
+      </c>
+      <c r="CB3" t="s">
         <v>335</v>
       </c>
-      <c r="CB3" t="s">
-        <v>336</v>
-      </c>
       <c r="CC3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="CD3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="CE3" t="s">
+        <v>376</v>
+      </c>
+      <c r="CF3" t="s">
         <v>377</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>378</v>
       </c>
       <c r="CG3" t="s">
         <v>180</v>
@@ -3430,7 +3430,7 @@
         <v>77</v>
       </c>
       <c r="CI3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="CJ3" t="s">
         <v>21</v>
@@ -3439,7 +3439,7 @@
         <v>45</v>
       </c>
       <c r="CL3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="CM3" t="s">
         <v>106</v>
@@ -3457,7 +3457,7 @@
         <v>80</v>
       </c>
       <c r="CR3" t="s">
-        <v>224</v>
+        <v>477</v>
       </c>
       <c r="CS3" t="s">
         <v>15</v>
@@ -3472,7 +3472,7 @@
         <v>142</v>
       </c>
       <c r="CW3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="CX3" t="s">
         <v>82</v>
@@ -3487,25 +3487,25 @@
         <v>48</v>
       </c>
       <c r="DB3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DC3" t="s">
         <v>206</v>
       </c>
       <c r="DD3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="DE3" t="s">
+        <v>309</v>
+      </c>
+      <c r="DF3" t="s">
         <v>310</v>
       </c>
-      <c r="DF3" t="s">
-        <v>311</v>
-      </c>
       <c r="DG3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="DH3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="DI3" t="s">
         <v>119</v>
@@ -3526,7 +3526,7 @@
         <v>44</v>
       </c>
       <c r="DO3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="DP3" t="s">
         <v>3</v>
@@ -3541,7 +3541,7 @@
         <v>182</v>
       </c>
       <c r="DT3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="DU3" t="s">
         <v>41</v>
@@ -3553,7 +3553,7 @@
         <v>173</v>
       </c>
       <c r="DX3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="DY3" t="s">
         <v>56</v>
@@ -3571,7 +3571,7 @@
         <v>66</v>
       </c>
       <c r="ED3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="EE3" t="s">
         <v>110</v>
@@ -3589,7 +3589,7 @@
         <v>125</v>
       </c>
       <c r="EJ3" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EK3" s="5" t="s">
         <v>39</v>
@@ -3604,25 +3604,25 @@
         <v>190</v>
       </c>
       <c r="EO3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="EP3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="EQ3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="ER3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="ES3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="ET3" t="s">
         <v>181</v>
       </c>
       <c r="EU3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="EV3" t="s">
         <v>65</v>
@@ -3655,31 +3655,31 @@
         <v>79</v>
       </c>
       <c r="FF3" t="s">
+        <v>264</v>
+      </c>
+      <c r="FG3" t="s">
+        <v>269</v>
+      </c>
+      <c r="FH3" t="s">
+        <v>268</v>
+      </c>
+      <c r="FI3" t="s">
         <v>265</v>
-      </c>
-      <c r="FG3" t="s">
-        <v>270</v>
-      </c>
-      <c r="FH3" t="s">
-        <v>269</v>
-      </c>
-      <c r="FI3" t="s">
-        <v>266</v>
       </c>
       <c r="FJ3" t="s">
         <v>167</v>
       </c>
       <c r="FK3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="FL3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="FM3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="FN3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="FO3" t="s">
         <v>40</v>
@@ -3700,37 +3700,37 @@
         <v>159</v>
       </c>
       <c r="FU3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="FV3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="FW3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="FX3" t="s">
+        <v>274</v>
+      </c>
+      <c r="FY3" t="s">
+        <v>348</v>
+      </c>
+      <c r="FZ3" t="s">
         <v>275</v>
       </c>
-      <c r="FY3" t="s">
-        <v>349</v>
-      </c>
-      <c r="FZ3" t="s">
-        <v>276</v>
-      </c>
       <c r="GA3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="GB3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="GC3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="GD3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="GE3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="GF3" t="s">
         <v>217</v>
@@ -3739,16 +3739,16 @@
         <v>72</v>
       </c>
       <c r="GH3" t="s">
+        <v>327</v>
+      </c>
+      <c r="GI3" t="s">
         <v>328</v>
       </c>
-      <c r="GI3" t="s">
-        <v>329</v>
-      </c>
       <c r="GJ3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="GK3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="GL3" t="s">
         <v>95</v>
@@ -3769,10 +3769,10 @@
         <v>87</v>
       </c>
       <c r="GR3" t="s">
+        <v>299</v>
+      </c>
+      <c r="GS3" t="s">
         <v>300</v>
-      </c>
-      <c r="GS3" t="s">
-        <v>301</v>
       </c>
       <c r="GT3" t="s">
         <v>128</v>
@@ -3802,25 +3802,25 @@
         <v>85</v>
       </c>
       <c r="HC3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="HD3" t="s">
         <v>174</v>
       </c>
       <c r="HE3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="HF3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="HG3" t="s">
         <v>61</v>
       </c>
       <c r="HH3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="HI3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="HJ3" s="5" t="s">
         <v>60</v>
@@ -3829,25 +3829,25 @@
         <v>73</v>
       </c>
       <c r="HL3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="HM3" t="s">
         <v>137</v>
       </c>
       <c r="HN3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="HO3" t="s">
         <v>121</v>
       </c>
       <c r="HP3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="HQ3" t="s">
         <v>50</v>
       </c>
       <c r="HR3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="HS3" t="s">
         <v>69</v>
@@ -3859,7 +3859,7 @@
         <v>7</v>
       </c>
       <c r="HV3" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="HW3" s="5" t="s">
         <v>13</v>
@@ -3892,10 +3892,10 @@
         <v>165</v>
       </c>
       <c r="IG3" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="IH3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="II3" t="s">
         <v>100</v>
@@ -3919,13 +3919,13 @@
         <v>9</v>
       </c>
       <c r="IP3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="IQ3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="IR3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="IS3" s="5" t="s">
         <v>138</v>
@@ -3934,7 +3934,7 @@
         <v>171</v>
       </c>
       <c r="IU3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="IV3" t="s">
         <v>186</v>
@@ -3946,7 +3946,7 @@
         <v>68</v>
       </c>
       <c r="IY3" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="IZ3" t="s">
         <v>129</v>
@@ -3955,28 +3955,28 @@
         <v>143</v>
       </c>
       <c r="JB3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="JC3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="JD3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="JE3" t="s">
+        <v>258</v>
+      </c>
+      <c r="JF3" t="s">
+        <v>295</v>
+      </c>
+      <c r="JG3" t="s">
+        <v>340</v>
+      </c>
+      <c r="JH3" t="s">
         <v>259</v>
       </c>
-      <c r="JF3" t="s">
-        <v>296</v>
-      </c>
-      <c r="JG3" t="s">
-        <v>341</v>
-      </c>
-      <c r="JH3" t="s">
+      <c r="JI3" t="s">
         <v>260</v>
-      </c>
-      <c r="JI3" t="s">
-        <v>261</v>
       </c>
       <c r="JJ3" t="s">
         <v>4</v>
@@ -3985,10 +3985,10 @@
         <v>123</v>
       </c>
       <c r="JL3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="JM3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="JN3" t="s">
         <v>16</v>
@@ -4006,40 +4006,40 @@
         <v>89</v>
       </c>
       <c r="JS3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="JT3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="JU3" t="s">
         <v>136</v>
       </c>
       <c r="JV3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="JW3" t="s">
         <v>47</v>
       </c>
       <c r="JX3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="JY3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="JZ3" t="s">
         <v>127</v>
       </c>
       <c r="KA3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="KB3" t="s">
         <v>94</v>
       </c>
       <c r="KC3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="KD3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="KE3" t="s">
         <v>57</v>
@@ -4054,10 +4054,10 @@
         <v>11</v>
       </c>
       <c r="KI3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="KJ3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="KK3" t="s">
         <v>199</v>
@@ -4069,7 +4069,7 @@
         <v>5</v>
       </c>
       <c r="KN3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="KO3" t="s">
         <v>74</v>
@@ -4095,10 +4095,10 @@
         <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5015,10 +5015,10 @@
         <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -5932,19 +5932,19 @@
     </row>
     <row r="6" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F6" t="s">
         <v>111</v>
@@ -6852,19 +6852,19 @@
     </row>
     <row r="7" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F7" t="s">
         <v>104</v>
@@ -7772,19 +7772,19 @@
     </row>
     <row r="8" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F8" t="s">
         <v>101</v>
@@ -8692,13 +8692,13 @@
     </row>
     <row r="9" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -9612,13 +9612,13 @@
     </row>
     <row r="10" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -10532,13 +10532,13 @@
     </row>
     <row r="11" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -11452,13 +11452,13 @@
     </row>
     <row r="12" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D12">
         <v>9</v>
@@ -12372,13 +12372,13 @@
     </row>
     <row r="13" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -13292,13 +13292,13 @@
     </row>
     <row r="14" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D14">
         <v>11</v>
@@ -14212,22 +14212,22 @@
     </row>
     <row r="15" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -15132,19 +15132,19 @@
     </row>
     <row r="16" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F16" t="s">
         <v>97</v>
@@ -16052,19 +16052,19 @@
     </row>
     <row r="17" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F17" t="s">
         <v>189</v>
@@ -16972,13 +16972,13 @@
     </row>
     <row r="18" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -17892,13 +17892,13 @@
     </row>
     <row r="19" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -17907,7 +17907,7 @@
         <v>221</v>
       </c>
       <c r="F19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -18812,13 +18812,13 @@
     </row>
     <row r="20" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -18827,7 +18827,7 @@
         <v>222</v>
       </c>
       <c r="F20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -19732,13 +19732,13 @@
     </row>
     <row r="21" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -19747,7 +19747,7 @@
         <v>223</v>
       </c>
       <c r="F21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -20652,13 +20652,13 @@
     </row>
     <row r="22" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B22" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -20667,7 +20667,7 @@
         <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -21572,19 +21572,19 @@
     </row>
     <row r="23" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F23" t="s">
         <v>155</v>
@@ -22493,13 +22493,13 @@
     </row>
     <row r="24" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B24" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C24" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -23414,22 +23414,22 @@
     </row>
     <row r="25" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D25">
         <v>7</v>
       </c>
       <c r="E25" t="s">
+        <v>466</v>
+      </c>
+      <c r="F25" t="s">
         <v>467</v>
-      </c>
-      <c r="F25" t="s">
-        <v>468</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -24334,13 +24334,13 @@
     </row>
     <row r="26" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D26">
         <v>8</v>
@@ -24349,7 +24349,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -25254,13 +25254,13 @@
     </row>
     <row r="27" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D27">
         <v>9</v>
@@ -26174,19 +26174,19 @@
     </row>
     <row r="28" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F28" t="s">
         <v>134</v>
@@ -27094,19 +27094,19 @@
     </row>
     <row r="29" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B29" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F29" t="s">
         <v>26</v>
@@ -28014,19 +28014,19 @@
     </row>
     <row r="30" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B30" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F30" t="s">
         <v>152</v>
@@ -28934,13 +28934,13 @@
     </row>
     <row r="31" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C31" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -29854,13 +29854,13 @@
     </row>
     <row r="32" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B32" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D32">
         <v>5</v>
@@ -30774,19 +30774,19 @@
     </row>
     <row r="33" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B33" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C33" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D33">
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>224</v>
+        <v>477</v>
       </c>
       <c r="F33" t="s">
         <v>140</v>
@@ -31694,22 +31694,22 @@
     </row>
     <row r="34" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D34">
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="F34" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -31718,7 +31718,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -31889,7 +31889,7 @@
         <v>0</v>
       </c>
       <c r="BN34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO34">
         <v>0</v>
@@ -31898,10 +31898,10 @@
         <v>0</v>
       </c>
       <c r="BQ34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS34">
         <v>0</v>
@@ -32030,7 +32030,7 @@
         <v>0</v>
       </c>
       <c r="DI34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ34">
         <v>0</v>
@@ -32042,7 +32042,7 @@
         <v>0</v>
       </c>
       <c r="DM34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN34">
         <v>0</v>
@@ -32069,7 +32069,7 @@
         <v>0</v>
       </c>
       <c r="DV34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW34">
         <v>0</v>
@@ -32141,7 +32141,7 @@
         <v>0</v>
       </c>
       <c r="ET34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU34">
         <v>0</v>
@@ -32210,13 +32210,13 @@
         <v>0</v>
       </c>
       <c r="FQ34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR34">
         <v>0</v>
       </c>
       <c r="FS34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT34">
         <v>0</v>
@@ -32285,7 +32285,7 @@
         <v>0</v>
       </c>
       <c r="GP34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GQ34">
         <v>0</v>
@@ -32297,7 +32297,7 @@
         <v>0</v>
       </c>
       <c r="GT34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GU34">
         <v>0</v>
@@ -32321,7 +32321,7 @@
         <v>0</v>
       </c>
       <c r="HB34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HC34">
         <v>0</v>
@@ -32378,7 +32378,7 @@
         <v>0</v>
       </c>
       <c r="HU34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV34">
         <v>0</v>
@@ -32387,7 +32387,7 @@
         <v>0</v>
       </c>
       <c r="HX34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY34">
         <v>0</v>
@@ -32408,7 +32408,7 @@
         <v>0</v>
       </c>
       <c r="IE34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF34">
         <v>0</v>
@@ -32438,7 +32438,7 @@
         <v>0</v>
       </c>
       <c r="IO34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP34">
         <v>0</v>
@@ -32459,7 +32459,7 @@
         <v>0</v>
       </c>
       <c r="IV34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IW34">
         <v>0</v>
@@ -32471,7 +32471,7 @@
         <v>0</v>
       </c>
       <c r="IZ34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JA34">
         <v>0</v>
@@ -32501,7 +32501,7 @@
         <v>0</v>
       </c>
       <c r="JJ34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK34">
         <v>0</v>
@@ -32549,13 +32549,13 @@
         <v>0</v>
       </c>
       <c r="JZ34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KA34">
         <v>0</v>
       </c>
       <c r="KB34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KC34">
         <v>0</v>
@@ -32585,7 +32585,7 @@
         <v>0</v>
       </c>
       <c r="KL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM34">
         <v>0</v>
@@ -32614,22 +32614,22 @@
     </row>
     <row r="35" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D35">
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="F35" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -32638,7 +32638,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>0</v>
       </c>
       <c r="BN35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO35">
         <v>0</v>
@@ -32818,10 +32818,10 @@
         <v>0</v>
       </c>
       <c r="BQ35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS35">
         <v>0</v>
@@ -32950,7 +32950,7 @@
         <v>0</v>
       </c>
       <c r="DI35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ35">
         <v>0</v>
@@ -32962,7 +32962,7 @@
         <v>0</v>
       </c>
       <c r="DM35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN35">
         <v>0</v>
@@ -32989,7 +32989,7 @@
         <v>0</v>
       </c>
       <c r="DV35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW35">
         <v>0</v>
@@ -33061,7 +33061,7 @@
         <v>0</v>
       </c>
       <c r="ET35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU35">
         <v>0</v>
@@ -33130,13 +33130,13 @@
         <v>0</v>
       </c>
       <c r="FQ35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR35">
         <v>0</v>
       </c>
       <c r="FS35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT35">
         <v>0</v>
@@ -33205,7 +33205,7 @@
         <v>0</v>
       </c>
       <c r="GP35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GQ35">
         <v>0</v>
@@ -33217,7 +33217,7 @@
         <v>0</v>
       </c>
       <c r="GT35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GU35">
         <v>0</v>
@@ -33241,7 +33241,7 @@
         <v>0</v>
       </c>
       <c r="HB35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HC35">
         <v>0</v>
@@ -33298,7 +33298,7 @@
         <v>0</v>
       </c>
       <c r="HU35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV35">
         <v>0</v>
@@ -33307,7 +33307,7 @@
         <v>0</v>
       </c>
       <c r="HX35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HY35">
         <v>0</v>
@@ -33328,7 +33328,7 @@
         <v>0</v>
       </c>
       <c r="IE35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF35">
         <v>0</v>
@@ -33358,7 +33358,7 @@
         <v>0</v>
       </c>
       <c r="IO35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP35">
         <v>0</v>
@@ -33379,7 +33379,7 @@
         <v>0</v>
       </c>
       <c r="IV35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW35">
         <v>0</v>
@@ -33391,7 +33391,7 @@
         <v>0</v>
       </c>
       <c r="IZ35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JA35">
         <v>0</v>
@@ -33421,7 +33421,7 @@
         <v>0</v>
       </c>
       <c r="JJ35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK35">
         <v>0</v>
@@ -33469,13 +33469,13 @@
         <v>0</v>
       </c>
       <c r="JZ35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KA35">
         <v>0</v>
       </c>
       <c r="KB35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KC35">
         <v>0</v>
@@ -33505,7 +33505,7 @@
         <v>0</v>
       </c>
       <c r="KL35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KM35">
         <v>0</v>
@@ -33534,19 +33534,19 @@
     </row>
     <row r="36" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B36" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C36" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -34451,19 +34451,19 @@
     </row>
     <row r="37" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B37" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C37" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E37" t="s">
+        <v>301</v>
+      </c>
+      <c r="F37" t="s">
         <v>302</v>
-      </c>
-      <c r="F37" t="s">
-        <v>303</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -35368,19 +35368,19 @@
     </row>
     <row r="38" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -36285,19 +36285,19 @@
     </row>
     <row r="39" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C39" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -37202,19 +37202,19 @@
     </row>
     <row r="40" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B40" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C40" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -38119,19 +38119,19 @@
     </row>
     <row r="41" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B41" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C41" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -39036,19 +39036,19 @@
     </row>
     <row r="42" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B42" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -39953,19 +39953,19 @@
     </row>
     <row r="43" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B43" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C43" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -40870,19 +40870,19 @@
     </row>
     <row r="44" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -41787,19 +41787,19 @@
     </row>
     <row r="45" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C45" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -42704,19 +42704,19 @@
     </row>
     <row r="46" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B46" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C46" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -43621,19 +43621,19 @@
     </row>
     <row r="47" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B47" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C47" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -44538,19 +44538,19 @@
     </row>
     <row r="48" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B48" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C48" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -45455,16 +45455,16 @@
     </row>
     <row r="49" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E49" t="s">
         <v>119</v>
@@ -46375,16 +46375,16 @@
     </row>
     <row r="50" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B50" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C50" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D50" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E50" t="s">
         <v>207</v>
@@ -47295,16 +47295,16 @@
     </row>
     <row r="51" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B51" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C51" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D51" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E51" t="s">
         <v>208</v>
@@ -48215,16 +48215,16 @@
     </row>
     <row r="52" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B52" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C52" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D52" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E52" t="s">
         <v>206</v>
@@ -49135,16 +49135,16 @@
     </row>
     <row r="53" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B53" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C53" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D53" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E53" t="s">
         <v>219</v>
@@ -50055,16 +50055,16 @@
     </row>
     <row r="54" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B54" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C54" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D54" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E54" t="s">
         <v>142</v>
@@ -50978,13 +50978,13 @@
         <v>120</v>
       </c>
       <c r="B55" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C55" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D55" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E55" t="s">
         <v>48</v>
@@ -51895,22 +51895,22 @@
     </row>
     <row r="56" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B56" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C56" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D56" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E56" t="s">
+        <v>341</v>
+      </c>
+      <c r="F56" t="s">
         <v>342</v>
-      </c>
-      <c r="F56" t="s">
-        <v>343</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -52815,22 +52815,22 @@
     </row>
     <row r="57" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B57" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C57" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D57" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E57" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F57" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -53735,22 +53735,22 @@
     </row>
     <row r="58" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B58" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C58" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D58" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E58" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F58" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -54655,22 +54655,22 @@
     </row>
     <row r="59" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B59" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C59" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D59" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F59" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -55575,22 +55575,22 @@
     </row>
     <row r="60" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B60" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C60" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D60" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E60" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F60" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -56495,22 +56495,22 @@
     </row>
     <row r="61" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B61" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C61" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D61" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E61" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F61" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -57415,7 +57415,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:KT61">
-    <sortState ref="A4:KU61">
+    <sortState ref="A4:KT61">
       <sortCondition ref="C4:C61"/>
       <sortCondition ref="D4:D61"/>
     </sortState>

--- a/data-raw/functionsTracker_20230710.xlsx
+++ b/data-raw/functionsTracker_20230710.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="478">
   <si>
     <t>function</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t xml:space="preserve">generate a sensitivity analysis to assess the impacts (network analysis results and rank changes) of potential input errors e.g. +/- 10% of existing edge weights </t>
-  </si>
-  <si>
-    <t>baseline</t>
   </si>
   <si>
     <t>pct</t>
@@ -468,9 +465,6 @@
   </si>
   <si>
     <t>AH_compared</t>
-  </si>
-  <si>
-    <t>benchmark</t>
   </si>
   <si>
     <t>export outputs of AHgen (e.g. an abstraction hierarchy; a comparison of abstraction hierarchies; or edges for a specific hazard etc.)</t>
@@ -1465,6 +1459,9 @@
   <si>
     <t>weight_hazard</t>
   </si>
+  <si>
+    <t>xl</t>
+  </si>
 </sst>
 </file>
 
@@ -1519,7 +1516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1531,6 +1528,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1819,10 +1819,10 @@
   <dimension ref="A1:KV61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1838,48 +1838,45 @@
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.08984375" customWidth="1"/>
-    <col min="30" max="30" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="9.6328125" customWidth="1"/>
-    <col min="34" max="34" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="9.08984375" customWidth="1"/>
+    <col min="16" max="16" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.08984375" customWidth="1"/>
+    <col min="32" max="32" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="9.6328125" customWidth="1"/>
+    <col min="36" max="36" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="7.7265625" bestFit="1" customWidth="1"/>
@@ -1892,28 +1889,28 @@
     <col min="65" max="65" width="6.90625" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="4" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="19" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="80" max="81" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="13" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="4" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="19" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="79" max="80" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="13" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="9.90625" customWidth="1"/>
     <col min="91" max="92" width="17.6328125" customWidth="1"/>
     <col min="93" max="93" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="9.6328125" bestFit="1" customWidth="1"/>
@@ -2129,312 +2126,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:306" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="7"/>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="7"/>
-      <c r="BC1" s="7"/>
-      <c r="BD1" s="7"/>
-      <c r="BE1" s="7"/>
-      <c r="BF1" s="7"/>
-      <c r="BG1" s="7"/>
-      <c r="BH1" s="7"/>
-      <c r="BI1" s="7"/>
-      <c r="BJ1" s="7"/>
-      <c r="BK1" s="7"/>
-      <c r="BL1" s="7"/>
-      <c r="BM1" s="7"/>
-      <c r="BN1" s="7"/>
-      <c r="BO1" s="7"/>
-      <c r="BP1" s="7"/>
-      <c r="BQ1" s="7"/>
-      <c r="BR1" s="7"/>
-      <c r="BS1" s="7"/>
-      <c r="BT1" s="7"/>
-      <c r="BU1" s="7"/>
-      <c r="BV1" s="7"/>
-      <c r="BW1" s="7"/>
-      <c r="BX1" s="7"/>
-      <c r="BY1" s="7"/>
-      <c r="BZ1" s="7"/>
-      <c r="CA1" s="7"/>
-      <c r="CB1" s="7"/>
-      <c r="CC1" s="7"/>
-      <c r="CD1" s="7"/>
-      <c r="CE1" s="7"/>
-      <c r="CF1" s="7"/>
-      <c r="CG1" s="7"/>
-      <c r="CH1" s="7"/>
-      <c r="CI1" s="7"/>
-      <c r="CJ1" s="7"/>
-      <c r="CK1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="8"/>
+      <c r="BS1" s="8"/>
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="8"/>
+      <c r="CK1" s="8"/>
       <c r="CL1" s="7"/>
-      <c r="CM1" s="7" t="s">
+      <c r="CM1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="CN1" s="7"/>
-      <c r="CO1" s="7"/>
-      <c r="CP1" s="7"/>
-      <c r="CQ1" s="7"/>
-      <c r="CR1" s="7"/>
-      <c r="CS1" s="7"/>
-      <c r="CT1" s="7"/>
-      <c r="CU1" s="7"/>
-      <c r="CV1" s="7"/>
-      <c r="CW1" s="7"/>
-      <c r="CX1" s="7"/>
-      <c r="CY1" s="7"/>
-      <c r="CZ1" s="7"/>
-      <c r="DA1" s="7"/>
-      <c r="DB1" s="7"/>
-      <c r="DC1" s="7"/>
-      <c r="DD1" s="7"/>
-      <c r="DE1" s="7"/>
-      <c r="DF1" s="7"/>
-      <c r="DG1" s="7"/>
-      <c r="DH1" s="7"/>
-      <c r="DI1" s="7"/>
-      <c r="DJ1" s="7"/>
-      <c r="DK1" s="7"/>
-      <c r="DL1" s="7"/>
-      <c r="DM1" s="7"/>
-      <c r="DN1" s="7"/>
-      <c r="DO1" s="7"/>
-      <c r="DP1" s="7"/>
-      <c r="DQ1" s="7" t="s">
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="8"/>
+      <c r="DC1" s="8"/>
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="DR1" s="7"/>
-      <c r="DS1" s="7"/>
-      <c r="DT1" s="7"/>
-      <c r="DU1" s="7"/>
-      <c r="DV1" s="7"/>
-      <c r="DW1" s="7"/>
-      <c r="DX1" s="7"/>
-      <c r="DY1" s="7"/>
-      <c r="DZ1" s="7"/>
-      <c r="EA1" s="7"/>
-      <c r="EB1" s="7"/>
-      <c r="EC1" s="7"/>
-      <c r="ED1" s="7"/>
-      <c r="EE1" s="7"/>
-      <c r="EF1" s="7"/>
-      <c r="EG1" s="7"/>
-      <c r="EH1" s="7"/>
-      <c r="EI1" s="7"/>
-      <c r="EJ1" s="7"/>
-      <c r="EK1" s="7"/>
-      <c r="EL1" s="7"/>
-      <c r="EM1" s="7"/>
-      <c r="EN1" s="7"/>
-      <c r="EO1" s="7"/>
-      <c r="EP1" s="7"/>
-      <c r="EQ1" s="7"/>
-      <c r="ER1" s="7"/>
-      <c r="ES1" s="7"/>
-      <c r="ET1" s="7"/>
-      <c r="EU1" s="7"/>
-      <c r="EV1" s="7"/>
-      <c r="EW1" s="7"/>
-      <c r="EX1" s="7"/>
-      <c r="EY1" s="7"/>
-      <c r="EZ1" s="7"/>
-      <c r="FA1" s="7"/>
-      <c r="FB1" s="7"/>
-      <c r="FC1" s="7"/>
-      <c r="FD1" s="7"/>
-      <c r="FE1" s="7"/>
-      <c r="FF1" s="7"/>
-      <c r="FG1" s="7"/>
-      <c r="FH1" s="7"/>
-      <c r="FI1" s="7"/>
-      <c r="FJ1" s="7"/>
-      <c r="FK1" s="7"/>
-      <c r="FL1" s="7"/>
-      <c r="FM1" s="7"/>
-      <c r="FN1" s="7"/>
-      <c r="FO1" s="7"/>
-      <c r="FP1" s="7"/>
-      <c r="FQ1" s="7"/>
-      <c r="FR1" s="7"/>
-      <c r="FS1" s="7"/>
-      <c r="FT1" s="7"/>
-      <c r="FU1" s="7"/>
-      <c r="FV1" s="7"/>
-      <c r="FW1" s="7"/>
-      <c r="FX1" s="7"/>
-      <c r="FY1" s="7"/>
-      <c r="FZ1" s="7"/>
-      <c r="GA1" s="7"/>
-      <c r="GB1" s="7"/>
-      <c r="GC1" s="7"/>
-      <c r="GD1" s="7"/>
-      <c r="GE1" s="7"/>
-      <c r="GF1" s="7"/>
-      <c r="GG1" s="7"/>
-      <c r="GH1" s="7"/>
-      <c r="GI1" s="7"/>
-      <c r="GJ1" s="7"/>
-      <c r="GK1" s="7"/>
-      <c r="GL1" s="7"/>
-      <c r="GM1" s="7"/>
-      <c r="GN1" s="7"/>
-      <c r="GO1" s="7"/>
-      <c r="GP1" s="7"/>
-      <c r="GQ1" s="7"/>
-      <c r="GR1" s="7"/>
-      <c r="GS1" s="7"/>
-      <c r="GT1" s="7"/>
-      <c r="GU1" s="7"/>
-      <c r="GV1" s="7"/>
-      <c r="GW1" s="7"/>
-      <c r="GX1" s="7"/>
-      <c r="GY1" s="7"/>
-      <c r="GZ1" s="7"/>
-      <c r="HA1" s="7"/>
-      <c r="HB1" s="7"/>
-      <c r="HC1" s="7"/>
-      <c r="HD1" s="7"/>
-      <c r="HE1" s="7"/>
-      <c r="HF1" s="7"/>
-      <c r="HG1" s="7"/>
-      <c r="HH1" s="7"/>
-      <c r="HI1" s="7"/>
-      <c r="HJ1" s="7"/>
-      <c r="HK1" s="7"/>
-      <c r="HL1" s="7"/>
-      <c r="HM1" s="7"/>
-      <c r="HN1" s="7"/>
-      <c r="HO1" s="7"/>
-      <c r="HP1" s="7"/>
-      <c r="HQ1" s="7"/>
-      <c r="HR1" s="7"/>
-      <c r="HS1" s="7"/>
-      <c r="HT1" s="7"/>
-      <c r="HU1" s="7"/>
-      <c r="HV1" s="7"/>
-      <c r="HW1" s="7"/>
-      <c r="HX1" s="7"/>
-      <c r="HY1" s="7"/>
-      <c r="HZ1" s="7"/>
-      <c r="IA1" s="7"/>
-      <c r="IB1" s="7"/>
-      <c r="IC1" s="7"/>
-      <c r="ID1" s="7"/>
-      <c r="IE1" s="7"/>
-      <c r="IF1" s="7"/>
-      <c r="IG1" s="7"/>
-      <c r="IH1" s="7"/>
-      <c r="II1" s="7"/>
-      <c r="IJ1" s="7"/>
-      <c r="IK1" s="7"/>
-      <c r="IL1" s="7"/>
-      <c r="IM1" s="7"/>
-      <c r="IN1" s="7"/>
-      <c r="IO1" s="7"/>
-      <c r="IP1" s="7"/>
-      <c r="IQ1" s="7"/>
-      <c r="IR1" s="7"/>
-      <c r="IS1" s="7"/>
-      <c r="IT1" s="7"/>
-      <c r="IU1" s="7"/>
-      <c r="IV1" s="7"/>
-      <c r="IW1" s="7"/>
-      <c r="IX1" s="7"/>
-      <c r="IY1" s="7"/>
-      <c r="IZ1" s="7"/>
-      <c r="JA1" s="7"/>
-      <c r="JB1" s="7"/>
-      <c r="JC1" s="7"/>
-      <c r="JD1" s="7"/>
-      <c r="JE1" s="7"/>
-      <c r="JF1" s="7"/>
-      <c r="JG1" s="7"/>
-      <c r="JH1" s="7"/>
-      <c r="JI1" s="7"/>
-      <c r="JJ1" s="7"/>
-      <c r="JK1" s="7"/>
-      <c r="JL1" s="7"/>
-      <c r="JM1" s="7"/>
-      <c r="JN1" s="7"/>
-      <c r="JO1" s="7"/>
-      <c r="JP1" s="7"/>
-      <c r="JQ1" s="7"/>
-      <c r="JR1" s="7"/>
-      <c r="JS1" s="7"/>
-      <c r="JT1" s="7"/>
-      <c r="JU1" s="7"/>
-      <c r="JV1" s="7"/>
-      <c r="JW1" s="7"/>
-      <c r="JX1" s="7"/>
-      <c r="JY1" s="7"/>
-      <c r="JZ1" s="7"/>
-      <c r="KA1" s="7"/>
-      <c r="KB1" s="7"/>
-      <c r="KC1" s="7"/>
-      <c r="KD1" s="7"/>
-      <c r="KE1" s="7"/>
-      <c r="KF1" s="7"/>
-      <c r="KG1" s="7"/>
-      <c r="KH1" s="7"/>
-      <c r="KI1" s="7"/>
-      <c r="KJ1" s="7"/>
-      <c r="KK1" s="7"/>
-      <c r="KL1" s="7"/>
-      <c r="KM1" s="7"/>
-      <c r="KN1" s="7"/>
-      <c r="KO1" s="7"/>
-      <c r="KP1" s="7"/>
-      <c r="KQ1" s="7"/>
-      <c r="KR1" s="7"/>
-      <c r="KS1" s="7"/>
-      <c r="KT1" s="7"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="8"/>
+      <c r="DU1" s="8"/>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="8"/>
+      <c r="EM1" s="8"/>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="8"/>
+      <c r="FE1" s="8"/>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="8"/>
+      <c r="FW1" s="8"/>
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="8"/>
+      <c r="GO1" s="8"/>
+      <c r="GP1" s="8"/>
+      <c r="GQ1" s="8"/>
+      <c r="GR1" s="8"/>
+      <c r="GS1" s="8"/>
+      <c r="GT1" s="8"/>
+      <c r="GU1" s="8"/>
+      <c r="GV1" s="8"/>
+      <c r="GW1" s="8"/>
+      <c r="GX1" s="8"/>
+      <c r="GY1" s="8"/>
+      <c r="GZ1" s="8"/>
+      <c r="HA1" s="8"/>
+      <c r="HB1" s="8"/>
+      <c r="HC1" s="8"/>
+      <c r="HD1" s="8"/>
+      <c r="HE1" s="8"/>
+      <c r="HF1" s="8"/>
+      <c r="HG1" s="8"/>
+      <c r="HH1" s="8"/>
+      <c r="HI1" s="8"/>
+      <c r="HJ1" s="8"/>
+      <c r="HK1" s="8"/>
+      <c r="HL1" s="8"/>
+      <c r="HM1" s="8"/>
+      <c r="HN1" s="8"/>
+      <c r="HO1" s="8"/>
+      <c r="HP1" s="8"/>
+      <c r="HQ1" s="8"/>
+      <c r="HR1" s="8"/>
+      <c r="HS1" s="8"/>
+      <c r="HT1" s="8"/>
+      <c r="HU1" s="8"/>
+      <c r="HV1" s="8"/>
+      <c r="HW1" s="8"/>
+      <c r="HX1" s="8"/>
+      <c r="HY1" s="8"/>
+      <c r="HZ1" s="8"/>
+      <c r="IA1" s="8"/>
+      <c r="IB1" s="8"/>
+      <c r="IC1" s="8"/>
+      <c r="ID1" s="8"/>
+      <c r="IE1" s="8"/>
+      <c r="IF1" s="8"/>
+      <c r="IG1" s="8"/>
+      <c r="IH1" s="8"/>
+      <c r="II1" s="8"/>
+      <c r="IJ1" s="8"/>
+      <c r="IK1" s="8"/>
+      <c r="IL1" s="8"/>
+      <c r="IM1" s="8"/>
+      <c r="IN1" s="8"/>
+      <c r="IO1" s="8"/>
+      <c r="IP1" s="8"/>
+      <c r="IQ1" s="8"/>
+      <c r="IR1" s="8"/>
+      <c r="IS1" s="8"/>
+      <c r="IT1" s="8"/>
+      <c r="IU1" s="8"/>
+      <c r="IV1" s="8"/>
+      <c r="IW1" s="8"/>
+      <c r="IX1" s="8"/>
+      <c r="IY1" s="8"/>
+      <c r="IZ1" s="8"/>
+      <c r="JA1" s="8"/>
+      <c r="JB1" s="8"/>
+      <c r="JC1" s="8"/>
+      <c r="JD1" s="8"/>
+      <c r="JE1" s="8"/>
+      <c r="JF1" s="8"/>
+      <c r="JG1" s="8"/>
+      <c r="JH1" s="8"/>
+      <c r="JI1" s="8"/>
+      <c r="JJ1" s="8"/>
+      <c r="JK1" s="8"/>
+      <c r="JL1" s="8"/>
+      <c r="JM1" s="8"/>
+      <c r="JN1" s="8"/>
+      <c r="JO1" s="8"/>
+      <c r="JP1" s="8"/>
+      <c r="JQ1" s="8"/>
+      <c r="JR1" s="8"/>
+      <c r="JS1" s="8"/>
+      <c r="JT1" s="8"/>
+      <c r="JU1" s="8"/>
+      <c r="JV1" s="8"/>
+      <c r="JW1" s="8"/>
+      <c r="JX1" s="8"/>
+      <c r="JY1" s="8"/>
+      <c r="JZ1" s="8"/>
+      <c r="KA1" s="8"/>
+      <c r="KB1" s="8"/>
+      <c r="KC1" s="8"/>
+      <c r="KD1" s="8"/>
+      <c r="KE1" s="8"/>
+      <c r="KF1" s="8"/>
+      <c r="KG1" s="8"/>
+      <c r="KH1" s="8"/>
+      <c r="KI1" s="8"/>
+      <c r="KJ1" s="8"/>
+      <c r="KK1" s="8"/>
+      <c r="KL1" s="8"/>
+      <c r="KM1" s="8"/>
+      <c r="KN1" s="8"/>
+      <c r="KO1" s="8"/>
+      <c r="KP1" s="8"/>
+      <c r="KQ1" s="8"/>
+      <c r="KR1" s="8"/>
+      <c r="KS1" s="8"/>
+      <c r="KT1" s="8"/>
     </row>
     <row r="2" spans="1:306" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="G2" s="3"/>
@@ -2522,666 +2519,666 @@
       <c r="CK2" s="3"/>
       <c r="CL2" s="3"/>
       <c r="CM2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="CN2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="CO2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="CP2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="CQ2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="CR2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="CS2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="CT2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="CU2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="CV2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="CW2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="CX2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="CY2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="CZ2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="DA2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="DB2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="DC2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="DD2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="DE2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="DF2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="DG2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="DH2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="DI2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="DJ2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="DK2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="DL2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="DM2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="DN2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="DO2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="DP2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="DQ2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="DR2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="DS2" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="DT2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="DU2" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="DV2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="DW2" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="DX2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="DY2" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="DZ2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="EA2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="EB2" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="EC2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="ED2" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="EE2" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="EF2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="EG2" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="EH2" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="EI2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="EJ2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="EK2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="EL2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="EM2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="EN2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="EO2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="EP2" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="EQ2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="ER2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="ES2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="ET2" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="EU2" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="EV2" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="EW2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="EX2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="EY2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="EZ2" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="FA2" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="FB2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="FC2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="FD2" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="FE2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="FF2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="FG2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="FH2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="FI2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="FJ2" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="FK2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="FL2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="FM2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="FN2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="FO2" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="FP2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="FQ2" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="FR2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="FS2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="FT2" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="FU2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="FV2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="FW2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="FX2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="FY2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="FZ2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="GA2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="GB2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="GC2" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="GD2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="GE2" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="GG2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="GH2" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="GI2" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="GJ2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="GK2" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="GL2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="GM2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="GN2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="GO2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="GP2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="GQ2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="GR2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="GS2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="GT2" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="GU2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="GV2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="GW2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="GX2" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="GY2" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="GZ2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="HA2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="HB2" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="HC2" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="HD2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="HE2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="HF2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="HG2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="HH2" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="HI2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="HJ2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="HK2" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="HL2" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="HM2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="HN2" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="HO2" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="HP2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="HQ2" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="HR2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="HS2" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="HT2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="HU2" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="HV2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="HW2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="HX2" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="HY2" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="HZ2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="IA2" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="IB2" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="IC2" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="ID2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="IE2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="IF2" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="IG2" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="IH2" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="II2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="IJ2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="IK2" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="IL2" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="IM2" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="IN2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="IO2" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="IP2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="IQ2" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="IR2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="IS2" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="IT2" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="IU2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="IV2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="IW2" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="IX2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="IY2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="IZ2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="JA2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="JB2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="JC2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="JD2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="JE2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="JF2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="JG2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="JH2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="JI2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="JJ2" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="JK2" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="JL2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="JM2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="JN2" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="JO2" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="JP2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="JQ2" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="JR2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="JS2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="JT2" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="JU2" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="JV2" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="JW2" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="JX2" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="JY2" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="JZ2" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="KA2" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="KB2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="KC2" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="KD2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="KE2" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="KF2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="KG2" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="KH2" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="KI2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="KJ2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="KK2" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="KL2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="KM2" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="CN2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="CO2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="CP2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="CQ2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="CR2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="CS2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="CT2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="CU2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="CV2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="CW2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="CX2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="CY2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="CZ2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="DA2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="DB2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="DC2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="DD2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="DE2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="DF2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="DG2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="DH2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="DI2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="DJ2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="DK2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="DL2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="DM2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="DN2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="DO2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="DP2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="DQ2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="DR2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="DS2" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="DT2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="DU2" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="DV2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="DW2" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="DX2" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="DY2" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="DZ2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="EA2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="EB2" s="4" t="s">
+      <c r="KN2" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="KO2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="KP2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="KQ2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="KR2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="KS2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="KT2" s="6" t="s">
         <v>412</v>
-      </c>
-      <c r="EC2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="ED2" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="EE2" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="EF2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="EG2" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="EH2" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="EI2" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="EJ2" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="EK2" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="EL2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="EM2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="EN2" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="EO2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="EP2" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="EQ2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="ER2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="ES2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="ET2" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="EU2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="EV2" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="EW2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="EX2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="EY2" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="EZ2" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="FA2" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="FB2" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="FC2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="FD2" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="FE2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="FF2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="FG2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="FH2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="FI2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="FJ2" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="FK2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="FL2" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="FM2" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="FN2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="FO2" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="FP2" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="FQ2" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="FR2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="FS2" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="FT2" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="FU2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="FV2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="FW2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="FX2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="FY2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="FZ2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="GA2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="GB2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="GC2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="GD2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="GE2" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="GF2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="GG2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="GH2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="GI2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="GJ2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="GK2" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="GL2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="GM2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="GN2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="GO2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="GP2" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="GQ2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="GR2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="GS2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="GT2" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="GU2" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="GV2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="GW2" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="GX2" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="GY2" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="GZ2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="HA2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="HB2" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="HC2" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="HD2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="HE2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="HF2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="HG2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="HH2" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="HI2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="HJ2" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="HK2" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="HL2" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="HM2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="HN2" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="HO2" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="HP2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="HQ2" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="HR2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="HS2" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="HT2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="HU2" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="HV2" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="HW2" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="HX2" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="HY2" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="HZ2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="IA2" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="IB2" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="IC2" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="ID2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="IE2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="IF2" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="IG2" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="IH2" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="II2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="IJ2" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="IK2" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="IL2" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="IM2" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="IN2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="IO2" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="IP2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="IQ2" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="IR2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="IS2" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="IT2" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="IU2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="IV2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="IW2" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="IX2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="IY2" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="IZ2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="JA2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="JB2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="JC2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="JD2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="JE2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="JF2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="JG2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="JH2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="JI2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="JJ2" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="JK2" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="JL2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="JM2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="JN2" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="JO2" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="JP2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="JQ2" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="JR2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="JS2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="JT2" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="JU2" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="JV2" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="JW2" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="JX2" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="JY2" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="JZ2" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="KA2" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="KB2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="KC2" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="KD2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="KE2" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="KF2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="KG2" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="KH2" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="KI2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="KJ2" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="KK2" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="KL2" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="KM2" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="KN2" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="KO2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="KP2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="KQ2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="KR2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="KS2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="KT2" s="6" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -3190,274 +3187,274 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" t="s">
+        <v>473</v>
+      </c>
+      <c r="M3" t="s">
+        <v>471</v>
+      </c>
+      <c r="N3" t="s">
+        <v>472</v>
+      </c>
+      <c r="O3" t="s">
+        <v>474</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="X3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>367</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>352</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>331</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>320</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>250</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>319</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>305</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>353</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>343</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>288</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>287</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BI3" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="V3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" t="s">
-        <v>141</v>
-      </c>
-      <c r="X3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>353</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>470</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>253</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>354</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>333</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>317</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>326</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>270</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>475</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>288</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>322</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>308</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>252</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>321</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>307</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>473</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>355</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>345</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>290</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>289</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>149</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>33</v>
-      </c>
       <c r="BJ3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="BK3" t="s">
         <v>23</v>
       </c>
       <c r="BL3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="BM3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="BN3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="BO3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="BP3" t="s">
-        <v>474</v>
+        <v>115</v>
       </c>
       <c r="BQ3" t="s">
         <v>116</v>
       </c>
       <c r="BR3" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="BS3" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="BT3" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="BU3" t="s">
-        <v>139</v>
+        <v>368</v>
       </c>
       <c r="BV3" t="s">
-        <v>370</v>
+        <v>48</v>
       </c>
       <c r="BW3" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="BX3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="BY3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="BZ3" t="s">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="CA3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="CB3" t="s">
-        <v>335</v>
+        <v>474</v>
       </c>
       <c r="CC3" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="CD3" t="s">
-        <v>468</v>
+        <v>374</v>
       </c>
       <c r="CE3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="CF3" t="s">
-        <v>377</v>
+        <v>178</v>
       </c>
       <c r="CG3" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="CH3" t="s">
-        <v>77</v>
+        <v>462</v>
       </c>
       <c r="CI3" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
       <c r="CJ3" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="CK3" t="s">
-        <v>45</v>
+        <v>373</v>
       </c>
       <c r="CL3" t="s">
-        <v>375</v>
+        <v>477</v>
       </c>
       <c r="CM3" t="s">
+        <v>105</v>
+      </c>
+      <c r="CN3" t="s">
         <v>106</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>107</v>
       </c>
       <c r="CO3" t="s">
         <v>24</v>
       </c>
       <c r="CP3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="CQ3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="CR3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="CS3" t="s">
         <v>15</v>
@@ -3466,439 +3463,439 @@
         <v>14</v>
       </c>
       <c r="CU3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="CV3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="CW3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="CX3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>205</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>206</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>47</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>339</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>204</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>310</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>307</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>308</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>310</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>316</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>118</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>159</v>
+      </c>
+      <c r="DK3" t="s">
         <v>82</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>207</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>208</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>48</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>341</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>206</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>312</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>309</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>310</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>312</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>318</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>119</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>161</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>83</v>
       </c>
       <c r="DL3" t="s">
         <v>17</v>
       </c>
       <c r="DM3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="DN3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="DO3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="DP3" t="s">
         <v>3</v>
       </c>
       <c r="DQ3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="DR3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="DS3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="DT3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="DU3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="DV3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="DW3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="DX3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="DY3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="DZ3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="EA3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="EB3" t="s">
         <v>12</v>
       </c>
       <c r="EC3" t="s">
+        <v>65</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>282</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>109</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>95</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>51</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>108</v>
+      </c>
+      <c r="EI3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="EJ3" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="EK3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>121</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>134</v>
+      </c>
+      <c r="EN3" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>312</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>281</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>285</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>349</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>323</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>179</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>317</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>64</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>90</v>
+      </c>
+      <c r="EX3" t="s">
         <v>66</v>
       </c>
-      <c r="ED3" t="s">
-        <v>284</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>110</v>
-      </c>
-      <c r="EF3" t="s">
-        <v>96</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>52</v>
-      </c>
-      <c r="EH3" t="s">
-        <v>109</v>
-      </c>
-      <c r="EI3" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="EJ3" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="EK3" s="5" t="s">
+      <c r="EY3" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="EZ3" t="s">
+        <v>54</v>
+      </c>
+      <c r="FA3" t="s">
+        <v>123</v>
+      </c>
+      <c r="FB3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="FC3" t="s">
+        <v>58</v>
+      </c>
+      <c r="FD3" t="s">
+        <v>57</v>
+      </c>
+      <c r="FE3" t="s">
+        <v>78</v>
+      </c>
+      <c r="FF3" t="s">
+        <v>262</v>
+      </c>
+      <c r="FG3" t="s">
+        <v>267</v>
+      </c>
+      <c r="FH3" t="s">
+        <v>266</v>
+      </c>
+      <c r="FI3" t="s">
+        <v>263</v>
+      </c>
+      <c r="FJ3" t="s">
+        <v>165</v>
+      </c>
+      <c r="FK3" t="s">
+        <v>279</v>
+      </c>
+      <c r="FL3" t="s">
+        <v>347</v>
+      </c>
+      <c r="FM3" t="s">
+        <v>254</v>
+      </c>
+      <c r="FN3" t="s">
+        <v>277</v>
+      </c>
+      <c r="FO3" t="s">
         <v>39</v>
       </c>
-      <c r="EL3" t="s">
-        <v>122</v>
-      </c>
-      <c r="EM3" t="s">
-        <v>135</v>
-      </c>
-      <c r="EN3" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="EO3" t="s">
-        <v>314</v>
-      </c>
-      <c r="EP3" t="s">
-        <v>283</v>
-      </c>
-      <c r="EQ3" t="s">
-        <v>287</v>
-      </c>
-      <c r="ER3" t="s">
-        <v>351</v>
-      </c>
-      <c r="ES3" t="s">
-        <v>325</v>
-      </c>
-      <c r="ET3" t="s">
-        <v>181</v>
-      </c>
-      <c r="EU3" t="s">
-        <v>319</v>
-      </c>
-      <c r="EV3" t="s">
-        <v>65</v>
-      </c>
-      <c r="EW3" t="s">
-        <v>91</v>
-      </c>
-      <c r="EX3" t="s">
-        <v>67</v>
-      </c>
-      <c r="EY3" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="EZ3" t="s">
-        <v>55</v>
-      </c>
-      <c r="FA3" t="s">
-        <v>124</v>
-      </c>
-      <c r="FB3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="FC3" t="s">
-        <v>59</v>
-      </c>
-      <c r="FD3" t="s">
-        <v>58</v>
-      </c>
-      <c r="FE3" t="s">
-        <v>79</v>
-      </c>
-      <c r="FF3" t="s">
-        <v>264</v>
-      </c>
-      <c r="FG3" t="s">
-        <v>269</v>
-      </c>
-      <c r="FH3" t="s">
-        <v>268</v>
-      </c>
-      <c r="FI3" t="s">
-        <v>265</v>
-      </c>
-      <c r="FJ3" t="s">
-        <v>167</v>
-      </c>
-      <c r="FK3" t="s">
-        <v>281</v>
-      </c>
-      <c r="FL3" t="s">
-        <v>349</v>
-      </c>
-      <c r="FM3" t="s">
-        <v>256</v>
-      </c>
-      <c r="FN3" t="s">
-        <v>279</v>
-      </c>
-      <c r="FO3" t="s">
-        <v>40</v>
-      </c>
       <c r="FP3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="FQ3" t="s">
         <v>6</v>
       </c>
       <c r="FR3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="FS3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="FT3" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="FU3" t="s">
+        <v>253</v>
+      </c>
+      <c r="FV3" t="s">
+        <v>270</v>
+      </c>
+      <c r="FW3" t="s">
+        <v>292</v>
+      </c>
+      <c r="FX3" t="s">
+        <v>272</v>
+      </c>
+      <c r="FY3" t="s">
+        <v>346</v>
+      </c>
+      <c r="FZ3" t="s">
+        <v>273</v>
+      </c>
+      <c r="GA3" t="s">
+        <v>335</v>
+      </c>
+      <c r="GB3" t="s">
+        <v>276</v>
+      </c>
+      <c r="GC3" t="s">
+        <v>283</v>
+      </c>
+      <c r="GD3" t="s">
+        <v>296</v>
+      </c>
+      <c r="GE3" t="s">
+        <v>294</v>
+      </c>
+      <c r="GF3" t="s">
+        <v>215</v>
+      </c>
+      <c r="GG3" t="s">
+        <v>71</v>
+      </c>
+      <c r="GH3" t="s">
+        <v>325</v>
+      </c>
+      <c r="GI3" t="s">
+        <v>326</v>
+      </c>
+      <c r="GJ3" t="s">
+        <v>252</v>
+      </c>
+      <c r="GK3" t="s">
+        <v>354</v>
+      </c>
+      <c r="GL3" t="s">
+        <v>94</v>
+      </c>
+      <c r="GM3" t="s">
+        <v>201</v>
+      </c>
+      <c r="GN3" t="s">
+        <v>210</v>
+      </c>
+      <c r="GO3" t="s">
+        <v>91</v>
+      </c>
+      <c r="GP3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="GQ3" t="s">
+        <v>86</v>
+      </c>
+      <c r="GR3" t="s">
+        <v>297</v>
+      </c>
+      <c r="GS3" t="s">
+        <v>298</v>
+      </c>
+      <c r="GT3" t="s">
+        <v>127</v>
+      </c>
+      <c r="GU3" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="GV3" t="s">
+        <v>62</v>
+      </c>
+      <c r="GW3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="GX3" t="s">
+        <v>74</v>
+      </c>
+      <c r="GY3" t="s">
+        <v>186</v>
+      </c>
+      <c r="GZ3" t="s">
+        <v>41</v>
+      </c>
+      <c r="HA3" t="s">
+        <v>92</v>
+      </c>
+      <c r="HB3" t="s">
+        <v>84</v>
+      </c>
+      <c r="HC3" t="s">
+        <v>290</v>
+      </c>
+      <c r="HD3" t="s">
+        <v>172</v>
+      </c>
+      <c r="HE3" t="s">
         <v>255</v>
       </c>
-      <c r="FV3" t="s">
-        <v>272</v>
-      </c>
-      <c r="FW3" t="s">
-        <v>294</v>
-      </c>
-      <c r="FX3" t="s">
-        <v>274</v>
-      </c>
-      <c r="FY3" t="s">
-        <v>348</v>
-      </c>
-      <c r="FZ3" t="s">
-        <v>275</v>
-      </c>
-      <c r="GA3" t="s">
-        <v>337</v>
-      </c>
-      <c r="GB3" t="s">
-        <v>278</v>
-      </c>
-      <c r="GC3" t="s">
-        <v>285</v>
-      </c>
-      <c r="GD3" t="s">
-        <v>298</v>
-      </c>
-      <c r="GE3" t="s">
-        <v>296</v>
-      </c>
-      <c r="GF3" t="s">
-        <v>217</v>
-      </c>
-      <c r="GG3" t="s">
+      <c r="HF3" t="s">
+        <v>259</v>
+      </c>
+      <c r="HG3" t="s">
+        <v>60</v>
+      </c>
+      <c r="HH3" t="s">
+        <v>331</v>
+      </c>
+      <c r="HI3" t="s">
+        <v>311</v>
+      </c>
+      <c r="HJ3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="HK3" t="s">
         <v>72</v>
       </c>
-      <c r="GH3" t="s">
-        <v>327</v>
-      </c>
-      <c r="GI3" t="s">
-        <v>328</v>
-      </c>
-      <c r="GJ3" t="s">
-        <v>254</v>
-      </c>
-      <c r="GK3" t="s">
-        <v>356</v>
-      </c>
-      <c r="GL3" t="s">
-        <v>95</v>
-      </c>
-      <c r="GM3" t="s">
-        <v>203</v>
-      </c>
-      <c r="GN3" t="s">
-        <v>212</v>
-      </c>
-      <c r="GO3" t="s">
-        <v>92</v>
-      </c>
-      <c r="GP3" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="GQ3" t="s">
-        <v>87</v>
-      </c>
-      <c r="GR3" t="s">
-        <v>299</v>
-      </c>
-      <c r="GS3" t="s">
-        <v>300</v>
-      </c>
-      <c r="GT3" t="s">
-        <v>128</v>
-      </c>
-      <c r="GU3" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="GV3" t="s">
-        <v>63</v>
-      </c>
-      <c r="GW3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="GX3" t="s">
-        <v>75</v>
-      </c>
-      <c r="GY3" t="s">
-        <v>188</v>
-      </c>
-      <c r="GZ3" t="s">
-        <v>42</v>
-      </c>
-      <c r="HA3" t="s">
-        <v>93</v>
-      </c>
-      <c r="HB3" t="s">
-        <v>85</v>
-      </c>
-      <c r="HC3" t="s">
-        <v>292</v>
-      </c>
-      <c r="HD3" t="s">
-        <v>174</v>
-      </c>
-      <c r="HE3" t="s">
-        <v>257</v>
-      </c>
-      <c r="HF3" t="s">
-        <v>261</v>
-      </c>
-      <c r="HG3" t="s">
-        <v>61</v>
-      </c>
-      <c r="HH3" t="s">
-        <v>333</v>
-      </c>
-      <c r="HI3" t="s">
-        <v>313</v>
-      </c>
-      <c r="HJ3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="HK3" t="s">
-        <v>73</v>
-      </c>
       <c r="HL3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="HM3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="HN3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="HO3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="HP3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="HQ3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="HR3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="HS3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="HT3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="HU3" t="s">
         <v>7</v>
       </c>
       <c r="HV3" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="HW3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="HX3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="HY3" t="s">
+        <v>196</v>
+      </c>
+      <c r="HZ3" t="s">
+        <v>107</v>
+      </c>
+      <c r="IA3" t="s">
+        <v>89</v>
+      </c>
+      <c r="IB3" t="s">
+        <v>80</v>
+      </c>
+      <c r="IC3" t="s">
+        <v>69</v>
+      </c>
+      <c r="ID3" t="s">
         <v>198</v>
       </c>
-      <c r="HZ3" t="s">
-        <v>108</v>
-      </c>
-      <c r="IA3" t="s">
-        <v>90</v>
-      </c>
-      <c r="IB3" t="s">
-        <v>81</v>
-      </c>
-      <c r="IC3" t="s">
-        <v>70</v>
-      </c>
-      <c r="ID3" t="s">
-        <v>200</v>
-      </c>
       <c r="IE3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="IF3" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="IG3" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="IH3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="II3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="IJ3" s="5" t="s">
         <v>8</v>
@@ -3907,207 +3904,207 @@
         <v>10</v>
       </c>
       <c r="IL3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="IM3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="IN3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="IO3" t="s">
         <v>9</v>
       </c>
       <c r="IP3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="IQ3" t="s">
+        <v>291</v>
+      </c>
+      <c r="IR3" t="s">
+        <v>289</v>
+      </c>
+      <c r="IS3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="IT3" t="s">
+        <v>169</v>
+      </c>
+      <c r="IU3" t="s">
+        <v>314</v>
+      </c>
+      <c r="IV3" t="s">
+        <v>184</v>
+      </c>
+      <c r="IW3" t="s">
+        <v>87</v>
+      </c>
+      <c r="IX3" t="s">
+        <v>67</v>
+      </c>
+      <c r="IY3" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="IZ3" t="s">
+        <v>128</v>
+      </c>
+      <c r="JA3" t="s">
+        <v>142</v>
+      </c>
+      <c r="JB3" t="s">
+        <v>336</v>
+      </c>
+      <c r="JC3" t="s">
+        <v>278</v>
+      </c>
+      <c r="JD3" t="s">
+        <v>295</v>
+      </c>
+      <c r="JE3" t="s">
+        <v>256</v>
+      </c>
+      <c r="JF3" t="s">
         <v>293</v>
       </c>
-      <c r="IR3" t="s">
-        <v>291</v>
-      </c>
-      <c r="IS3" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="IT3" t="s">
-        <v>171</v>
-      </c>
-      <c r="IU3" t="s">
-        <v>316</v>
-      </c>
-      <c r="IV3" t="s">
-        <v>186</v>
-      </c>
-      <c r="IW3" t="s">
-        <v>88</v>
-      </c>
-      <c r="IX3" t="s">
-        <v>68</v>
-      </c>
-      <c r="IY3" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="IZ3" t="s">
-        <v>129</v>
-      </c>
-      <c r="JA3" t="s">
-        <v>143</v>
-      </c>
-      <c r="JB3" t="s">
+      <c r="JG3" t="s">
         <v>338</v>
       </c>
-      <c r="JC3" t="s">
-        <v>280</v>
-      </c>
-      <c r="JD3" t="s">
-        <v>297</v>
-      </c>
-      <c r="JE3" t="s">
+      <c r="JH3" t="s">
+        <v>257</v>
+      </c>
+      <c r="JI3" t="s">
         <v>258</v>
-      </c>
-      <c r="JF3" t="s">
-        <v>295</v>
-      </c>
-      <c r="JG3" t="s">
-        <v>340</v>
-      </c>
-      <c r="JH3" t="s">
-        <v>259</v>
-      </c>
-      <c r="JI3" t="s">
-        <v>260</v>
       </c>
       <c r="JJ3" t="s">
         <v>4</v>
       </c>
       <c r="JK3" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="JL3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="JM3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="JN3" t="s">
         <v>16</v>
       </c>
       <c r="JO3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="JP3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="JQ3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="JR3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="JS3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="JT3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="JU3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="JV3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="JW3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="JX3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="JY3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="JZ3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="KA3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="KB3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="KC3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="KD3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="KE3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="KF3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="KG3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="KH3" t="s">
         <v>11</v>
       </c>
       <c r="KI3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="KJ3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="KK3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="KL3" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="KM3" t="s">
         <v>5</v>
       </c>
       <c r="KN3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="KO3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="KP3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="KQ3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="KR3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="KS3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="KT3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4191,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -4302,10 +4299,10 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU4">
         <v>0</v>
@@ -5012,23 +5009,23 @@
     </row>
     <row r="5" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" t="s">
         <v>176</v>
       </c>
-      <c r="F5" t="s">
-        <v>178</v>
-      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -5111,13 +5108,13 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -5222,10 +5219,10 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU5">
         <v>0</v>
@@ -5932,22 +5929,22 @@
     </row>
     <row r="6" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -6852,22 +6849,22 @@
     </row>
     <row r="7" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -7772,22 +7769,22 @@
     </row>
     <row r="8" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7892,13 +7889,13 @@
         <v>0</v>
       </c>
       <c r="AO8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8">
         <v>0</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -8033,10 +8030,10 @@
         <v>0</v>
       </c>
       <c r="CJ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL8">
         <v>0</v>
@@ -8692,22 +8689,22 @@
     </row>
     <row r="9" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D9">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -8944,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="CG9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI9">
         <v>0</v>
@@ -9612,22 +9609,22 @@
     </row>
     <row r="10" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D10">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -9864,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="CG10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI10">
         <v>0</v>
@@ -10532,13 +10529,13 @@
     </row>
     <row r="11" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -10547,7 +10544,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -10604,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -10784,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="CG11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI11">
         <v>0</v>
@@ -11452,13 +11449,13 @@
     </row>
     <row r="12" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D12">
         <v>9</v>
@@ -11467,7 +11464,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -11524,13 +11521,13 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -11704,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="CG12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI12">
         <v>0</v>
@@ -12372,22 +12369,22 @@
     </row>
     <row r="13" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B13" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -12486,13 +12483,13 @@
         <v>0</v>
       </c>
       <c r="AM13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13">
         <v>0</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13">
         <v>0</v>
@@ -13292,22 +13289,22 @@
     </row>
     <row r="14" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D14">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -13406,13 +13403,13 @@
         <v>0</v>
       </c>
       <c r="AM14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN14">
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14">
         <v>0</v>
@@ -14212,22 +14209,22 @@
     </row>
     <row r="15" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C15" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -14296,13 +14293,13 @@
         <v>0</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15">
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -15132,22 +15129,22 @@
     </row>
     <row r="16" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B16" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C16" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -15204,13 +15201,13 @@
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16">
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -15219,13 +15216,13 @@
         <v>0</v>
       </c>
       <c r="AD16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16">
         <v>0</v>
@@ -16052,22 +16049,22 @@
     </row>
     <row r="17" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B17" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -16124,13 +16121,13 @@
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -16139,13 +16136,13 @@
         <v>0</v>
       </c>
       <c r="AD17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17">
         <v>0</v>
@@ -16972,13 +16969,13 @@
     </row>
     <row r="18" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -16987,7 +16984,7 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -17044,13 +17041,13 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -17892,22 +17889,22 @@
     </row>
     <row r="19" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B19" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C19" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F19" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -18006,13 +18003,13 @@
         <v>0</v>
       </c>
       <c r="AM19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN19">
         <v>0</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP19">
         <v>0</v>
@@ -18144,10 +18141,10 @@
         <v>0</v>
       </c>
       <c r="CG19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI19">
         <v>0</v>
@@ -18812,22 +18809,22 @@
     </row>
     <row r="20" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B20" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C20" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -18926,13 +18923,13 @@
         <v>0</v>
       </c>
       <c r="AM20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN20">
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20">
         <v>0</v>
@@ -19064,10 +19061,10 @@
         <v>0</v>
       </c>
       <c r="CG20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI20">
         <v>0</v>
@@ -19732,22 +19729,22 @@
     </row>
     <row r="21" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B21" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F21" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -19846,13 +19843,13 @@
         <v>0</v>
       </c>
       <c r="AM21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN21">
         <v>0</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP21">
         <v>0</v>
@@ -19984,10 +19981,10 @@
         <v>0</v>
       </c>
       <c r="CG21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI21">
         <v>0</v>
@@ -20652,22 +20649,22 @@
     </row>
     <row r="22" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B22" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C22" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -20766,13 +20763,13 @@
         <v>0</v>
       </c>
       <c r="AM22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN22">
         <v>0</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP22">
         <v>0</v>
@@ -21572,22 +21569,22 @@
     </row>
     <row r="23" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C23" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -21605,16 +21602,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -21686,13 +21683,13 @@
         <v>0</v>
       </c>
       <c r="AM23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN23">
         <v>0</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP23">
         <v>0</v>
@@ -21707,7 +21704,7 @@
         <v>0</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -21734,7 +21731,7 @@
         <v>0</v>
       </c>
       <c r="BC23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD23">
         <v>0</v>
@@ -21773,7 +21770,7 @@
         <v>0</v>
       </c>
       <c r="BP23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ23">
         <v>0</v>
@@ -21809,10 +21806,10 @@
         <v>0</v>
       </c>
       <c r="CB23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD23">
         <v>0</v>
@@ -21824,10 +21821,10 @@
         <v>0</v>
       </c>
       <c r="CG23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI23">
         <v>0</v>
@@ -22493,22 +22490,22 @@
     </row>
     <row r="24" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B24" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C24" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D24">
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -22565,13 +22562,13 @@
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24">
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -22742,10 +22739,10 @@
         <v>0</v>
       </c>
       <c r="CF24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH24">
         <v>0</v>
@@ -23414,22 +23411,22 @@
     </row>
     <row r="25" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B25" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C25" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D25">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -23447,16 +23444,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -23549,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -23576,7 +23573,7 @@
         <v>0</v>
       </c>
       <c r="BC25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD25">
         <v>0</v>
@@ -23615,7 +23612,7 @@
         <v>0</v>
       </c>
       <c r="BP25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ25">
         <v>0</v>
@@ -23651,28 +23648,28 @@
         <v>0</v>
       </c>
       <c r="CB25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC25">
         <v>1</v>
       </c>
       <c r="CD25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE25">
         <v>0</v>
       </c>
       <c r="CF25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ25">
         <v>0</v>
@@ -24334,22 +24331,22 @@
     </row>
     <row r="26" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B26" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C26" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D26">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -24406,13 +24403,13 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26">
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -24589,10 +24586,10 @@
         <v>0</v>
       </c>
       <c r="CH26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ26">
         <v>0</v>
@@ -25254,22 +25251,22 @@
     </row>
     <row r="27" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B27" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C27" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -25278,7 +25275,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -25287,16 +25284,16 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>1</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -25320,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27">
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -25389,7 +25386,7 @@
         <v>0</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -25416,7 +25413,7 @@
         <v>0</v>
       </c>
       <c r="BC27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD27">
         <v>0</v>
@@ -25455,7 +25452,7 @@
         <v>0</v>
       </c>
       <c r="BP27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ27">
         <v>0</v>
@@ -25476,10 +25473,10 @@
         <v>0</v>
       </c>
       <c r="BW27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY27">
         <v>0</v>
@@ -25491,10 +25488,10 @@
         <v>0</v>
       </c>
       <c r="CB27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD27">
         <v>0</v>
@@ -25521,7 +25518,7 @@
         <v>0</v>
       </c>
       <c r="CL27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM27">
         <v>0</v>
@@ -26174,22 +26171,22 @@
     </row>
     <row r="28" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B28" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C28" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -26276,13 +26273,13 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ28">
         <v>0</v>
       </c>
       <c r="AK28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28">
         <v>0</v>
@@ -26294,13 +26291,13 @@
         <v>0</v>
       </c>
       <c r="AO28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP28">
         <v>0</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -27094,19 +27091,19 @@
     </row>
     <row r="29" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B29" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C29" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F29" t="s">
         <v>26</v>
@@ -27127,16 +27124,16 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -27157,13 +27154,13 @@
         <v>0</v>
       </c>
       <c r="V29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -27172,13 +27169,13 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29">
         <v>0</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -27196,13 +27193,13 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ29">
         <v>0</v>
       </c>
       <c r="AK29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29">
         <v>0</v>
@@ -27229,7 +27226,7 @@
         <v>0</v>
       </c>
       <c r="AT29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -27256,7 +27253,7 @@
         <v>0</v>
       </c>
       <c r="BC29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD29">
         <v>0</v>
@@ -27295,7 +27292,7 @@
         <v>0</v>
       </c>
       <c r="BP29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ29">
         <v>0</v>
@@ -27331,10 +27328,10 @@
         <v>0</v>
       </c>
       <c r="CB29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD29">
         <v>0</v>
@@ -27352,10 +27349,10 @@
         <v>0</v>
       </c>
       <c r="CI29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK29">
         <v>0</v>
@@ -28014,22 +28011,22 @@
     </row>
     <row r="30" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B30" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -28071,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30">
         <v>0</v>
@@ -28086,13 +28083,13 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30">
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -28122,13 +28119,13 @@
         <v>0</v>
       </c>
       <c r="AK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>0</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN30">
         <v>0</v>
@@ -28269,10 +28266,10 @@
         <v>0</v>
       </c>
       <c r="CH30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ30">
         <v>0</v>
@@ -28934,13 +28931,13 @@
     </row>
     <row r="31" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B31" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C31" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -28967,16 +28964,16 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -29009,13 +29006,13 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31">
         <v>0</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -29069,7 +29066,7 @@
         <v>0</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -29096,7 +29093,7 @@
         <v>0</v>
       </c>
       <c r="BC31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD31">
         <v>0</v>
@@ -29135,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="BP31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ31">
         <v>0</v>
@@ -29171,10 +29168,10 @@
         <v>0</v>
       </c>
       <c r="CB31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD31">
         <v>0</v>
@@ -29854,13 +29851,13 @@
     </row>
     <row r="32" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B32" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D32">
         <v>5</v>
@@ -29890,13 +29887,13 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -29965,13 +29962,13 @@
         <v>0</v>
       </c>
       <c r="AL32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32">
         <v>0</v>
       </c>
       <c r="AN32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO32">
         <v>0</v>
@@ -29989,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="AT32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -30004,10 +30001,10 @@
         <v>0</v>
       </c>
       <c r="AY32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA32">
         <v>0</v>
@@ -30016,7 +30013,7 @@
         <v>0</v>
       </c>
       <c r="BC32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD32">
         <v>0</v>
@@ -30055,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="BP32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ32">
         <v>0</v>
@@ -30091,10 +30088,10 @@
         <v>0</v>
       </c>
       <c r="CB32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD32">
         <v>0</v>
@@ -30774,22 +30771,22 @@
     </row>
     <row r="33" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B33" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C33" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D33">
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -30858,13 +30855,13 @@
         <v>0</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD33">
         <v>0</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -30987,10 +30984,10 @@
         <v>0</v>
       </c>
       <c r="BT33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV33">
         <v>0</v>
@@ -31694,22 +31691,22 @@
     </row>
     <row r="34" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B34" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C34" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D34">
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -31895,13 +31892,13 @@
         <v>0</v>
       </c>
       <c r="BP34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ34">
         <v>1</v>
       </c>
       <c r="BR34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS34">
         <v>0</v>
@@ -32614,22 +32611,22 @@
     </row>
     <row r="35" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B35" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C35" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D35">
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -33534,20 +33531,20 @@
     </row>
     <row r="36" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B36" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C36" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E36" t="s">
+        <v>327</v>
+      </c>
+      <c r="F36" t="s">
         <v>329</v>
       </c>
-      <c r="F36" t="s">
-        <v>331</v>
-      </c>
       <c r="G36">
         <v>0</v>
       </c>
@@ -33651,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="AO36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS36">
         <v>0</v>
@@ -33762,13 +33759,13 @@
         <v>0</v>
       </c>
       <c r="BZ36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA36">
         <v>1</v>
       </c>
       <c r="CB36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC36">
         <v>0</v>
@@ -34451,19 +34448,19 @@
     </row>
     <row r="37" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B37" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C37" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E37" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F37" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -34520,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB37">
         <v>0</v>
@@ -34568,13 +34565,13 @@
         <v>0</v>
       </c>
       <c r="AO37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP37">
         <v>0</v>
       </c>
       <c r="AQ37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -34592,10 +34589,10 @@
         <v>0</v>
       </c>
       <c r="AW37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY37">
         <v>0</v>
@@ -34607,10 +34604,10 @@
         <v>0</v>
       </c>
       <c r="BB37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD37">
         <v>0</v>
@@ -34700,10 +34697,10 @@
         <v>0</v>
       </c>
       <c r="CG37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI37">
         <v>0</v>
@@ -35368,20 +35365,20 @@
     </row>
     <row r="38" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B38" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C38" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E38" t="s">
+        <v>328</v>
+      </c>
+      <c r="F38" t="s">
         <v>330</v>
       </c>
-      <c r="F38" t="s">
-        <v>332</v>
-      </c>
       <c r="G38">
         <v>0</v>
       </c>
@@ -35410,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -35446,13 +35443,13 @@
         <v>0</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38">
         <v>0</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE38">
         <v>0</v>
@@ -35470,13 +35467,13 @@
         <v>0</v>
       </c>
       <c r="AJ38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38">
         <v>0</v>
       </c>
       <c r="AL38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM38">
         <v>0</v>
@@ -36285,19 +36282,19 @@
     </row>
     <row r="39" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B39" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C39" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E39" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F39" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -36378,13 +36375,13 @@
         <v>0</v>
       </c>
       <c r="AG39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH39">
         <v>0</v>
       </c>
       <c r="AI39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ39">
         <v>0</v>
@@ -36435,10 +36432,10 @@
         <v>0</v>
       </c>
       <c r="AZ39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB39">
         <v>0</v>
@@ -36504,10 +36501,10 @@
         <v>0</v>
       </c>
       <c r="BW39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY39">
         <v>0</v>
@@ -37202,19 +37199,19 @@
     </row>
     <row r="40" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B40" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C40" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E40" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -37223,7 +37220,7 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -37235,31 +37232,31 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
       <c r="S40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40">
         <v>0</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -37295,13 +37292,13 @@
         <v>0</v>
       </c>
       <c r="AG40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH40">
         <v>0</v>
       </c>
       <c r="AI40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ40">
         <v>0</v>
@@ -37331,13 +37328,13 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT40">
         <v>0</v>
       </c>
       <c r="AU40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV40">
         <v>0</v>
@@ -37352,10 +37349,10 @@
         <v>0</v>
       </c>
       <c r="AZ40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB40">
         <v>0</v>
@@ -38119,19 +38116,19 @@
     </row>
     <row r="41" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B41" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C41" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E41" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F41" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -38140,7 +38137,7 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -38152,7 +38149,7 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -38212,13 +38209,13 @@
         <v>0</v>
       </c>
       <c r="AG41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH41">
         <v>0</v>
       </c>
       <c r="AI41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ41">
         <v>0</v>
@@ -38248,7 +38245,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT41">
         <v>0</v>
@@ -38257,7 +38254,7 @@
         <v>1</v>
       </c>
       <c r="AV41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW41">
         <v>0</v>
@@ -38269,10 +38266,10 @@
         <v>0</v>
       </c>
       <c r="AZ41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB41">
         <v>0</v>
@@ -38338,10 +38335,10 @@
         <v>0</v>
       </c>
       <c r="BW41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY41">
         <v>0</v>
@@ -39036,19 +39033,19 @@
     </row>
     <row r="42" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B42" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C42" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E42" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F42" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -39129,13 +39126,13 @@
         <v>0</v>
       </c>
       <c r="AG42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH42">
         <v>0</v>
       </c>
       <c r="AI42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ42">
         <v>0</v>
@@ -39165,13 +39162,13 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT42">
         <v>0</v>
       </c>
       <c r="AU42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV42">
         <v>0</v>
@@ -39186,10 +39183,10 @@
         <v>0</v>
       </c>
       <c r="AZ42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB42">
         <v>0</v>
@@ -39255,10 +39252,10 @@
         <v>0</v>
       </c>
       <c r="BW42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY42">
         <v>0</v>
@@ -39953,19 +39950,19 @@
     </row>
     <row r="43" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C43" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E43" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F43" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -39998,16 +39995,16 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -40040,13 +40037,13 @@
         <v>0</v>
       </c>
       <c r="AE43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
       </c>
       <c r="AG43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH43">
         <v>0</v>
@@ -40166,10 +40163,10 @@
         <v>0</v>
       </c>
       <c r="BU43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW43">
         <v>0</v>
@@ -40870,19 +40867,19 @@
     </row>
     <row r="44" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C44" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E44" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F44" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -40915,16 +40912,16 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44">
         <v>0</v>
@@ -40999,13 +40996,13 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44">
         <v>0</v>
       </c>
       <c r="AU44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV44">
         <v>0</v>
@@ -41083,10 +41080,10 @@
         <v>0</v>
       </c>
       <c r="BU44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW44">
         <v>0</v>
@@ -41787,19 +41784,19 @@
     </row>
     <row r="45" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B45" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C45" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E45" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F45" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -41832,16 +41829,16 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45">
         <v>0</v>
@@ -42000,10 +41997,10 @@
         <v>0</v>
       </c>
       <c r="BU45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW45">
         <v>0</v>
@@ -42704,19 +42701,19 @@
     </row>
     <row r="46" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C46" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E46" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F46" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -42749,16 +42746,16 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -42917,10 +42914,10 @@
         <v>0</v>
       </c>
       <c r="BU46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW46">
         <v>0</v>
@@ -43621,19 +43618,19 @@
     </row>
     <row r="47" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B47" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C47" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E47" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -43666,16 +43663,16 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47">
         <v>0</v>
@@ -43834,10 +43831,10 @@
         <v>0</v>
       </c>
       <c r="BU47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW47">
         <v>0</v>
@@ -43882,10 +43879,10 @@
         <v>0</v>
       </c>
       <c r="CK47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM47">
         <v>0</v>
@@ -44538,19 +44535,19 @@
     </row>
     <row r="48" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C48" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F48" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -44583,16 +44580,16 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -44751,10 +44748,10 @@
         <v>0</v>
       </c>
       <c r="BU48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW48">
         <v>0</v>
@@ -44778,13 +44775,13 @@
         <v>0</v>
       </c>
       <c r="CD48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE48">
         <v>1</v>
       </c>
       <c r="CF48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG48">
         <v>0</v>
@@ -45455,22 +45452,22 @@
     </row>
     <row r="49" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B49" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C49" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D49" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -45572,13 +45569,13 @@
         <v>0</v>
       </c>
       <c r="AN49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO49">
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
         <v>0</v>
@@ -45656,10 +45653,10 @@
         <v>0</v>
       </c>
       <c r="BP49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR49">
         <v>0</v>
@@ -46375,22 +46372,22 @@
     </row>
     <row r="50" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B50" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C50" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D50" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E50" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F50" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -46447,13 +46444,13 @@
         <v>0</v>
       </c>
       <c r="Y50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z50">
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB50">
         <v>0</v>
@@ -46489,13 +46486,13 @@
         <v>0</v>
       </c>
       <c r="AM50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN50">
         <v>0</v>
       </c>
       <c r="AO50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP50">
         <v>0</v>
@@ -47295,22 +47292,22 @@
     </row>
     <row r="51" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B51" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C51" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D51" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E51" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -47367,13 +47364,13 @@
         <v>0</v>
       </c>
       <c r="Y51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z51">
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB51">
         <v>0</v>
@@ -47409,13 +47406,13 @@
         <v>0</v>
       </c>
       <c r="AM51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN51">
         <v>0</v>
       </c>
       <c r="AO51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP51">
         <v>0</v>
@@ -48215,22 +48212,22 @@
     </row>
     <row r="52" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B52" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C52" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D52" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E52" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F52" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -48287,13 +48284,13 @@
         <v>0</v>
       </c>
       <c r="Y52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z52">
         <v>0</v>
       </c>
       <c r="AA52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB52">
         <v>0</v>
@@ -49135,22 +49132,22 @@
     </row>
     <row r="53" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B53" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C53" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D53" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E53" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F53" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -49252,13 +49249,13 @@
         <v>0</v>
       </c>
       <c r="AN53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO53">
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ53">
         <v>0</v>
@@ -49282,10 +49279,10 @@
         <v>0</v>
       </c>
       <c r="AX53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ53">
         <v>0</v>
@@ -49360,13 +49357,13 @@
         <v>0</v>
       </c>
       <c r="BX53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY53">
         <v>1</v>
       </c>
       <c r="BZ53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA53">
         <v>0</v>
@@ -50055,22 +50052,22 @@
     </row>
     <row r="54" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B54" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C54" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D54" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F54" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -50148,13 +50145,13 @@
         <v>0</v>
       </c>
       <c r="AF54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG54">
         <v>0</v>
       </c>
       <c r="AH54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI54">
         <v>0</v>
@@ -50262,10 +50259,10 @@
         <v>0</v>
       </c>
       <c r="BR54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT54">
         <v>0</v>
@@ -50975,22 +50972,22 @@
     </row>
     <row r="55" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C55" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D55" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -51047,13 +51044,13 @@
         <v>0</v>
       </c>
       <c r="Y55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z55">
         <v>0</v>
       </c>
       <c r="AA55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB55">
         <v>0</v>
@@ -51194,10 +51191,10 @@
         <v>0</v>
       </c>
       <c r="BV55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX55">
         <v>0</v>
@@ -51230,10 +51227,10 @@
         <v>0</v>
       </c>
       <c r="CH55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ55">
         <v>0</v>
@@ -51895,22 +51892,22 @@
     </row>
     <row r="56" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B56" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C56" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D56" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E56" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F56" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -51934,13 +51931,13 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56">
         <v>0</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -52815,22 +52812,22 @@
     </row>
     <row r="57" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B57" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C57" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D57" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E57" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F57" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -52944,13 +52941,13 @@
         <v>0</v>
       </c>
       <c r="AR57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS57">
         <v>0</v>
       </c>
       <c r="AT57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU57">
         <v>0</v>
@@ -53735,22 +53732,22 @@
     </row>
     <row r="58" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B58" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C58" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D58" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E58" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F58" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -53807,13 +53804,13 @@
         <v>0</v>
       </c>
       <c r="Y58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z58">
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB58">
         <v>0</v>
@@ -53987,10 +53984,10 @@
         <v>0</v>
       </c>
       <c r="CG58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI58">
         <v>0</v>
@@ -54655,22 +54652,22 @@
     </row>
     <row r="59" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B59" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C59" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D59" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E59" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F59" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -54781,13 +54778,13 @@
         <v>0</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR59">
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT59">
         <v>0</v>
@@ -54799,10 +54796,10 @@
         <v>0</v>
       </c>
       <c r="AW59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY59">
         <v>0</v>
@@ -54814,10 +54811,10 @@
         <v>0</v>
       </c>
       <c r="BB59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD59">
         <v>0</v>
@@ -55575,22 +55572,22 @@
     </row>
     <row r="60" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B60" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C60" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D60" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E60" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F60" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -55647,13 +55644,13 @@
         <v>0</v>
       </c>
       <c r="Y60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60">
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB60">
         <v>0</v>
@@ -55695,7 +55692,7 @@
         <v>0</v>
       </c>
       <c r="AO60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP60">
         <v>0</v>
@@ -55707,7 +55704,7 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT60">
         <v>0</v>
@@ -56495,22 +56492,22 @@
     </row>
     <row r="61" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B61" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C61" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D61" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E61" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F61" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -56555,13 +56552,13 @@
         <v>0</v>
       </c>
       <c r="U61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61">
         <v>0</v>
       </c>
       <c r="W61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X61">
         <v>0</v>
@@ -56636,10 +56633,10 @@
         <v>0</v>
       </c>
       <c r="AV61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX61">
         <v>0</v>
@@ -56651,10 +56648,10 @@
         <v>0</v>
       </c>
       <c r="BA61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC61">
         <v>0</v>
@@ -57423,7 +57420,7 @@
   <mergeCells count="3">
     <mergeCell ref="DQ1:KT1"/>
     <mergeCell ref="CM1:DP1"/>
-    <mergeCell ref="G1:CL1"/>
+    <mergeCell ref="G1:CK1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data-raw/functionsTracker_20230710.xlsx
+++ b/data-raw/functionsTracker_20230710.xlsx
@@ -1082,13 +1082,7 @@
     <t>circles</t>
   </si>
   <si>
-    <t>edgeNames</t>
-  </si>
-  <si>
     <t>ggplotPlot</t>
-  </si>
-  <si>
-    <t>nodeNames</t>
   </si>
   <si>
     <t>ggplotly</t>
@@ -1462,6 +1456,12 @@
   <si>
     <t>xl</t>
   </si>
+  <si>
+    <t>levelNames</t>
+  </si>
+  <si>
+    <t>layerNames</t>
+  </si>
 </sst>
 </file>
 
@@ -1819,10 +1819,10 @@
   <dimension ref="A1:KV61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="AB33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1853,31 +1853,31 @@
     <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.08984375" customWidth="1"/>
-    <col min="32" max="32" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="9.6328125" customWidth="1"/>
-    <col min="36" max="36" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.08984375" customWidth="1"/>
+    <col min="31" max="31" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="9.6328125" customWidth="1"/>
+    <col min="35" max="35" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="6.26953125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="15.36328125" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="7.7265625" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="10" bestFit="1" customWidth="1"/>
@@ -2519,295 +2519,295 @@
       <c r="CK2" s="3"/>
       <c r="CL2" s="3"/>
       <c r="CM2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="CN2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="CO2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="CP2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="CQ2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="CR2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="CS2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="CT2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="CU2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="CV2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="CW2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="CX2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="CY2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="CZ2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="DA2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="DB2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="DC2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="DD2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="DE2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="DF2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="DG2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="DH2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="DI2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="DJ2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="DK2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="DL2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="DM2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="DN2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="DO2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="DP2" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="DQ2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="DR2" s="3" t="s">
         <v>197</v>
       </c>
       <c r="DS2" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="DT2" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="DU2" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="DV2" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="DW2" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="DX2" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="DW2" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="DX2" s="3" t="s">
-        <v>383</v>
-      </c>
       <c r="DY2" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="DZ2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="EA2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="EB2" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="EC2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="ED2" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="EE2" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="EF2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="EG2" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="EH2" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="EI2" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="EJ2" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="EK2" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="EL2" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="EM2" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="EN2" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="EO2" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="EP2" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="EQ2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="ER2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="ES2" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="ET2" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="EU2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="EV2" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="EH2" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="EI2" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="EJ2" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="EK2" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="EL2" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="EM2" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="EN2" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="EO2" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="EP2" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="EQ2" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="ER2" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="ES2" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="ET2" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="EU2" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="EV2" s="4" t="s">
-        <v>405</v>
-      </c>
       <c r="EW2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="EX2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="EY2" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="EZ2" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="FA2" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="FB2" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="FC2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="FD2" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="FE2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="FF2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="FG2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="FH2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="FI2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="FJ2" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="FK2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="FL2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="FM2" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="FG2" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="FH2" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="FI2" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="FJ2" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="FK2" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="FL2" s="3" t="s">
+      <c r="FN2" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="FM2" s="3" t="s">
+      <c r="FO2" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="FP2" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="FQ2" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="FR2" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="FS2" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="FT2" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="FN2" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="FO2" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="FP2" s="3" t="s">
+      <c r="FU2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="FV2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="FW2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="FX2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="FY2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="FZ2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="GA2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="GB2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="GC2" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="FQ2" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="FR2" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="FS2" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="FT2" s="3" t="s">
+      <c r="GD2" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="GE2" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="FU2" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="FV2" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="FW2" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="FX2" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="FY2" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="FZ2" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="GA2" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="GB2" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="GC2" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="GD2" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="GE2" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="GF2" s="3" t="s">
         <v>62</v>
@@ -2816,16 +2816,16 @@
         <v>62</v>
       </c>
       <c r="GH2" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="GI2" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="GJ2" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="GK2" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="GL2" s="3" t="s">
         <v>62</v>
@@ -2840,319 +2840,319 @@
         <v>62</v>
       </c>
       <c r="GP2" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="GQ2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="GR2" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="GS2" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="GT2" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="GU2" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="GV2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="GW2" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="GX2" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="GY2" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="GZ2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="HA2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="HB2" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="HC2" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="HD2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="HE2" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="HF2" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="HG2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="HH2" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="HI2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="HJ2" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="HK2" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="HL2" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="HM2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="HN2" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="HO2" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="HP2" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="HQ2" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="HR2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="HS2" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="HT2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="HU2" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="HV2" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="HW2" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="HX2" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="HY2" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="HZ2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="IA2" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="IB2" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="IC2" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="ID2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="IE2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="IF2" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="IG2" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="IH2" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="II2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="IJ2" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="IK2" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="IL2" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="IM2" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="IN2" s="3" t="s">
         <v>197</v>
       </c>
       <c r="IO2" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="IP2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="IQ2" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="IR2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="IS2" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="IT2" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="IU2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="IV2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="IW2" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="IX2" s="3" t="s">
         <v>197</v>
       </c>
       <c r="IY2" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="IZ2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="JA2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="JB2" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="JC2" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="JD2" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="JE2" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="JF2" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="JG2" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="JH2" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="JI2" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="JJ2" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="JK2" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="JL2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="JM2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="JN2" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="JO2" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="JP2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="JQ2" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="JR2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="JS2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="JT2" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="JU2" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="JV2" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="JW2" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="JX2" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="JY2" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="JZ2" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="JV2" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="JW2" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="JX2" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="JY2" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="JZ2" s="3" t="s">
-        <v>399</v>
-      </c>
       <c r="KA2" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="KB2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="KC2" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="KD2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="KE2" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="KF2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="KG2" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="KH2" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="KI2" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="KJ2" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="KK2" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="KL2" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="KM2" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="KN2" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="KO2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="KP2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="KQ2" s="3" t="s">
         <v>62</v>
@@ -3161,10 +3161,10 @@
         <v>62</v>
       </c>
       <c r="KS2" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="KT2" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:306" x14ac:dyDescent="0.35">
@@ -3172,13 +3172,13 @@
         <v>251</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="M3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="N3" t="s">
+        <v>470</v>
+      </c>
+      <c r="O3" t="s">
         <v>472</v>
-      </c>
-      <c r="O3" t="s">
-        <v>474</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>345</v>
@@ -3223,10 +3223,10 @@
         <v>350</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>269</v>
@@ -3256,46 +3256,46 @@
         <v>22</v>
       </c>
       <c r="AD3" t="s">
+        <v>466</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>365</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK3" t="s">
         <v>351</v>
       </c>
-      <c r="AE3" t="s">
-        <v>468</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>367</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>190</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>251</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>19</v>
-      </c>
       <c r="AL3" t="s">
-        <v>352</v>
+        <v>152</v>
       </c>
       <c r="AM3" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="AN3" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="AO3" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="AP3" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AQ3" t="s">
-        <v>102</v>
+        <v>477</v>
       </c>
       <c r="AR3" t="s">
         <v>331</v>
@@ -3310,31 +3310,31 @@
         <v>268</v>
       </c>
       <c r="AV3" t="s">
+        <v>476</v>
+      </c>
+      <c r="AW3" t="s">
         <v>286</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>320</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>306</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>160</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>34</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>250</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
         <v>319</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BD3" t="s">
         <v>305</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>353</v>
       </c>
       <c r="BE3" t="s">
         <v>343</v>
@@ -3385,7 +3385,7 @@
         <v>138</v>
       </c>
       <c r="BU3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="BV3" t="s">
         <v>48</v>
@@ -3406,16 +3406,16 @@
         <v>333</v>
       </c>
       <c r="CB3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="CC3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="CD3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="CE3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="CF3" t="s">
         <v>178</v>
@@ -3424,7 +3424,7 @@
         <v>76</v>
       </c>
       <c r="CH3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="CI3" t="s">
         <v>21</v>
@@ -3433,10 +3433,10 @@
         <v>44</v>
       </c>
       <c r="CK3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="CL3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="CM3" t="s">
         <v>105</v>
@@ -3454,7 +3454,7 @@
         <v>79</v>
       </c>
       <c r="CR3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="CS3" t="s">
         <v>15</v>
@@ -3586,7 +3586,7 @@
         <v>124</v>
       </c>
       <c r="EJ3" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="EK3" s="5" t="s">
         <v>38</v>
@@ -3745,7 +3745,7 @@
         <v>252</v>
       </c>
       <c r="GK3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="GL3" t="s">
         <v>94</v>
@@ -3832,7 +3832,7 @@
         <v>136</v>
       </c>
       <c r="HN3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="HO3" t="s">
         <v>120</v>
@@ -3844,7 +3844,7 @@
         <v>49</v>
       </c>
       <c r="HR3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="HS3" t="s">
         <v>68</v>
@@ -3856,7 +3856,7 @@
         <v>7</v>
       </c>
       <c r="HV3" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="HW3" s="5" t="s">
         <v>13</v>
@@ -3889,10 +3889,10 @@
         <v>163</v>
       </c>
       <c r="IG3" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="IH3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="II3" t="s">
         <v>99</v>
@@ -3943,7 +3943,7 @@
         <v>67</v>
       </c>
       <c r="IY3" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="IZ3" t="s">
         <v>128</v>
@@ -4012,13 +4012,13 @@
         <v>135</v>
       </c>
       <c r="JV3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="JW3" t="s">
         <v>46</v>
       </c>
       <c r="JX3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="JY3" t="s">
         <v>284</v>
@@ -4092,10 +4092,10 @@
         <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -5012,10 +5012,10 @@
         <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -5111,10 +5111,10 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -5929,13 +5929,13 @@
     </row>
     <row r="6" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -6849,13 +6849,13 @@
     </row>
     <row r="7" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -7769,13 +7769,13 @@
     </row>
     <row r="8" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -7892,10 +7892,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -8689,13 +8689,13 @@
     </row>
     <row r="9" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -9609,13 +9609,13 @@
     </row>
     <row r="10" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -10529,13 +10529,13 @@
     </row>
     <row r="11" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -11449,13 +11449,13 @@
     </row>
     <row r="12" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D12">
         <v>9</v>
@@ -12369,13 +12369,13 @@
     </row>
     <row r="13" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B13" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C13" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -12486,10 +12486,10 @@
         <v>0</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP13">
         <v>0</v>
@@ -13289,13 +13289,13 @@
     </row>
     <row r="14" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D14">
         <v>11</v>
@@ -13406,10 +13406,10 @@
         <v>0</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14">
         <v>0</v>
@@ -14209,13 +14209,13 @@
     </row>
     <row r="15" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B15" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -14224,7 +14224,7 @@
         <v>224</v>
       </c>
       <c r="F15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -14296,10 +14296,10 @@
         <v>0</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -15129,13 +15129,13 @@
     </row>
     <row r="16" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B16" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C16" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -15219,10 +15219,10 @@
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16">
         <v>0</v>
@@ -16049,13 +16049,13 @@
     </row>
     <row r="17" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C17" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -16139,10 +16139,10 @@
         <v>0</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17">
         <v>0</v>
@@ -16969,13 +16969,13 @@
     </row>
     <row r="18" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C18" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -17889,13 +17889,13 @@
     </row>
     <row r="19" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B19" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C19" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -17904,7 +17904,7 @@
         <v>219</v>
       </c>
       <c r="F19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -18006,10 +18006,10 @@
         <v>0</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP19">
         <v>0</v>
@@ -18809,13 +18809,13 @@
     </row>
     <row r="20" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B20" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C20" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -18824,7 +18824,7 @@
         <v>220</v>
       </c>
       <c r="F20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -18926,10 +18926,10 @@
         <v>0</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20">
         <v>0</v>
@@ -19729,13 +19729,13 @@
     </row>
     <row r="21" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B21" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -19744,7 +19744,7 @@
         <v>221</v>
       </c>
       <c r="F21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -19846,10 +19846,10 @@
         <v>0</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP21">
         <v>0</v>
@@ -20649,13 +20649,13 @@
     </row>
     <row r="22" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C22" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -20664,7 +20664,7 @@
         <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -20766,10 +20766,10 @@
         <v>0</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP22">
         <v>0</v>
@@ -21569,13 +21569,13 @@
     </row>
     <row r="23" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C23" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -21686,10 +21686,10 @@
         <v>0</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP23">
         <v>0</v>
@@ -22490,13 +22490,13 @@
     </row>
     <row r="24" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C24" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -23411,22 +23411,22 @@
     </row>
     <row r="25" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B25" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C25" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D25">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F25" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -24331,13 +24331,13 @@
     </row>
     <row r="26" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B26" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C26" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D26">
         <v>8</v>
@@ -24346,7 +24346,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -25251,13 +25251,13 @@
     </row>
     <row r="27" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B27" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C27" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D27">
         <v>9</v>
@@ -26171,13 +26171,13 @@
     </row>
     <row r="28" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B28" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C28" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -26276,10 +26276,10 @@
         <v>0</v>
       </c>
       <c r="AJ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28">
         <v>0</v>
@@ -26294,10 +26294,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -27091,19 +27091,19 @@
     </row>
     <row r="29" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B29" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C29" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F29" t="s">
         <v>26</v>
@@ -27196,10 +27196,10 @@
         <v>0</v>
       </c>
       <c r="AJ29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29">
         <v>0</v>
@@ -28011,19 +28011,19 @@
     </row>
     <row r="30" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C30" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F30" t="s">
         <v>150</v>
@@ -28122,10 +28122,10 @@
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN30">
         <v>0</v>
@@ -28931,13 +28931,13 @@
     </row>
     <row r="31" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B31" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C31" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -29851,13 +29851,13 @@
     </row>
     <row r="32" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C32" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D32">
         <v>5</v>
@@ -29965,10 +29965,10 @@
         <v>0</v>
       </c>
       <c r="AM32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO32">
         <v>0</v>
@@ -30004,10 +30004,10 @@
         <v>0</v>
       </c>
       <c r="AZ32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB32">
         <v>0</v>
@@ -30771,19 +30771,19 @@
     </row>
     <row r="33" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B33" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C33" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D33">
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F33" t="s">
         <v>139</v>
@@ -30858,10 +30858,10 @@
         <v>0</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -31691,13 +31691,13 @@
     </row>
     <row r="34" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B34" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C34" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D34">
         <v>7</v>
@@ -32611,13 +32611,13 @@
     </row>
     <row r="35" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B35" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C35" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D35">
         <v>8</v>
@@ -33531,13 +33531,16 @@
     </row>
     <row r="36" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B36" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C36" t="s">
-        <v>459</v>
+        <v>457</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
       </c>
       <c r="E36" t="s">
         <v>327</v>
@@ -33651,10 +33654,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR36">
         <v>1</v>
@@ -34448,13 +34451,16 @@
     </row>
     <row r="37" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B37" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C37" t="s">
-        <v>459</v>
+        <v>457</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
       </c>
       <c r="E37" t="s">
         <v>299</v>
@@ -34568,10 +34574,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -34592,10 +34598,10 @@
         <v>0</v>
       </c>
       <c r="AX37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ37">
         <v>0</v>
@@ -34607,10 +34613,10 @@
         <v>0</v>
       </c>
       <c r="BC37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE37">
         <v>0</v>
@@ -35365,13 +35371,16 @@
     </row>
     <row r="38" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B38" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C38" t="s">
-        <v>459</v>
+        <v>457</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
       </c>
       <c r="E38" t="s">
         <v>328</v>
@@ -35449,7 +35458,7 @@
         <v>0</v>
       </c>
       <c r="AD38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38">
         <v>0</v>
@@ -35470,10 +35479,10 @@
         <v>0</v>
       </c>
       <c r="AK38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38">
         <v>0</v>
@@ -35488,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="AQ38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>0</v>
@@ -35503,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="AV38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW38">
         <v>0</v>
@@ -35527,7 +35536,7 @@
         <v>0</v>
       </c>
       <c r="BD38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE38">
         <v>0</v>
@@ -36282,13 +36291,13 @@
     </row>
     <row r="39" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B39" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C39" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E39" t="s">
         <v>242</v>
@@ -36378,10 +36387,10 @@
         <v>0</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ39">
         <v>0</v>
@@ -36435,10 +36444,10 @@
         <v>0</v>
       </c>
       <c r="BA39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC39">
         <v>0</v>
@@ -37199,13 +37208,13 @@
     </row>
     <row r="40" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B40" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C40" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E40" t="s">
         <v>243</v>
@@ -37295,10 +37304,10 @@
         <v>0</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ40">
         <v>0</v>
@@ -37352,10 +37361,10 @@
         <v>0</v>
       </c>
       <c r="BA40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC40">
         <v>0</v>
@@ -38116,13 +38125,13 @@
     </row>
     <row r="41" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B41" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C41" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E41" t="s">
         <v>244</v>
@@ -38212,10 +38221,10 @@
         <v>0</v>
       </c>
       <c r="AH41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ41">
         <v>0</v>
@@ -38254,10 +38263,10 @@
         <v>1</v>
       </c>
       <c r="AV41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX41">
         <v>0</v>
@@ -38269,10 +38278,10 @@
         <v>0</v>
       </c>
       <c r="BA41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC41">
         <v>0</v>
@@ -39033,13 +39042,13 @@
     </row>
     <row r="42" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B42" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C42" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E42" t="s">
         <v>245</v>
@@ -39129,10 +39138,10 @@
         <v>0</v>
       </c>
       <c r="AH42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ42">
         <v>0</v>
@@ -39186,10 +39195,10 @@
         <v>0</v>
       </c>
       <c r="BA42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC42">
         <v>0</v>
@@ -39950,13 +39959,13 @@
     </row>
     <row r="43" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C43" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E43" t="s">
         <v>230</v>
@@ -40040,10 +40049,10 @@
         <v>0</v>
       </c>
       <c r="AF43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH43">
         <v>0</v>
@@ -40867,13 +40876,13 @@
     </row>
     <row r="44" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C44" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E44" t="s">
         <v>231</v>
@@ -41784,13 +41793,13 @@
     </row>
     <row r="45" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B45" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C45" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E45" t="s">
         <v>232</v>
@@ -42701,13 +42710,13 @@
     </row>
     <row r="46" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B46" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C46" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E46" t="s">
         <v>233</v>
@@ -43618,13 +43627,13 @@
     </row>
     <row r="47" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C47" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E47" t="s">
         <v>234</v>
@@ -44535,13 +44544,13 @@
     </row>
     <row r="48" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B48" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C48" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E48" t="s">
         <v>235</v>
@@ -45452,16 +45461,16 @@
     </row>
     <row r="49" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B49" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C49" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D49" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E49" t="s">
         <v>118</v>
@@ -45572,10 +45581,10 @@
         <v>0</v>
       </c>
       <c r="AO49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ49">
         <v>0</v>
@@ -46372,16 +46381,16 @@
     </row>
     <row r="50" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B50" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C50" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D50" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E50" t="s">
         <v>205</v>
@@ -46489,10 +46498,10 @@
         <v>0</v>
       </c>
       <c r="AN50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP50">
         <v>0</v>
@@ -47292,16 +47301,16 @@
     </row>
     <row r="51" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B51" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C51" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D51" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E51" t="s">
         <v>206</v>
@@ -47409,10 +47418,10 @@
         <v>0</v>
       </c>
       <c r="AN51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP51">
         <v>0</v>
@@ -48212,16 +48221,16 @@
     </row>
     <row r="52" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B52" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C52" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D52" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E52" t="s">
         <v>204</v>
@@ -49132,16 +49141,16 @@
     </row>
     <row r="53" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B53" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C53" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D53" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E53" t="s">
         <v>217</v>
@@ -49252,10 +49261,10 @@
         <v>0</v>
       </c>
       <c r="AO53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ53">
         <v>0</v>
@@ -49282,10 +49291,10 @@
         <v>0</v>
       </c>
       <c r="AY53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA53">
         <v>0</v>
@@ -50052,16 +50061,16 @@
     </row>
     <row r="54" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B54" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C54" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D54" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E54" t="s">
         <v>141</v>
@@ -50148,10 +50157,10 @@
         <v>0</v>
       </c>
       <c r="AG54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI54">
         <v>0</v>
@@ -50975,13 +50984,13 @@
         <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C55" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D55" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E55" t="s">
         <v>47</v>
@@ -51892,16 +51901,16 @@
     </row>
     <row r="56" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B56" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C56" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D56" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E56" t="s">
         <v>339</v>
@@ -52812,16 +52821,16 @@
     </row>
     <row r="57" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B57" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C57" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D57" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E57" t="s">
         <v>310</v>
@@ -53732,16 +53741,16 @@
     </row>
     <row r="58" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B58" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C58" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D58" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E58" t="s">
         <v>307</v>
@@ -54652,16 +54661,16 @@
     </row>
     <row r="59" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B59" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C59" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D59" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E59" t="s">
         <v>308</v>
@@ -54799,10 +54808,10 @@
         <v>0</v>
       </c>
       <c r="AX59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ59">
         <v>0</v>
@@ -54814,10 +54823,10 @@
         <v>0</v>
       </c>
       <c r="BC59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE59">
         <v>0</v>
@@ -55572,16 +55581,16 @@
     </row>
     <row r="60" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B60" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C60" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D60" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E60" t="s">
         <v>309</v>
@@ -55695,10 +55704,10 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR60">
         <v>0</v>
@@ -56492,22 +56501,22 @@
     </row>
     <row r="61" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B61" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C61" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D61" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E61" t="s">
         <v>316</v>
       </c>
       <c r="F61" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -56636,10 +56645,10 @@
         <v>0</v>
       </c>
       <c r="AW61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY61">
         <v>0</v>
@@ -56651,10 +56660,10 @@
         <v>0</v>
       </c>
       <c r="BB61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD61">
         <v>0</v>

--- a/data-raw/functionsTracker_20230710.xlsx
+++ b/data-raw/functionsTracker_20230710.xlsx
@@ -773,12 +773,6 @@
     <t>generate bar charts summarising confidence in rank by level results</t>
   </si>
   <si>
-    <t>generate violin plots showing the distribution of results values</t>
-  </si>
-  <si>
-    <t>generate scatter plots showing the distribtuion of results values, change from benchmark values, and percentage change</t>
-  </si>
-  <si>
     <t>metricName</t>
   </si>
   <si>
@@ -1462,6 +1456,12 @@
   <si>
     <t>layerNames</t>
   </si>
+  <si>
+    <t>generate scatter plots showing the distribution of results values, change from benchmark values, and percentage change</t>
+  </si>
+  <si>
+    <t>generate violin plots showing the distribution of results values, comparing new scenarios to a benchmark</t>
+  </si>
 </sst>
 </file>
 
@@ -1819,10 +1819,10 @@
   <dimension ref="A1:KV61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="AB33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="AB35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomRight" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2519,295 +2519,295 @@
       <c r="CK2" s="3"/>
       <c r="CL2" s="3"/>
       <c r="CM2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="CN2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="CO2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="CP2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="CQ2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="CR2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="CS2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="CT2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="CU2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="CV2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="CW2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="CX2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="CY2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="CZ2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="DA2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="DB2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="DC2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="DD2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="DE2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="DF2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="DG2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="DH2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="DI2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="DJ2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="DK2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="DL2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="DM2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="DN2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="DO2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="DP2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="DQ2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="DR2" s="3" t="s">
         <v>197</v>
       </c>
       <c r="DS2" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="DT2" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="DU2" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="DV2" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="DW2" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="DX2" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="DW2" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="DX2" s="3" t="s">
-        <v>381</v>
-      </c>
       <c r="DY2" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="DZ2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="EA2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="EB2" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="EC2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="ED2" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="EE2" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="EF2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="EG2" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="EH2" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="EI2" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="EJ2" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="EK2" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="EL2" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="EM2" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="EN2" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="EO2" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="EP2" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="EQ2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="ER2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="ES2" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="ET2" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="EU2" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="EV2" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="EH2" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="EI2" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="EJ2" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="EK2" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="EL2" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="EM2" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="EN2" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="EO2" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="EP2" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="EQ2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="ER2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="ES2" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="ET2" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="EU2" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="EV2" s="4" t="s">
-        <v>403</v>
-      </c>
       <c r="EW2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="EX2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="EY2" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="EZ2" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="FA2" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="FB2" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="FC2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="FD2" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="FE2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="FF2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="FG2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="FH2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="FI2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="FJ2" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="FK2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="FL2" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="FM2" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="FG2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="FH2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="FI2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="FJ2" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="FK2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="FL2" s="3" t="s">
+      <c r="FN2" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="FM2" s="3" t="s">
+      <c r="FO2" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="FP2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="FQ2" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="FR2" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="FS2" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="FT2" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="FN2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="FO2" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="FP2" s="3" t="s">
+      <c r="FU2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="FV2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="FW2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="FX2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="FY2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="FZ2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="GA2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="GB2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="GC2" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="FQ2" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="FR2" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="FS2" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="FT2" s="3" t="s">
+      <c r="GD2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="GE2" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="FU2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="FV2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="FW2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="FX2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="FY2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="FZ2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="GA2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="GB2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="GC2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="GD2" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="GE2" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="GF2" s="3" t="s">
         <v>62</v>
@@ -2816,16 +2816,16 @@
         <v>62</v>
       </c>
       <c r="GH2" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="GI2" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="GJ2" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="GK2" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="GL2" s="3" t="s">
         <v>62</v>
@@ -2840,319 +2840,319 @@
         <v>62</v>
       </c>
       <c r="GP2" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="GQ2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="GR2" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="GS2" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="GT2" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="GU2" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="GV2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="GW2" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="GX2" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="GY2" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="GZ2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="HA2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="HB2" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="HC2" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="HD2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="HE2" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="HF2" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="HG2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="HH2" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="HI2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="HJ2" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="HK2" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="HL2" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="HM2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="HN2" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="HO2" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="HP2" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="HQ2" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="HR2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="HS2" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="HT2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="HU2" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="HV2" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="HW2" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="HX2" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="HY2" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="HZ2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="IA2" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="IB2" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="IC2" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="ID2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="IE2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="IF2" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="IG2" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="IH2" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="II2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="IJ2" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="IK2" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="IL2" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="IM2" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="IN2" s="3" t="s">
         <v>197</v>
       </c>
       <c r="IO2" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="IP2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="IQ2" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="IR2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="IS2" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="IT2" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="IU2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="IV2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="IW2" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="IX2" s="3" t="s">
         <v>197</v>
       </c>
       <c r="IY2" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="IZ2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="JA2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="JB2" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="JC2" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="JD2" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="JE2" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="JF2" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="JG2" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="JH2" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="JI2" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="JJ2" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="JK2" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="JL2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="JM2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="JN2" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="JO2" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="JP2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="JQ2" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="JR2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="JS2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="JT2" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="JU2" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="JV2" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="JW2" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="JX2" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="JY2" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="JZ2" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="JV2" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="JW2" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="JX2" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="JY2" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="JZ2" s="3" t="s">
-        <v>397</v>
-      </c>
       <c r="KA2" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="KB2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="KC2" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="KD2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="KE2" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="KF2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="KG2" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="KH2" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="KI2" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="KJ2" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="KK2" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="KL2" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="KM2" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="KN2" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="KO2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="KP2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="KQ2" s="3" t="s">
         <v>62</v>
@@ -3161,24 +3161,24 @@
         <v>62</v>
       </c>
       <c r="KS2" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="KT2" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -3202,40 +3202,40 @@
         <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="M3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N3" t="s">
+        <v>468</v>
+      </c>
+      <c r="O3" t="s">
         <v>470</v>
       </c>
-      <c r="O3" t="s">
-        <v>472</v>
-      </c>
       <c r="P3" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>151</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="X3" t="s">
         <v>20</v>
@@ -3256,19 +3256,19 @@
         <v>22</v>
       </c>
       <c r="AD3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AE3" t="s">
         <v>97</v>
       </c>
       <c r="AF3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AG3" t="s">
         <v>190</v>
       </c>
       <c r="AH3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AI3" t="s">
         <v>167</v>
@@ -3277,7 +3277,7 @@
         <v>19</v>
       </c>
       <c r="AK3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AL3" t="s">
         <v>152</v>
@@ -3295,31 +3295,31 @@
         <v>102</v>
       </c>
       <c r="AQ3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AR3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AS3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AT3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AU3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AV3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AW3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AX3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AY3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AZ3" t="s">
         <v>160</v>
@@ -3328,22 +3328,22 @@
         <v>34</v>
       </c>
       <c r="BB3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="BC3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="BD3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="BE3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="BF3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="BG3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="BH3" t="s">
         <v>147</v>
@@ -3358,7 +3358,7 @@
         <v>23</v>
       </c>
       <c r="BL3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="BM3" t="s">
         <v>169</v>
@@ -3367,7 +3367,7 @@
         <v>183</v>
       </c>
       <c r="BO3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BP3" t="s">
         <v>115</v>
@@ -3385,7 +3385,7 @@
         <v>138</v>
       </c>
       <c r="BU3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="BV3" t="s">
         <v>48</v>
@@ -3400,22 +3400,22 @@
         <v>161</v>
       </c>
       <c r="BZ3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="CA3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CB3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="CC3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="CD3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="CE3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="CF3" t="s">
         <v>178</v>
@@ -3424,7 +3424,7 @@
         <v>76</v>
       </c>
       <c r="CH3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="CI3" t="s">
         <v>21</v>
@@ -3433,10 +3433,10 @@
         <v>44</v>
       </c>
       <c r="CK3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="CL3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="CM3" t="s">
         <v>105</v>
@@ -3454,7 +3454,7 @@
         <v>79</v>
       </c>
       <c r="CR3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="CS3" t="s">
         <v>15</v>
@@ -3484,25 +3484,25 @@
         <v>47</v>
       </c>
       <c r="DB3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="DC3" t="s">
         <v>204</v>
       </c>
       <c r="DD3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="DE3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="DF3" t="s">
+        <v>306</v>
+      </c>
+      <c r="DG3" t="s">
         <v>308</v>
       </c>
-      <c r="DG3" t="s">
-        <v>310</v>
-      </c>
       <c r="DH3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="DI3" t="s">
         <v>118</v>
@@ -3538,7 +3538,7 @@
         <v>180</v>
       </c>
       <c r="DT3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="DU3" t="s">
         <v>40</v>
@@ -3550,7 +3550,7 @@
         <v>171</v>
       </c>
       <c r="DX3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="DY3" t="s">
         <v>55</v>
@@ -3568,7 +3568,7 @@
         <v>65</v>
       </c>
       <c r="ED3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="EE3" t="s">
         <v>109</v>
@@ -3586,7 +3586,7 @@
         <v>124</v>
       </c>
       <c r="EJ3" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="EK3" s="5" t="s">
         <v>38</v>
@@ -3601,25 +3601,25 @@
         <v>188</v>
       </c>
       <c r="EO3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="EP3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="EQ3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="ER3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="ES3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="ET3" t="s">
         <v>179</v>
       </c>
       <c r="EU3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="EV3" t="s">
         <v>64</v>
@@ -3652,31 +3652,31 @@
         <v>78</v>
       </c>
       <c r="FF3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="FG3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="FH3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="FI3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="FJ3" t="s">
         <v>165</v>
       </c>
       <c r="FK3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="FL3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="FM3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="FN3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="FO3" t="s">
         <v>39</v>
@@ -3697,37 +3697,37 @@
         <v>157</v>
       </c>
       <c r="FU3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="FV3" t="s">
+        <v>268</v>
+      </c>
+      <c r="FW3" t="s">
+        <v>290</v>
+      </c>
+      <c r="FX3" t="s">
         <v>270</v>
       </c>
-      <c r="FW3" t="s">
+      <c r="FY3" t="s">
+        <v>344</v>
+      </c>
+      <c r="FZ3" t="s">
+        <v>271</v>
+      </c>
+      <c r="GA3" t="s">
+        <v>333</v>
+      </c>
+      <c r="GB3" t="s">
+        <v>274</v>
+      </c>
+      <c r="GC3" t="s">
+        <v>281</v>
+      </c>
+      <c r="GD3" t="s">
+        <v>294</v>
+      </c>
+      <c r="GE3" t="s">
         <v>292</v>
-      </c>
-      <c r="FX3" t="s">
-        <v>272</v>
-      </c>
-      <c r="FY3" t="s">
-        <v>346</v>
-      </c>
-      <c r="FZ3" t="s">
-        <v>273</v>
-      </c>
-      <c r="GA3" t="s">
-        <v>335</v>
-      </c>
-      <c r="GB3" t="s">
-        <v>276</v>
-      </c>
-      <c r="GC3" t="s">
-        <v>283</v>
-      </c>
-      <c r="GD3" t="s">
-        <v>296</v>
-      </c>
-      <c r="GE3" t="s">
-        <v>294</v>
       </c>
       <c r="GF3" t="s">
         <v>215</v>
@@ -3736,16 +3736,16 @@
         <v>71</v>
       </c>
       <c r="GH3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="GI3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="GJ3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="GK3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="GL3" t="s">
         <v>94</v>
@@ -3766,10 +3766,10 @@
         <v>86</v>
       </c>
       <c r="GR3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="GS3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="GT3" t="s">
         <v>127</v>
@@ -3799,25 +3799,25 @@
         <v>84</v>
       </c>
       <c r="HC3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="HD3" t="s">
         <v>172</v>
       </c>
       <c r="HE3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="HF3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="HG3" t="s">
         <v>60</v>
       </c>
       <c r="HH3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="HI3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="HJ3" s="5" t="s">
         <v>59</v>
@@ -3826,25 +3826,25 @@
         <v>72</v>
       </c>
       <c r="HL3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HM3" t="s">
         <v>136</v>
       </c>
       <c r="HN3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="HO3" t="s">
         <v>120</v>
       </c>
       <c r="HP3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="HQ3" t="s">
         <v>49</v>
       </c>
       <c r="HR3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="HS3" t="s">
         <v>68</v>
@@ -3856,7 +3856,7 @@
         <v>7</v>
       </c>
       <c r="HV3" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="HW3" s="5" t="s">
         <v>13</v>
@@ -3889,10 +3889,10 @@
         <v>163</v>
       </c>
       <c r="IG3" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="IH3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="II3" t="s">
         <v>99</v>
@@ -3916,13 +3916,13 @@
         <v>9</v>
       </c>
       <c r="IP3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="IQ3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="IR3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="IS3" s="5" t="s">
         <v>137</v>
@@ -3931,7 +3931,7 @@
         <v>169</v>
       </c>
       <c r="IU3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="IV3" t="s">
         <v>184</v>
@@ -3943,7 +3943,7 @@
         <v>67</v>
       </c>
       <c r="IY3" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="IZ3" t="s">
         <v>128</v>
@@ -3952,28 +3952,28 @@
         <v>142</v>
       </c>
       <c r="JB3" t="s">
+        <v>334</v>
+      </c>
+      <c r="JC3" t="s">
+        <v>276</v>
+      </c>
+      <c r="JD3" t="s">
+        <v>293</v>
+      </c>
+      <c r="JE3" t="s">
+        <v>254</v>
+      </c>
+      <c r="JF3" t="s">
+        <v>291</v>
+      </c>
+      <c r="JG3" t="s">
         <v>336</v>
       </c>
-      <c r="JC3" t="s">
-        <v>278</v>
-      </c>
-      <c r="JD3" t="s">
-        <v>295</v>
-      </c>
-      <c r="JE3" t="s">
+      <c r="JH3" t="s">
+        <v>255</v>
+      </c>
+      <c r="JI3" t="s">
         <v>256</v>
-      </c>
-      <c r="JF3" t="s">
-        <v>293</v>
-      </c>
-      <c r="JG3" t="s">
-        <v>338</v>
-      </c>
-      <c r="JH3" t="s">
-        <v>257</v>
-      </c>
-      <c r="JI3" t="s">
-        <v>258</v>
       </c>
       <c r="JJ3" t="s">
         <v>4</v>
@@ -3982,10 +3982,10 @@
         <v>122</v>
       </c>
       <c r="JL3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="JM3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="JN3" t="s">
         <v>16</v>
@@ -4003,40 +4003,40 @@
         <v>88</v>
       </c>
       <c r="JS3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="JT3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="JU3" t="s">
         <v>135</v>
       </c>
       <c r="JV3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="JW3" t="s">
         <v>46</v>
       </c>
       <c r="JX3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="JY3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="JZ3" t="s">
         <v>126</v>
       </c>
       <c r="KA3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="KB3" t="s">
         <v>93</v>
       </c>
       <c r="KC3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="KD3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="KE3" t="s">
         <v>56</v>
@@ -4051,10 +4051,10 @@
         <v>11</v>
       </c>
       <c r="KI3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="KJ3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="KK3" t="s">
         <v>197</v>
@@ -4066,7 +4066,7 @@
         <v>5</v>
       </c>
       <c r="KN3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="KO3" t="s">
         <v>73</v>
@@ -4092,10 +4092,10 @@
         <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5012,10 +5012,10 @@
         <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -5929,13 +5929,13 @@
     </row>
     <row r="6" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -6849,13 +6849,13 @@
     </row>
     <row r="7" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -7769,13 +7769,13 @@
     </row>
     <row r="8" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -8689,13 +8689,13 @@
     </row>
     <row r="9" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -9609,13 +9609,13 @@
     </row>
     <row r="10" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -10529,13 +10529,13 @@
     </row>
     <row r="11" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -11449,13 +11449,13 @@
     </row>
     <row r="12" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D12">
         <v>9</v>
@@ -12369,13 +12369,13 @@
     </row>
     <row r="13" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C13" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -13289,13 +13289,13 @@
     </row>
     <row r="14" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D14">
         <v>11</v>
@@ -14209,13 +14209,13 @@
     </row>
     <row r="15" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B15" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -14224,7 +14224,7 @@
         <v>224</v>
       </c>
       <c r="F15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -15129,13 +15129,13 @@
     </row>
     <row r="16" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B16" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C16" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -16049,13 +16049,13 @@
     </row>
     <row r="17" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B17" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -16969,13 +16969,13 @@
     </row>
     <row r="18" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B18" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -17889,13 +17889,13 @@
     </row>
     <row r="19" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B19" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C19" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -17904,7 +17904,7 @@
         <v>219</v>
       </c>
       <c r="F19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -18809,13 +18809,13 @@
     </row>
     <row r="20" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B20" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C20" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -18824,7 +18824,7 @@
         <v>220</v>
       </c>
       <c r="F20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -19729,13 +19729,13 @@
     </row>
     <row r="21" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B21" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -19744,7 +19744,7 @@
         <v>221</v>
       </c>
       <c r="F21" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -20649,13 +20649,13 @@
     </row>
     <row r="22" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B22" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C22" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -20664,7 +20664,7 @@
         <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -21569,13 +21569,13 @@
     </row>
     <row r="23" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C23" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -22490,13 +22490,13 @@
     </row>
     <row r="24" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B24" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C24" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -23411,22 +23411,22 @@
     </row>
     <row r="25" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B25" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C25" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D25">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F25" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -24331,13 +24331,13 @@
     </row>
     <row r="26" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B26" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C26" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D26">
         <v>8</v>
@@ -24346,7 +24346,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -25251,13 +25251,13 @@
     </row>
     <row r="27" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B27" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C27" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D27">
         <v>9</v>
@@ -26171,13 +26171,13 @@
     </row>
     <row r="28" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B28" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C28" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -27091,19 +27091,19 @@
     </row>
     <row r="29" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B29" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C29" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F29" t="s">
         <v>26</v>
@@ -28011,19 +28011,19 @@
     </row>
     <row r="30" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B30" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C30" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F30" t="s">
         <v>150</v>
@@ -28931,13 +28931,13 @@
     </row>
     <row r="31" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B31" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C31" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -29851,13 +29851,13 @@
     </row>
     <row r="32" spans="1:308" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B32" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C32" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D32">
         <v>5</v>
@@ -30771,19 +30771,19 @@
     </row>
     <row r="33" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B33" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C33" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D33">
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F33" t="s">
         <v>139</v>
@@ -31691,13 +31691,13 @@
     </row>
     <row r="34" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B34" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C34" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D34">
         <v>7</v>
@@ -32611,13 +32611,13 @@
     </row>
     <row r="35" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B35" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C35" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D35">
         <v>8</v>
@@ -33531,22 +33531,22 @@
     </row>
     <row r="36" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B36" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C36" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="F36" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -33609,7 +33609,7 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36">
         <v>0</v>
@@ -33660,7 +33660,7 @@
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS36">
         <v>0</v>
@@ -33681,7 +33681,7 @@
         <v>0</v>
       </c>
       <c r="AY36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ36">
         <v>0</v>
@@ -33696,7 +33696,7 @@
         <v>0</v>
       </c>
       <c r="BD36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE36">
         <v>0</v>
@@ -33762,10 +33762,10 @@
         <v>0</v>
       </c>
       <c r="BZ36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB36">
         <v>0</v>
@@ -33783,7 +33783,7 @@
         <v>0</v>
       </c>
       <c r="CG36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH36">
         <v>0</v>
@@ -33846,22 +33846,22 @@
         <v>0</v>
       </c>
       <c r="DB36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC36">
         <v>0</v>
       </c>
       <c r="DD36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH36">
         <v>0</v>
@@ -33900,7 +33900,7 @@
         <v>0</v>
       </c>
       <c r="DT36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU36">
         <v>0</v>
@@ -33912,16 +33912,16 @@
         <v>0</v>
       </c>
       <c r="DX36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ36">
         <v>0</v>
       </c>
       <c r="EA36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB36">
         <v>0</v>
@@ -33942,7 +33942,7 @@
         <v>0</v>
       </c>
       <c r="EH36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI36">
         <v>0</v>
@@ -33972,7 +33972,7 @@
         <v>0</v>
       </c>
       <c r="ER36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ES36">
         <v>0</v>
@@ -33996,7 +33996,7 @@
         <v>0</v>
       </c>
       <c r="EZ36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA36">
         <v>0</v>
@@ -34014,7 +34014,7 @@
         <v>0</v>
       </c>
       <c r="FF36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG36">
         <v>0</v>
@@ -34032,7 +34032,7 @@
         <v>0</v>
       </c>
       <c r="FL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM36">
         <v>0</v>
@@ -34044,10 +34044,10 @@
         <v>0</v>
       </c>
       <c r="FP36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR36">
         <v>0</v>
@@ -34071,13 +34071,13 @@
         <v>0</v>
       </c>
       <c r="FY36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FZ36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GB36">
         <v>0</v>
@@ -34104,7 +34104,7 @@
         <v>0</v>
       </c>
       <c r="GJ36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK36">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="GP36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GQ36">
         <v>0</v>
       </c>
       <c r="GR36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GS36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GT36">
         <v>0</v>
@@ -34161,7 +34161,7 @@
         <v>0</v>
       </c>
       <c r="HC36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HD36">
         <v>0</v>
@@ -34170,7 +34170,7 @@
         <v>0</v>
       </c>
       <c r="HF36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HG36">
         <v>0</v>
@@ -34191,7 +34191,7 @@
         <v>0</v>
       </c>
       <c r="HM36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HN36">
         <v>0</v>
@@ -34215,7 +34215,7 @@
         <v>0</v>
       </c>
       <c r="HU36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV36">
         <v>0</v>
@@ -34314,7 +34314,7 @@
         <v>0</v>
       </c>
       <c r="JB36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JC36">
         <v>0</v>
@@ -34323,13 +34323,13 @@
         <v>0</v>
       </c>
       <c r="JE36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF36">
         <v>0</v>
       </c>
       <c r="JG36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH36">
         <v>0</v>
@@ -34338,7 +34338,7 @@
         <v>0</v>
       </c>
       <c r="JJ36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK36">
         <v>0</v>
@@ -34395,10 +34395,10 @@
         <v>0</v>
       </c>
       <c r="KC36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KD36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KE36">
         <v>0</v>
@@ -34413,10 +34413,10 @@
         <v>0</v>
       </c>
       <c r="KI36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KJ36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KK36">
         <v>0</v>
@@ -34425,13 +34425,13 @@
         <v>0</v>
       </c>
       <c r="KM36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN36">
         <v>0</v>
       </c>
       <c r="KO36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KP36">
         <v>0</v>
@@ -34451,22 +34451,22 @@
     </row>
     <row r="37" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B37" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C37" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="F37" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -34529,7 +34529,7 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB37">
         <v>0</v>
@@ -34580,7 +34580,7 @@
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS37">
         <v>0</v>
@@ -34601,7 +34601,7 @@
         <v>0</v>
       </c>
       <c r="AY37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ37">
         <v>0</v>
@@ -34616,7 +34616,7 @@
         <v>0</v>
       </c>
       <c r="BD37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE37">
         <v>0</v>
@@ -34682,10 +34682,10 @@
         <v>0</v>
       </c>
       <c r="BZ37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB37">
         <v>0</v>
@@ -34703,7 +34703,7 @@
         <v>0</v>
       </c>
       <c r="CG37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH37">
         <v>0</v>
@@ -34766,22 +34766,22 @@
         <v>0</v>
       </c>
       <c r="DB37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC37">
         <v>0</v>
       </c>
       <c r="DD37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH37">
         <v>0</v>
@@ -34820,7 +34820,7 @@
         <v>0</v>
       </c>
       <c r="DT37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU37">
         <v>0</v>
@@ -34832,16 +34832,16 @@
         <v>0</v>
       </c>
       <c r="DX37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ37">
         <v>0</v>
       </c>
       <c r="EA37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB37">
         <v>0</v>
@@ -34862,7 +34862,7 @@
         <v>0</v>
       </c>
       <c r="EH37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI37">
         <v>0</v>
@@ -34892,7 +34892,7 @@
         <v>0</v>
       </c>
       <c r="ER37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES37">
         <v>0</v>
@@ -34916,7 +34916,7 @@
         <v>0</v>
       </c>
       <c r="EZ37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA37">
         <v>0</v>
@@ -34934,7 +34934,7 @@
         <v>0</v>
       </c>
       <c r="FF37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG37">
         <v>0</v>
@@ -34952,7 +34952,7 @@
         <v>0</v>
       </c>
       <c r="FL37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM37">
         <v>0</v>
@@ -34964,10 +34964,10 @@
         <v>0</v>
       </c>
       <c r="FP37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR37">
         <v>0</v>
@@ -34991,13 +34991,13 @@
         <v>0</v>
       </c>
       <c r="FY37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GA37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB37">
         <v>0</v>
@@ -35024,7 +35024,7 @@
         <v>0</v>
       </c>
       <c r="GJ37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GK37">
         <v>0</v>
@@ -35042,16 +35042,16 @@
         <v>0</v>
       </c>
       <c r="GP37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GQ37">
         <v>0</v>
       </c>
       <c r="GR37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GS37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GT37">
         <v>0</v>
@@ -35081,7 +35081,7 @@
         <v>0</v>
       </c>
       <c r="HC37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD37">
         <v>0</v>
@@ -35090,7 +35090,7 @@
         <v>0</v>
       </c>
       <c r="HF37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HG37">
         <v>0</v>
@@ -35111,7 +35111,7 @@
         <v>0</v>
       </c>
       <c r="HM37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN37">
         <v>0</v>
@@ -35135,7 +35135,7 @@
         <v>0</v>
       </c>
       <c r="HU37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV37">
         <v>0</v>
@@ -35234,7 +35234,7 @@
         <v>0</v>
       </c>
       <c r="JB37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JC37">
         <v>0</v>
@@ -35243,13 +35243,13 @@
         <v>0</v>
       </c>
       <c r="JE37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JF37">
         <v>0</v>
       </c>
       <c r="JG37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JH37">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>0</v>
       </c>
       <c r="JJ37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK37">
         <v>0</v>
@@ -35315,10 +35315,10 @@
         <v>0</v>
       </c>
       <c r="KC37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KD37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KE37">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="KI37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK37">
         <v>0</v>
@@ -35345,13 +35345,13 @@
         <v>0</v>
       </c>
       <c r="KM37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN37">
         <v>0</v>
       </c>
       <c r="KO37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KP37">
         <v>0</v>
@@ -35371,22 +35371,22 @@
     </row>
     <row r="38" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B38" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C38" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="s">
+        <v>326</v>
+      </c>
+      <c r="F38" t="s">
         <v>328</v>
-      </c>
-      <c r="F38" t="s">
-        <v>330</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -36291,19 +36291,22 @@
     </row>
     <row r="39" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B39" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C39" t="s">
-        <v>457</v>
+        <v>455</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F39" t="s">
-        <v>247</v>
+        <v>477</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -36426,7 +36429,7 @@
         <v>0</v>
       </c>
       <c r="AU39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV39">
         <v>0</v>
@@ -36804,7 +36807,7 @@
         <v>0</v>
       </c>
       <c r="FQ39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR39">
         <v>0</v>
@@ -36816,7 +36819,7 @@
         <v>0</v>
       </c>
       <c r="FU39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FV39">
         <v>0</v>
@@ -36843,10 +36846,10 @@
         <v>0</v>
       </c>
       <c r="GD39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GE39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF39">
         <v>0</v>
@@ -36885,10 +36888,10 @@
         <v>0</v>
       </c>
       <c r="GR39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GS39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GT39">
         <v>0</v>
@@ -36918,7 +36921,7 @@
         <v>0</v>
       </c>
       <c r="HC39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD39">
         <v>0</v>
@@ -36945,7 +36948,7 @@
         <v>0</v>
       </c>
       <c r="HL39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HM39">
         <v>0</v>
@@ -36972,7 +36975,7 @@
         <v>0</v>
       </c>
       <c r="HU39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV39">
         <v>0</v>
@@ -37074,13 +37077,13 @@
         <v>0</v>
       </c>
       <c r="JC39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JE39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF39">
         <v>0</v>
@@ -37089,7 +37092,7 @@
         <v>0</v>
       </c>
       <c r="JH39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JI39">
         <v>1</v>
@@ -37170,10 +37173,10 @@
         <v>0</v>
       </c>
       <c r="KI39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KJ39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KK39">
         <v>0</v>
@@ -37208,19 +37211,22 @@
     </row>
     <row r="40" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B40" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C40" t="s">
-        <v>457</v>
+        <v>455</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F40" t="s">
-        <v>246</v>
+        <v>476</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -37253,7 +37259,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -37265,7 +37271,7 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -37349,7 +37355,7 @@
         <v>0</v>
       </c>
       <c r="AW40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX40">
         <v>0</v>
@@ -37376,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="BF40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH40">
         <v>0</v>
@@ -37427,7 +37433,7 @@
         <v>0</v>
       </c>
       <c r="BW40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX40">
         <v>0</v>
@@ -37604,13 +37610,13 @@
         <v>0</v>
       </c>
       <c r="ED40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE40">
         <v>0</v>
       </c>
       <c r="EF40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG40">
         <v>0</v>
@@ -37628,7 +37634,7 @@
         <v>1</v>
       </c>
       <c r="EL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM40">
         <v>0</v>
@@ -37640,10 +37646,10 @@
         <v>0</v>
       </c>
       <c r="EP40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER40">
         <v>0</v>
@@ -37652,13 +37658,13 @@
         <v>0</v>
       </c>
       <c r="ET40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU40">
         <v>0</v>
       </c>
       <c r="EV40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW40">
         <v>0</v>
@@ -37670,7 +37676,7 @@
         <v>0</v>
       </c>
       <c r="EZ40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA40">
         <v>0</v>
@@ -37703,19 +37709,19 @@
         <v>0</v>
       </c>
       <c r="FK40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL40">
         <v>0</v>
       </c>
       <c r="FM40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FP40">
         <v>1</v>
@@ -37727,7 +37733,7 @@
         <v>0</v>
       </c>
       <c r="FS40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT40">
         <v>0</v>
@@ -37736,13 +37742,13 @@
         <v>0</v>
       </c>
       <c r="FV40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY40">
         <v>0</v>
@@ -37754,10 +37760,10 @@
         <v>0</v>
       </c>
       <c r="GB40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GC40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GD40">
         <v>0</v>
@@ -37796,7 +37802,7 @@
         <v>0</v>
       </c>
       <c r="GP40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GQ40">
         <v>0</v>
@@ -37832,10 +37838,10 @@
         <v>0</v>
       </c>
       <c r="HB40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HC40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD40">
         <v>0</v>
@@ -37859,7 +37865,7 @@
         <v>0</v>
       </c>
       <c r="HK40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL40">
         <v>1</v>
@@ -37874,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="HP40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HQ40">
         <v>0</v>
@@ -37934,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="IJ40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL40">
         <v>0</v>
@@ -37952,16 +37958,16 @@
         <v>0</v>
       </c>
       <c r="IP40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IS40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT40">
         <v>0</v>
@@ -38000,16 +38006,16 @@
         <v>0</v>
       </c>
       <c r="JF40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JG40">
         <v>0</v>
       </c>
       <c r="JH40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JI40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JJ40">
         <v>1</v>
@@ -38021,7 +38027,7 @@
         <v>0</v>
       </c>
       <c r="JM40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JN40">
         <v>0</v>
@@ -38057,13 +38063,13 @@
         <v>0</v>
       </c>
       <c r="JY40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JZ40">
         <v>0</v>
       </c>
       <c r="KA40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KB40">
         <v>0</v>
@@ -38075,7 +38081,7 @@
         <v>0</v>
       </c>
       <c r="KE40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KF40">
         <v>0</v>
@@ -38090,13 +38096,13 @@
         <v>1</v>
       </c>
       <c r="KJ40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK40">
         <v>0</v>
       </c>
       <c r="KL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM40">
         <v>1</v>
@@ -38125,19 +38131,22 @@
     </row>
     <row r="41" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C41" t="s">
-        <v>457</v>
+        <v>455</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F41" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -38170,7 +38179,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41">
         <v>0</v>
@@ -38182,7 +38191,7 @@
         <v>0</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -38266,7 +38275,7 @@
         <v>0</v>
       </c>
       <c r="AW41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX41">
         <v>0</v>
@@ -38293,10 +38302,10 @@
         <v>0</v>
       </c>
       <c r="BF41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH41">
         <v>0</v>
@@ -38344,7 +38353,7 @@
         <v>0</v>
       </c>
       <c r="BW41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX41">
         <v>0</v>
@@ -38521,13 +38530,13 @@
         <v>0</v>
       </c>
       <c r="ED41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE41">
         <v>0</v>
       </c>
       <c r="EF41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG41">
         <v>0</v>
@@ -38545,7 +38554,7 @@
         <v>1</v>
       </c>
       <c r="EL41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM41">
         <v>0</v>
@@ -38557,10 +38566,10 @@
         <v>0</v>
       </c>
       <c r="EP41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER41">
         <v>0</v>
@@ -38569,13 +38578,13 @@
         <v>0</v>
       </c>
       <c r="ET41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU41">
         <v>0</v>
       </c>
       <c r="EV41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW41">
         <v>0</v>
@@ -38587,7 +38596,7 @@
         <v>0</v>
       </c>
       <c r="EZ41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA41">
         <v>0</v>
@@ -38620,19 +38629,19 @@
         <v>0</v>
       </c>
       <c r="FK41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL41">
         <v>0</v>
       </c>
       <c r="FM41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP41">
         <v>1</v>
@@ -38644,7 +38653,7 @@
         <v>0</v>
       </c>
       <c r="FS41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT41">
         <v>0</v>
@@ -38653,13 +38662,13 @@
         <v>0</v>
       </c>
       <c r="FV41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FY41">
         <v>0</v>
@@ -38671,10 +38680,10 @@
         <v>0</v>
       </c>
       <c r="GB41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GC41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GD41">
         <v>0</v>
@@ -38713,7 +38722,7 @@
         <v>0</v>
       </c>
       <c r="GP41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GQ41">
         <v>0</v>
@@ -38749,10 +38758,10 @@
         <v>0</v>
       </c>
       <c r="HB41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HC41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HD41">
         <v>0</v>
@@ -38776,7 +38785,7 @@
         <v>0</v>
       </c>
       <c r="HK41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HL41">
         <v>1</v>
@@ -38791,7 +38800,7 @@
         <v>0</v>
       </c>
       <c r="HP41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ41">
         <v>0</v>
@@ -38851,10 +38860,10 @@
         <v>0</v>
       </c>
       <c r="IJ41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL41">
         <v>0</v>
@@ -38869,16 +38878,16 @@
         <v>0</v>
       </c>
       <c r="IP41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IS41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IT41">
         <v>0</v>
@@ -38917,16 +38926,16 @@
         <v>0</v>
       </c>
       <c r="JF41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JG41">
         <v>0</v>
       </c>
       <c r="JH41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JI41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ41">
         <v>1</v>
@@ -38938,7 +38947,7 @@
         <v>0</v>
       </c>
       <c r="JM41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN41">
         <v>0</v>
@@ -38974,13 +38983,13 @@
         <v>0</v>
       </c>
       <c r="JY41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JZ41">
         <v>0</v>
       </c>
       <c r="KA41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KB41">
         <v>0</v>
@@ -38992,7 +39001,7 @@
         <v>0</v>
       </c>
       <c r="KE41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KF41">
         <v>0</v>
@@ -39007,13 +39016,13 @@
         <v>1</v>
       </c>
       <c r="KJ41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KK41">
         <v>0</v>
       </c>
       <c r="KL41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KM41">
         <v>1</v>
@@ -39042,19 +39051,22 @@
     </row>
     <row r="42" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B42" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C42" t="s">
-        <v>457</v>
+        <v>455</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -39177,7 +39189,7 @@
         <v>0</v>
       </c>
       <c r="AU42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV42">
         <v>0</v>
@@ -39555,7 +39567,7 @@
         <v>0</v>
       </c>
       <c r="FQ42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR42">
         <v>0</v>
@@ -39567,7 +39579,7 @@
         <v>0</v>
       </c>
       <c r="FU42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV42">
         <v>0</v>
@@ -39594,10 +39606,10 @@
         <v>0</v>
       </c>
       <c r="GD42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GF42">
         <v>0</v>
@@ -39636,10 +39648,10 @@
         <v>0</v>
       </c>
       <c r="GR42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GS42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GT42">
         <v>0</v>
@@ -39669,7 +39681,7 @@
         <v>0</v>
       </c>
       <c r="HC42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HD42">
         <v>0</v>
@@ -39696,7 +39708,7 @@
         <v>0</v>
       </c>
       <c r="HL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HM42">
         <v>0</v>
@@ -39723,7 +39735,7 @@
         <v>0</v>
       </c>
       <c r="HU42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV42">
         <v>0</v>
@@ -39825,13 +39837,13 @@
         <v>0</v>
       </c>
       <c r="JC42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JD42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JE42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JF42">
         <v>0</v>
@@ -39840,7 +39852,7 @@
         <v>0</v>
       </c>
       <c r="JH42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JI42">
         <v>1</v>
@@ -39921,10 +39933,10 @@
         <v>0</v>
       </c>
       <c r="KI42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KJ42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK42">
         <v>0</v>
@@ -39959,13 +39971,16 @@
     </row>
     <row r="43" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B43" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C43" t="s">
-        <v>457</v>
+        <v>455</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
       </c>
       <c r="E43" t="s">
         <v>230</v>
@@ -40876,19 +40891,22 @@
     </row>
     <row r="44" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B44" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C44" t="s">
-        <v>457</v>
+        <v>455</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F44" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -41011,7 +41029,7 @@
         <v>0</v>
       </c>
       <c r="AU44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV44">
         <v>0</v>
@@ -41068,7 +41086,7 @@
         <v>0</v>
       </c>
       <c r="BN44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO44">
         <v>0</v>
@@ -41137,7 +41155,7 @@
         <v>0</v>
       </c>
       <c r="CK44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL44">
         <v>0</v>
@@ -41257,7 +41275,7 @@
         <v>0</v>
       </c>
       <c r="DY44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ44">
         <v>0</v>
@@ -41278,7 +41296,7 @@
         <v>0</v>
       </c>
       <c r="EF44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG44">
         <v>0</v>
@@ -41293,7 +41311,7 @@
         <v>0</v>
       </c>
       <c r="EK44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EL44">
         <v>0</v>
@@ -41383,13 +41401,13 @@
         <v>0</v>
       </c>
       <c r="FO44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FP44">
         <v>0</v>
       </c>
       <c r="FQ44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR44">
         <v>0</v>
@@ -41464,7 +41482,7 @@
         <v>0</v>
       </c>
       <c r="GP44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GQ44">
         <v>0</v>
@@ -41548,7 +41566,7 @@
         <v>0</v>
       </c>
       <c r="HR44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HS44">
         <v>0</v>
@@ -41587,7 +41605,7 @@
         <v>0</v>
       </c>
       <c r="IE44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF44">
         <v>0</v>
@@ -41638,7 +41656,7 @@
         <v>0</v>
       </c>
       <c r="IV44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW44">
         <v>0</v>
@@ -41716,7 +41734,7 @@
         <v>0</v>
       </c>
       <c r="JV44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JW44">
         <v>0</v>
@@ -41764,7 +41782,7 @@
         <v>0</v>
       </c>
       <c r="KL44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KM44">
         <v>0</v>
@@ -41793,19 +41811,22 @@
     </row>
     <row r="45" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B45" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C45" t="s">
-        <v>457</v>
+        <v>455</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F45" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -41985,7 +42006,7 @@
         <v>0</v>
       </c>
       <c r="BN45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO45">
         <v>0</v>
@@ -42033,10 +42054,10 @@
         <v>0</v>
       </c>
       <c r="CD45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF45">
         <v>0</v>
@@ -42156,13 +42177,13 @@
         <v>0</v>
       </c>
       <c r="DS45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT45">
         <v>0</v>
       </c>
       <c r="DU45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV45">
         <v>0</v>
@@ -42207,10 +42228,10 @@
         <v>0</v>
       </c>
       <c r="EJ45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EL45">
         <v>0</v>
@@ -42237,7 +42258,7 @@
         <v>0</v>
       </c>
       <c r="ET45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU45">
         <v>0</v>
@@ -42255,7 +42276,7 @@
         <v>0</v>
       </c>
       <c r="EZ45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA45">
         <v>0</v>
@@ -42312,7 +42333,7 @@
         <v>0</v>
       </c>
       <c r="FS45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT45">
         <v>0</v>
@@ -42417,7 +42438,7 @@
         <v>0</v>
       </c>
       <c r="HB45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HC45">
         <v>0</v>
@@ -42492,7 +42513,7 @@
         <v>0</v>
       </c>
       <c r="IA45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB45">
         <v>0</v>
@@ -42504,7 +42525,7 @@
         <v>0</v>
       </c>
       <c r="IE45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF45">
         <v>0</v>
@@ -42519,10 +42540,10 @@
         <v>0</v>
       </c>
       <c r="IJ45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL45">
         <v>0</v>
@@ -42555,7 +42576,7 @@
         <v>0</v>
       </c>
       <c r="IV45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IW45">
         <v>0</v>
@@ -42564,7 +42585,7 @@
         <v>0</v>
       </c>
       <c r="IY45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IZ45">
         <v>0</v>
@@ -42651,7 +42672,7 @@
         <v>0</v>
       </c>
       <c r="KB45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KC45">
         <v>0</v>
@@ -42681,10 +42702,10 @@
         <v>0</v>
       </c>
       <c r="KL45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KM45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KN45">
         <v>0</v>
@@ -42710,19 +42731,22 @@
     </row>
     <row r="46" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B46" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C46" t="s">
-        <v>457</v>
+        <v>455</v>
+      </c>
+      <c r="D46">
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F46" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -42845,7 +42869,7 @@
         <v>0</v>
       </c>
       <c r="AU46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV46">
         <v>0</v>
@@ -43097,7 +43121,7 @@
         <v>0</v>
       </c>
       <c r="EA46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB46">
         <v>0</v>
@@ -43112,7 +43136,7 @@
         <v>0</v>
       </c>
       <c r="EF46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG46">
         <v>0</v>
@@ -43127,7 +43151,7 @@
         <v>0</v>
       </c>
       <c r="EK46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL46">
         <v>0</v>
@@ -43178,7 +43202,7 @@
         <v>0</v>
       </c>
       <c r="FB46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FC46">
         <v>0</v>
@@ -43217,7 +43241,7 @@
         <v>0</v>
       </c>
       <c r="FO46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP46">
         <v>0</v>
@@ -43298,7 +43322,7 @@
         <v>0</v>
       </c>
       <c r="GP46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GQ46">
         <v>0</v>
@@ -43394,7 +43418,7 @@
         <v>1</v>
       </c>
       <c r="HV46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW46">
         <v>0</v>
@@ -43421,7 +43445,7 @@
         <v>0</v>
       </c>
       <c r="IE46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IF46">
         <v>0</v>
@@ -43451,7 +43475,7 @@
         <v>0</v>
       </c>
       <c r="IO46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP46">
         <v>0</v>
@@ -43472,7 +43496,7 @@
         <v>0</v>
       </c>
       <c r="IV46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IW46">
         <v>0</v>
@@ -43556,7 +43580,7 @@
         <v>0</v>
       </c>
       <c r="JX46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY46">
         <v>0</v>
@@ -43598,7 +43622,7 @@
         <v>0</v>
       </c>
       <c r="KL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM46">
         <v>0</v>
@@ -43627,19 +43651,22 @@
     </row>
     <row r="47" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B47" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C47" t="s">
-        <v>457</v>
+        <v>455</v>
+      </c>
+      <c r="D47">
+        <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F47" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -43819,7 +43846,7 @@
         <v>0</v>
       </c>
       <c r="BN47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO47">
         <v>0</v>
@@ -43888,7 +43915,7 @@
         <v>0</v>
       </c>
       <c r="CK47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL47">
         <v>0</v>
@@ -44008,7 +44035,7 @@
         <v>0</v>
       </c>
       <c r="DY47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ47">
         <v>0</v>
@@ -44029,7 +44056,7 @@
         <v>0</v>
       </c>
       <c r="EF47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG47">
         <v>0</v>
@@ -44044,7 +44071,7 @@
         <v>0</v>
       </c>
       <c r="EK47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL47">
         <v>0</v>
@@ -44140,13 +44167,13 @@
         <v>0</v>
       </c>
       <c r="FQ47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR47">
         <v>0</v>
       </c>
       <c r="FS47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT47">
         <v>0</v>
@@ -44299,7 +44326,7 @@
         <v>0</v>
       </c>
       <c r="HR47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HS47">
         <v>0</v>
@@ -44368,7 +44395,7 @@
         <v>0</v>
       </c>
       <c r="IO47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP47">
         <v>0</v>
@@ -44467,7 +44494,7 @@
         <v>0</v>
       </c>
       <c r="JV47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JW47">
         <v>0</v>
@@ -44515,7 +44542,7 @@
         <v>0</v>
       </c>
       <c r="KL47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM47">
         <v>0</v>
@@ -44544,19 +44571,22 @@
     </row>
     <row r="48" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B48" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C48" t="s">
-        <v>457</v>
+        <v>455</v>
+      </c>
+      <c r="D48">
+        <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F48" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -44736,7 +44766,7 @@
         <v>0</v>
       </c>
       <c r="BN48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO48">
         <v>0</v>
@@ -44784,10 +44814,10 @@
         <v>0</v>
       </c>
       <c r="CD48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF48">
         <v>0</v>
@@ -44907,13 +44937,13 @@
         <v>0</v>
       </c>
       <c r="DS48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT48">
         <v>0</v>
       </c>
       <c r="DU48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV48">
         <v>0</v>
@@ -44931,7 +44961,7 @@
         <v>0</v>
       </c>
       <c r="EA48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB48">
         <v>0</v>
@@ -44946,7 +44976,7 @@
         <v>0</v>
       </c>
       <c r="EF48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG48">
         <v>0</v>
@@ -44958,7 +44988,7 @@
         <v>0</v>
       </c>
       <c r="EJ48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK48">
         <v>0</v>
@@ -44988,7 +45018,7 @@
         <v>0</v>
       </c>
       <c r="ET48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU48">
         <v>0</v>
@@ -45006,13 +45036,13 @@
         <v>0</v>
       </c>
       <c r="EZ48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA48">
         <v>0</v>
       </c>
       <c r="FB48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC48">
         <v>0</v>
@@ -45168,7 +45198,7 @@
         <v>0</v>
       </c>
       <c r="HB48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HC48">
         <v>0</v>
@@ -45228,7 +45258,7 @@
         <v>1</v>
       </c>
       <c r="HV48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW48">
         <v>0</v>
@@ -45243,7 +45273,7 @@
         <v>0</v>
       </c>
       <c r="IA48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB48">
         <v>0</v>
@@ -45255,7 +45285,7 @@
         <v>0</v>
       </c>
       <c r="IE48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF48">
         <v>0</v>
@@ -45270,10 +45300,10 @@
         <v>0</v>
       </c>
       <c r="IJ48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL48">
         <v>0</v>
@@ -45306,7 +45336,7 @@
         <v>0</v>
       </c>
       <c r="IV48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IW48">
         <v>0</v>
@@ -45315,7 +45345,7 @@
         <v>0</v>
       </c>
       <c r="IY48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IZ48">
         <v>0</v>
@@ -45390,7 +45420,7 @@
         <v>0</v>
       </c>
       <c r="JX48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY48">
         <v>0</v>
@@ -45402,7 +45432,7 @@
         <v>0</v>
       </c>
       <c r="KB48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KC48">
         <v>0</v>
@@ -45435,7 +45465,7 @@
         <v>1</v>
       </c>
       <c r="KM48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN48">
         <v>0</v>
@@ -45461,16 +45491,16 @@
     </row>
     <row r="49" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B49" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C49" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D49" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E49" t="s">
         <v>118</v>
@@ -46381,16 +46411,16 @@
     </row>
     <row r="50" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B50" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C50" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D50" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E50" t="s">
         <v>205</v>
@@ -47301,16 +47331,16 @@
     </row>
     <row r="51" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B51" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C51" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D51" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E51" t="s">
         <v>206</v>
@@ -48221,16 +48251,16 @@
     </row>
     <row r="52" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B52" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C52" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D52" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E52" t="s">
         <v>204</v>
@@ -49141,16 +49171,16 @@
     </row>
     <row r="53" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B53" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C53" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D53" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E53" t="s">
         <v>217</v>
@@ -50061,16 +50091,16 @@
     </row>
     <row r="54" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B54" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C54" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D54" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E54" t="s">
         <v>141</v>
@@ -50984,13 +51014,13 @@
         <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C55" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D55" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E55" t="s">
         <v>47</v>
@@ -51901,22 +51931,22 @@
     </row>
     <row r="56" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B56" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C56" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D56" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E56" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F56" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -52821,22 +52851,22 @@
     </row>
     <row r="57" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B57" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C57" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D57" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E57" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F57" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -53741,22 +53771,22 @@
     </row>
     <row r="58" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B58" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C58" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D58" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E58" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F58" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -54661,22 +54691,22 @@
     </row>
     <row r="59" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B59" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C59" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D59" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E59" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F59" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -55581,22 +55611,22 @@
     </row>
     <row r="60" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B60" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C60" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D60" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E60" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F60" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -56501,22 +56531,22 @@
     </row>
     <row r="61" spans="1:306" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B61" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C61" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D61" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E61" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F61" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G61">
         <v>0</v>
